--- a/02_zeitplan/IPA_Zeitplan_Kabilan_Sivanamam.xlsx
+++ b/02_zeitplan/IPA_Zeitplan_Kabilan_Sivanamam.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kabi/Documents/GitHub/IPA2020/02_zeitplan/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F99E5CB7-1A22-5941-9DDB-B1DA19400F98}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{645E7C04-79CD-A045-BCF8-44F7B5B3F5BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{919B10DA-F269-3C46-8A86-B94EB657325B}"/>
   </bookViews>
@@ -222,9 +222,6 @@
     <t>An Teil 2: Initialisierung arbeiten</t>
   </si>
   <si>
-    <t>Namenskonzept + Datenbankkonzept erstellen</t>
-  </si>
-  <si>
     <t>Back-End + Front-End-Konzept erstellen</t>
   </si>
   <si>
@@ -238,6 +235,9 @@
   </si>
   <si>
     <t>Abgabe auf PkOrg</t>
+  </si>
+  <si>
+    <t>Namenskonzept und Datenbankmodell erstellen</t>
   </si>
 </sst>
 </file>
@@ -354,7 +354,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="41">
+  <borders count="47">
     <border>
       <left/>
       <right/>
@@ -866,11 +866,89 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="142">
+  <cellXfs count="163">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -991,225 +1069,318 @@
     <xf numFmtId="1" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="3" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="3" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="3" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="3" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="5" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="3" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="5" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="3" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="3" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="3" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="19">
+  <dxfs count="27">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1522,8 +1693,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8813800" y="4419600"/>
-          <a:ext cx="266700" cy="254000"/>
+          <a:off x="8820543" y="4387569"/>
+          <a:ext cx="268274" cy="251640"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -1999,8 +2170,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE2EA0AA-2CD7-9C47-95CA-C0AE6CDA2CB2}">
   <dimension ref="A1:AU74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="113" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="113" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2012,230 +2183,230 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="116" t="s">
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="123" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="117"/>
-      <c r="F1" s="117"/>
-      <c r="G1" s="118"/>
-      <c r="H1" s="116" t="s">
+      <c r="E1" s="124"/>
+      <c r="F1" s="124"/>
+      <c r="G1" s="125"/>
+      <c r="H1" s="123" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="117"/>
-      <c r="J1" s="117"/>
-      <c r="K1" s="118"/>
-      <c r="L1" s="127" t="s">
+      <c r="I1" s="124"/>
+      <c r="J1" s="124"/>
+      <c r="K1" s="125"/>
+      <c r="L1" s="138" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="117"/>
-      <c r="N1" s="117"/>
-      <c r="O1" s="118"/>
-      <c r="P1" s="116" t="s">
+      <c r="M1" s="124"/>
+      <c r="N1" s="124"/>
+      <c r="O1" s="125"/>
+      <c r="P1" s="123" t="s">
         <v>4</v>
       </c>
-      <c r="Q1" s="117"/>
-      <c r="R1" s="117"/>
-      <c r="S1" s="118"/>
-      <c r="T1" s="116" t="s">
+      <c r="Q1" s="124"/>
+      <c r="R1" s="124"/>
+      <c r="S1" s="125"/>
+      <c r="T1" s="123" t="s">
         <v>5</v>
       </c>
-      <c r="U1" s="117"/>
-      <c r="V1" s="117"/>
-      <c r="W1" s="118"/>
-      <c r="X1" s="116" t="s">
+      <c r="U1" s="124"/>
+      <c r="V1" s="124"/>
+      <c r="W1" s="125"/>
+      <c r="X1" s="123" t="s">
         <v>6</v>
       </c>
-      <c r="Y1" s="117"/>
-      <c r="Z1" s="117"/>
-      <c r="AA1" s="130"/>
-      <c r="AB1" s="116" t="s">
+      <c r="Y1" s="124"/>
+      <c r="Z1" s="124"/>
+      <c r="AA1" s="134"/>
+      <c r="AB1" s="123" t="s">
         <v>7</v>
       </c>
-      <c r="AC1" s="117"/>
-      <c r="AD1" s="117"/>
-      <c r="AE1" s="118"/>
-      <c r="AF1" s="116" t="s">
+      <c r="AC1" s="124"/>
+      <c r="AD1" s="124"/>
+      <c r="AE1" s="125"/>
+      <c r="AF1" s="123" t="s">
         <v>8</v>
       </c>
-      <c r="AG1" s="117"/>
-      <c r="AH1" s="117"/>
-      <c r="AI1" s="118"/>
-      <c r="AJ1" s="116" t="s">
+      <c r="AG1" s="124"/>
+      <c r="AH1" s="124"/>
+      <c r="AI1" s="125"/>
+      <c r="AJ1" s="123" t="s">
         <v>9</v>
       </c>
-      <c r="AK1" s="117"/>
-      <c r="AL1" s="117"/>
-      <c r="AM1" s="118"/>
-      <c r="AN1" s="116" t="s">
+      <c r="AK1" s="124"/>
+      <c r="AL1" s="124"/>
+      <c r="AM1" s="125"/>
+      <c r="AN1" s="123" t="s">
         <v>10</v>
       </c>
-      <c r="AO1" s="117"/>
-      <c r="AP1" s="117"/>
-      <c r="AQ1" s="118"/>
-      <c r="AR1" s="116" t="s">
+      <c r="AO1" s="124"/>
+      <c r="AP1" s="124"/>
+      <c r="AQ1" s="125"/>
+      <c r="AR1" s="123" t="s">
         <v>11</v>
       </c>
-      <c r="AS1" s="117"/>
-      <c r="AT1" s="117"/>
-      <c r="AU1" s="118"/>
+      <c r="AS1" s="124"/>
+      <c r="AT1" s="124"/>
+      <c r="AU1" s="125"/>
     </row>
     <row r="2" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A2" s="72"/>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="119" t="str">
+      <c r="A2" s="75"/>
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="126" t="str">
         <f>TEXT(D3,"ddd")</f>
         <v>Wed</v>
       </c>
-      <c r="E2" s="120"/>
-      <c r="F2" s="120"/>
-      <c r="G2" s="121"/>
-      <c r="H2" s="119" t="str">
+      <c r="E2" s="127"/>
+      <c r="F2" s="127"/>
+      <c r="G2" s="128"/>
+      <c r="H2" s="126" t="str">
         <f t="shared" ref="H2" si="0">TEXT(H3,"ddd")</f>
         <v>Thu</v>
       </c>
-      <c r="I2" s="120"/>
-      <c r="J2" s="120"/>
-      <c r="K2" s="121"/>
-      <c r="L2" s="128" t="str">
+      <c r="I2" s="127"/>
+      <c r="J2" s="127"/>
+      <c r="K2" s="128"/>
+      <c r="L2" s="139" t="str">
         <f t="shared" ref="L2" si="1">TEXT(L3,"ddd")</f>
         <v>Fri</v>
       </c>
-      <c r="M2" s="120"/>
-      <c r="N2" s="120"/>
-      <c r="O2" s="121"/>
-      <c r="P2" s="119" t="str">
+      <c r="M2" s="127"/>
+      <c r="N2" s="127"/>
+      <c r="O2" s="128"/>
+      <c r="P2" s="126" t="str">
         <f t="shared" ref="P2" si="2">TEXT(P3,"ddd")</f>
         <v>Mon</v>
       </c>
-      <c r="Q2" s="120"/>
-      <c r="R2" s="120"/>
-      <c r="S2" s="121"/>
-      <c r="T2" s="119" t="str">
+      <c r="Q2" s="127"/>
+      <c r="R2" s="127"/>
+      <c r="S2" s="128"/>
+      <c r="T2" s="126" t="str">
         <f t="shared" ref="T2" si="3">TEXT(T3,"ddd")</f>
         <v>Wed</v>
       </c>
-      <c r="U2" s="120"/>
-      <c r="V2" s="120"/>
-      <c r="W2" s="121"/>
-      <c r="X2" s="119" t="str">
+      <c r="U2" s="127"/>
+      <c r="V2" s="127"/>
+      <c r="W2" s="128"/>
+      <c r="X2" s="126" t="str">
         <f t="shared" ref="X2" si="4">TEXT(X3,"ddd")</f>
         <v>Thu</v>
       </c>
-      <c r="Y2" s="120"/>
-      <c r="Z2" s="120"/>
-      <c r="AA2" s="131"/>
-      <c r="AB2" s="119" t="str">
+      <c r="Y2" s="127"/>
+      <c r="Z2" s="127"/>
+      <c r="AA2" s="135"/>
+      <c r="AB2" s="126" t="str">
         <f t="shared" ref="AB2" si="5">TEXT(AB3,"ddd")</f>
         <v>Fri</v>
       </c>
-      <c r="AC2" s="120"/>
-      <c r="AD2" s="120"/>
-      <c r="AE2" s="121"/>
-      <c r="AF2" s="119" t="str">
+      <c r="AC2" s="127"/>
+      <c r="AD2" s="127"/>
+      <c r="AE2" s="128"/>
+      <c r="AF2" s="126" t="str">
         <f t="shared" ref="AF2" si="6">TEXT(AF3,"ddd")</f>
         <v>Mon</v>
       </c>
-      <c r="AG2" s="120"/>
-      <c r="AH2" s="120"/>
-      <c r="AI2" s="121"/>
-      <c r="AJ2" s="119" t="str">
+      <c r="AG2" s="127"/>
+      <c r="AH2" s="127"/>
+      <c r="AI2" s="128"/>
+      <c r="AJ2" s="126" t="str">
         <f t="shared" ref="AJ2" si="7">TEXT(AJ3,"ddd")</f>
         <v>Wed</v>
       </c>
-      <c r="AK2" s="120"/>
-      <c r="AL2" s="120"/>
-      <c r="AM2" s="121"/>
-      <c r="AN2" s="119" t="str">
+      <c r="AK2" s="127"/>
+      <c r="AL2" s="127"/>
+      <c r="AM2" s="128"/>
+      <c r="AN2" s="126" t="str">
         <f t="shared" ref="AN2" si="8">TEXT(AN3,"ddd")</f>
         <v>Thu</v>
       </c>
-      <c r="AO2" s="120"/>
-      <c r="AP2" s="120"/>
-      <c r="AQ2" s="121"/>
-      <c r="AR2" s="119" t="str">
+      <c r="AO2" s="127"/>
+      <c r="AP2" s="127"/>
+      <c r="AQ2" s="128"/>
+      <c r="AR2" s="126" t="str">
         <f t="shared" ref="AR2" si="9">TEXT(AR3,"ddd")</f>
         <v>Fri</v>
       </c>
-      <c r="AS2" s="120"/>
-      <c r="AT2" s="120"/>
-      <c r="AU2" s="121"/>
+      <c r="AS2" s="127"/>
+      <c r="AT2" s="127"/>
+      <c r="AU2" s="128"/>
     </row>
     <row r="3" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A3" s="72"/>
-      <c r="B3" s="72"/>
-      <c r="C3" s="72"/>
-      <c r="D3" s="122">
+      <c r="A3" s="75"/>
+      <c r="B3" s="75"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="129">
         <v>43873</v>
       </c>
-      <c r="E3" s="123"/>
-      <c r="F3" s="123"/>
-      <c r="G3" s="124"/>
-      <c r="H3" s="122">
+      <c r="E3" s="130"/>
+      <c r="F3" s="130"/>
+      <c r="G3" s="131"/>
+      <c r="H3" s="129">
         <v>43874</v>
       </c>
-      <c r="I3" s="123"/>
-      <c r="J3" s="123"/>
-      <c r="K3" s="124"/>
-      <c r="L3" s="125">
+      <c r="I3" s="130"/>
+      <c r="J3" s="130"/>
+      <c r="K3" s="131"/>
+      <c r="L3" s="136">
         <v>43875</v>
       </c>
-      <c r="M3" s="123"/>
-      <c r="N3" s="123"/>
-      <c r="O3" s="124"/>
-      <c r="P3" s="122">
+      <c r="M3" s="130"/>
+      <c r="N3" s="130"/>
+      <c r="O3" s="131"/>
+      <c r="P3" s="129">
         <v>43878</v>
       </c>
-      <c r="Q3" s="123"/>
-      <c r="R3" s="123"/>
-      <c r="S3" s="124"/>
-      <c r="T3" s="122">
+      <c r="Q3" s="130"/>
+      <c r="R3" s="130"/>
+      <c r="S3" s="131"/>
+      <c r="T3" s="129">
         <v>43880</v>
       </c>
-      <c r="U3" s="123"/>
-      <c r="V3" s="123"/>
-      <c r="W3" s="124"/>
-      <c r="X3" s="122">
+      <c r="U3" s="130"/>
+      <c r="V3" s="130"/>
+      <c r="W3" s="131"/>
+      <c r="X3" s="129">
         <v>43881</v>
       </c>
-      <c r="Y3" s="123"/>
-      <c r="Z3" s="123"/>
+      <c r="Y3" s="130"/>
+      <c r="Z3" s="130"/>
       <c r="AA3" s="132"/>
-      <c r="AB3" s="122">
+      <c r="AB3" s="129">
         <v>43882</v>
       </c>
-      <c r="AC3" s="123"/>
-      <c r="AD3" s="123"/>
-      <c r="AE3" s="124"/>
-      <c r="AF3" s="122">
+      <c r="AC3" s="130"/>
+      <c r="AD3" s="130"/>
+      <c r="AE3" s="131"/>
+      <c r="AF3" s="129">
         <v>43885</v>
       </c>
-      <c r="AG3" s="123"/>
-      <c r="AH3" s="123"/>
-      <c r="AI3" s="124"/>
-      <c r="AJ3" s="122">
+      <c r="AG3" s="130"/>
+      <c r="AH3" s="130"/>
+      <c r="AI3" s="131"/>
+      <c r="AJ3" s="129">
         <v>43887</v>
       </c>
-      <c r="AK3" s="123"/>
-      <c r="AL3" s="123"/>
-      <c r="AM3" s="124"/>
-      <c r="AN3" s="122">
+      <c r="AK3" s="130"/>
+      <c r="AL3" s="130"/>
+      <c r="AM3" s="131"/>
+      <c r="AN3" s="129">
         <v>43888</v>
       </c>
-      <c r="AO3" s="123"/>
-      <c r="AP3" s="123"/>
-      <c r="AQ3" s="124"/>
-      <c r="AR3" s="122">
+      <c r="AO3" s="130"/>
+      <c r="AP3" s="130"/>
+      <c r="AQ3" s="131"/>
+      <c r="AR3" s="129">
         <v>43889</v>
       </c>
-      <c r="AS3" s="123"/>
-      <c r="AT3" s="123"/>
-      <c r="AU3" s="124"/>
+      <c r="AS3" s="130"/>
+      <c r="AT3" s="130"/>
+      <c r="AU3" s="131"/>
     </row>
     <row r="4" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
@@ -2247,94 +2418,94 @@
       <c r="C4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="113" t="s">
+      <c r="D4" s="120" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="114"/>
-      <c r="F4" s="114" t="s">
+      <c r="E4" s="121"/>
+      <c r="F4" s="121" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="115"/>
-      <c r="H4" s="113" t="s">
+      <c r="G4" s="122"/>
+      <c r="H4" s="120" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="114"/>
-      <c r="J4" s="114" t="s">
+      <c r="I4" s="121"/>
+      <c r="J4" s="121" t="s">
         <v>13</v>
       </c>
-      <c r="K4" s="115"/>
-      <c r="L4" s="126" t="s">
+      <c r="K4" s="122"/>
+      <c r="L4" s="137" t="s">
         <v>12</v>
       </c>
-      <c r="M4" s="114"/>
-      <c r="N4" s="114" t="s">
+      <c r="M4" s="121"/>
+      <c r="N4" s="121" t="s">
         <v>13</v>
       </c>
-      <c r="O4" s="115"/>
-      <c r="P4" s="113" t="s">
+      <c r="O4" s="122"/>
+      <c r="P4" s="120" t="s">
         <v>12</v>
       </c>
-      <c r="Q4" s="114"/>
-      <c r="R4" s="114" t="s">
+      <c r="Q4" s="121"/>
+      <c r="R4" s="121" t="s">
         <v>13</v>
       </c>
-      <c r="S4" s="115"/>
-      <c r="T4" s="113" t="s">
+      <c r="S4" s="122"/>
+      <c r="T4" s="120" t="s">
         <v>12</v>
       </c>
-      <c r="U4" s="114"/>
-      <c r="V4" s="114" t="s">
+      <c r="U4" s="121"/>
+      <c r="V4" s="121" t="s">
         <v>13</v>
       </c>
-      <c r="W4" s="115"/>
-      <c r="X4" s="113" t="s">
+      <c r="W4" s="122"/>
+      <c r="X4" s="120" t="s">
         <v>12</v>
       </c>
-      <c r="Y4" s="114"/>
-      <c r="Z4" s="114" t="s">
+      <c r="Y4" s="121"/>
+      <c r="Z4" s="121" t="s">
         <v>13</v>
       </c>
       <c r="AA4" s="133"/>
-      <c r="AB4" s="113" t="s">
+      <c r="AB4" s="120" t="s">
         <v>12</v>
       </c>
-      <c r="AC4" s="114"/>
-      <c r="AD4" s="114" t="s">
+      <c r="AC4" s="121"/>
+      <c r="AD4" s="121" t="s">
         <v>13</v>
       </c>
-      <c r="AE4" s="115"/>
-      <c r="AF4" s="113" t="s">
+      <c r="AE4" s="122"/>
+      <c r="AF4" s="120" t="s">
         <v>12</v>
       </c>
-      <c r="AG4" s="114"/>
-      <c r="AH4" s="114" t="s">
+      <c r="AG4" s="121"/>
+      <c r="AH4" s="121" t="s">
         <v>13</v>
       </c>
-      <c r="AI4" s="115"/>
-      <c r="AJ4" s="113" t="s">
+      <c r="AI4" s="122"/>
+      <c r="AJ4" s="120" t="s">
         <v>12</v>
       </c>
-      <c r="AK4" s="114"/>
-      <c r="AL4" s="114" t="s">
+      <c r="AK4" s="121"/>
+      <c r="AL4" s="121" t="s">
         <v>13</v>
       </c>
-      <c r="AM4" s="115"/>
-      <c r="AN4" s="113" t="s">
+      <c r="AM4" s="122"/>
+      <c r="AN4" s="120" t="s">
         <v>12</v>
       </c>
-      <c r="AO4" s="114"/>
-      <c r="AP4" s="114" t="s">
+      <c r="AO4" s="121"/>
+      <c r="AP4" s="121" t="s">
         <v>13</v>
       </c>
-      <c r="AQ4" s="115"/>
-      <c r="AR4" s="113" t="s">
+      <c r="AQ4" s="122"/>
+      <c r="AR4" s="120" t="s">
         <v>12</v>
       </c>
-      <c r="AS4" s="114"/>
-      <c r="AT4" s="114" t="s">
+      <c r="AS4" s="121"/>
+      <c r="AT4" s="121" t="s">
         <v>13</v>
       </c>
-      <c r="AU4" s="115"/>
+      <c r="AU4" s="122"/>
     </row>
     <row r="5" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
@@ -2388,14 +2559,14 @@
       <c r="AU5" s="17"/>
     </row>
     <row r="6" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A6" s="99" t="s">
+      <c r="A6" s="106" t="s">
         <v>51</v>
       </c>
-      <c r="B6" s="101">
+      <c r="B6" s="118">
         <f>SUM(D6:AU6)</f>
         <v>2</v>
       </c>
-      <c r="C6" s="102">
+      <c r="C6" s="119">
         <f>SUM(D7:AU7)</f>
         <v>2</v>
       </c>
@@ -2449,9 +2620,9 @@
       <c r="AU6" s="35"/>
     </row>
     <row r="7" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="103"/>
-      <c r="B7" s="101"/>
-      <c r="C7" s="102"/>
+      <c r="A7" s="107"/>
+      <c r="B7" s="118"/>
+      <c r="C7" s="119"/>
       <c r="D7" s="41">
         <v>1</v>
       </c>
@@ -2502,16 +2673,16 @@
       <c r="AU7" s="40"/>
     </row>
     <row r="8" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A8" s="99" t="s">
+      <c r="A8" s="106" t="s">
         <v>53</v>
       </c>
-      <c r="B8" s="101">
+      <c r="B8" s="118">
         <f>SUM(D8:AU8)</f>
         <v>4</v>
       </c>
-      <c r="C8" s="102">
+      <c r="C8" s="119">
         <f>SUM(D9:AU9)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D8" s="36"/>
       <c r="E8" s="34">
@@ -2567,36 +2738,35 @@
       </c>
     </row>
     <row r="9" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="103"/>
-      <c r="B9" s="101"/>
-      <c r="C9" s="102"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="39">
+      <c r="A9" s="117"/>
+      <c r="B9" s="114"/>
+      <c r="C9" s="116"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="53">
         <v>1</v>
       </c>
-      <c r="F9" s="39">
+      <c r="F9" s="53">
         <v>1</v>
       </c>
-      <c r="G9" s="40">
+      <c r="G9" s="48">
         <v>1</v>
       </c>
-      <c r="H9" s="39">
-        <v>1</v>
-      </c>
-      <c r="J9" s="39"/>
-      <c r="K9" s="40"/>
-      <c r="L9" s="39"/>
-      <c r="M9" s="39"/>
-      <c r="N9" s="39"/>
-      <c r="O9" s="40"/>
-      <c r="P9" s="41"/>
-      <c r="Q9" s="39"/>
-      <c r="R9" s="42"/>
-      <c r="S9" s="43"/>
-      <c r="T9" s="41"/>
-      <c r="U9" s="39"/>
-      <c r="V9" s="39"/>
-      <c r="W9" s="40"/>
+      <c r="H9" s="49"/>
+      <c r="I9" s="146"/>
+      <c r="J9" s="53"/>
+      <c r="K9" s="48"/>
+      <c r="L9" s="53"/>
+      <c r="M9" s="53"/>
+      <c r="N9" s="53"/>
+      <c r="O9" s="48"/>
+      <c r="P9" s="49"/>
+      <c r="Q9" s="53"/>
+      <c r="R9" s="54"/>
+      <c r="S9" s="51"/>
+      <c r="T9" s="49"/>
+      <c r="U9" s="53"/>
+      <c r="V9" s="53"/>
+      <c r="W9" s="48"/>
       <c r="X9" s="41"/>
       <c r="Y9" s="39"/>
       <c r="Z9" s="39"/>
@@ -2623,35 +2793,35 @@
       <c r="AU9" s="40"/>
     </row>
     <row r="10" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="149" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="45"/>
-      <c r="F10" s="45"/>
-      <c r="G10" s="46"/>
-      <c r="H10" s="44"/>
-      <c r="I10" s="45"/>
-      <c r="J10" s="45"/>
-      <c r="K10" s="46"/>
-      <c r="L10" s="65"/>
-      <c r="M10" s="45"/>
-      <c r="N10" s="45"/>
-      <c r="O10" s="46"/>
-      <c r="P10" s="44"/>
-      <c r="Q10" s="45"/>
-      <c r="R10" s="45"/>
-      <c r="S10" s="46"/>
-      <c r="T10" s="44"/>
-      <c r="U10" s="45"/>
-      <c r="V10" s="45"/>
-      <c r="W10" s="46"/>
+      <c r="B10" s="150"/>
+      <c r="C10" s="151"/>
+      <c r="D10" s="152"/>
+      <c r="E10" s="153"/>
+      <c r="F10" s="153"/>
+      <c r="G10" s="154"/>
+      <c r="H10" s="152"/>
+      <c r="I10" s="153"/>
+      <c r="J10" s="153"/>
+      <c r="K10" s="154"/>
+      <c r="L10" s="155"/>
+      <c r="M10" s="153"/>
+      <c r="N10" s="153"/>
+      <c r="O10" s="154"/>
+      <c r="P10" s="152"/>
+      <c r="Q10" s="153"/>
+      <c r="R10" s="153"/>
+      <c r="S10" s="154"/>
+      <c r="T10" s="152"/>
+      <c r="U10" s="153"/>
+      <c r="V10" s="153"/>
+      <c r="W10" s="154"/>
       <c r="X10" s="44"/>
       <c r="Y10" s="45"/>
       <c r="Z10" s="45"/>
-      <c r="AA10" s="134"/>
+      <c r="AA10" s="68"/>
       <c r="AB10" s="44"/>
       <c r="AC10" s="45"/>
       <c r="AD10" s="45"/>
@@ -2674,35 +2844,35 @@
       <c r="AU10" s="46"/>
     </row>
     <row r="11" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="156" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="44"/>
-      <c r="E11" s="45"/>
-      <c r="F11" s="45"/>
-      <c r="G11" s="46"/>
-      <c r="H11" s="44"/>
-      <c r="I11" s="45"/>
-      <c r="J11" s="45"/>
-      <c r="K11" s="46"/>
-      <c r="L11" s="65"/>
-      <c r="M11" s="45"/>
-      <c r="N11" s="45"/>
-      <c r="O11" s="46"/>
-      <c r="P11" s="44"/>
-      <c r="Q11" s="45"/>
-      <c r="R11" s="45"/>
-      <c r="S11" s="46"/>
-      <c r="T11" s="44"/>
-      <c r="U11" s="45"/>
-      <c r="V11" s="45"/>
-      <c r="W11" s="46"/>
+      <c r="B11" s="157"/>
+      <c r="C11" s="158"/>
+      <c r="D11" s="159"/>
+      <c r="E11" s="160"/>
+      <c r="F11" s="160"/>
+      <c r="G11" s="161"/>
+      <c r="H11" s="159"/>
+      <c r="I11" s="160"/>
+      <c r="J11" s="160"/>
+      <c r="K11" s="161"/>
+      <c r="L11" s="162"/>
+      <c r="M11" s="160"/>
+      <c r="N11" s="160"/>
+      <c r="O11" s="161"/>
+      <c r="P11" s="159"/>
+      <c r="Q11" s="160"/>
+      <c r="R11" s="160"/>
+      <c r="S11" s="161"/>
+      <c r="T11" s="159"/>
+      <c r="U11" s="160"/>
+      <c r="V11" s="160"/>
+      <c r="W11" s="161"/>
       <c r="X11" s="44"/>
       <c r="Y11" s="45"/>
       <c r="Z11" s="45"/>
-      <c r="AA11" s="134"/>
+      <c r="AA11" s="68"/>
       <c r="AB11" s="44"/>
       <c r="AC11" s="45"/>
       <c r="AD11" s="45"/>
@@ -2725,16 +2895,16 @@
       <c r="AU11" s="46"/>
     </row>
     <row r="12" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A12" s="99" t="s">
+      <c r="A12" s="112" t="s">
         <v>54</v>
       </c>
-      <c r="B12" s="101">
+      <c r="B12" s="113">
         <f>SUM(D12:AU12)</f>
         <v>7</v>
       </c>
-      <c r="C12" s="102">
+      <c r="C12" s="115">
         <f>SUM(D13:AU13)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D12" s="49"/>
       <c r="E12" s="53"/>
@@ -2749,6 +2919,7 @@
       <c r="J12" s="53">
         <v>2</v>
       </c>
+      <c r="K12" s="147"/>
       <c r="L12" s="53">
         <v>1</v>
       </c>
@@ -2789,15 +2960,15 @@
       <c r="AU12" s="48"/>
     </row>
     <row r="13" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="100"/>
-      <c r="B13" s="101"/>
-      <c r="C13" s="102"/>
+      <c r="A13" s="117"/>
+      <c r="B13" s="118"/>
+      <c r="C13" s="119"/>
       <c r="D13" s="41"/>
       <c r="E13" s="39"/>
       <c r="F13" s="39"/>
       <c r="G13" s="40"/>
       <c r="H13" s="41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I13" s="39">
         <v>2</v>
@@ -2806,7 +2977,9 @@
         <v>2</v>
       </c>
       <c r="K13" s="48"/>
-      <c r="L13" s="39"/>
+      <c r="L13" s="39">
+        <v>1</v>
+      </c>
       <c r="M13" s="39"/>
       <c r="N13" s="39"/>
       <c r="O13" s="40"/>
@@ -2857,7 +3030,7 @@
       <c r="I14" s="62"/>
       <c r="J14" s="62"/>
       <c r="K14" s="63"/>
-      <c r="L14" s="66"/>
+      <c r="L14" s="65"/>
       <c r="M14" s="62"/>
       <c r="N14" s="62"/>
       <c r="O14" s="63"/>
@@ -2872,7 +3045,7 @@
       <c r="X14" s="61"/>
       <c r="Y14" s="62"/>
       <c r="Z14" s="62"/>
-      <c r="AA14" s="135"/>
+      <c r="AA14" s="69"/>
       <c r="AB14" s="61"/>
       <c r="AC14" s="62"/>
       <c r="AD14" s="62"/>
@@ -2895,16 +3068,16 @@
       <c r="AU14" s="63"/>
     </row>
     <row r="15" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A15" s="99" t="s">
-        <v>55</v>
-      </c>
-      <c r="B15" s="106">
+      <c r="A15" s="144" t="s">
+        <v>60</v>
+      </c>
+      <c r="B15" s="142">
         <f>SUM(D15:AU15)</f>
-        <v>2</v>
-      </c>
-      <c r="C15" s="108">
+        <v>1</v>
+      </c>
+      <c r="C15" s="140">
         <f>SUM(D16:AU16)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D15" s="36"/>
       <c r="E15" s="34"/>
@@ -2913,9 +3086,9 @@
       <c r="H15" s="36"/>
       <c r="I15" s="34"/>
       <c r="J15" s="34"/>
-      <c r="K15" s="35"/>
+      <c r="K15" s="148"/>
       <c r="L15" s="34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M15" s="34"/>
       <c r="N15" s="34"/>
@@ -2954,20 +3127,26 @@
       <c r="AU15" s="35"/>
     </row>
     <row r="16" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="103"/>
-      <c r="B16" s="107"/>
-      <c r="C16" s="109"/>
+      <c r="A16" s="145"/>
+      <c r="B16" s="143"/>
+      <c r="C16" s="141"/>
       <c r="D16" s="41"/>
       <c r="E16" s="39"/>
       <c r="F16" s="39"/>
-      <c r="G16" s="68"/>
+      <c r="G16" s="40"/>
       <c r="H16" s="41"/>
       <c r="I16" s="39"/>
       <c r="J16" s="39"/>
       <c r="K16" s="40"/>
-      <c r="L16" s="64"/>
-      <c r="M16" s="39"/>
-      <c r="N16" s="39"/>
+      <c r="L16" s="39">
+        <v>1</v>
+      </c>
+      <c r="M16" s="39">
+        <v>2</v>
+      </c>
+      <c r="N16" s="39">
+        <v>1</v>
+      </c>
       <c r="O16" s="40"/>
       <c r="P16" s="41"/>
       <c r="Q16" s="39"/>
@@ -3003,16 +3182,16 @@
       <c r="AU16" s="40"/>
     </row>
     <row r="17" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A17" s="110" t="s">
-        <v>56</v>
-      </c>
-      <c r="B17" s="111">
+      <c r="A17" s="112" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" s="113">
         <f t="shared" ref="B17" si="10">SUM(D17:AU17)</f>
         <v>2</v>
       </c>
-      <c r="C17" s="112">
+      <c r="C17" s="115">
         <f t="shared" ref="C17" si="11">SUM(D18:AU18)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D17" s="49"/>
       <c r="E17" s="53"/>
@@ -3062,9 +3241,9 @@
       <c r="AU17" s="48"/>
     </row>
     <row r="18" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="100"/>
-      <c r="B18" s="101"/>
-      <c r="C18" s="102"/>
+      <c r="A18" s="117"/>
+      <c r="B18" s="118"/>
+      <c r="C18" s="119"/>
       <c r="D18" s="41"/>
       <c r="E18" s="39"/>
       <c r="F18" s="39"/>
@@ -3075,8 +3254,12 @@
       <c r="K18" s="40"/>
       <c r="L18" s="39"/>
       <c r="M18" s="39"/>
-      <c r="N18" s="39"/>
-      <c r="O18" s="40"/>
+      <c r="N18" s="39">
+        <v>1</v>
+      </c>
+      <c r="O18" s="40">
+        <v>1</v>
+      </c>
       <c r="P18" s="41"/>
       <c r="Q18" s="39"/>
       <c r="R18" s="42"/>
@@ -3111,14 +3294,14 @@
       <c r="AU18" s="40"/>
     </row>
     <row r="19" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A19" s="99" t="s">
+      <c r="A19" s="106" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="101">
+      <c r="B19" s="118">
         <f t="shared" ref="B19" si="12">SUM(D19:AU19)</f>
-        <v>1</v>
-      </c>
-      <c r="C19" s="102">
+        <v>2</v>
+      </c>
+      <c r="C19" s="119">
         <f t="shared" ref="C19" si="13">SUM(D20:AU20)</f>
         <v>0</v>
       </c>
@@ -3133,7 +3316,7 @@
       <c r="L19" s="34"/>
       <c r="M19" s="34"/>
       <c r="N19" s="34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O19" s="35"/>
       <c r="P19" s="36"/>
@@ -3170,9 +3353,9 @@
       <c r="AU19" s="35"/>
     </row>
     <row r="20" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="100"/>
-      <c r="B20" s="104"/>
-      <c r="C20" s="105"/>
+      <c r="A20" s="117"/>
+      <c r="B20" s="114"/>
+      <c r="C20" s="116"/>
       <c r="D20" s="49"/>
       <c r="E20" s="53"/>
       <c r="F20" s="53"/>
@@ -3219,14 +3402,14 @@
       <c r="AU20" s="48"/>
     </row>
     <row r="21" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A21" s="99" t="s">
+      <c r="A21" s="106" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="106">
+      <c r="B21" s="108">
         <f t="shared" ref="B21" si="14">SUM(D21:AU21)</f>
         <v>1</v>
       </c>
-      <c r="C21" s="108">
+      <c r="C21" s="110">
         <f t="shared" ref="C21" si="15">SUM(D22:AU22)</f>
         <v>0</v>
       </c>
@@ -3278,9 +3461,9 @@
       <c r="AU21" s="35"/>
     </row>
     <row r="22" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="103"/>
-      <c r="B22" s="107"/>
-      <c r="C22" s="109"/>
+      <c r="A22" s="107"/>
+      <c r="B22" s="109"/>
+      <c r="C22" s="111"/>
       <c r="D22" s="41"/>
       <c r="E22" s="39"/>
       <c r="F22" s="39"/>
@@ -3340,7 +3523,7 @@
       <c r="I23" s="57"/>
       <c r="J23" s="57"/>
       <c r="K23" s="58"/>
-      <c r="L23" s="67"/>
+      <c r="L23" s="66"/>
       <c r="M23" s="57"/>
       <c r="N23" s="57"/>
       <c r="O23" s="58"/>
@@ -3355,7 +3538,7 @@
       <c r="X23" s="56"/>
       <c r="Y23" s="57"/>
       <c r="Z23" s="57"/>
-      <c r="AA23" s="136"/>
+      <c r="AA23" s="70"/>
       <c r="AB23" s="56"/>
       <c r="AC23" s="57"/>
       <c r="AD23" s="57"/>
@@ -3378,14 +3561,14 @@
       <c r="AU23" s="58"/>
     </row>
     <row r="24" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A24" s="99" t="s">
+      <c r="A24" s="106" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="101">
+      <c r="B24" s="118">
         <f>SUM(D24:AU24)</f>
         <v>1</v>
       </c>
-      <c r="C24" s="102">
+      <c r="C24" s="119">
         <f>SUM(D25:AU25)</f>
         <v>0</v>
       </c>
@@ -3437,9 +3620,9 @@
       <c r="AU24" s="48"/>
     </row>
     <row r="25" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="100"/>
-      <c r="B25" s="101"/>
-      <c r="C25" s="102"/>
+      <c r="A25" s="117"/>
+      <c r="B25" s="118"/>
+      <c r="C25" s="119"/>
       <c r="D25" s="41"/>
       <c r="E25" s="39"/>
       <c r="F25" s="39"/>
@@ -3486,14 +3669,14 @@
       <c r="AU25" s="40"/>
     </row>
     <row r="26" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A26" s="99" t="s">
+      <c r="A26" s="106" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="101">
+      <c r="B26" s="118">
         <f t="shared" ref="B26" si="16">SUM(D26:AU26)</f>
         <v>1</v>
       </c>
-      <c r="C26" s="102">
+      <c r="C26" s="119">
         <f t="shared" ref="C26" si="17">SUM(D27:AU27)</f>
         <v>0</v>
       </c>
@@ -3545,9 +3728,9 @@
       <c r="AU26" s="35"/>
     </row>
     <row r="27" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="100"/>
-      <c r="B27" s="104"/>
-      <c r="C27" s="105"/>
+      <c r="A27" s="117"/>
+      <c r="B27" s="114"/>
+      <c r="C27" s="116"/>
       <c r="D27" s="49"/>
       <c r="E27" s="53"/>
       <c r="F27" s="53"/>
@@ -3594,14 +3777,14 @@
       <c r="AU27" s="48"/>
     </row>
     <row r="28" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A28" s="99" t="s">
+      <c r="A28" s="106" t="s">
         <v>26</v>
       </c>
-      <c r="B28" s="106">
+      <c r="B28" s="108">
         <f t="shared" ref="B28" si="18">SUM(D28:AU28)</f>
-        <v>7</v>
-      </c>
-      <c r="C28" s="108">
+        <v>8</v>
+      </c>
+      <c r="C28" s="110">
         <f t="shared" ref="C28" si="19">SUM(D29:AU29)</f>
         <v>0</v>
       </c>
@@ -3631,7 +3814,7 @@
         <v>2</v>
       </c>
       <c r="W28" s="35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X28" s="36"/>
       <c r="Y28" s="34"/>
@@ -3659,9 +3842,9 @@
       <c r="AU28" s="35"/>
     </row>
     <row r="29" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="103"/>
-      <c r="B29" s="107"/>
-      <c r="C29" s="109"/>
+      <c r="A29" s="107"/>
+      <c r="B29" s="109"/>
+      <c r="C29" s="111"/>
       <c r="D29" s="41"/>
       <c r="E29" s="39"/>
       <c r="F29" s="39"/>
@@ -3708,14 +3891,14 @@
       <c r="AU29" s="40"/>
     </row>
     <row r="30" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A30" s="110" t="s">
+      <c r="A30" s="112" t="s">
         <v>27</v>
       </c>
-      <c r="B30" s="111">
+      <c r="B30" s="113">
         <f t="shared" ref="B30" si="20">SUM(D30:AU30)</f>
         <v>7</v>
       </c>
-      <c r="C30" s="112">
+      <c r="C30" s="115">
         <f t="shared" ref="C30" si="21">SUM(D31:AU31)</f>
         <v>0</v>
       </c>
@@ -3773,9 +3956,9 @@
       <c r="AU30" s="48"/>
     </row>
     <row r="31" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="100"/>
-      <c r="B31" s="101"/>
-      <c r="C31" s="102"/>
+      <c r="A31" s="117"/>
+      <c r="B31" s="118"/>
+      <c r="C31" s="119"/>
       <c r="D31" s="41"/>
       <c r="E31" s="39"/>
       <c r="F31" s="39"/>
@@ -3822,14 +4005,14 @@
       <c r="AU31" s="40"/>
     </row>
     <row r="32" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A32" s="99" t="s">
+      <c r="A32" s="106" t="s">
         <v>28</v>
       </c>
-      <c r="B32" s="101">
+      <c r="B32" s="118">
         <f t="shared" ref="B32" si="22">SUM(D32:AU32)</f>
         <v>7</v>
       </c>
-      <c r="C32" s="102">
+      <c r="C32" s="119">
         <f t="shared" ref="C32" si="23">SUM(D33:AU33)</f>
         <v>0</v>
       </c>
@@ -3887,9 +4070,9 @@
       <c r="AU32" s="35"/>
     </row>
     <row r="33" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="100"/>
-      <c r="B33" s="101"/>
-      <c r="C33" s="102"/>
+      <c r="A33" s="117"/>
+      <c r="B33" s="118"/>
+      <c r="C33" s="119"/>
       <c r="D33" s="41"/>
       <c r="E33" s="39"/>
       <c r="F33" s="39"/>
@@ -3916,7 +4099,7 @@
       <c r="AA33" s="39"/>
       <c r="AB33" s="41"/>
       <c r="AC33" s="39"/>
-      <c r="AD33" s="141"/>
+      <c r="AD33" s="71"/>
       <c r="AE33" s="40"/>
       <c r="AF33" s="41"/>
       <c r="AG33" s="39"/>
@@ -3936,14 +4119,14 @@
       <c r="AU33" s="40"/>
     </row>
     <row r="34" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A34" s="99" t="s">
+      <c r="A34" s="106" t="s">
         <v>29</v>
       </c>
-      <c r="B34" s="101">
+      <c r="B34" s="118">
         <f t="shared" ref="B34" si="24">SUM(D34:AU34)</f>
         <v>2</v>
       </c>
-      <c r="C34" s="102">
+      <c r="C34" s="119">
         <f t="shared" ref="C34" si="25">SUM(D35:AU35)</f>
         <v>0</v>
       </c>
@@ -3995,9 +4178,9 @@
       <c r="AU34" s="35"/>
     </row>
     <row r="35" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="103"/>
-      <c r="B35" s="101"/>
-      <c r="C35" s="102"/>
+      <c r="A35" s="107"/>
+      <c r="B35" s="118"/>
+      <c r="C35" s="119"/>
       <c r="D35" s="41"/>
       <c r="E35" s="39"/>
       <c r="F35" s="39"/>
@@ -4044,14 +4227,14 @@
       <c r="AU35" s="40"/>
     </row>
     <row r="36" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A36" s="99" t="s">
+      <c r="A36" s="106" t="s">
         <v>30</v>
       </c>
-      <c r="B36" s="101">
+      <c r="B36" s="118">
         <f t="shared" ref="B36" si="26">SUM(D36:AU36)</f>
         <v>4</v>
       </c>
-      <c r="C36" s="102">
+      <c r="C36" s="119">
         <f t="shared" ref="C36" si="27">SUM(D37:AU37)</f>
         <v>0</v>
       </c>
@@ -4105,9 +4288,9 @@
       <c r="AU36" s="35"/>
     </row>
     <row r="37" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="100"/>
-      <c r="B37" s="101"/>
-      <c r="C37" s="102"/>
+      <c r="A37" s="117"/>
+      <c r="B37" s="118"/>
+      <c r="C37" s="119"/>
       <c r="D37" s="41"/>
       <c r="E37" s="39"/>
       <c r="F37" s="39"/>
@@ -4154,14 +4337,14 @@
       <c r="AU37" s="40"/>
     </row>
     <row r="38" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A38" s="99" t="s">
+      <c r="A38" s="106" t="s">
         <v>31</v>
       </c>
-      <c r="B38" s="101">
+      <c r="B38" s="118">
         <f t="shared" ref="B38" si="28">SUM(D38:AU38)</f>
         <v>3</v>
       </c>
-      <c r="C38" s="102">
+      <c r="C38" s="119">
         <f t="shared" ref="C38" si="29">SUM(D39:AU39)</f>
         <v>0</v>
       </c>
@@ -4215,9 +4398,9 @@
       <c r="AU38" s="35"/>
     </row>
     <row r="39" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="100"/>
-      <c r="B39" s="101"/>
-      <c r="C39" s="102"/>
+      <c r="A39" s="117"/>
+      <c r="B39" s="118"/>
+      <c r="C39" s="119"/>
       <c r="D39" s="41"/>
       <c r="E39" s="39"/>
       <c r="F39" s="39"/>
@@ -4264,14 +4447,14 @@
       <c r="AU39" s="40"/>
     </row>
     <row r="40" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A40" s="99" t="s">
+      <c r="A40" s="106" t="s">
         <v>32</v>
       </c>
-      <c r="B40" s="101">
+      <c r="B40" s="118">
         <f t="shared" ref="B40" si="30">SUM(D40:AU40)</f>
         <v>4</v>
       </c>
-      <c r="C40" s="102">
+      <c r="C40" s="119">
         <f t="shared" ref="C40" si="31">SUM(D41:AU41)</f>
         <v>0</v>
       </c>
@@ -4325,9 +4508,9 @@
       <c r="AU40" s="35"/>
     </row>
     <row r="41" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="100"/>
-      <c r="B41" s="101"/>
-      <c r="C41" s="102"/>
+      <c r="A41" s="117"/>
+      <c r="B41" s="118"/>
+      <c r="C41" s="119"/>
       <c r="D41" s="41"/>
       <c r="E41" s="39"/>
       <c r="F41" s="39"/>
@@ -4374,14 +4557,14 @@
       <c r="AU41" s="40"/>
     </row>
     <row r="42" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A42" s="99" t="s">
+      <c r="A42" s="106" t="s">
         <v>33</v>
       </c>
-      <c r="B42" s="101">
+      <c r="B42" s="118">
         <f t="shared" ref="B42" si="32">SUM(D42:AU42)</f>
         <v>3</v>
       </c>
-      <c r="C42" s="102">
+      <c r="C42" s="119">
         <f t="shared" ref="C42" si="33">SUM(D43:AU43)</f>
         <v>0</v>
       </c>
@@ -4435,9 +4618,9 @@
       <c r="AU42" s="35"/>
     </row>
     <row r="43" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="100"/>
-      <c r="B43" s="101"/>
-      <c r="C43" s="102"/>
+      <c r="A43" s="117"/>
+      <c r="B43" s="118"/>
+      <c r="C43" s="119"/>
       <c r="D43" s="41"/>
       <c r="E43" s="39"/>
       <c r="F43" s="39"/>
@@ -4483,15 +4666,15 @@
       <c r="AT43" s="39"/>
       <c r="AU43" s="40"/>
     </row>
-    <row r="44" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A44" s="99" t="s">
+    <row r="44" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="106" t="s">
         <v>34</v>
       </c>
-      <c r="B44" s="101">
+      <c r="B44" s="118">
         <f t="shared" ref="B44" si="34">SUM(D44:AU44)</f>
-        <v>4</v>
-      </c>
-      <c r="C44" s="102">
+        <v>2</v>
+      </c>
+      <c r="C44" s="119">
         <f t="shared" ref="C44" si="35">SUM(D45:AU45)</f>
         <v>0</v>
       </c>
@@ -4538,16 +4721,13 @@
       <c r="AR44" s="36">
         <v>2</v>
       </c>
-      <c r="AS44" s="34">
-        <v>2</v>
-      </c>
       <c r="AT44" s="34"/>
       <c r="AU44" s="35"/>
     </row>
     <row r="45" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="100"/>
-      <c r="B45" s="101"/>
-      <c r="C45" s="102"/>
+      <c r="A45" s="117"/>
+      <c r="B45" s="118"/>
+      <c r="C45" s="119"/>
       <c r="D45" s="41"/>
       <c r="E45" s="39"/>
       <c r="F45" s="39"/>
@@ -4588,20 +4768,20 @@
       <c r="AO45" s="39"/>
       <c r="AP45" s="39"/>
       <c r="AQ45" s="40"/>
-      <c r="AR45" s="41"/>
+      <c r="AR45" s="34"/>
       <c r="AS45" s="39"/>
       <c r="AT45" s="39"/>
       <c r="AU45" s="40"/>
     </row>
     <row r="46" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A46" s="99" t="s">
+      <c r="A46" s="106" t="s">
         <v>49</v>
       </c>
-      <c r="B46" s="101">
+      <c r="B46" s="118">
         <f t="shared" ref="B46" si="36">SUM(D46:AU46)</f>
-        <v>2</v>
-      </c>
-      <c r="C46" s="102">
+        <v>3</v>
+      </c>
+      <c r="C46" s="119">
         <f t="shared" ref="C46" si="37">SUM(D47:AU47)</f>
         <v>0</v>
       </c>
@@ -4646,16 +4826,18 @@
       <c r="AP46" s="34"/>
       <c r="AQ46" s="35"/>
       <c r="AR46" s="36"/>
-      <c r="AS46" s="34"/>
+      <c r="AS46" s="34">
+        <v>2</v>
+      </c>
       <c r="AT46" s="34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AU46" s="35"/>
     </row>
     <row r="47" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="103"/>
-      <c r="B47" s="101"/>
-      <c r="C47" s="102"/>
+      <c r="A47" s="107"/>
+      <c r="B47" s="118"/>
+      <c r="C47" s="119"/>
       <c r="D47" s="49"/>
       <c r="E47" s="53"/>
       <c r="F47" s="53"/>
@@ -4715,7 +4897,7 @@
       <c r="I48" s="45"/>
       <c r="J48" s="45"/>
       <c r="K48" s="46"/>
-      <c r="L48" s="65"/>
+      <c r="L48" s="64"/>
       <c r="M48" s="45"/>
       <c r="N48" s="45"/>
       <c r="O48" s="46"/>
@@ -4730,7 +4912,7 @@
       <c r="X48" s="44"/>
       <c r="Y48" s="45"/>
       <c r="Z48" s="45"/>
-      <c r="AA48" s="134"/>
+      <c r="AA48" s="68"/>
       <c r="AB48" s="44"/>
       <c r="AC48" s="45"/>
       <c r="AD48" s="45"/>
@@ -4753,16 +4935,16 @@
       <c r="AU48" s="46"/>
     </row>
     <row r="49" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A49" s="99" t="s">
+      <c r="A49" s="106" t="s">
         <v>52</v>
       </c>
-      <c r="B49" s="101">
+      <c r="B49" s="118">
         <f>SUM(D49:AU49)</f>
-        <v>11</v>
-      </c>
-      <c r="C49" s="102">
+        <v>10</v>
+      </c>
+      <c r="C49" s="119">
         <f>SUM(D50:AU50)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D49" s="49"/>
       <c r="E49" s="53"/>
@@ -4791,9 +4973,7 @@
       <c r="T49" s="49"/>
       <c r="U49" s="47"/>
       <c r="V49" s="47"/>
-      <c r="W49" s="48">
-        <v>1</v>
-      </c>
+      <c r="W49" s="48"/>
       <c r="X49" s="49"/>
       <c r="Y49" s="47"/>
       <c r="Z49" s="47"/>
@@ -4832,9 +5012,9 @@
       </c>
     </row>
     <row r="50" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="100"/>
-      <c r="B50" s="104"/>
-      <c r="C50" s="105"/>
+      <c r="A50" s="117"/>
+      <c r="B50" s="114"/>
+      <c r="C50" s="116"/>
       <c r="D50" s="49"/>
       <c r="E50" s="53"/>
       <c r="F50" s="53"/>
@@ -4850,7 +5030,9 @@
       <c r="L50" s="53"/>
       <c r="M50" s="53"/>
       <c r="N50" s="53"/>
-      <c r="O50" s="48"/>
+      <c r="O50" s="48">
+        <v>1</v>
+      </c>
       <c r="P50" s="49"/>
       <c r="Q50" s="53"/>
       <c r="R50" s="54"/>
@@ -4885,14 +5067,14 @@
       <c r="AU50" s="48"/>
     </row>
     <row r="51" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A51" s="99" t="s">
+      <c r="A51" s="106" t="s">
         <v>36</v>
       </c>
-      <c r="B51" s="106">
+      <c r="B51" s="108">
         <f t="shared" ref="B51" si="38">SUM(D51:AU51)</f>
-        <v>3</v>
-      </c>
-      <c r="C51" s="108">
+        <v>4</v>
+      </c>
+      <c r="C51" s="110">
         <f t="shared" ref="C51" si="39">SUM(D52:AU52)</f>
         <v>2</v>
       </c>
@@ -4944,13 +5126,15 @@
       <c r="AQ51" s="35"/>
       <c r="AR51" s="36"/>
       <c r="AS51" s="34"/>
-      <c r="AT51" s="34"/>
+      <c r="AT51" s="34">
+        <v>1</v>
+      </c>
       <c r="AU51" s="35"/>
     </row>
     <row r="52" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="103"/>
-      <c r="B52" s="107"/>
-      <c r="C52" s="109"/>
+      <c r="A52" s="107"/>
+      <c r="B52" s="109"/>
+      <c r="C52" s="111"/>
       <c r="D52" s="41">
         <v>1</v>
       </c>
@@ -4968,7 +5152,7 @@
       <c r="N52" s="39"/>
       <c r="O52" s="40"/>
       <c r="P52" s="41"/>
-      <c r="Q52" s="129"/>
+      <c r="Q52" s="67"/>
       <c r="R52" s="42"/>
       <c r="S52" s="43"/>
       <c r="T52" s="41"/>
@@ -5001,14 +5185,14 @@
       <c r="AU52" s="40"/>
     </row>
     <row r="53" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A53" s="110" t="s">
+      <c r="A53" s="112" t="s">
         <v>37</v>
       </c>
-      <c r="B53" s="111">
+      <c r="B53" s="113">
         <f t="shared" ref="B53" si="40">SUM(D53:AU53)</f>
         <v>2</v>
       </c>
-      <c r="C53" s="112">
+      <c r="C53" s="115">
         <f t="shared" ref="C53" si="41">SUM(D54:AU54)</f>
         <v>1</v>
       </c>
@@ -5062,9 +5246,9 @@
       <c r="AU53" s="48"/>
     </row>
     <row r="54" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="103"/>
-      <c r="B54" s="104"/>
-      <c r="C54" s="105"/>
+      <c r="A54" s="107"/>
+      <c r="B54" s="114"/>
+      <c r="C54" s="116"/>
       <c r="D54" s="49"/>
       <c r="E54" s="53"/>
       <c r="F54" s="53">
@@ -5113,176 +5297,176 @@
       <c r="AU54" s="48"/>
     </row>
     <row r="55" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A55" s="93" t="s">
+      <c r="A55" s="100" t="s">
         <v>38</v>
       </c>
-      <c r="B55" s="95">
+      <c r="B55" s="102">
         <f>SUM(B6:B54)</f>
         <v>80</v>
       </c>
-      <c r="C55" s="97">
+      <c r="C55" s="104">
         <f>SUM(C6:C54)</f>
-        <v>16</v>
-      </c>
-      <c r="D55" s="89" cm="1">
+        <v>24</v>
+      </c>
+      <c r="D55" s="94" cm="1">
         <f t="array" ref="D55">SUM(D6:G6+D8:G8+D12:G12+D15:G15+D17:G17+D19:G19+D21:G21+D24:G24+D26:G26+D28:G28+D30:G30+D32:G32+D34:G34+D36:G36+D38:G38+D40:G40+D42:G42+D44:G44+D46:G46+D49:G49+D51:G51+D53:G53)</f>
         <v>8</v>
       </c>
-      <c r="E55" s="84"/>
-      <c r="F55" s="84" cm="1">
+      <c r="E55" s="89"/>
+      <c r="F55" s="89" cm="1">
         <f t="array" ref="F55">SUM(D7:G7+D9:G9+D13:G13+D16:G16+D18:G18+D20:G20+D22:G22+D25:G25+D27:G27+D29:G29+D31:G31+D33:G33+D35:G35+D37:G37+D39:G39+D41:G41+D43:G43+D45:G45+D47:G47+D50:G50+D52:G52+D54:G54)</f>
         <v>8</v>
       </c>
-      <c r="G55" s="85"/>
-      <c r="H55" s="89" cm="1">
+      <c r="G55" s="90"/>
+      <c r="H55" s="94" cm="1">
         <f t="array" ref="H55">SUM(H6:K6+H8:K8+H12:K12+H15:K15+H17:K17+H19:K19+H21:K21+H24:K24+H26:K26+H28:K28+H30:K30+H32:K32+H34:K34+H36:K36+H38:K38+H40:K40+H42:K42+H44:K44+H46:K46+H49:K49+H51:K51+H53:K53)</f>
         <v>8</v>
       </c>
-      <c r="I55" s="84"/>
-      <c r="J55" s="84" cm="1">
+      <c r="I55" s="89"/>
+      <c r="J55" s="89" cm="1">
         <f t="array" ref="J55">SUM(H7:K7+H9:K9+H13:K13+H16:K16+H18:K18+H20:K20+H22:K22+H25:K25+H27:K27+H29:K29+H31:K31+H33:K33+H35:K35+H37:K37+H39:K39+H41:K41+H43:K43+H45:K45+H47:K47+H50:K50+H52:K52+H54:K54)</f>
         <v>8</v>
       </c>
-      <c r="K55" s="85"/>
-      <c r="L55" s="91" cm="1">
+      <c r="K55" s="90"/>
+      <c r="L55" s="98" cm="1">
         <f t="array" ref="L55">SUM(L6:O6+L8:O8+L12:O12+L15:O15+L17:O17+L19:O19+L21:O21+L24:O24+L26:O26+L28:O28+L30:O30+L32:O32+L34:O34+L36:O36+L38:O38+L40:O40+L42:O42+L44:O44+L46:O46+L49:O49+L51:O51+L53:O53)</f>
         <v>8</v>
       </c>
-      <c r="M55" s="84"/>
-      <c r="N55" s="84" cm="1">
+      <c r="M55" s="89"/>
+      <c r="N55" s="89" cm="1">
         <f t="array" ref="N55">SUM(L7:O7+L9:O9+L13:O13+L16:O16+L18:O18+L20:O20+L22:O22+L25:O25+L27:O27+L29:O29+L31:O31+L33:O33+L35:O35+L37:O37+L39:O39+L41:O41+L43:O43+L45:O45+L47:O47+L50:O50+L52:O52+L54:O54)</f>
-        <v>0</v>
-      </c>
-      <c r="O55" s="85"/>
-      <c r="P55" s="89" cm="1">
+        <v>8</v>
+      </c>
+      <c r="O55" s="90"/>
+      <c r="P55" s="94" cm="1">
         <f t="array" ref="P55">SUM(P6:S6+P8:S8+P12:S12+P15:S15+P17:S17+P19:S19+P21:S21+P24:S24+P26:S26+P28:S28+P30:S30+P32:S32+P34:S34+P36:S36+P38:S38+P40:S40+P42:S42+P44:S44+P46:S46+P49:S49+P51:S51+P53:S53)</f>
         <v>4</v>
       </c>
-      <c r="Q55" s="84"/>
-      <c r="R55" s="84" cm="1">
+      <c r="Q55" s="89"/>
+      <c r="R55" s="89" cm="1">
         <f t="array" ref="R55">SUM(P7:S7+P9:S9+P13:S13+P16:S16+P18:S18+P20:S20+P22:S22+P25:S25+P27:S27+P29:S29+P31:S31+P33:S33+P35:S35+P37:S37+P39:S39+P41:S41+P43:S43+P45:S45+P47:S47+P50:S50+P52:S52+P54:S54)</f>
         <v>0</v>
       </c>
-      <c r="S55" s="85"/>
-      <c r="T55" s="89" cm="1">
+      <c r="S55" s="90"/>
+      <c r="T55" s="94" cm="1">
         <f t="array" ref="T55">SUM(T6:W6+T8:W8+T12:W12+T15:W15+T17:W17+T19:W19+T21:W21+T24:W24+T26:W26+T28:W28+T30:W30+T32:W32+T34:W34+T36:W36+T38:W38+T40:W40+T42:W42+T44:W44+T46:W46+T49:W49+T51:W51+T53:W53)</f>
         <v>8</v>
       </c>
-      <c r="U55" s="84"/>
-      <c r="V55" s="84" cm="1">
+      <c r="U55" s="89"/>
+      <c r="V55" s="89" cm="1">
         <f t="array" ref="V55">SUM(T7:W7+T9:W9+T13:W13+T16:W16+T18:W18+T20:W20+T22:W22+T25:W25+T27:W27+T29:W29+T31:W31+T33:W33+T35:W35+T37:W37+T39:W39+T41:W41+T43:W43+T45:W45+T47:W47+T50:W50+T52:W52+T54:W54)</f>
         <v>0</v>
       </c>
-      <c r="W55" s="85"/>
-      <c r="X55" s="89" cm="1">
+      <c r="W55" s="90"/>
+      <c r="X55" s="94" cm="1">
         <f t="array" ref="X55">SUM(X6:AA6+X8:AA8+X12:AA12+X15:AA15+X17:AA17+X19:AA19+X21:AA21+X24:AA24+X26:AA26+X28:AA28+X30:AA30+X32:AA32+X34:AA34+X36:AA36+X38:AA38+X40:AA40+X42:AA42+X44:AA44+X46:AA46+X49:AA49+X51:AA51+X53:AA53)</f>
         <v>8</v>
       </c>
-      <c r="Y55" s="84"/>
-      <c r="Z55" s="84" cm="1">
+      <c r="Y55" s="89"/>
+      <c r="Z55" s="89" cm="1">
         <f t="array" ref="Z55">SUM(X7:AA7+X9:AA9+X13:AA13+X16:AA16+X18:AA18+X20:AA20+X22:AA22+X25:AA25+X27:AA27+X29:AA29+X31:AA31+X33:AA33+X35:AA35+X37:AA37+X39:AA39+X41:AA41+X43:AA43+X45:AA45+X47:AA47+X50:AA50+X52:AA52+X54:AA54)</f>
         <v>0</v>
       </c>
-      <c r="AA55" s="137"/>
-      <c r="AB55" s="89" cm="1">
+      <c r="AA55" s="96"/>
+      <c r="AB55" s="94" cm="1">
         <f t="array" ref="AB55">SUM(AB6:AE6+AB8:AE8+AB12:AE12+AB15:AE15+AB17:AE17+AB19:AE19+AB21:AE21+AB24:AE24+AB26:AE26+AB28:AE28+AB30:AE30+AB32:AE32+AB34:AE34+AB36:AE36+AB38:AE38+AB40:AE40+AB42:AE42+AB44:AE44+AB46:AE46+AB49:AE49+AB51:AE51+AB53:AE53)</f>
         <v>8</v>
       </c>
-      <c r="AC55" s="84"/>
-      <c r="AD55" s="84" cm="1">
+      <c r="AC55" s="89"/>
+      <c r="AD55" s="89" cm="1">
         <f t="array" ref="AD55">SUM(AB7:AE7+AB9:AE9+AB13:AE13+AB16:AE16+AB18:AE18+AB20:AE20+AB22:AE22+AB25:AE25+AB27:AE27+AB29:AE29+AB31:AE31+AB33:AE33+AB35:AE35+AB37:AE37+AB39:AE39+AB41:AE41+AB43:AE43+AB45:AE45+AB47:AE47+AB50:AE50+AB52:AE52+AB54:AE54)</f>
         <v>0</v>
       </c>
-      <c r="AE55" s="85"/>
-      <c r="AF55" s="89" cm="1">
+      <c r="AE55" s="90"/>
+      <c r="AF55" s="94" cm="1">
         <f t="array" ref="AF55">SUM(AF6:AI6+AF8:AI8+AF12:AI12+AF15:AI15+AF17:AI17+AF19:AI19+AF21:AI21+AF24:AI24+AF26:AI26+AF28:AI28+AF30:AI30+AF32:AI32+AF34:AI34+AF36:AI36+AF38:AI38+AF40:AI40+AF42:AI42+AF44:AI44+AF46:AI46+AF49:AI49+AF51:AI51+AF53:AI53)</f>
         <v>4</v>
       </c>
-      <c r="AG55" s="84"/>
-      <c r="AH55" s="84" cm="1">
+      <c r="AG55" s="89"/>
+      <c r="AH55" s="89" cm="1">
         <f t="array" ref="AH55">SUM(AF7:AI7+AF9:AI9+AF13:AI13+AF16:AI16+AF18:AI18+AF20:AI20+AF22:AI22+AF25:AI25+AF27:AI27+AF29:AI29+AF31:AI31+AF33:AI33+AF35:AI35+AF37:AI37+AF39:AI39+AF41:AI41+AF43:AI43+AF45:AI45+AF47:AI47+AF50:AI50+AF52:AI52+AF54:AI54)</f>
         <v>0</v>
       </c>
-      <c r="AI55" s="85"/>
-      <c r="AJ55" s="89" cm="1">
+      <c r="AI55" s="90"/>
+      <c r="AJ55" s="94" cm="1">
         <f t="array" ref="AJ55">SUM(AJ6:AM6+AJ8:AM8+AJ12:AM12+AJ15:AM15+AJ17:AM17+AJ19:AM19+AJ21:AM21+AJ24:AM24+AJ26:AM26+AJ28:AM28+AJ30:AM30+AJ32:AM32+AJ34:AM34+AJ36:AM36+AJ38:AM38+AJ40:AM40+AJ42:AM42+AJ44:AM44+AJ46:AM46+AJ49:AM49+AJ51:AM51+AJ53:AM53)</f>
         <v>8</v>
       </c>
-      <c r="AK55" s="84"/>
-      <c r="AL55" s="84" cm="1">
+      <c r="AK55" s="89"/>
+      <c r="AL55" s="89" cm="1">
         <f t="array" ref="AL55">SUM(AJ7:AM7+AJ9:AM9+AJ13:AM13+AJ16:AM16+AJ18:AM18+AJ20:AM20+AJ22:AM22+AJ25:AM25+AJ27:AM27+AJ29:AM29+AJ31:AM31+AJ33:AM33+AJ35:AM35+AJ37:AM37+AJ39:AM39+AJ41:AM41+AJ43:AM43+AJ45:AM45+AJ47:AM47+AJ50:AM50+AJ52:AM52+AJ54:AM54)</f>
         <v>0</v>
       </c>
-      <c r="AM55" s="85"/>
-      <c r="AN55" s="89" cm="1">
+      <c r="AM55" s="90"/>
+      <c r="AN55" s="94" cm="1">
         <f t="array" ref="AN55">SUM(AN6:AQ6+AN8:AQ8+AN12:AQ12+AN15:AQ15+AN17:AQ17+AN19:AQ19+AN21:AQ21+AN24:AQ24+AN26:AQ26+AN28:AQ28+AN30:AQ30+AN32:AQ32+AN34:AQ34+AN36:AQ36+AN38:AQ38+AN40:AQ40+AN42:AQ42+AN44:AQ44+AN46:AQ46+AN49:AQ49+AN51:AQ51+AN53:AQ53)</f>
         <v>8</v>
       </c>
-      <c r="AO55" s="84"/>
-      <c r="AP55" s="84" cm="1">
+      <c r="AO55" s="89"/>
+      <c r="AP55" s="89" cm="1">
         <f t="array" ref="AP55">SUM(AN7:AQ7+AN9:AQ9+AN13:AQ13+AN16:AQ16+AN18:AQ18+AN20:AQ20+AN22:AQ22+AN25:AQ25+AN27:AQ27+AN29:AQ29+AN31:AQ31+AN33:AQ33+AN35:AQ35+AN37:AQ37+AN39:AQ39+AN41:AQ41+AN43:AQ43+AN45:AQ45+AN47:AQ47+AN50:AQ50+AN52:AQ52+AN54:AQ54)</f>
         <v>0</v>
       </c>
-      <c r="AQ55" s="85"/>
-      <c r="AR55" s="89" cm="1">
+      <c r="AQ55" s="90"/>
+      <c r="AR55" s="94" cm="1">
         <f t="array" ref="AR55">SUM(AR6:AU6+AR8:AU8+AR12:AU12+AR15:AU15+AR17:AU17+AR19:AU19+AR21:AU21+AR24:AU24+AR26:AU26+AR28:AU28+AR30:AU30+AR32:AU32+AR34:AU34+AR36:AU36+AR38:AU38+AR40:AU40+AR42:AU42+AR44:AU44+AR46:AU46+AR49:AU49+AR51:AU51+AR53:AU53)</f>
         <v>8</v>
       </c>
-      <c r="AS55" s="84"/>
-      <c r="AT55" s="84" cm="1">
+      <c r="AS55" s="89"/>
+      <c r="AT55" s="89" cm="1">
         <f t="array" ref="AT55">SUM(AR7:AU7+AR9:AU9+AR13:AU13+AR16:AU16+AR18:AU18+AR20:AU20+AR22:AU22+AR25:AU25+AR27:AU27+AR29:AU29+AR31:AU31+AR33:AU33+AR35:AU35+AR37:AU37+AR39:AU39+AR41:AU41+AR43:AU43+AR45:AU45+AR47:AU47+AR50:AU50+AR52:AU52+AR54:AU54)</f>
         <v>0</v>
       </c>
-      <c r="AU55" s="85"/>
+      <c r="AU55" s="90"/>
     </row>
     <row r="56" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="94"/>
-      <c r="B56" s="96"/>
-      <c r="C56" s="98"/>
-      <c r="D56" s="90"/>
-      <c r="E56" s="86"/>
-      <c r="F56" s="86"/>
-      <c r="G56" s="87"/>
-      <c r="H56" s="90"/>
-      <c r="I56" s="86"/>
-      <c r="J56" s="86"/>
-      <c r="K56" s="87"/>
-      <c r="L56" s="92"/>
-      <c r="M56" s="86"/>
-      <c r="N56" s="86"/>
-      <c r="O56" s="87"/>
-      <c r="P56" s="90"/>
-      <c r="Q56" s="86"/>
-      <c r="R56" s="86"/>
-      <c r="S56" s="87"/>
-      <c r="T56" s="90"/>
-      <c r="U56" s="86"/>
-      <c r="V56" s="86"/>
-      <c r="W56" s="87"/>
-      <c r="X56" s="90"/>
-      <c r="Y56" s="86"/>
-      <c r="Z56" s="86"/>
-      <c r="AA56" s="138"/>
-      <c r="AB56" s="90"/>
-      <c r="AC56" s="86"/>
-      <c r="AD56" s="86"/>
-      <c r="AE56" s="87"/>
-      <c r="AF56" s="90"/>
-      <c r="AG56" s="86"/>
-      <c r="AH56" s="86"/>
-      <c r="AI56" s="87"/>
-      <c r="AJ56" s="90"/>
-      <c r="AK56" s="86"/>
-      <c r="AL56" s="86"/>
-      <c r="AM56" s="87"/>
-      <c r="AN56" s="90"/>
-      <c r="AO56" s="86"/>
-      <c r="AP56" s="86"/>
-      <c r="AQ56" s="87"/>
-      <c r="AR56" s="90"/>
-      <c r="AS56" s="86"/>
-      <c r="AT56" s="86"/>
-      <c r="AU56" s="87"/>
+      <c r="A56" s="101"/>
+      <c r="B56" s="103"/>
+      <c r="C56" s="105"/>
+      <c r="D56" s="95"/>
+      <c r="E56" s="91"/>
+      <c r="F56" s="91"/>
+      <c r="G56" s="92"/>
+      <c r="H56" s="95"/>
+      <c r="I56" s="91"/>
+      <c r="J56" s="91"/>
+      <c r="K56" s="92"/>
+      <c r="L56" s="99"/>
+      <c r="M56" s="91"/>
+      <c r="N56" s="91"/>
+      <c r="O56" s="92"/>
+      <c r="P56" s="95"/>
+      <c r="Q56" s="91"/>
+      <c r="R56" s="91"/>
+      <c r="S56" s="92"/>
+      <c r="T56" s="95"/>
+      <c r="U56" s="91"/>
+      <c r="V56" s="91"/>
+      <c r="W56" s="92"/>
+      <c r="X56" s="95"/>
+      <c r="Y56" s="91"/>
+      <c r="Z56" s="91"/>
+      <c r="AA56" s="97"/>
+      <c r="AB56" s="95"/>
+      <c r="AC56" s="91"/>
+      <c r="AD56" s="91"/>
+      <c r="AE56" s="92"/>
+      <c r="AF56" s="95"/>
+      <c r="AG56" s="91"/>
+      <c r="AH56" s="91"/>
+      <c r="AI56" s="92"/>
+      <c r="AJ56" s="95"/>
+      <c r="AK56" s="91"/>
+      <c r="AL56" s="91"/>
+      <c r="AM56" s="92"/>
+      <c r="AN56" s="95"/>
+      <c r="AO56" s="91"/>
+      <c r="AP56" s="91"/>
+      <c r="AQ56" s="92"/>
+      <c r="AR56" s="95"/>
+      <c r="AS56" s="91"/>
+      <c r="AT56" s="91"/>
+      <c r="AU56" s="92"/>
     </row>
     <row r="57" spans="1:47" ht="17" x14ac:dyDescent="0.25">
       <c r="A57" s="6"/>
@@ -5292,94 +5476,94 @@
       <c r="C57" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D57" s="82" t="s">
+      <c r="D57" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="E57" s="83"/>
-      <c r="F57" s="79" t="s">
+      <c r="E57" s="87"/>
+      <c r="F57" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="G57" s="80"/>
-      <c r="H57" s="82" t="s">
+      <c r="G57" s="83"/>
+      <c r="H57" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="I57" s="83"/>
-      <c r="J57" s="79" t="s">
+      <c r="I57" s="87"/>
+      <c r="J57" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="K57" s="80"/>
-      <c r="L57" s="88" t="s">
+      <c r="K57" s="83"/>
+      <c r="L57" s="93" t="s">
         <v>14</v>
       </c>
-      <c r="M57" s="83"/>
-      <c r="N57" s="79" t="s">
+      <c r="M57" s="87"/>
+      <c r="N57" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="O57" s="80"/>
-      <c r="P57" s="82" t="s">
+      <c r="O57" s="83"/>
+      <c r="P57" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="Q57" s="83"/>
-      <c r="R57" s="79" t="s">
+      <c r="Q57" s="87"/>
+      <c r="R57" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="S57" s="80"/>
-      <c r="T57" s="82" t="s">
+      <c r="S57" s="83"/>
+      <c r="T57" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="U57" s="83"/>
-      <c r="V57" s="79" t="s">
+      <c r="U57" s="87"/>
+      <c r="V57" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="W57" s="80"/>
-      <c r="X57" s="82" t="s">
+      <c r="W57" s="83"/>
+      <c r="X57" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="Y57" s="83"/>
-      <c r="Z57" s="79" t="s">
+      <c r="Y57" s="87"/>
+      <c r="Z57" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="AA57" s="139"/>
-      <c r="AB57" s="82" t="s">
+      <c r="AA57" s="88"/>
+      <c r="AB57" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="AC57" s="83"/>
-      <c r="AD57" s="79" t="s">
+      <c r="AC57" s="87"/>
+      <c r="AD57" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="AE57" s="80"/>
-      <c r="AF57" s="82" t="s">
+      <c r="AE57" s="83"/>
+      <c r="AF57" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="AG57" s="83"/>
-      <c r="AH57" s="79" t="s">
+      <c r="AG57" s="87"/>
+      <c r="AH57" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="AI57" s="80"/>
-      <c r="AJ57" s="82" t="s">
+      <c r="AI57" s="83"/>
+      <c r="AJ57" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="AK57" s="83"/>
-      <c r="AL57" s="79" t="s">
+      <c r="AK57" s="87"/>
+      <c r="AL57" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="AM57" s="80"/>
-      <c r="AN57" s="82" t="s">
+      <c r="AM57" s="83"/>
+      <c r="AN57" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="AO57" s="83"/>
-      <c r="AP57" s="79" t="s">
+      <c r="AO57" s="87"/>
+      <c r="AP57" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="AQ57" s="80"/>
-      <c r="AR57" s="82" t="s">
+      <c r="AQ57" s="83"/>
+      <c r="AR57" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="AS57" s="83"/>
-      <c r="AT57" s="79" t="s">
+      <c r="AS57" s="87"/>
+      <c r="AT57" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="AU57" s="80"/>
+      <c r="AU57" s="83"/>
     </row>
     <row r="58" spans="1:47" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="8"/>
@@ -5389,150 +5573,150 @@
       <c r="C58" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="D58" s="76">
+      <c r="D58" s="79">
         <f>D3</f>
         <v>43873</v>
       </c>
-      <c r="E58" s="77"/>
-      <c r="F58" s="77"/>
-      <c r="G58" s="78"/>
-      <c r="H58" s="76">
+      <c r="E58" s="80"/>
+      <c r="F58" s="80"/>
+      <c r="G58" s="81"/>
+      <c r="H58" s="79">
         <f>H3</f>
         <v>43874</v>
       </c>
-      <c r="I58" s="77"/>
-      <c r="J58" s="77"/>
-      <c r="K58" s="78"/>
-      <c r="L58" s="81">
+      <c r="I58" s="80"/>
+      <c r="J58" s="80"/>
+      <c r="K58" s="81"/>
+      <c r="L58" s="84">
         <f>L3</f>
         <v>43875</v>
       </c>
-      <c r="M58" s="77"/>
-      <c r="N58" s="77"/>
-      <c r="O58" s="78"/>
-      <c r="P58" s="76">
+      <c r="M58" s="80"/>
+      <c r="N58" s="80"/>
+      <c r="O58" s="81"/>
+      <c r="P58" s="79">
         <f>P3</f>
         <v>43878</v>
       </c>
-      <c r="Q58" s="77"/>
-      <c r="R58" s="77"/>
-      <c r="S58" s="78"/>
-      <c r="T58" s="76">
+      <c r="Q58" s="80"/>
+      <c r="R58" s="80"/>
+      <c r="S58" s="81"/>
+      <c r="T58" s="79">
         <f>T3</f>
         <v>43880</v>
       </c>
-      <c r="U58" s="77"/>
-      <c r="V58" s="77"/>
-      <c r="W58" s="78"/>
-      <c r="X58" s="76">
+      <c r="U58" s="80"/>
+      <c r="V58" s="80"/>
+      <c r="W58" s="81"/>
+      <c r="X58" s="79">
         <f>X3</f>
         <v>43881</v>
       </c>
-      <c r="Y58" s="77"/>
-      <c r="Z58" s="77"/>
-      <c r="AA58" s="140"/>
-      <c r="AB58" s="76">
+      <c r="Y58" s="80"/>
+      <c r="Z58" s="80"/>
+      <c r="AA58" s="85"/>
+      <c r="AB58" s="79">
         <f>AB3</f>
         <v>43882</v>
       </c>
-      <c r="AC58" s="77"/>
-      <c r="AD58" s="77"/>
-      <c r="AE58" s="78"/>
-      <c r="AF58" s="76">
+      <c r="AC58" s="80"/>
+      <c r="AD58" s="80"/>
+      <c r="AE58" s="81"/>
+      <c r="AF58" s="79">
         <f>AF3</f>
         <v>43885</v>
       </c>
-      <c r="AG58" s="77"/>
-      <c r="AH58" s="77"/>
-      <c r="AI58" s="78"/>
-      <c r="AJ58" s="76">
+      <c r="AG58" s="80"/>
+      <c r="AH58" s="80"/>
+      <c r="AI58" s="81"/>
+      <c r="AJ58" s="79">
         <f>AJ3</f>
         <v>43887</v>
       </c>
-      <c r="AK58" s="77"/>
-      <c r="AL58" s="77"/>
-      <c r="AM58" s="78"/>
-      <c r="AN58" s="76">
+      <c r="AK58" s="80"/>
+      <c r="AL58" s="80"/>
+      <c r="AM58" s="81"/>
+      <c r="AN58" s="79">
         <f>AN3</f>
         <v>43888</v>
       </c>
-      <c r="AO58" s="77"/>
-      <c r="AP58" s="77"/>
-      <c r="AQ58" s="78"/>
-      <c r="AR58" s="76">
+      <c r="AO58" s="80"/>
+      <c r="AP58" s="80"/>
+      <c r="AQ58" s="81"/>
+      <c r="AR58" s="79">
         <f>AR3</f>
         <v>43889</v>
       </c>
-      <c r="AS58" s="77"/>
-      <c r="AT58" s="77"/>
-      <c r="AU58" s="78"/>
+      <c r="AS58" s="80"/>
+      <c r="AT58" s="80"/>
+      <c r="AU58" s="81"/>
     </row>
     <row r="59" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="60" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="73" t="s">
+      <c r="A60" s="76" t="s">
         <v>40</v>
       </c>
-      <c r="B60" s="74"/>
-      <c r="C60" s="75"/>
+      <c r="B60" s="77"/>
+      <c r="C60" s="78"/>
     </row>
     <row r="61" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A61" s="71" t="s">
+      <c r="A61" s="74" t="s">
         <v>41</v>
       </c>
-      <c r="B61" s="72"/>
+      <c r="B61" s="75"/>
       <c r="C61" s="18"/>
     </row>
     <row r="62" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A62" s="71" t="s">
+      <c r="A62" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="B62" s="72"/>
+      <c r="B62" s="75"/>
       <c r="C62" s="19"/>
     </row>
     <row r="63" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A63" s="71" t="s">
+      <c r="A63" s="74" t="s">
         <v>43</v>
       </c>
-      <c r="B63" s="72"/>
+      <c r="B63" s="75"/>
       <c r="C63" s="20"/>
     </row>
     <row r="64" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A64" s="71" t="s">
+      <c r="A64" s="74" t="s">
         <v>44</v>
       </c>
-      <c r="B64" s="72"/>
+      <c r="B64" s="75"/>
       <c r="C64" s="21"/>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A65" s="71" t="s">
+      <c r="A65" s="74" t="s">
         <v>45</v>
       </c>
-      <c r="B65" s="72"/>
+      <c r="B65" s="75"/>
       <c r="C65" s="22"/>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A66" s="71" t="s">
+      <c r="A66" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="B66" s="72"/>
+      <c r="B66" s="75"/>
       <c r="C66" s="23" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A67" s="71" t="s">
+      <c r="A67" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="B67" s="72"/>
+      <c r="B67" s="75"/>
       <c r="C67" s="23" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="69" t="s">
+      <c r="A68" s="72" t="s">
         <v>48</v>
       </c>
-      <c r="B68" s="70"/>
+      <c r="B68" s="73"/>
       <c r="C68" s="24"/>
     </row>
     <row r="69" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
@@ -5545,28 +5729,28 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" s="29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B71" s="25"/>
       <c r="C71" s="27"/>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" s="29" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B72" s="25"/>
       <c r="C72" s="27"/>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" s="29" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B73" s="25"/>
       <c r="C73" s="27"/>
     </row>
     <row r="74" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A74" s="30" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B74" s="25"/>
       <c r="C74" s="27"/>
@@ -5764,91 +5948,109 @@
     <mergeCell ref="A61:B61"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="D6:AU6 D8:AU8 D12:J12 L12:AU12 K13">
-    <cfRule type="cellIs" dxfId="18" priority="30" operator="greaterThan">
+  <conditionalFormatting sqref="D6:AU6 D8:AU8 D12:J12 L12:AU12 K13 D44:AR44 AT44:AU44 AR45">
+    <cfRule type="cellIs" dxfId="26" priority="34" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D7:AU7 D33:AC33 AE33:AU33 M16:AU16 D20:M20 O20:AU20 D31:Z31 AB31:AU31 AB30 D52:P52 R52:AU52 Q51 D16:F16 H16:K16 G15 J9:AU9 D9:H9">
-    <cfRule type="cellIs" dxfId="17" priority="29" operator="greaterThan">
+  <conditionalFormatting sqref="D7:AU7 D33:AC33 AE33:AU33 D20:M20 O20:AU20 D31:Z31 AB31:AU31 AB30 D52:P52 R52:AU52 Q51 J9:AU9 D9:H9">
+    <cfRule type="cellIs" dxfId="25" priority="33" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13:AU13">
-    <cfRule type="cellIs" dxfId="16" priority="25" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="24" priority="29" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D15:AU15 D19:AU19 D21:AU21">
-    <cfRule type="cellIs" dxfId="15" priority="24" operator="greaterThan">
+  <conditionalFormatting sqref="D19:AU19 D21:AU21">
+    <cfRule type="cellIs" dxfId="23" priority="28" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D22:AU22">
-    <cfRule type="cellIs" dxfId="14" priority="23" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="22" priority="27" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:AU17">
-    <cfRule type="cellIs" dxfId="13" priority="22" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="21" priority="26" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18:AU18">
-    <cfRule type="cellIs" dxfId="12" priority="21" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="20" priority="25" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D24:AU24 D26:AU26 D28:AU28 D30:AU30 D32:AU32 D34:AU34 D36:AU36 D38:AU38 D40:AU40 D42:AU42 D44:AU44 D46:AU46">
-    <cfRule type="cellIs" dxfId="11" priority="20" operator="greaterThan">
+  <conditionalFormatting sqref="D24:AU24 D26:AU26 D28:AU28 D30:AU30 D32:AU32 D34:AU34 D36:AU36 D38:AU38 D40:AU40 D42:AU42 D46:AU46">
+    <cfRule type="cellIs" dxfId="19" priority="24" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25:AU25 D27:AU27 D29:AU29 D35:AU35 D37:AU37 D39:AU39 D41:AU41 D43:AU43 D45:AU45 D47:AU47">
-    <cfRule type="cellIs" dxfId="10" priority="19" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="18" priority="23" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D49:AU49 D51:AU51 D53:AU53">
-    <cfRule type="cellIs" dxfId="9" priority="18" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="17" priority="22" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D50:AU50 D54:AU54">
-    <cfRule type="cellIs" dxfId="8" priority="17" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="16" priority="21" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C6:C9 C15:C16 C19:C22">
-    <cfRule type="cellIs" dxfId="7" priority="15" operator="greaterThan">
+  <conditionalFormatting sqref="C6:C9 C19:C22">
+    <cfRule type="cellIs" dxfId="15" priority="19" operator="greaterThan">
       <formula>$B6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="16" operator="lessThan">
+    <cfRule type="cellIs" dxfId="14" priority="20" operator="lessThan">
       <formula>$B6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12:C13">
-    <cfRule type="cellIs" dxfId="5" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="13" priority="13" operator="greaterThan">
       <formula>$B12</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="10" operator="lessThan">
+    <cfRule type="cellIs" dxfId="12" priority="14" operator="lessThan">
       <formula>$B12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17:C18">
-    <cfRule type="cellIs" dxfId="3" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="11" priority="9" operator="greaterThan">
       <formula>$B17</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="10" priority="10" operator="lessThan">
       <formula>$B17</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C24:C47 C49:C54">
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="9" priority="7" operator="lessThan">
       <formula>$B24</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="8" priority="8" operator="greaterThan">
       <formula>$B24</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D15:J15 L15:AU15 K16">
+    <cfRule type="cellIs" dxfId="7" priority="4" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D16:AU16">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C15:C16">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="greaterThan">
+      <formula>$B15</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="lessThan">
+      <formula>$B15</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/02_zeitplan/IPA_Zeitplan_Kabilan_Sivanamam.xlsx
+++ b/02_zeitplan/IPA_Zeitplan_Kabilan_Sivanamam.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kabi/Documents/GitHub/IPA2020/02_zeitplan/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{645E7C04-79CD-A045-BCF8-44F7B5B3F5BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71E73835-7470-734B-A732-ED794DB31829}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{919B10DA-F269-3C46-8A86-B94EB657325B}"/>
   </bookViews>
@@ -165,9 +165,6 @@
     <t>Durchgehend</t>
   </si>
   <si>
-    <t>Sitzung mit Fachvorgesetzten</t>
-  </si>
-  <si>
     <t>Sitzung mit Experten</t>
   </si>
   <si>
@@ -238,6 +235,9 @@
   </si>
   <si>
     <t>Namenskonzept und Datenbankmodell erstellen</t>
+  </si>
+  <si>
+    <t>Sitzung mit verantwortlicher Fachkraft</t>
   </si>
 </sst>
 </file>
@@ -1077,228 +1077,6 @@
     <xf numFmtId="1" fontId="0" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="3" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="3" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="3" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="3" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
@@ -1320,25 +1098,233 @@
     <xf numFmtId="1" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="3" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="3" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="3" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="3" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="27">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="23">
     <dxf>
       <fill>
         <patternFill>
@@ -1357,20 +1343,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2170,8 +2142,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE2EA0AA-2CD7-9C47-95CA-C0AE6CDA2CB2}">
   <dimension ref="A1:AU74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="113" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="113" workbookViewId="0">
+      <selection activeCell="N47" sqref="N47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2183,230 +2155,230 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="123" t="s">
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="146" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="124"/>
-      <c r="F1" s="124"/>
-      <c r="G1" s="125"/>
-      <c r="H1" s="123" t="s">
+      <c r="E1" s="147"/>
+      <c r="F1" s="147"/>
+      <c r="G1" s="148"/>
+      <c r="H1" s="146" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="124"/>
-      <c r="J1" s="124"/>
-      <c r="K1" s="125"/>
-      <c r="L1" s="138" t="s">
+      <c r="I1" s="147"/>
+      <c r="J1" s="147"/>
+      <c r="K1" s="148"/>
+      <c r="L1" s="161" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="124"/>
-      <c r="N1" s="124"/>
-      <c r="O1" s="125"/>
-      <c r="P1" s="123" t="s">
+      <c r="M1" s="147"/>
+      <c r="N1" s="147"/>
+      <c r="O1" s="148"/>
+      <c r="P1" s="146" t="s">
         <v>4</v>
       </c>
-      <c r="Q1" s="124"/>
-      <c r="R1" s="124"/>
-      <c r="S1" s="125"/>
-      <c r="T1" s="123" t="s">
+      <c r="Q1" s="147"/>
+      <c r="R1" s="147"/>
+      <c r="S1" s="148"/>
+      <c r="T1" s="146" t="s">
         <v>5</v>
       </c>
-      <c r="U1" s="124"/>
-      <c r="V1" s="124"/>
-      <c r="W1" s="125"/>
-      <c r="X1" s="123" t="s">
+      <c r="U1" s="147"/>
+      <c r="V1" s="147"/>
+      <c r="W1" s="148"/>
+      <c r="X1" s="146" t="s">
         <v>6</v>
       </c>
-      <c r="Y1" s="124"/>
-      <c r="Z1" s="124"/>
-      <c r="AA1" s="134"/>
-      <c r="AB1" s="123" t="s">
+      <c r="Y1" s="147"/>
+      <c r="Z1" s="147"/>
+      <c r="AA1" s="157"/>
+      <c r="AB1" s="146" t="s">
         <v>7</v>
       </c>
-      <c r="AC1" s="124"/>
-      <c r="AD1" s="124"/>
-      <c r="AE1" s="125"/>
-      <c r="AF1" s="123" t="s">
+      <c r="AC1" s="147"/>
+      <c r="AD1" s="147"/>
+      <c r="AE1" s="148"/>
+      <c r="AF1" s="146" t="s">
         <v>8</v>
       </c>
-      <c r="AG1" s="124"/>
-      <c r="AH1" s="124"/>
-      <c r="AI1" s="125"/>
-      <c r="AJ1" s="123" t="s">
+      <c r="AG1" s="147"/>
+      <c r="AH1" s="147"/>
+      <c r="AI1" s="148"/>
+      <c r="AJ1" s="146" t="s">
         <v>9</v>
       </c>
-      <c r="AK1" s="124"/>
-      <c r="AL1" s="124"/>
-      <c r="AM1" s="125"/>
-      <c r="AN1" s="123" t="s">
+      <c r="AK1" s="147"/>
+      <c r="AL1" s="147"/>
+      <c r="AM1" s="148"/>
+      <c r="AN1" s="146" t="s">
         <v>10</v>
       </c>
-      <c r="AO1" s="124"/>
-      <c r="AP1" s="124"/>
-      <c r="AQ1" s="125"/>
-      <c r="AR1" s="123" t="s">
+      <c r="AO1" s="147"/>
+      <c r="AP1" s="147"/>
+      <c r="AQ1" s="148"/>
+      <c r="AR1" s="146" t="s">
         <v>11</v>
       </c>
-      <c r="AS1" s="124"/>
-      <c r="AT1" s="124"/>
-      <c r="AU1" s="125"/>
+      <c r="AS1" s="147"/>
+      <c r="AT1" s="147"/>
+      <c r="AU1" s="148"/>
     </row>
     <row r="2" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A2" s="75"/>
-      <c r="B2" s="75"/>
-      <c r="C2" s="75"/>
-      <c r="D2" s="126" t="str">
+      <c r="A2" s="92"/>
+      <c r="B2" s="92"/>
+      <c r="C2" s="92"/>
+      <c r="D2" s="149" t="str">
         <f>TEXT(D3,"ddd")</f>
         <v>Wed</v>
       </c>
-      <c r="E2" s="127"/>
-      <c r="F2" s="127"/>
-      <c r="G2" s="128"/>
-      <c r="H2" s="126" t="str">
+      <c r="E2" s="150"/>
+      <c r="F2" s="150"/>
+      <c r="G2" s="151"/>
+      <c r="H2" s="149" t="str">
         <f t="shared" ref="H2" si="0">TEXT(H3,"ddd")</f>
         <v>Thu</v>
       </c>
-      <c r="I2" s="127"/>
-      <c r="J2" s="127"/>
-      <c r="K2" s="128"/>
-      <c r="L2" s="139" t="str">
+      <c r="I2" s="150"/>
+      <c r="J2" s="150"/>
+      <c r="K2" s="151"/>
+      <c r="L2" s="162" t="str">
         <f t="shared" ref="L2" si="1">TEXT(L3,"ddd")</f>
         <v>Fri</v>
       </c>
-      <c r="M2" s="127"/>
-      <c r="N2" s="127"/>
-      <c r="O2" s="128"/>
-      <c r="P2" s="126" t="str">
+      <c r="M2" s="150"/>
+      <c r="N2" s="150"/>
+      <c r="O2" s="151"/>
+      <c r="P2" s="149" t="str">
         <f t="shared" ref="P2" si="2">TEXT(P3,"ddd")</f>
         <v>Mon</v>
       </c>
-      <c r="Q2" s="127"/>
-      <c r="R2" s="127"/>
-      <c r="S2" s="128"/>
-      <c r="T2" s="126" t="str">
+      <c r="Q2" s="150"/>
+      <c r="R2" s="150"/>
+      <c r="S2" s="151"/>
+      <c r="T2" s="149" t="str">
         <f t="shared" ref="T2" si="3">TEXT(T3,"ddd")</f>
         <v>Wed</v>
       </c>
-      <c r="U2" s="127"/>
-      <c r="V2" s="127"/>
-      <c r="W2" s="128"/>
-      <c r="X2" s="126" t="str">
+      <c r="U2" s="150"/>
+      <c r="V2" s="150"/>
+      <c r="W2" s="151"/>
+      <c r="X2" s="149" t="str">
         <f t="shared" ref="X2" si="4">TEXT(X3,"ddd")</f>
         <v>Thu</v>
       </c>
-      <c r="Y2" s="127"/>
-      <c r="Z2" s="127"/>
-      <c r="AA2" s="135"/>
-      <c r="AB2" s="126" t="str">
+      <c r="Y2" s="150"/>
+      <c r="Z2" s="150"/>
+      <c r="AA2" s="158"/>
+      <c r="AB2" s="149" t="str">
         <f t="shared" ref="AB2" si="5">TEXT(AB3,"ddd")</f>
         <v>Fri</v>
       </c>
-      <c r="AC2" s="127"/>
-      <c r="AD2" s="127"/>
-      <c r="AE2" s="128"/>
-      <c r="AF2" s="126" t="str">
+      <c r="AC2" s="150"/>
+      <c r="AD2" s="150"/>
+      <c r="AE2" s="151"/>
+      <c r="AF2" s="149" t="str">
         <f t="shared" ref="AF2" si="6">TEXT(AF3,"ddd")</f>
         <v>Mon</v>
       </c>
-      <c r="AG2" s="127"/>
-      <c r="AH2" s="127"/>
-      <c r="AI2" s="128"/>
-      <c r="AJ2" s="126" t="str">
+      <c r="AG2" s="150"/>
+      <c r="AH2" s="150"/>
+      <c r="AI2" s="151"/>
+      <c r="AJ2" s="149" t="str">
         <f t="shared" ref="AJ2" si="7">TEXT(AJ3,"ddd")</f>
         <v>Wed</v>
       </c>
-      <c r="AK2" s="127"/>
-      <c r="AL2" s="127"/>
-      <c r="AM2" s="128"/>
-      <c r="AN2" s="126" t="str">
+      <c r="AK2" s="150"/>
+      <c r="AL2" s="150"/>
+      <c r="AM2" s="151"/>
+      <c r="AN2" s="149" t="str">
         <f t="shared" ref="AN2" si="8">TEXT(AN3,"ddd")</f>
         <v>Thu</v>
       </c>
-      <c r="AO2" s="127"/>
-      <c r="AP2" s="127"/>
-      <c r="AQ2" s="128"/>
-      <c r="AR2" s="126" t="str">
+      <c r="AO2" s="150"/>
+      <c r="AP2" s="150"/>
+      <c r="AQ2" s="151"/>
+      <c r="AR2" s="149" t="str">
         <f t="shared" ref="AR2" si="9">TEXT(AR3,"ddd")</f>
         <v>Fri</v>
       </c>
-      <c r="AS2" s="127"/>
-      <c r="AT2" s="127"/>
-      <c r="AU2" s="128"/>
+      <c r="AS2" s="150"/>
+      <c r="AT2" s="150"/>
+      <c r="AU2" s="151"/>
     </row>
     <row r="3" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A3" s="75"/>
-      <c r="B3" s="75"/>
-      <c r="C3" s="75"/>
-      <c r="D3" s="129">
+      <c r="A3" s="92"/>
+      <c r="B3" s="92"/>
+      <c r="C3" s="92"/>
+      <c r="D3" s="152">
         <v>43873</v>
       </c>
-      <c r="E3" s="130"/>
-      <c r="F3" s="130"/>
-      <c r="G3" s="131"/>
-      <c r="H3" s="129">
+      <c r="E3" s="153"/>
+      <c r="F3" s="153"/>
+      <c r="G3" s="154"/>
+      <c r="H3" s="152">
         <v>43874</v>
       </c>
-      <c r="I3" s="130"/>
-      <c r="J3" s="130"/>
-      <c r="K3" s="131"/>
-      <c r="L3" s="136">
+      <c r="I3" s="153"/>
+      <c r="J3" s="153"/>
+      <c r="K3" s="154"/>
+      <c r="L3" s="159">
         <v>43875</v>
       </c>
-      <c r="M3" s="130"/>
-      <c r="N3" s="130"/>
-      <c r="O3" s="131"/>
-      <c r="P3" s="129">
+      <c r="M3" s="153"/>
+      <c r="N3" s="153"/>
+      <c r="O3" s="154"/>
+      <c r="P3" s="152">
         <v>43878</v>
       </c>
-      <c r="Q3" s="130"/>
-      <c r="R3" s="130"/>
-      <c r="S3" s="131"/>
-      <c r="T3" s="129">
+      <c r="Q3" s="153"/>
+      <c r="R3" s="153"/>
+      <c r="S3" s="154"/>
+      <c r="T3" s="152">
         <v>43880</v>
       </c>
-      <c r="U3" s="130"/>
-      <c r="V3" s="130"/>
-      <c r="W3" s="131"/>
-      <c r="X3" s="129">
+      <c r="U3" s="153"/>
+      <c r="V3" s="153"/>
+      <c r="W3" s="154"/>
+      <c r="X3" s="152">
         <v>43881</v>
       </c>
-      <c r="Y3" s="130"/>
-      <c r="Z3" s="130"/>
-      <c r="AA3" s="132"/>
-      <c r="AB3" s="129">
+      <c r="Y3" s="153"/>
+      <c r="Z3" s="153"/>
+      <c r="AA3" s="155"/>
+      <c r="AB3" s="152">
         <v>43882</v>
       </c>
-      <c r="AC3" s="130"/>
-      <c r="AD3" s="130"/>
-      <c r="AE3" s="131"/>
-      <c r="AF3" s="129">
+      <c r="AC3" s="153"/>
+      <c r="AD3" s="153"/>
+      <c r="AE3" s="154"/>
+      <c r="AF3" s="152">
         <v>43885</v>
       </c>
-      <c r="AG3" s="130"/>
-      <c r="AH3" s="130"/>
-      <c r="AI3" s="131"/>
-      <c r="AJ3" s="129">
+      <c r="AG3" s="153"/>
+      <c r="AH3" s="153"/>
+      <c r="AI3" s="154"/>
+      <c r="AJ3" s="152">
         <v>43887</v>
       </c>
-      <c r="AK3" s="130"/>
-      <c r="AL3" s="130"/>
-      <c r="AM3" s="131"/>
-      <c r="AN3" s="129">
+      <c r="AK3" s="153"/>
+      <c r="AL3" s="153"/>
+      <c r="AM3" s="154"/>
+      <c r="AN3" s="152">
         <v>43888</v>
       </c>
-      <c r="AO3" s="130"/>
-      <c r="AP3" s="130"/>
-      <c r="AQ3" s="131"/>
-      <c r="AR3" s="129">
+      <c r="AO3" s="153"/>
+      <c r="AP3" s="153"/>
+      <c r="AQ3" s="154"/>
+      <c r="AR3" s="152">
         <v>43889</v>
       </c>
-      <c r="AS3" s="130"/>
-      <c r="AT3" s="130"/>
-      <c r="AU3" s="131"/>
+      <c r="AS3" s="153"/>
+      <c r="AT3" s="153"/>
+      <c r="AU3" s="154"/>
     </row>
     <row r="4" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
@@ -2418,94 +2390,94 @@
       <c r="C4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="120" t="s">
+      <c r="D4" s="143" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="121"/>
-      <c r="F4" s="121" t="s">
+      <c r="E4" s="144"/>
+      <c r="F4" s="144" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="122"/>
-      <c r="H4" s="120" t="s">
+      <c r="G4" s="145"/>
+      <c r="H4" s="143" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="121"/>
-      <c r="J4" s="121" t="s">
+      <c r="I4" s="144"/>
+      <c r="J4" s="144" t="s">
         <v>13</v>
       </c>
-      <c r="K4" s="122"/>
-      <c r="L4" s="137" t="s">
+      <c r="K4" s="145"/>
+      <c r="L4" s="160" t="s">
         <v>12</v>
       </c>
-      <c r="M4" s="121"/>
-      <c r="N4" s="121" t="s">
+      <c r="M4" s="144"/>
+      <c r="N4" s="144" t="s">
         <v>13</v>
       </c>
-      <c r="O4" s="122"/>
-      <c r="P4" s="120" t="s">
+      <c r="O4" s="145"/>
+      <c r="P4" s="143" t="s">
         <v>12</v>
       </c>
-      <c r="Q4" s="121"/>
-      <c r="R4" s="121" t="s">
+      <c r="Q4" s="144"/>
+      <c r="R4" s="144" t="s">
         <v>13</v>
       </c>
-      <c r="S4" s="122"/>
-      <c r="T4" s="120" t="s">
+      <c r="S4" s="145"/>
+      <c r="T4" s="143" t="s">
         <v>12</v>
       </c>
-      <c r="U4" s="121"/>
-      <c r="V4" s="121" t="s">
+      <c r="U4" s="144"/>
+      <c r="V4" s="144" t="s">
         <v>13</v>
       </c>
-      <c r="W4" s="122"/>
-      <c r="X4" s="120" t="s">
+      <c r="W4" s="145"/>
+      <c r="X4" s="143" t="s">
         <v>12</v>
       </c>
-      <c r="Y4" s="121"/>
-      <c r="Z4" s="121" t="s">
+      <c r="Y4" s="144"/>
+      <c r="Z4" s="144" t="s">
         <v>13</v>
       </c>
-      <c r="AA4" s="133"/>
-      <c r="AB4" s="120" t="s">
+      <c r="AA4" s="156"/>
+      <c r="AB4" s="143" t="s">
         <v>12</v>
       </c>
-      <c r="AC4" s="121"/>
-      <c r="AD4" s="121" t="s">
+      <c r="AC4" s="144"/>
+      <c r="AD4" s="144" t="s">
         <v>13</v>
       </c>
-      <c r="AE4" s="122"/>
-      <c r="AF4" s="120" t="s">
+      <c r="AE4" s="145"/>
+      <c r="AF4" s="143" t="s">
         <v>12</v>
       </c>
-      <c r="AG4" s="121"/>
-      <c r="AH4" s="121" t="s">
+      <c r="AG4" s="144"/>
+      <c r="AH4" s="144" t="s">
         <v>13</v>
       </c>
-      <c r="AI4" s="122"/>
-      <c r="AJ4" s="120" t="s">
+      <c r="AI4" s="145"/>
+      <c r="AJ4" s="143" t="s">
         <v>12</v>
       </c>
-      <c r="AK4" s="121"/>
-      <c r="AL4" s="121" t="s">
+      <c r="AK4" s="144"/>
+      <c r="AL4" s="144" t="s">
         <v>13</v>
       </c>
-      <c r="AM4" s="122"/>
-      <c r="AN4" s="120" t="s">
+      <c r="AM4" s="145"/>
+      <c r="AN4" s="143" t="s">
         <v>12</v>
       </c>
-      <c r="AO4" s="121"/>
-      <c r="AP4" s="121" t="s">
+      <c r="AO4" s="144"/>
+      <c r="AP4" s="144" t="s">
         <v>13</v>
       </c>
-      <c r="AQ4" s="122"/>
-      <c r="AR4" s="120" t="s">
+      <c r="AQ4" s="145"/>
+      <c r="AR4" s="143" t="s">
         <v>12</v>
       </c>
-      <c r="AS4" s="121"/>
-      <c r="AT4" s="121" t="s">
+      <c r="AS4" s="144"/>
+      <c r="AT4" s="144" t="s">
         <v>13</v>
       </c>
-      <c r="AU4" s="122"/>
+      <c r="AU4" s="145"/>
     </row>
     <row r="5" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
@@ -2559,14 +2531,14 @@
       <c r="AU5" s="17"/>
     </row>
     <row r="6" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A6" s="106" t="s">
-        <v>51</v>
-      </c>
-      <c r="B6" s="118">
+      <c r="A6" s="123" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="135">
         <f>SUM(D6:AU6)</f>
         <v>2</v>
       </c>
-      <c r="C6" s="119">
+      <c r="C6" s="136">
         <f>SUM(D7:AU7)</f>
         <v>2</v>
       </c>
@@ -2620,9 +2592,9 @@
       <c r="AU6" s="35"/>
     </row>
     <row r="7" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="107"/>
-      <c r="B7" s="118"/>
-      <c r="C7" s="119"/>
+      <c r="A7" s="124"/>
+      <c r="B7" s="135"/>
+      <c r="C7" s="136"/>
       <c r="D7" s="41">
         <v>1</v>
       </c>
@@ -2673,14 +2645,14 @@
       <c r="AU7" s="40"/>
     </row>
     <row r="8" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A8" s="106" t="s">
-        <v>53</v>
-      </c>
-      <c r="B8" s="118">
+      <c r="A8" s="123" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" s="135">
         <f>SUM(D8:AU8)</f>
         <v>4</v>
       </c>
-      <c r="C8" s="119">
+      <c r="C8" s="136">
         <f>SUM(D9:AU9)</f>
         <v>3</v>
       </c>
@@ -2738,9 +2710,9 @@
       </c>
     </row>
     <row r="9" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="117"/>
-      <c r="B9" s="114"/>
-      <c r="C9" s="116"/>
+      <c r="A9" s="134"/>
+      <c r="B9" s="131"/>
+      <c r="C9" s="133"/>
       <c r="D9" s="49"/>
       <c r="E9" s="53">
         <v>1</v>
@@ -2752,7 +2724,7 @@
         <v>1</v>
       </c>
       <c r="H9" s="49"/>
-      <c r="I9" s="146"/>
+      <c r="I9" s="72"/>
       <c r="J9" s="53"/>
       <c r="K9" s="48"/>
       <c r="L9" s="53"/>
@@ -2793,31 +2765,31 @@
       <c r="AU9" s="40"/>
     </row>
     <row r="10" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A10" s="149" t="s">
+      <c r="A10" s="75" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="150"/>
-      <c r="C10" s="151"/>
-      <c r="D10" s="152"/>
-      <c r="E10" s="153"/>
-      <c r="F10" s="153"/>
-      <c r="G10" s="154"/>
-      <c r="H10" s="152"/>
-      <c r="I10" s="153"/>
-      <c r="J10" s="153"/>
-      <c r="K10" s="154"/>
-      <c r="L10" s="155"/>
-      <c r="M10" s="153"/>
-      <c r="N10" s="153"/>
-      <c r="O10" s="154"/>
-      <c r="P10" s="152"/>
-      <c r="Q10" s="153"/>
-      <c r="R10" s="153"/>
-      <c r="S10" s="154"/>
-      <c r="T10" s="152"/>
-      <c r="U10" s="153"/>
-      <c r="V10" s="153"/>
-      <c r="W10" s="154"/>
+      <c r="B10" s="76"/>
+      <c r="C10" s="77"/>
+      <c r="D10" s="78"/>
+      <c r="E10" s="79"/>
+      <c r="F10" s="79"/>
+      <c r="G10" s="80"/>
+      <c r="H10" s="78"/>
+      <c r="I10" s="79"/>
+      <c r="J10" s="79"/>
+      <c r="K10" s="80"/>
+      <c r="L10" s="81"/>
+      <c r="M10" s="79"/>
+      <c r="N10" s="79"/>
+      <c r="O10" s="80"/>
+      <c r="P10" s="78"/>
+      <c r="Q10" s="79"/>
+      <c r="R10" s="79"/>
+      <c r="S10" s="80"/>
+      <c r="T10" s="78"/>
+      <c r="U10" s="79"/>
+      <c r="V10" s="79"/>
+      <c r="W10" s="80"/>
       <c r="X10" s="44"/>
       <c r="Y10" s="45"/>
       <c r="Z10" s="45"/>
@@ -2844,31 +2816,31 @@
       <c r="AU10" s="46"/>
     </row>
     <row r="11" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="156" t="s">
+      <c r="A11" s="82" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="157"/>
-      <c r="C11" s="158"/>
-      <c r="D11" s="159"/>
-      <c r="E11" s="160"/>
-      <c r="F11" s="160"/>
-      <c r="G11" s="161"/>
-      <c r="H11" s="159"/>
-      <c r="I11" s="160"/>
-      <c r="J11" s="160"/>
-      <c r="K11" s="161"/>
-      <c r="L11" s="162"/>
-      <c r="M11" s="160"/>
-      <c r="N11" s="160"/>
-      <c r="O11" s="161"/>
-      <c r="P11" s="159"/>
-      <c r="Q11" s="160"/>
-      <c r="R11" s="160"/>
-      <c r="S11" s="161"/>
-      <c r="T11" s="159"/>
-      <c r="U11" s="160"/>
-      <c r="V11" s="160"/>
-      <c r="W11" s="161"/>
+      <c r="B11" s="83"/>
+      <c r="C11" s="84"/>
+      <c r="D11" s="85"/>
+      <c r="E11" s="86"/>
+      <c r="F11" s="86"/>
+      <c r="G11" s="87"/>
+      <c r="H11" s="85"/>
+      <c r="I11" s="86"/>
+      <c r="J11" s="86"/>
+      <c r="K11" s="87"/>
+      <c r="L11" s="88"/>
+      <c r="M11" s="86"/>
+      <c r="N11" s="86"/>
+      <c r="O11" s="87"/>
+      <c r="P11" s="85"/>
+      <c r="Q11" s="86"/>
+      <c r="R11" s="86"/>
+      <c r="S11" s="87"/>
+      <c r="T11" s="85"/>
+      <c r="U11" s="86"/>
+      <c r="V11" s="86"/>
+      <c r="W11" s="87"/>
       <c r="X11" s="44"/>
       <c r="Y11" s="45"/>
       <c r="Z11" s="45"/>
@@ -2895,14 +2867,14 @@
       <c r="AU11" s="46"/>
     </row>
     <row r="12" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A12" s="112" t="s">
-        <v>54</v>
-      </c>
-      <c r="B12" s="113">
+      <c r="A12" s="129" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" s="130">
         <f>SUM(D12:AU12)</f>
         <v>7</v>
       </c>
-      <c r="C12" s="115">
+      <c r="C12" s="132">
         <f>SUM(D13:AU13)</f>
         <v>7</v>
       </c>
@@ -2919,7 +2891,7 @@
       <c r="J12" s="53">
         <v>2</v>
       </c>
-      <c r="K12" s="147"/>
+      <c r="K12" s="73"/>
       <c r="L12" s="53">
         <v>1</v>
       </c>
@@ -2960,9 +2932,9 @@
       <c r="AU12" s="48"/>
     </row>
     <row r="13" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="117"/>
-      <c r="B13" s="118"/>
-      <c r="C13" s="119"/>
+      <c r="A13" s="134"/>
+      <c r="B13" s="135"/>
+      <c r="C13" s="136"/>
       <c r="D13" s="41"/>
       <c r="E13" s="39"/>
       <c r="F13" s="39"/>
@@ -3068,14 +3040,14 @@
       <c r="AU14" s="63"/>
     </row>
     <row r="15" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A15" s="144" t="s">
-        <v>60</v>
-      </c>
-      <c r="B15" s="142">
+      <c r="A15" s="137" t="s">
+        <v>59</v>
+      </c>
+      <c r="B15" s="139">
         <f>SUM(D15:AU15)</f>
         <v>1</v>
       </c>
-      <c r="C15" s="140">
+      <c r="C15" s="141">
         <f>SUM(D16:AU16)</f>
         <v>4</v>
       </c>
@@ -3086,7 +3058,7 @@
       <c r="H15" s="36"/>
       <c r="I15" s="34"/>
       <c r="J15" s="34"/>
-      <c r="K15" s="148"/>
+      <c r="K15" s="74"/>
       <c r="L15" s="34">
         <v>1</v>
       </c>
@@ -3127,9 +3099,9 @@
       <c r="AU15" s="35"/>
     </row>
     <row r="16" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="145"/>
-      <c r="B16" s="143"/>
-      <c r="C16" s="141"/>
+      <c r="A16" s="138"/>
+      <c r="B16" s="140"/>
+      <c r="C16" s="142"/>
       <c r="D16" s="41"/>
       <c r="E16" s="39"/>
       <c r="F16" s="39"/>
@@ -3182,16 +3154,16 @@
       <c r="AU16" s="40"/>
     </row>
     <row r="17" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A17" s="112" t="s">
-        <v>55</v>
-      </c>
-      <c r="B17" s="113">
+      <c r="A17" s="129" t="s">
+        <v>54</v>
+      </c>
+      <c r="B17" s="130">
         <f t="shared" ref="B17" si="10">SUM(D17:AU17)</f>
         <v>2</v>
       </c>
-      <c r="C17" s="115">
+      <c r="C17" s="132">
         <f t="shared" ref="C17" si="11">SUM(D18:AU18)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D17" s="49"/>
       <c r="E17" s="53"/>
@@ -3241,9 +3213,9 @@
       <c r="AU17" s="48"/>
     </row>
     <row r="18" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="117"/>
-      <c r="B18" s="118"/>
-      <c r="C18" s="119"/>
+      <c r="A18" s="134"/>
+      <c r="B18" s="135"/>
+      <c r="C18" s="136"/>
       <c r="D18" s="41"/>
       <c r="E18" s="39"/>
       <c r="F18" s="39"/>
@@ -3260,8 +3232,12 @@
       <c r="O18" s="40">
         <v>1</v>
       </c>
-      <c r="P18" s="41"/>
-      <c r="Q18" s="39"/>
+      <c r="P18" s="41">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="39">
+        <v>1</v>
+      </c>
       <c r="R18" s="42"/>
       <c r="S18" s="43"/>
       <c r="T18" s="41"/>
@@ -3294,14 +3270,14 @@
       <c r="AU18" s="40"/>
     </row>
     <row r="19" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A19" s="106" t="s">
+      <c r="A19" s="123" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="118">
+      <c r="B19" s="135">
         <f t="shared" ref="B19" si="12">SUM(D19:AU19)</f>
         <v>2</v>
       </c>
-      <c r="C19" s="119">
+      <c r="C19" s="136">
         <f t="shared" ref="C19" si="13">SUM(D20:AU20)</f>
         <v>0</v>
       </c>
@@ -3353,9 +3329,9 @@
       <c r="AU19" s="35"/>
     </row>
     <row r="20" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="117"/>
-      <c r="B20" s="114"/>
-      <c r="C20" s="116"/>
+      <c r="A20" s="134"/>
+      <c r="B20" s="131"/>
+      <c r="C20" s="133"/>
       <c r="D20" s="49"/>
       <c r="E20" s="53"/>
       <c r="F20" s="53"/>
@@ -3402,14 +3378,14 @@
       <c r="AU20" s="48"/>
     </row>
     <row r="21" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A21" s="106" t="s">
+      <c r="A21" s="123" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="108">
+      <c r="B21" s="125">
         <f t="shared" ref="B21" si="14">SUM(D21:AU21)</f>
         <v>1</v>
       </c>
-      <c r="C21" s="110">
+      <c r="C21" s="127">
         <f t="shared" ref="C21" si="15">SUM(D22:AU22)</f>
         <v>0</v>
       </c>
@@ -3461,9 +3437,9 @@
       <c r="AU21" s="35"/>
     </row>
     <row r="22" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="107"/>
-      <c r="B22" s="109"/>
-      <c r="C22" s="111"/>
+      <c r="A22" s="124"/>
+      <c r="B22" s="126"/>
+      <c r="C22" s="128"/>
       <c r="D22" s="41"/>
       <c r="E22" s="39"/>
       <c r="F22" s="39"/>
@@ -3561,14 +3537,14 @@
       <c r="AU23" s="58"/>
     </row>
     <row r="24" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A24" s="106" t="s">
+      <c r="A24" s="123" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="118">
+      <c r="B24" s="135">
         <f>SUM(D24:AU24)</f>
         <v>1</v>
       </c>
-      <c r="C24" s="119">
+      <c r="C24" s="136">
         <f>SUM(D25:AU25)</f>
         <v>0</v>
       </c>
@@ -3620,9 +3596,9 @@
       <c r="AU24" s="48"/>
     </row>
     <row r="25" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="117"/>
-      <c r="B25" s="118"/>
-      <c r="C25" s="119"/>
+      <c r="A25" s="134"/>
+      <c r="B25" s="135"/>
+      <c r="C25" s="136"/>
       <c r="D25" s="41"/>
       <c r="E25" s="39"/>
       <c r="F25" s="39"/>
@@ -3669,14 +3645,14 @@
       <c r="AU25" s="40"/>
     </row>
     <row r="26" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A26" s="106" t="s">
+      <c r="A26" s="123" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="118">
+      <c r="B26" s="135">
         <f t="shared" ref="B26" si="16">SUM(D26:AU26)</f>
         <v>1</v>
       </c>
-      <c r="C26" s="119">
+      <c r="C26" s="136">
         <f t="shared" ref="C26" si="17">SUM(D27:AU27)</f>
         <v>0</v>
       </c>
@@ -3728,9 +3704,9 @@
       <c r="AU26" s="35"/>
     </row>
     <row r="27" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="117"/>
-      <c r="B27" s="114"/>
-      <c r="C27" s="116"/>
+      <c r="A27" s="134"/>
+      <c r="B27" s="131"/>
+      <c r="C27" s="133"/>
       <c r="D27" s="49"/>
       <c r="E27" s="53"/>
       <c r="F27" s="53"/>
@@ -3777,14 +3753,14 @@
       <c r="AU27" s="48"/>
     </row>
     <row r="28" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A28" s="106" t="s">
+      <c r="A28" s="123" t="s">
         <v>26</v>
       </c>
-      <c r="B28" s="108">
+      <c r="B28" s="125">
         <f t="shared" ref="B28" si="18">SUM(D28:AU28)</f>
         <v>8</v>
       </c>
-      <c r="C28" s="110">
+      <c r="C28" s="127">
         <f t="shared" ref="C28" si="19">SUM(D29:AU29)</f>
         <v>0</v>
       </c>
@@ -3842,9 +3818,9 @@
       <c r="AU28" s="35"/>
     </row>
     <row r="29" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="107"/>
-      <c r="B29" s="109"/>
-      <c r="C29" s="111"/>
+      <c r="A29" s="124"/>
+      <c r="B29" s="126"/>
+      <c r="C29" s="128"/>
       <c r="D29" s="41"/>
       <c r="E29" s="39"/>
       <c r="F29" s="39"/>
@@ -3891,14 +3867,14 @@
       <c r="AU29" s="40"/>
     </row>
     <row r="30" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A30" s="112" t="s">
+      <c r="A30" s="129" t="s">
         <v>27</v>
       </c>
-      <c r="B30" s="113">
+      <c r="B30" s="130">
         <f t="shared" ref="B30" si="20">SUM(D30:AU30)</f>
         <v>7</v>
       </c>
-      <c r="C30" s="115">
+      <c r="C30" s="132">
         <f t="shared" ref="C30" si="21">SUM(D31:AU31)</f>
         <v>0</v>
       </c>
@@ -3956,9 +3932,9 @@
       <c r="AU30" s="48"/>
     </row>
     <row r="31" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="117"/>
-      <c r="B31" s="118"/>
-      <c r="C31" s="119"/>
+      <c r="A31" s="134"/>
+      <c r="B31" s="135"/>
+      <c r="C31" s="136"/>
       <c r="D31" s="41"/>
       <c r="E31" s="39"/>
       <c r="F31" s="39"/>
@@ -4005,14 +3981,14 @@
       <c r="AU31" s="40"/>
     </row>
     <row r="32" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A32" s="106" t="s">
+      <c r="A32" s="123" t="s">
         <v>28</v>
       </c>
-      <c r="B32" s="118">
+      <c r="B32" s="135">
         <f t="shared" ref="B32" si="22">SUM(D32:AU32)</f>
         <v>7</v>
       </c>
-      <c r="C32" s="119">
+      <c r="C32" s="136">
         <f t="shared" ref="C32" si="23">SUM(D33:AU33)</f>
         <v>0</v>
       </c>
@@ -4070,9 +4046,9 @@
       <c r="AU32" s="35"/>
     </row>
     <row r="33" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="117"/>
-      <c r="B33" s="118"/>
-      <c r="C33" s="119"/>
+      <c r="A33" s="134"/>
+      <c r="B33" s="135"/>
+      <c r="C33" s="136"/>
       <c r="D33" s="41"/>
       <c r="E33" s="39"/>
       <c r="F33" s="39"/>
@@ -4119,14 +4095,14 @@
       <c r="AU33" s="40"/>
     </row>
     <row r="34" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A34" s="106" t="s">
+      <c r="A34" s="123" t="s">
         <v>29</v>
       </c>
-      <c r="B34" s="118">
+      <c r="B34" s="135">
         <f t="shared" ref="B34" si="24">SUM(D34:AU34)</f>
         <v>2</v>
       </c>
-      <c r="C34" s="119">
+      <c r="C34" s="136">
         <f t="shared" ref="C34" si="25">SUM(D35:AU35)</f>
         <v>0</v>
       </c>
@@ -4178,9 +4154,9 @@
       <c r="AU34" s="35"/>
     </row>
     <row r="35" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="107"/>
-      <c r="B35" s="118"/>
-      <c r="C35" s="119"/>
+      <c r="A35" s="124"/>
+      <c r="B35" s="135"/>
+      <c r="C35" s="136"/>
       <c r="D35" s="41"/>
       <c r="E35" s="39"/>
       <c r="F35" s="39"/>
@@ -4227,14 +4203,14 @@
       <c r="AU35" s="40"/>
     </row>
     <row r="36" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A36" s="106" t="s">
+      <c r="A36" s="123" t="s">
         <v>30</v>
       </c>
-      <c r="B36" s="118">
+      <c r="B36" s="135">
         <f t="shared" ref="B36" si="26">SUM(D36:AU36)</f>
         <v>4</v>
       </c>
-      <c r="C36" s="119">
+      <c r="C36" s="136">
         <f t="shared" ref="C36" si="27">SUM(D37:AU37)</f>
         <v>0</v>
       </c>
@@ -4288,9 +4264,9 @@
       <c r="AU36" s="35"/>
     </row>
     <row r="37" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="117"/>
-      <c r="B37" s="118"/>
-      <c r="C37" s="119"/>
+      <c r="A37" s="134"/>
+      <c r="B37" s="135"/>
+      <c r="C37" s="136"/>
       <c r="D37" s="41"/>
       <c r="E37" s="39"/>
       <c r="F37" s="39"/>
@@ -4337,14 +4313,14 @@
       <c r="AU37" s="40"/>
     </row>
     <row r="38" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A38" s="106" t="s">
+      <c r="A38" s="123" t="s">
         <v>31</v>
       </c>
-      <c r="B38" s="118">
+      <c r="B38" s="135">
         <f t="shared" ref="B38" si="28">SUM(D38:AU38)</f>
         <v>3</v>
       </c>
-      <c r="C38" s="119">
+      <c r="C38" s="136">
         <f t="shared" ref="C38" si="29">SUM(D39:AU39)</f>
         <v>0</v>
       </c>
@@ -4398,9 +4374,9 @@
       <c r="AU38" s="35"/>
     </row>
     <row r="39" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="117"/>
-      <c r="B39" s="118"/>
-      <c r="C39" s="119"/>
+      <c r="A39" s="134"/>
+      <c r="B39" s="135"/>
+      <c r="C39" s="136"/>
       <c r="D39" s="41"/>
       <c r="E39" s="39"/>
       <c r="F39" s="39"/>
@@ -4447,14 +4423,14 @@
       <c r="AU39" s="40"/>
     </row>
     <row r="40" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A40" s="106" t="s">
+      <c r="A40" s="123" t="s">
         <v>32</v>
       </c>
-      <c r="B40" s="118">
+      <c r="B40" s="135">
         <f t="shared" ref="B40" si="30">SUM(D40:AU40)</f>
         <v>4</v>
       </c>
-      <c r="C40" s="119">
+      <c r="C40" s="136">
         <f t="shared" ref="C40" si="31">SUM(D41:AU41)</f>
         <v>0</v>
       </c>
@@ -4508,9 +4484,9 @@
       <c r="AU40" s="35"/>
     </row>
     <row r="41" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="117"/>
-      <c r="B41" s="118"/>
-      <c r="C41" s="119"/>
+      <c r="A41" s="134"/>
+      <c r="B41" s="135"/>
+      <c r="C41" s="136"/>
       <c r="D41" s="41"/>
       <c r="E41" s="39"/>
       <c r="F41" s="39"/>
@@ -4557,14 +4533,14 @@
       <c r="AU41" s="40"/>
     </row>
     <row r="42" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A42" s="106" t="s">
+      <c r="A42" s="123" t="s">
         <v>33</v>
       </c>
-      <c r="B42" s="118">
+      <c r="B42" s="135">
         <f t="shared" ref="B42" si="32">SUM(D42:AU42)</f>
         <v>3</v>
       </c>
-      <c r="C42" s="119">
+      <c r="C42" s="136">
         <f t="shared" ref="C42" si="33">SUM(D43:AU43)</f>
         <v>0</v>
       </c>
@@ -4618,9 +4594,9 @@
       <c r="AU42" s="35"/>
     </row>
     <row r="43" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="117"/>
-      <c r="B43" s="118"/>
-      <c r="C43" s="119"/>
+      <c r="A43" s="134"/>
+      <c r="B43" s="135"/>
+      <c r="C43" s="136"/>
       <c r="D43" s="41"/>
       <c r="E43" s="39"/>
       <c r="F43" s="39"/>
@@ -4667,14 +4643,14 @@
       <c r="AU43" s="40"/>
     </row>
     <row r="44" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="106" t="s">
+      <c r="A44" s="123" t="s">
         <v>34</v>
       </c>
-      <c r="B44" s="118">
+      <c r="B44" s="135">
         <f t="shared" ref="B44" si="34">SUM(D44:AU44)</f>
         <v>2</v>
       </c>
-      <c r="C44" s="119">
+      <c r="C44" s="136">
         <f t="shared" ref="C44" si="35">SUM(D45:AU45)</f>
         <v>0</v>
       </c>
@@ -4725,9 +4701,9 @@
       <c r="AU44" s="35"/>
     </row>
     <row r="45" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="117"/>
-      <c r="B45" s="118"/>
-      <c r="C45" s="119"/>
+      <c r="A45" s="134"/>
+      <c r="B45" s="135"/>
+      <c r="C45" s="136"/>
       <c r="D45" s="41"/>
       <c r="E45" s="39"/>
       <c r="F45" s="39"/>
@@ -4774,14 +4750,14 @@
       <c r="AU45" s="40"/>
     </row>
     <row r="46" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A46" s="106" t="s">
-        <v>49</v>
-      </c>
-      <c r="B46" s="118">
+      <c r="A46" s="123" t="s">
+        <v>48</v>
+      </c>
+      <c r="B46" s="135">
         <f t="shared" ref="B46" si="36">SUM(D46:AU46)</f>
         <v>3</v>
       </c>
-      <c r="C46" s="119">
+      <c r="C46" s="136">
         <f t="shared" ref="C46" si="37">SUM(D47:AU47)</f>
         <v>0</v>
       </c>
@@ -4835,9 +4811,9 @@
       <c r="AU46" s="35"/>
     </row>
     <row r="47" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="107"/>
-      <c r="B47" s="118"/>
-      <c r="C47" s="119"/>
+      <c r="A47" s="124"/>
+      <c r="B47" s="135"/>
+      <c r="C47" s="136"/>
       <c r="D47" s="49"/>
       <c r="E47" s="53"/>
       <c r="F47" s="53"/>
@@ -4935,16 +4911,16 @@
       <c r="AU48" s="46"/>
     </row>
     <row r="49" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A49" s="106" t="s">
-        <v>52</v>
-      </c>
-      <c r="B49" s="118">
+      <c r="A49" s="123" t="s">
+        <v>51</v>
+      </c>
+      <c r="B49" s="135">
         <f>SUM(D49:AU49)</f>
         <v>10</v>
       </c>
-      <c r="C49" s="119">
+      <c r="C49" s="136">
         <f>SUM(D50:AU50)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D49" s="49"/>
       <c r="E49" s="53"/>
@@ -5012,9 +4988,9 @@
       </c>
     </row>
     <row r="50" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="117"/>
-      <c r="B50" s="114"/>
-      <c r="C50" s="116"/>
+      <c r="A50" s="134"/>
+      <c r="B50" s="131"/>
+      <c r="C50" s="133"/>
       <c r="D50" s="49"/>
       <c r="E50" s="53"/>
       <c r="F50" s="53"/>
@@ -5034,7 +5010,9 @@
         <v>1</v>
       </c>
       <c r="P50" s="49"/>
-      <c r="Q50" s="53"/>
+      <c r="Q50" s="53">
+        <v>1</v>
+      </c>
       <c r="R50" s="54"/>
       <c r="S50" s="51"/>
       <c r="T50" s="49"/>
@@ -5067,16 +5045,16 @@
       <c r="AU50" s="48"/>
     </row>
     <row r="51" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A51" s="106" t="s">
-        <v>36</v>
-      </c>
-      <c r="B51" s="108">
+      <c r="A51" s="123" t="s">
+        <v>60</v>
+      </c>
+      <c r="B51" s="125">
         <f t="shared" ref="B51" si="38">SUM(D51:AU51)</f>
         <v>4</v>
       </c>
-      <c r="C51" s="110">
+      <c r="C51" s="127">
         <f t="shared" ref="C51" si="39">SUM(D52:AU52)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D51" s="36">
         <v>1</v>
@@ -5132,9 +5110,9 @@
       <c r="AU51" s="35"/>
     </row>
     <row r="52" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="107"/>
-      <c r="B52" s="109"/>
-      <c r="C52" s="111"/>
+      <c r="A52" s="124"/>
+      <c r="B52" s="126"/>
+      <c r="C52" s="128"/>
       <c r="D52" s="41">
         <v>1</v>
       </c>
@@ -5151,7 +5129,9 @@
       <c r="M52" s="39"/>
       <c r="N52" s="39"/>
       <c r="O52" s="40"/>
-      <c r="P52" s="41"/>
+      <c r="P52" s="41">
+        <v>1</v>
+      </c>
       <c r="Q52" s="67"/>
       <c r="R52" s="42"/>
       <c r="S52" s="43"/>
@@ -5185,14 +5165,14 @@
       <c r="AU52" s="40"/>
     </row>
     <row r="53" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A53" s="112" t="s">
-        <v>37</v>
-      </c>
-      <c r="B53" s="113">
+      <c r="A53" s="129" t="s">
+        <v>36</v>
+      </c>
+      <c r="B53" s="130">
         <f t="shared" ref="B53" si="40">SUM(D53:AU53)</f>
         <v>2</v>
       </c>
-      <c r="C53" s="115">
+      <c r="C53" s="132">
         <f t="shared" ref="C53" si="41">SUM(D54:AU54)</f>
         <v>1</v>
       </c>
@@ -5246,9 +5226,9 @@
       <c r="AU53" s="48"/>
     </row>
     <row r="54" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="107"/>
-      <c r="B54" s="114"/>
-      <c r="C54" s="116"/>
+      <c r="A54" s="124"/>
+      <c r="B54" s="131"/>
+      <c r="C54" s="133"/>
       <c r="D54" s="49"/>
       <c r="E54" s="53"/>
       <c r="F54" s="53">
@@ -5297,176 +5277,176 @@
       <c r="AU54" s="48"/>
     </row>
     <row r="55" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A55" s="100" t="s">
-        <v>38</v>
-      </c>
-      <c r="B55" s="102">
+      <c r="A55" s="117" t="s">
+        <v>37</v>
+      </c>
+      <c r="B55" s="119">
         <f>SUM(B6:B54)</f>
         <v>80</v>
       </c>
-      <c r="C55" s="104">
+      <c r="C55" s="121">
         <f>SUM(C6:C54)</f>
-        <v>24</v>
-      </c>
-      <c r="D55" s="94" cm="1">
+        <v>28</v>
+      </c>
+      <c r="D55" s="111" cm="1">
         <f t="array" ref="D55">SUM(D6:G6+D8:G8+D12:G12+D15:G15+D17:G17+D19:G19+D21:G21+D24:G24+D26:G26+D28:G28+D30:G30+D32:G32+D34:G34+D36:G36+D38:G38+D40:G40+D42:G42+D44:G44+D46:G46+D49:G49+D51:G51+D53:G53)</f>
         <v>8</v>
       </c>
-      <c r="E55" s="89"/>
-      <c r="F55" s="89" cm="1">
+      <c r="E55" s="106"/>
+      <c r="F55" s="106" cm="1">
         <f t="array" ref="F55">SUM(D7:G7+D9:G9+D13:G13+D16:G16+D18:G18+D20:G20+D22:G22+D25:G25+D27:G27+D29:G29+D31:G31+D33:G33+D35:G35+D37:G37+D39:G39+D41:G41+D43:G43+D45:G45+D47:G47+D50:G50+D52:G52+D54:G54)</f>
         <v>8</v>
       </c>
-      <c r="G55" s="90"/>
-      <c r="H55" s="94" cm="1">
+      <c r="G55" s="107"/>
+      <c r="H55" s="111" cm="1">
         <f t="array" ref="H55">SUM(H6:K6+H8:K8+H12:K12+H15:K15+H17:K17+H19:K19+H21:K21+H24:K24+H26:K26+H28:K28+H30:K30+H32:K32+H34:K34+H36:K36+H38:K38+H40:K40+H42:K42+H44:K44+H46:K46+H49:K49+H51:K51+H53:K53)</f>
         <v>8</v>
       </c>
-      <c r="I55" s="89"/>
-      <c r="J55" s="89" cm="1">
+      <c r="I55" s="106"/>
+      <c r="J55" s="106" cm="1">
         <f t="array" ref="J55">SUM(H7:K7+H9:K9+H13:K13+H16:K16+H18:K18+H20:K20+H22:K22+H25:K25+H27:K27+H29:K29+H31:K31+H33:K33+H35:K35+H37:K37+H39:K39+H41:K41+H43:K43+H45:K45+H47:K47+H50:K50+H52:K52+H54:K54)</f>
         <v>8</v>
       </c>
-      <c r="K55" s="90"/>
-      <c r="L55" s="98" cm="1">
+      <c r="K55" s="107"/>
+      <c r="L55" s="115" cm="1">
         <f t="array" ref="L55">SUM(L6:O6+L8:O8+L12:O12+L15:O15+L17:O17+L19:O19+L21:O21+L24:O24+L26:O26+L28:O28+L30:O30+L32:O32+L34:O34+L36:O36+L38:O38+L40:O40+L42:O42+L44:O44+L46:O46+L49:O49+L51:O51+L53:O53)</f>
         <v>8</v>
       </c>
-      <c r="M55" s="89"/>
-      <c r="N55" s="89" cm="1">
+      <c r="M55" s="106"/>
+      <c r="N55" s="106" cm="1">
         <f t="array" ref="N55">SUM(L7:O7+L9:O9+L13:O13+L16:O16+L18:O18+L20:O20+L22:O22+L25:O25+L27:O27+L29:O29+L31:O31+L33:O33+L35:O35+L37:O37+L39:O39+L41:O41+L43:O43+L45:O45+L47:O47+L50:O50+L52:O52+L54:O54)</f>
         <v>8</v>
       </c>
-      <c r="O55" s="90"/>
-      <c r="P55" s="94" cm="1">
+      <c r="O55" s="107"/>
+      <c r="P55" s="111" cm="1">
         <f t="array" ref="P55">SUM(P6:S6+P8:S8+P12:S12+P15:S15+P17:S17+P19:S19+P21:S21+P24:S24+P26:S26+P28:S28+P30:S30+P32:S32+P34:S34+P36:S36+P38:S38+P40:S40+P42:S42+P44:S44+P46:S46+P49:S49+P51:S51+P53:S53)</f>
         <v>4</v>
       </c>
-      <c r="Q55" s="89"/>
-      <c r="R55" s="89" cm="1">
+      <c r="Q55" s="106"/>
+      <c r="R55" s="106" cm="1">
         <f t="array" ref="R55">SUM(P7:S7+P9:S9+P13:S13+P16:S16+P18:S18+P20:S20+P22:S22+P25:S25+P27:S27+P29:S29+P31:S31+P33:S33+P35:S35+P37:S37+P39:S39+P41:S41+P43:S43+P45:S45+P47:S47+P50:S50+P52:S52+P54:S54)</f>
-        <v>0</v>
-      </c>
-      <c r="S55" s="90"/>
-      <c r="T55" s="94" cm="1">
+        <v>4</v>
+      </c>
+      <c r="S55" s="107"/>
+      <c r="T55" s="111" cm="1">
         <f t="array" ref="T55">SUM(T6:W6+T8:W8+T12:W12+T15:W15+T17:W17+T19:W19+T21:W21+T24:W24+T26:W26+T28:W28+T30:W30+T32:W32+T34:W34+T36:W36+T38:W38+T40:W40+T42:W42+T44:W44+T46:W46+T49:W49+T51:W51+T53:W53)</f>
         <v>8</v>
       </c>
-      <c r="U55" s="89"/>
-      <c r="V55" s="89" cm="1">
+      <c r="U55" s="106"/>
+      <c r="V55" s="106" cm="1">
         <f t="array" ref="V55">SUM(T7:W7+T9:W9+T13:W13+T16:W16+T18:W18+T20:W20+T22:W22+T25:W25+T27:W27+T29:W29+T31:W31+T33:W33+T35:W35+T37:W37+T39:W39+T41:W41+T43:W43+T45:W45+T47:W47+T50:W50+T52:W52+T54:W54)</f>
         <v>0</v>
       </c>
-      <c r="W55" s="90"/>
-      <c r="X55" s="94" cm="1">
+      <c r="W55" s="107"/>
+      <c r="X55" s="111" cm="1">
         <f t="array" ref="X55">SUM(X6:AA6+X8:AA8+X12:AA12+X15:AA15+X17:AA17+X19:AA19+X21:AA21+X24:AA24+X26:AA26+X28:AA28+X30:AA30+X32:AA32+X34:AA34+X36:AA36+X38:AA38+X40:AA40+X42:AA42+X44:AA44+X46:AA46+X49:AA49+X51:AA51+X53:AA53)</f>
         <v>8</v>
       </c>
-      <c r="Y55" s="89"/>
-      <c r="Z55" s="89" cm="1">
+      <c r="Y55" s="106"/>
+      <c r="Z55" s="106" cm="1">
         <f t="array" ref="Z55">SUM(X7:AA7+X9:AA9+X13:AA13+X16:AA16+X18:AA18+X20:AA20+X22:AA22+X25:AA25+X27:AA27+X29:AA29+X31:AA31+X33:AA33+X35:AA35+X37:AA37+X39:AA39+X41:AA41+X43:AA43+X45:AA45+X47:AA47+X50:AA50+X52:AA52+X54:AA54)</f>
         <v>0</v>
       </c>
-      <c r="AA55" s="96"/>
-      <c r="AB55" s="94" cm="1">
+      <c r="AA55" s="113"/>
+      <c r="AB55" s="111" cm="1">
         <f t="array" ref="AB55">SUM(AB6:AE6+AB8:AE8+AB12:AE12+AB15:AE15+AB17:AE17+AB19:AE19+AB21:AE21+AB24:AE24+AB26:AE26+AB28:AE28+AB30:AE30+AB32:AE32+AB34:AE34+AB36:AE36+AB38:AE38+AB40:AE40+AB42:AE42+AB44:AE44+AB46:AE46+AB49:AE49+AB51:AE51+AB53:AE53)</f>
         <v>8</v>
       </c>
-      <c r="AC55" s="89"/>
-      <c r="AD55" s="89" cm="1">
+      <c r="AC55" s="106"/>
+      <c r="AD55" s="106" cm="1">
         <f t="array" ref="AD55">SUM(AB7:AE7+AB9:AE9+AB13:AE13+AB16:AE16+AB18:AE18+AB20:AE20+AB22:AE22+AB25:AE25+AB27:AE27+AB29:AE29+AB31:AE31+AB33:AE33+AB35:AE35+AB37:AE37+AB39:AE39+AB41:AE41+AB43:AE43+AB45:AE45+AB47:AE47+AB50:AE50+AB52:AE52+AB54:AE54)</f>
         <v>0</v>
       </c>
-      <c r="AE55" s="90"/>
-      <c r="AF55" s="94" cm="1">
+      <c r="AE55" s="107"/>
+      <c r="AF55" s="111" cm="1">
         <f t="array" ref="AF55">SUM(AF6:AI6+AF8:AI8+AF12:AI12+AF15:AI15+AF17:AI17+AF19:AI19+AF21:AI21+AF24:AI24+AF26:AI26+AF28:AI28+AF30:AI30+AF32:AI32+AF34:AI34+AF36:AI36+AF38:AI38+AF40:AI40+AF42:AI42+AF44:AI44+AF46:AI46+AF49:AI49+AF51:AI51+AF53:AI53)</f>
         <v>4</v>
       </c>
-      <c r="AG55" s="89"/>
-      <c r="AH55" s="89" cm="1">
+      <c r="AG55" s="106"/>
+      <c r="AH55" s="106" cm="1">
         <f t="array" ref="AH55">SUM(AF7:AI7+AF9:AI9+AF13:AI13+AF16:AI16+AF18:AI18+AF20:AI20+AF22:AI22+AF25:AI25+AF27:AI27+AF29:AI29+AF31:AI31+AF33:AI33+AF35:AI35+AF37:AI37+AF39:AI39+AF41:AI41+AF43:AI43+AF45:AI45+AF47:AI47+AF50:AI50+AF52:AI52+AF54:AI54)</f>
         <v>0</v>
       </c>
-      <c r="AI55" s="90"/>
-      <c r="AJ55" s="94" cm="1">
+      <c r="AI55" s="107"/>
+      <c r="AJ55" s="111" cm="1">
         <f t="array" ref="AJ55">SUM(AJ6:AM6+AJ8:AM8+AJ12:AM12+AJ15:AM15+AJ17:AM17+AJ19:AM19+AJ21:AM21+AJ24:AM24+AJ26:AM26+AJ28:AM28+AJ30:AM30+AJ32:AM32+AJ34:AM34+AJ36:AM36+AJ38:AM38+AJ40:AM40+AJ42:AM42+AJ44:AM44+AJ46:AM46+AJ49:AM49+AJ51:AM51+AJ53:AM53)</f>
         <v>8</v>
       </c>
-      <c r="AK55" s="89"/>
-      <c r="AL55" s="89" cm="1">
+      <c r="AK55" s="106"/>
+      <c r="AL55" s="106" cm="1">
         <f t="array" ref="AL55">SUM(AJ7:AM7+AJ9:AM9+AJ13:AM13+AJ16:AM16+AJ18:AM18+AJ20:AM20+AJ22:AM22+AJ25:AM25+AJ27:AM27+AJ29:AM29+AJ31:AM31+AJ33:AM33+AJ35:AM35+AJ37:AM37+AJ39:AM39+AJ41:AM41+AJ43:AM43+AJ45:AM45+AJ47:AM47+AJ50:AM50+AJ52:AM52+AJ54:AM54)</f>
         <v>0</v>
       </c>
-      <c r="AM55" s="90"/>
-      <c r="AN55" s="94" cm="1">
+      <c r="AM55" s="107"/>
+      <c r="AN55" s="111" cm="1">
         <f t="array" ref="AN55">SUM(AN6:AQ6+AN8:AQ8+AN12:AQ12+AN15:AQ15+AN17:AQ17+AN19:AQ19+AN21:AQ21+AN24:AQ24+AN26:AQ26+AN28:AQ28+AN30:AQ30+AN32:AQ32+AN34:AQ34+AN36:AQ36+AN38:AQ38+AN40:AQ40+AN42:AQ42+AN44:AQ44+AN46:AQ46+AN49:AQ49+AN51:AQ51+AN53:AQ53)</f>
         <v>8</v>
       </c>
-      <c r="AO55" s="89"/>
-      <c r="AP55" s="89" cm="1">
+      <c r="AO55" s="106"/>
+      <c r="AP55" s="106" cm="1">
         <f t="array" ref="AP55">SUM(AN7:AQ7+AN9:AQ9+AN13:AQ13+AN16:AQ16+AN18:AQ18+AN20:AQ20+AN22:AQ22+AN25:AQ25+AN27:AQ27+AN29:AQ29+AN31:AQ31+AN33:AQ33+AN35:AQ35+AN37:AQ37+AN39:AQ39+AN41:AQ41+AN43:AQ43+AN45:AQ45+AN47:AQ47+AN50:AQ50+AN52:AQ52+AN54:AQ54)</f>
         <v>0</v>
       </c>
-      <c r="AQ55" s="90"/>
-      <c r="AR55" s="94" cm="1">
+      <c r="AQ55" s="107"/>
+      <c r="AR55" s="111" cm="1">
         <f t="array" ref="AR55">SUM(AR6:AU6+AR8:AU8+AR12:AU12+AR15:AU15+AR17:AU17+AR19:AU19+AR21:AU21+AR24:AU24+AR26:AU26+AR28:AU28+AR30:AU30+AR32:AU32+AR34:AU34+AR36:AU36+AR38:AU38+AR40:AU40+AR42:AU42+AR44:AU44+AR46:AU46+AR49:AU49+AR51:AU51+AR53:AU53)</f>
         <v>8</v>
       </c>
-      <c r="AS55" s="89"/>
-      <c r="AT55" s="89" cm="1">
+      <c r="AS55" s="106"/>
+      <c r="AT55" s="106" cm="1">
         <f t="array" ref="AT55">SUM(AR7:AU7+AR9:AU9+AR13:AU13+AR16:AU16+AR18:AU18+AR20:AU20+AR22:AU22+AR25:AU25+AR27:AU27+AR29:AU29+AR31:AU31+AR33:AU33+AR35:AU35+AR37:AU37+AR39:AU39+AR41:AU41+AR43:AU43+AR45:AU45+AR47:AU47+AR50:AU50+AR52:AU52+AR54:AU54)</f>
         <v>0</v>
       </c>
-      <c r="AU55" s="90"/>
+      <c r="AU55" s="107"/>
     </row>
     <row r="56" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="101"/>
-      <c r="B56" s="103"/>
-      <c r="C56" s="105"/>
-      <c r="D56" s="95"/>
-      <c r="E56" s="91"/>
-      <c r="F56" s="91"/>
-      <c r="G56" s="92"/>
-      <c r="H56" s="95"/>
-      <c r="I56" s="91"/>
-      <c r="J56" s="91"/>
-      <c r="K56" s="92"/>
-      <c r="L56" s="99"/>
-      <c r="M56" s="91"/>
-      <c r="N56" s="91"/>
-      <c r="O56" s="92"/>
-      <c r="P56" s="95"/>
-      <c r="Q56" s="91"/>
-      <c r="R56" s="91"/>
-      <c r="S56" s="92"/>
-      <c r="T56" s="95"/>
-      <c r="U56" s="91"/>
-      <c r="V56" s="91"/>
-      <c r="W56" s="92"/>
-      <c r="X56" s="95"/>
-      <c r="Y56" s="91"/>
-      <c r="Z56" s="91"/>
-      <c r="AA56" s="97"/>
-      <c r="AB56" s="95"/>
-      <c r="AC56" s="91"/>
-      <c r="AD56" s="91"/>
-      <c r="AE56" s="92"/>
-      <c r="AF56" s="95"/>
-      <c r="AG56" s="91"/>
-      <c r="AH56" s="91"/>
-      <c r="AI56" s="92"/>
-      <c r="AJ56" s="95"/>
-      <c r="AK56" s="91"/>
-      <c r="AL56" s="91"/>
-      <c r="AM56" s="92"/>
-      <c r="AN56" s="95"/>
-      <c r="AO56" s="91"/>
-      <c r="AP56" s="91"/>
-      <c r="AQ56" s="92"/>
-      <c r="AR56" s="95"/>
-      <c r="AS56" s="91"/>
-      <c r="AT56" s="91"/>
-      <c r="AU56" s="92"/>
+      <c r="A56" s="118"/>
+      <c r="B56" s="120"/>
+      <c r="C56" s="122"/>
+      <c r="D56" s="112"/>
+      <c r="E56" s="108"/>
+      <c r="F56" s="108"/>
+      <c r="G56" s="109"/>
+      <c r="H56" s="112"/>
+      <c r="I56" s="108"/>
+      <c r="J56" s="108"/>
+      <c r="K56" s="109"/>
+      <c r="L56" s="116"/>
+      <c r="M56" s="108"/>
+      <c r="N56" s="108"/>
+      <c r="O56" s="109"/>
+      <c r="P56" s="112"/>
+      <c r="Q56" s="108"/>
+      <c r="R56" s="108"/>
+      <c r="S56" s="109"/>
+      <c r="T56" s="112"/>
+      <c r="U56" s="108"/>
+      <c r="V56" s="108"/>
+      <c r="W56" s="109"/>
+      <c r="X56" s="112"/>
+      <c r="Y56" s="108"/>
+      <c r="Z56" s="108"/>
+      <c r="AA56" s="114"/>
+      <c r="AB56" s="112"/>
+      <c r="AC56" s="108"/>
+      <c r="AD56" s="108"/>
+      <c r="AE56" s="109"/>
+      <c r="AF56" s="112"/>
+      <c r="AG56" s="108"/>
+      <c r="AH56" s="108"/>
+      <c r="AI56" s="109"/>
+      <c r="AJ56" s="112"/>
+      <c r="AK56" s="108"/>
+      <c r="AL56" s="108"/>
+      <c r="AM56" s="109"/>
+      <c r="AN56" s="112"/>
+      <c r="AO56" s="108"/>
+      <c r="AP56" s="108"/>
+      <c r="AQ56" s="109"/>
+      <c r="AR56" s="112"/>
+      <c r="AS56" s="108"/>
+      <c r="AT56" s="108"/>
+      <c r="AU56" s="109"/>
     </row>
     <row r="57" spans="1:47" ht="17" x14ac:dyDescent="0.25">
       <c r="A57" s="6"/>
@@ -5476,281 +5456,281 @@
       <c r="C57" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D57" s="86" t="s">
+      <c r="D57" s="103" t="s">
         <v>14</v>
       </c>
-      <c r="E57" s="87"/>
-      <c r="F57" s="82" t="s">
+      <c r="E57" s="104"/>
+      <c r="F57" s="99" t="s">
         <v>15</v>
       </c>
-      <c r="G57" s="83"/>
-      <c r="H57" s="86" t="s">
+      <c r="G57" s="100"/>
+      <c r="H57" s="103" t="s">
         <v>14</v>
       </c>
-      <c r="I57" s="87"/>
-      <c r="J57" s="82" t="s">
+      <c r="I57" s="104"/>
+      <c r="J57" s="99" t="s">
         <v>15</v>
       </c>
-      <c r="K57" s="83"/>
-      <c r="L57" s="93" t="s">
+      <c r="K57" s="100"/>
+      <c r="L57" s="110" t="s">
         <v>14</v>
       </c>
-      <c r="M57" s="87"/>
-      <c r="N57" s="82" t="s">
+      <c r="M57" s="104"/>
+      <c r="N57" s="99" t="s">
         <v>15</v>
       </c>
-      <c r="O57" s="83"/>
-      <c r="P57" s="86" t="s">
+      <c r="O57" s="100"/>
+      <c r="P57" s="103" t="s">
         <v>14</v>
       </c>
-      <c r="Q57" s="87"/>
-      <c r="R57" s="82" t="s">
+      <c r="Q57" s="104"/>
+      <c r="R57" s="99" t="s">
         <v>15</v>
       </c>
-      <c r="S57" s="83"/>
-      <c r="T57" s="86" t="s">
+      <c r="S57" s="100"/>
+      <c r="T57" s="103" t="s">
         <v>14</v>
       </c>
-      <c r="U57" s="87"/>
-      <c r="V57" s="82" t="s">
+      <c r="U57" s="104"/>
+      <c r="V57" s="99" t="s">
         <v>15</v>
       </c>
-      <c r="W57" s="83"/>
-      <c r="X57" s="86" t="s">
+      <c r="W57" s="100"/>
+      <c r="X57" s="103" t="s">
         <v>14</v>
       </c>
-      <c r="Y57" s="87"/>
-      <c r="Z57" s="82" t="s">
+      <c r="Y57" s="104"/>
+      <c r="Z57" s="99" t="s">
         <v>15</v>
       </c>
-      <c r="AA57" s="88"/>
-      <c r="AB57" s="86" t="s">
+      <c r="AA57" s="105"/>
+      <c r="AB57" s="103" t="s">
         <v>14</v>
       </c>
-      <c r="AC57" s="87"/>
-      <c r="AD57" s="82" t="s">
+      <c r="AC57" s="104"/>
+      <c r="AD57" s="99" t="s">
         <v>15</v>
       </c>
-      <c r="AE57" s="83"/>
-      <c r="AF57" s="86" t="s">
+      <c r="AE57" s="100"/>
+      <c r="AF57" s="103" t="s">
         <v>14</v>
       </c>
-      <c r="AG57" s="87"/>
-      <c r="AH57" s="82" t="s">
+      <c r="AG57" s="104"/>
+      <c r="AH57" s="99" t="s">
         <v>15</v>
       </c>
-      <c r="AI57" s="83"/>
-      <c r="AJ57" s="86" t="s">
+      <c r="AI57" s="100"/>
+      <c r="AJ57" s="103" t="s">
         <v>14</v>
       </c>
-      <c r="AK57" s="87"/>
-      <c r="AL57" s="82" t="s">
+      <c r="AK57" s="104"/>
+      <c r="AL57" s="99" t="s">
         <v>15</v>
       </c>
-      <c r="AM57" s="83"/>
-      <c r="AN57" s="86" t="s">
+      <c r="AM57" s="100"/>
+      <c r="AN57" s="103" t="s">
         <v>14</v>
       </c>
-      <c r="AO57" s="87"/>
-      <c r="AP57" s="82" t="s">
+      <c r="AO57" s="104"/>
+      <c r="AP57" s="99" t="s">
         <v>15</v>
       </c>
-      <c r="AQ57" s="83"/>
-      <c r="AR57" s="86" t="s">
+      <c r="AQ57" s="100"/>
+      <c r="AR57" s="103" t="s">
         <v>14</v>
       </c>
-      <c r="AS57" s="87"/>
-      <c r="AT57" s="82" t="s">
+      <c r="AS57" s="104"/>
+      <c r="AT57" s="99" t="s">
         <v>15</v>
       </c>
-      <c r="AU57" s="83"/>
+      <c r="AU57" s="100"/>
     </row>
     <row r="58" spans="1:47" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="8"/>
       <c r="B58" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C58" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="D58" s="79">
+        <v>38</v>
+      </c>
+      <c r="D58" s="96">
         <f>D3</f>
         <v>43873</v>
       </c>
-      <c r="E58" s="80"/>
-      <c r="F58" s="80"/>
-      <c r="G58" s="81"/>
-      <c r="H58" s="79">
+      <c r="E58" s="97"/>
+      <c r="F58" s="97"/>
+      <c r="G58" s="98"/>
+      <c r="H58" s="96">
         <f>H3</f>
         <v>43874</v>
       </c>
-      <c r="I58" s="80"/>
-      <c r="J58" s="80"/>
-      <c r="K58" s="81"/>
-      <c r="L58" s="84">
+      <c r="I58" s="97"/>
+      <c r="J58" s="97"/>
+      <c r="K58" s="98"/>
+      <c r="L58" s="101">
         <f>L3</f>
         <v>43875</v>
       </c>
-      <c r="M58" s="80"/>
-      <c r="N58" s="80"/>
-      <c r="O58" s="81"/>
-      <c r="P58" s="79">
+      <c r="M58" s="97"/>
+      <c r="N58" s="97"/>
+      <c r="O58" s="98"/>
+      <c r="P58" s="96">
         <f>P3</f>
         <v>43878</v>
       </c>
-      <c r="Q58" s="80"/>
-      <c r="R58" s="80"/>
-      <c r="S58" s="81"/>
-      <c r="T58" s="79">
+      <c r="Q58" s="97"/>
+      <c r="R58" s="97"/>
+      <c r="S58" s="98"/>
+      <c r="T58" s="96">
         <f>T3</f>
         <v>43880</v>
       </c>
-      <c r="U58" s="80"/>
-      <c r="V58" s="80"/>
-      <c r="W58" s="81"/>
-      <c r="X58" s="79">
+      <c r="U58" s="97"/>
+      <c r="V58" s="97"/>
+      <c r="W58" s="98"/>
+      <c r="X58" s="96">
         <f>X3</f>
         <v>43881</v>
       </c>
-      <c r="Y58" s="80"/>
-      <c r="Z58" s="80"/>
-      <c r="AA58" s="85"/>
-      <c r="AB58" s="79">
+      <c r="Y58" s="97"/>
+      <c r="Z58" s="97"/>
+      <c r="AA58" s="102"/>
+      <c r="AB58" s="96">
         <f>AB3</f>
         <v>43882</v>
       </c>
-      <c r="AC58" s="80"/>
-      <c r="AD58" s="80"/>
-      <c r="AE58" s="81"/>
-      <c r="AF58" s="79">
+      <c r="AC58" s="97"/>
+      <c r="AD58" s="97"/>
+      <c r="AE58" s="98"/>
+      <c r="AF58" s="96">
         <f>AF3</f>
         <v>43885</v>
       </c>
-      <c r="AG58" s="80"/>
-      <c r="AH58" s="80"/>
-      <c r="AI58" s="81"/>
-      <c r="AJ58" s="79">
+      <c r="AG58" s="97"/>
+      <c r="AH58" s="97"/>
+      <c r="AI58" s="98"/>
+      <c r="AJ58" s="96">
         <f>AJ3</f>
         <v>43887</v>
       </c>
-      <c r="AK58" s="80"/>
-      <c r="AL58" s="80"/>
-      <c r="AM58" s="81"/>
-      <c r="AN58" s="79">
+      <c r="AK58" s="97"/>
+      <c r="AL58" s="97"/>
+      <c r="AM58" s="98"/>
+      <c r="AN58" s="96">
         <f>AN3</f>
         <v>43888</v>
       </c>
-      <c r="AO58" s="80"/>
-      <c r="AP58" s="80"/>
-      <c r="AQ58" s="81"/>
-      <c r="AR58" s="79">
+      <c r="AO58" s="97"/>
+      <c r="AP58" s="97"/>
+      <c r="AQ58" s="98"/>
+      <c r="AR58" s="96">
         <f>AR3</f>
         <v>43889</v>
       </c>
-      <c r="AS58" s="80"/>
-      <c r="AT58" s="80"/>
-      <c r="AU58" s="81"/>
+      <c r="AS58" s="97"/>
+      <c r="AT58" s="97"/>
+      <c r="AU58" s="98"/>
     </row>
     <row r="59" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="60" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="76" t="s">
+      <c r="A60" s="93" t="s">
+        <v>39</v>
+      </c>
+      <c r="B60" s="94"/>
+      <c r="C60" s="95"/>
+    </row>
+    <row r="61" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="A61" s="91" t="s">
         <v>40</v>
       </c>
-      <c r="B60" s="77"/>
-      <c r="C60" s="78"/>
-    </row>
-    <row r="61" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A61" s="74" t="s">
+      <c r="B61" s="92"/>
+      <c r="C61" s="18"/>
+    </row>
+    <row r="62" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="A62" s="91" t="s">
         <v>41</v>
       </c>
-      <c r="B61" s="75"/>
-      <c r="C61" s="18"/>
-    </row>
-    <row r="62" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A62" s="74" t="s">
+      <c r="B62" s="92"/>
+      <c r="C62" s="19"/>
+    </row>
+    <row r="63" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="A63" s="91" t="s">
         <v>42</v>
       </c>
-      <c r="B62" s="75"/>
-      <c r="C62" s="19"/>
-    </row>
-    <row r="63" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A63" s="74" t="s">
+      <c r="B63" s="92"/>
+      <c r="C63" s="20"/>
+    </row>
+    <row r="64" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="A64" s="91" t="s">
         <v>43</v>
       </c>
-      <c r="B63" s="75"/>
-      <c r="C63" s="20"/>
-    </row>
-    <row r="64" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A64" s="74" t="s">
+      <c r="B64" s="92"/>
+      <c r="C64" s="21"/>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65" s="91" t="s">
         <v>44</v>
       </c>
-      <c r="B64" s="75"/>
-      <c r="C64" s="21"/>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A65" s="74" t="s">
+      <c r="B65" s="92"/>
+      <c r="C65" s="22"/>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66" s="91" t="s">
+        <v>12</v>
+      </c>
+      <c r="B66" s="92"/>
+      <c r="C66" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="B65" s="75"/>
-      <c r="C65" s="22"/>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A66" s="74" t="s">
-        <v>12</v>
-      </c>
-      <c r="B66" s="75"/>
-      <c r="C66" s="23" t="s">
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67" s="91" t="s">
+        <v>13</v>
+      </c>
+      <c r="B67" s="92"/>
+      <c r="C67" s="23" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A67" s="74" t="s">
-        <v>13</v>
-      </c>
-      <c r="B67" s="75"/>
-      <c r="C67" s="23" t="s">
+    <row r="68" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="89" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="72" t="s">
-        <v>48</v>
-      </c>
-      <c r="B68" s="73"/>
+      <c r="B68" s="90"/>
       <c r="C68" s="24"/>
     </row>
     <row r="69" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="70" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A70" s="28" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B70" s="26"/>
       <c r="C70" s="26"/>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" s="29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B71" s="25"/>
       <c r="C71" s="27"/>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" s="29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B72" s="25"/>
       <c r="C72" s="27"/>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" s="29" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B73" s="25"/>
       <c r="C73" s="27"/>
     </row>
     <row r="74" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A74" s="30" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B74" s="25"/>
       <c r="C74" s="27"/>
@@ -5949,107 +5929,107 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="D6:AU6 D8:AU8 D12:J12 L12:AU12 K13 D44:AR44 AT44:AU44 AR45">
-    <cfRule type="cellIs" dxfId="26" priority="34" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="22" priority="34" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:AU7 D33:AC33 AE33:AU33 D20:M20 O20:AU20 D31:Z31 AB31:AU31 AB30 D52:P52 R52:AU52 Q51 J9:AU9 D9:H9">
-    <cfRule type="cellIs" dxfId="25" priority="33" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="21" priority="33" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13:AU13">
-    <cfRule type="cellIs" dxfId="24" priority="29" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="20" priority="29" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19:AU19 D21:AU21">
-    <cfRule type="cellIs" dxfId="23" priority="28" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="19" priority="28" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D22:AU22">
-    <cfRule type="cellIs" dxfId="22" priority="27" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="18" priority="27" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:AU17">
-    <cfRule type="cellIs" dxfId="21" priority="26" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="17" priority="26" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18:AU18">
-    <cfRule type="cellIs" dxfId="20" priority="25" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="16" priority="25" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24:AU24 D26:AU26 D28:AU28 D30:AU30 D32:AU32 D34:AU34 D36:AU36 D38:AU38 D40:AU40 D42:AU42 D46:AU46">
-    <cfRule type="cellIs" dxfId="19" priority="24" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="15" priority="24" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25:AU25 D27:AU27 D29:AU29 D35:AU35 D37:AU37 D39:AU39 D41:AU41 D43:AU43 D45:AU45 D47:AU47">
-    <cfRule type="cellIs" dxfId="18" priority="23" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="14" priority="23" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D49:AU49 D51:AU51 D53:AU53">
-    <cfRule type="cellIs" dxfId="17" priority="22" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="13" priority="22" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D50:AU50 D54:AU54">
-    <cfRule type="cellIs" dxfId="16" priority="21" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="12" priority="21" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6:C9 C19:C22">
-    <cfRule type="cellIs" dxfId="15" priority="19" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="11" priority="19" operator="greaterThan">
       <formula>$B6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="20" operator="lessThan">
+    <cfRule type="cellIs" dxfId="10" priority="20" operator="lessThan">
       <formula>$B6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12:C13">
-    <cfRule type="cellIs" dxfId="13" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="9" priority="13" operator="greaterThan">
       <formula>$B12</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="14" operator="lessThan">
+    <cfRule type="cellIs" dxfId="8" priority="14" operator="lessThan">
       <formula>$B12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17:C18">
-    <cfRule type="cellIs" dxfId="11" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="7" priority="9" operator="greaterThan">
       <formula>$B17</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="10" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="10" operator="lessThan">
       <formula>$B17</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C24:C47 C49:C54">
-    <cfRule type="cellIs" dxfId="9" priority="7" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="7" operator="lessThan">
       <formula>$B24</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="4" priority="8" operator="greaterThan">
       <formula>$B24</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15:J15 L15:AU15 K16">
-    <cfRule type="cellIs" dxfId="7" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16:AU16">
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15:C16">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
       <formula>$B15</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="lessThan">
       <formula>$B15</formula>
     </cfRule>
   </conditionalFormatting>

--- a/02_zeitplan/IPA_Zeitplan_Kabilan_Sivanamam.xlsx
+++ b/02_zeitplan/IPA_Zeitplan_Kabilan_Sivanamam.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kabi/Documents/GitHub/IPA2020/02_zeitplan/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71E73835-7470-734B-A732-ED794DB31829}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5A77C05-8DB5-2949-88F6-C1CB4A2897E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{919B10DA-F269-3C46-8A86-B94EB657325B}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{919B10DA-F269-3C46-8A86-B94EB657325B}"/>
   </bookViews>
   <sheets>
     <sheet name="Zeitplan v1" sheetId="1" r:id="rId1"/>
@@ -1098,6 +1098,210 @@
     <xf numFmtId="1" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="3" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="3" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="3" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="3" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -1107,9 +1311,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1117,207 +1318,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="3" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="3" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="3" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="3" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1641,16 +1641,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>177800</xdr:colOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>132844</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>94295</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>165100</xdr:colOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>120144</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>132395</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1665,7 +1665,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8820543" y="4387569"/>
+          <a:off x="11304348" y="4443764"/>
           <a:ext cx="268274" cy="251640"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -1775,16 +1775,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>179261</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>77660</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>139700</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>128460</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>128461</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1799,8 +1799,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8064500" y="2578100"/>
-          <a:ext cx="279400" cy="266700"/>
+          <a:off x="8822004" y="3595448"/>
+          <a:ext cx="230173" cy="264340"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -2142,8 +2142,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE2EA0AA-2CD7-9C47-95CA-C0AE6CDA2CB2}">
   <dimension ref="A1:AU74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="113" workbookViewId="0">
-      <selection activeCell="N47" sqref="N47"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="113" workbookViewId="0">
+      <selection activeCell="Q30" sqref="Q30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2155,230 +2155,230 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="89" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="146" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="147"/>
-      <c r="F1" s="147"/>
-      <c r="G1" s="148"/>
-      <c r="H1" s="146" t="s">
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="96" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="147"/>
-      <c r="J1" s="147"/>
-      <c r="K1" s="148"/>
-      <c r="L1" s="161" t="s">
+      <c r="I1" s="97"/>
+      <c r="J1" s="97"/>
+      <c r="K1" s="98"/>
+      <c r="L1" s="99" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="147"/>
-      <c r="N1" s="147"/>
-      <c r="O1" s="148"/>
-      <c r="P1" s="146" t="s">
+      <c r="M1" s="97"/>
+      <c r="N1" s="97"/>
+      <c r="O1" s="98"/>
+      <c r="P1" s="96" t="s">
         <v>4</v>
       </c>
-      <c r="Q1" s="147"/>
-      <c r="R1" s="147"/>
-      <c r="S1" s="148"/>
-      <c r="T1" s="146" t="s">
+      <c r="Q1" s="97"/>
+      <c r="R1" s="97"/>
+      <c r="S1" s="98"/>
+      <c r="T1" s="96" t="s">
         <v>5</v>
       </c>
-      <c r="U1" s="147"/>
-      <c r="V1" s="147"/>
-      <c r="W1" s="148"/>
-      <c r="X1" s="146" t="s">
+      <c r="U1" s="97"/>
+      <c r="V1" s="97"/>
+      <c r="W1" s="98"/>
+      <c r="X1" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="Y1" s="147"/>
-      <c r="Z1" s="147"/>
-      <c r="AA1" s="157"/>
-      <c r="AB1" s="146" t="s">
+      <c r="Y1" s="97"/>
+      <c r="Z1" s="97"/>
+      <c r="AA1" s="108"/>
+      <c r="AB1" s="96" t="s">
         <v>7</v>
       </c>
-      <c r="AC1" s="147"/>
-      <c r="AD1" s="147"/>
-      <c r="AE1" s="148"/>
-      <c r="AF1" s="146" t="s">
+      <c r="AC1" s="97"/>
+      <c r="AD1" s="97"/>
+      <c r="AE1" s="98"/>
+      <c r="AF1" s="96" t="s">
         <v>8</v>
       </c>
-      <c r="AG1" s="147"/>
-      <c r="AH1" s="147"/>
-      <c r="AI1" s="148"/>
-      <c r="AJ1" s="146" t="s">
+      <c r="AG1" s="97"/>
+      <c r="AH1" s="97"/>
+      <c r="AI1" s="98"/>
+      <c r="AJ1" s="96" t="s">
         <v>9</v>
       </c>
-      <c r="AK1" s="147"/>
-      <c r="AL1" s="147"/>
-      <c r="AM1" s="148"/>
-      <c r="AN1" s="146" t="s">
+      <c r="AK1" s="97"/>
+      <c r="AL1" s="97"/>
+      <c r="AM1" s="98"/>
+      <c r="AN1" s="96" t="s">
         <v>10</v>
       </c>
-      <c r="AO1" s="147"/>
-      <c r="AP1" s="147"/>
-      <c r="AQ1" s="148"/>
-      <c r="AR1" s="146" t="s">
+      <c r="AO1" s="97"/>
+      <c r="AP1" s="97"/>
+      <c r="AQ1" s="98"/>
+      <c r="AR1" s="96" t="s">
         <v>11</v>
       </c>
-      <c r="AS1" s="147"/>
-      <c r="AT1" s="147"/>
-      <c r="AU1" s="148"/>
+      <c r="AS1" s="97"/>
+      <c r="AT1" s="97"/>
+      <c r="AU1" s="98"/>
     </row>
     <row r="2" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A2" s="92"/>
-      <c r="B2" s="92"/>
-      <c r="C2" s="92"/>
-      <c r="D2" s="149" t="str">
+      <c r="A2" s="89"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="100" t="str">
         <f>TEXT(D3,"ddd")</f>
         <v>Wed</v>
       </c>
-      <c r="E2" s="150"/>
-      <c r="F2" s="150"/>
-      <c r="G2" s="151"/>
-      <c r="H2" s="149" t="str">
+      <c r="E2" s="101"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="100" t="str">
         <f t="shared" ref="H2" si="0">TEXT(H3,"ddd")</f>
         <v>Thu</v>
       </c>
-      <c r="I2" s="150"/>
-      <c r="J2" s="150"/>
-      <c r="K2" s="151"/>
-      <c r="L2" s="162" t="str">
+      <c r="I2" s="101"/>
+      <c r="J2" s="101"/>
+      <c r="K2" s="102"/>
+      <c r="L2" s="103" t="str">
         <f t="shared" ref="L2" si="1">TEXT(L3,"ddd")</f>
         <v>Fri</v>
       </c>
-      <c r="M2" s="150"/>
-      <c r="N2" s="150"/>
-      <c r="O2" s="151"/>
-      <c r="P2" s="149" t="str">
+      <c r="M2" s="101"/>
+      <c r="N2" s="101"/>
+      <c r="O2" s="102"/>
+      <c r="P2" s="100" t="str">
         <f t="shared" ref="P2" si="2">TEXT(P3,"ddd")</f>
         <v>Mon</v>
       </c>
-      <c r="Q2" s="150"/>
-      <c r="R2" s="150"/>
-      <c r="S2" s="151"/>
-      <c r="T2" s="149" t="str">
+      <c r="Q2" s="101"/>
+      <c r="R2" s="101"/>
+      <c r="S2" s="102"/>
+      <c r="T2" s="100" t="str">
         <f t="shared" ref="T2" si="3">TEXT(T3,"ddd")</f>
         <v>Wed</v>
       </c>
-      <c r="U2" s="150"/>
-      <c r="V2" s="150"/>
-      <c r="W2" s="151"/>
-      <c r="X2" s="149" t="str">
+      <c r="U2" s="101"/>
+      <c r="V2" s="101"/>
+      <c r="W2" s="102"/>
+      <c r="X2" s="100" t="str">
         <f t="shared" ref="X2" si="4">TEXT(X3,"ddd")</f>
         <v>Thu</v>
       </c>
-      <c r="Y2" s="150"/>
-      <c r="Z2" s="150"/>
-      <c r="AA2" s="158"/>
-      <c r="AB2" s="149" t="str">
+      <c r="Y2" s="101"/>
+      <c r="Z2" s="101"/>
+      <c r="AA2" s="109"/>
+      <c r="AB2" s="100" t="str">
         <f t="shared" ref="AB2" si="5">TEXT(AB3,"ddd")</f>
         <v>Fri</v>
       </c>
-      <c r="AC2" s="150"/>
-      <c r="AD2" s="150"/>
-      <c r="AE2" s="151"/>
-      <c r="AF2" s="149" t="str">
+      <c r="AC2" s="101"/>
+      <c r="AD2" s="101"/>
+      <c r="AE2" s="102"/>
+      <c r="AF2" s="100" t="str">
         <f t="shared" ref="AF2" si="6">TEXT(AF3,"ddd")</f>
         <v>Mon</v>
       </c>
-      <c r="AG2" s="150"/>
-      <c r="AH2" s="150"/>
-      <c r="AI2" s="151"/>
-      <c r="AJ2" s="149" t="str">
+      <c r="AG2" s="101"/>
+      <c r="AH2" s="101"/>
+      <c r="AI2" s="102"/>
+      <c r="AJ2" s="100" t="str">
         <f t="shared" ref="AJ2" si="7">TEXT(AJ3,"ddd")</f>
         <v>Wed</v>
       </c>
-      <c r="AK2" s="150"/>
-      <c r="AL2" s="150"/>
-      <c r="AM2" s="151"/>
-      <c r="AN2" s="149" t="str">
+      <c r="AK2" s="101"/>
+      <c r="AL2" s="101"/>
+      <c r="AM2" s="102"/>
+      <c r="AN2" s="100" t="str">
         <f t="shared" ref="AN2" si="8">TEXT(AN3,"ddd")</f>
         <v>Thu</v>
       </c>
-      <c r="AO2" s="150"/>
-      <c r="AP2" s="150"/>
-      <c r="AQ2" s="151"/>
-      <c r="AR2" s="149" t="str">
+      <c r="AO2" s="101"/>
+      <c r="AP2" s="101"/>
+      <c r="AQ2" s="102"/>
+      <c r="AR2" s="100" t="str">
         <f t="shared" ref="AR2" si="9">TEXT(AR3,"ddd")</f>
         <v>Fri</v>
       </c>
-      <c r="AS2" s="150"/>
-      <c r="AT2" s="150"/>
-      <c r="AU2" s="151"/>
+      <c r="AS2" s="101"/>
+      <c r="AT2" s="101"/>
+      <c r="AU2" s="102"/>
     </row>
     <row r="3" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A3" s="92"/>
-      <c r="B3" s="92"/>
-      <c r="C3" s="92"/>
-      <c r="D3" s="152">
+      <c r="A3" s="89"/>
+      <c r="B3" s="89"/>
+      <c r="C3" s="89"/>
+      <c r="D3" s="90">
         <v>43873</v>
       </c>
-      <c r="E3" s="153"/>
-      <c r="F3" s="153"/>
-      <c r="G3" s="154"/>
-      <c r="H3" s="152">
+      <c r="E3" s="91"/>
+      <c r="F3" s="91"/>
+      <c r="G3" s="92"/>
+      <c r="H3" s="90">
         <v>43874</v>
       </c>
-      <c r="I3" s="153"/>
-      <c r="J3" s="153"/>
-      <c r="K3" s="154"/>
-      <c r="L3" s="159">
+      <c r="I3" s="91"/>
+      <c r="J3" s="91"/>
+      <c r="K3" s="92"/>
+      <c r="L3" s="104">
         <v>43875</v>
       </c>
-      <c r="M3" s="153"/>
-      <c r="N3" s="153"/>
-      <c r="O3" s="154"/>
-      <c r="P3" s="152">
+      <c r="M3" s="91"/>
+      <c r="N3" s="91"/>
+      <c r="O3" s="92"/>
+      <c r="P3" s="90">
         <v>43878</v>
       </c>
-      <c r="Q3" s="153"/>
-      <c r="R3" s="153"/>
-      <c r="S3" s="154"/>
-      <c r="T3" s="152">
+      <c r="Q3" s="91"/>
+      <c r="R3" s="91"/>
+      <c r="S3" s="92"/>
+      <c r="T3" s="90">
         <v>43880</v>
       </c>
-      <c r="U3" s="153"/>
-      <c r="V3" s="153"/>
-      <c r="W3" s="154"/>
-      <c r="X3" s="152">
+      <c r="U3" s="91"/>
+      <c r="V3" s="91"/>
+      <c r="W3" s="92"/>
+      <c r="X3" s="90">
         <v>43881</v>
       </c>
-      <c r="Y3" s="153"/>
-      <c r="Z3" s="153"/>
-      <c r="AA3" s="155"/>
-      <c r="AB3" s="152">
+      <c r="Y3" s="91"/>
+      <c r="Z3" s="91"/>
+      <c r="AA3" s="106"/>
+      <c r="AB3" s="90">
         <v>43882</v>
       </c>
-      <c r="AC3" s="153"/>
-      <c r="AD3" s="153"/>
-      <c r="AE3" s="154"/>
-      <c r="AF3" s="152">
+      <c r="AC3" s="91"/>
+      <c r="AD3" s="91"/>
+      <c r="AE3" s="92"/>
+      <c r="AF3" s="90">
         <v>43885</v>
       </c>
-      <c r="AG3" s="153"/>
-      <c r="AH3" s="153"/>
-      <c r="AI3" s="154"/>
-      <c r="AJ3" s="152">
+      <c r="AG3" s="91"/>
+      <c r="AH3" s="91"/>
+      <c r="AI3" s="92"/>
+      <c r="AJ3" s="90">
         <v>43887</v>
       </c>
-      <c r="AK3" s="153"/>
-      <c r="AL3" s="153"/>
-      <c r="AM3" s="154"/>
-      <c r="AN3" s="152">
+      <c r="AK3" s="91"/>
+      <c r="AL3" s="91"/>
+      <c r="AM3" s="92"/>
+      <c r="AN3" s="90">
         <v>43888</v>
       </c>
-      <c r="AO3" s="153"/>
-      <c r="AP3" s="153"/>
-      <c r="AQ3" s="154"/>
-      <c r="AR3" s="152">
+      <c r="AO3" s="91"/>
+      <c r="AP3" s="91"/>
+      <c r="AQ3" s="92"/>
+      <c r="AR3" s="90">
         <v>43889</v>
       </c>
-      <c r="AS3" s="153"/>
-      <c r="AT3" s="153"/>
-      <c r="AU3" s="154"/>
+      <c r="AS3" s="91"/>
+      <c r="AT3" s="91"/>
+      <c r="AU3" s="92"/>
     </row>
     <row r="4" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
@@ -2390,94 +2390,94 @@
       <c r="C4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="143" t="s">
+      <c r="D4" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="144"/>
-      <c r="F4" s="144" t="s">
+      <c r="E4" s="94"/>
+      <c r="F4" s="94" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="145"/>
-      <c r="H4" s="143" t="s">
+      <c r="G4" s="95"/>
+      <c r="H4" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="144"/>
-      <c r="J4" s="144" t="s">
+      <c r="I4" s="94"/>
+      <c r="J4" s="94" t="s">
         <v>13</v>
       </c>
-      <c r="K4" s="145"/>
-      <c r="L4" s="160" t="s">
+      <c r="K4" s="95"/>
+      <c r="L4" s="105" t="s">
         <v>12</v>
       </c>
-      <c r="M4" s="144"/>
-      <c r="N4" s="144" t="s">
+      <c r="M4" s="94"/>
+      <c r="N4" s="94" t="s">
         <v>13</v>
       </c>
-      <c r="O4" s="145"/>
-      <c r="P4" s="143" t="s">
+      <c r="O4" s="95"/>
+      <c r="P4" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="Q4" s="144"/>
-      <c r="R4" s="144" t="s">
+      <c r="Q4" s="94"/>
+      <c r="R4" s="94" t="s">
         <v>13</v>
       </c>
-      <c r="S4" s="145"/>
-      <c r="T4" s="143" t="s">
+      <c r="S4" s="95"/>
+      <c r="T4" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="U4" s="144"/>
-      <c r="V4" s="144" t="s">
+      <c r="U4" s="94"/>
+      <c r="V4" s="94" t="s">
         <v>13</v>
       </c>
-      <c r="W4" s="145"/>
-      <c r="X4" s="143" t="s">
+      <c r="W4" s="95"/>
+      <c r="X4" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="Y4" s="144"/>
-      <c r="Z4" s="144" t="s">
+      <c r="Y4" s="94"/>
+      <c r="Z4" s="94" t="s">
         <v>13</v>
       </c>
-      <c r="AA4" s="156"/>
-      <c r="AB4" s="143" t="s">
+      <c r="AA4" s="107"/>
+      <c r="AB4" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="AC4" s="144"/>
-      <c r="AD4" s="144" t="s">
+      <c r="AC4" s="94"/>
+      <c r="AD4" s="94" t="s">
         <v>13</v>
       </c>
-      <c r="AE4" s="145"/>
-      <c r="AF4" s="143" t="s">
+      <c r="AE4" s="95"/>
+      <c r="AF4" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="AG4" s="144"/>
-      <c r="AH4" s="144" t="s">
+      <c r="AG4" s="94"/>
+      <c r="AH4" s="94" t="s">
         <v>13</v>
       </c>
-      <c r="AI4" s="145"/>
-      <c r="AJ4" s="143" t="s">
+      <c r="AI4" s="95"/>
+      <c r="AJ4" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="AK4" s="144"/>
-      <c r="AL4" s="144" t="s">
+      <c r="AK4" s="94"/>
+      <c r="AL4" s="94" t="s">
         <v>13</v>
       </c>
-      <c r="AM4" s="145"/>
-      <c r="AN4" s="143" t="s">
+      <c r="AM4" s="95"/>
+      <c r="AN4" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="AO4" s="144"/>
-      <c r="AP4" s="144" t="s">
+      <c r="AO4" s="94"/>
+      <c r="AP4" s="94" t="s">
         <v>13</v>
       </c>
-      <c r="AQ4" s="145"/>
-      <c r="AR4" s="143" t="s">
+      <c r="AQ4" s="95"/>
+      <c r="AR4" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="AS4" s="144"/>
-      <c r="AT4" s="144" t="s">
+      <c r="AS4" s="94"/>
+      <c r="AT4" s="94" t="s">
         <v>13</v>
       </c>
-      <c r="AU4" s="145"/>
+      <c r="AU4" s="95"/>
     </row>
     <row r="5" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
@@ -2531,14 +2531,14 @@
       <c r="AU5" s="17"/>
     </row>
     <row r="6" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A6" s="123" t="s">
+      <c r="A6" s="110" t="s">
         <v>50</v>
       </c>
-      <c r="B6" s="135">
+      <c r="B6" s="112">
         <f>SUM(D6:AU6)</f>
         <v>2</v>
       </c>
-      <c r="C6" s="136">
+      <c r="C6" s="113">
         <f>SUM(D7:AU7)</f>
         <v>2</v>
       </c>
@@ -2592,9 +2592,9 @@
       <c r="AU6" s="35"/>
     </row>
     <row r="7" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="124"/>
-      <c r="B7" s="135"/>
-      <c r="C7" s="136"/>
+      <c r="A7" s="111"/>
+      <c r="B7" s="112"/>
+      <c r="C7" s="113"/>
       <c r="D7" s="41">
         <v>1</v>
       </c>
@@ -2645,14 +2645,14 @@
       <c r="AU7" s="40"/>
     </row>
     <row r="8" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A8" s="123" t="s">
+      <c r="A8" s="110" t="s">
         <v>52</v>
       </c>
-      <c r="B8" s="135">
+      <c r="B8" s="112">
         <f>SUM(D8:AU8)</f>
         <v>4</v>
       </c>
-      <c r="C8" s="136">
+      <c r="C8" s="113">
         <f>SUM(D9:AU9)</f>
         <v>3</v>
       </c>
@@ -2710,9 +2710,9 @@
       </c>
     </row>
     <row r="9" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="134"/>
-      <c r="B9" s="131"/>
-      <c r="C9" s="133"/>
+      <c r="A9" s="115"/>
+      <c r="B9" s="116"/>
+      <c r="C9" s="114"/>
       <c r="D9" s="49"/>
       <c r="E9" s="53">
         <v>1</v>
@@ -2867,14 +2867,14 @@
       <c r="AU11" s="46"/>
     </row>
     <row r="12" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A12" s="129" t="s">
+      <c r="A12" s="117" t="s">
         <v>53</v>
       </c>
-      <c r="B12" s="130">
+      <c r="B12" s="118">
         <f>SUM(D12:AU12)</f>
         <v>7</v>
       </c>
-      <c r="C12" s="132">
+      <c r="C12" s="119">
         <f>SUM(D13:AU13)</f>
         <v>7</v>
       </c>
@@ -2932,9 +2932,9 @@
       <c r="AU12" s="48"/>
     </row>
     <row r="13" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="134"/>
-      <c r="B13" s="135"/>
-      <c r="C13" s="136"/>
+      <c r="A13" s="115"/>
+      <c r="B13" s="112"/>
+      <c r="C13" s="113"/>
       <c r="D13" s="41"/>
       <c r="E13" s="39"/>
       <c r="F13" s="39"/>
@@ -3040,14 +3040,14 @@
       <c r="AU14" s="63"/>
     </row>
     <row r="15" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A15" s="137" t="s">
+      <c r="A15" s="120" t="s">
         <v>59</v>
       </c>
-      <c r="B15" s="139">
+      <c r="B15" s="122">
         <f>SUM(D15:AU15)</f>
         <v>1</v>
       </c>
-      <c r="C15" s="141">
+      <c r="C15" s="124">
         <f>SUM(D16:AU16)</f>
         <v>4</v>
       </c>
@@ -3099,9 +3099,9 @@
       <c r="AU15" s="35"/>
     </row>
     <row r="16" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="138"/>
-      <c r="B16" s="140"/>
-      <c r="C16" s="142"/>
+      <c r="A16" s="121"/>
+      <c r="B16" s="123"/>
+      <c r="C16" s="125"/>
       <c r="D16" s="41"/>
       <c r="E16" s="39"/>
       <c r="F16" s="39"/>
@@ -3154,14 +3154,14 @@
       <c r="AU16" s="40"/>
     </row>
     <row r="17" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A17" s="129" t="s">
+      <c r="A17" s="117" t="s">
         <v>54</v>
       </c>
-      <c r="B17" s="130">
+      <c r="B17" s="118">
         <f t="shared" ref="B17" si="10">SUM(D17:AU17)</f>
         <v>2</v>
       </c>
-      <c r="C17" s="132">
+      <c r="C17" s="119">
         <f t="shared" ref="C17" si="11">SUM(D18:AU18)</f>
         <v>4</v>
       </c>
@@ -3213,9 +3213,9 @@
       <c r="AU17" s="48"/>
     </row>
     <row r="18" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="134"/>
-      <c r="B18" s="135"/>
-      <c r="C18" s="136"/>
+      <c r="A18" s="115"/>
+      <c r="B18" s="112"/>
+      <c r="C18" s="113"/>
       <c r="D18" s="41"/>
       <c r="E18" s="39"/>
       <c r="F18" s="39"/>
@@ -3270,14 +3270,14 @@
       <c r="AU18" s="40"/>
     </row>
     <row r="19" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A19" s="123" t="s">
+      <c r="A19" s="110" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="135">
+      <c r="B19" s="112">
         <f t="shared" ref="B19" si="12">SUM(D19:AU19)</f>
         <v>2</v>
       </c>
-      <c r="C19" s="136">
+      <c r="C19" s="113">
         <f t="shared" ref="C19" si="13">SUM(D20:AU20)</f>
         <v>0</v>
       </c>
@@ -3329,9 +3329,9 @@
       <c r="AU19" s="35"/>
     </row>
     <row r="20" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="134"/>
-      <c r="B20" s="131"/>
-      <c r="C20" s="133"/>
+      <c r="A20" s="115"/>
+      <c r="B20" s="116"/>
+      <c r="C20" s="114"/>
       <c r="D20" s="49"/>
       <c r="E20" s="53"/>
       <c r="F20" s="53"/>
@@ -3378,16 +3378,16 @@
       <c r="AU20" s="48"/>
     </row>
     <row r="21" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A21" s="123" t="s">
+      <c r="A21" s="110" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="125">
+      <c r="B21" s="126">
         <f t="shared" ref="B21" si="14">SUM(D21:AU21)</f>
         <v>1</v>
       </c>
-      <c r="C21" s="127">
+      <c r="C21" s="128">
         <f t="shared" ref="C21" si="15">SUM(D22:AU22)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D21" s="36"/>
       <c r="E21" s="34"/>
@@ -3437,9 +3437,9 @@
       <c r="AU21" s="35"/>
     </row>
     <row r="22" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="124"/>
-      <c r="B22" s="126"/>
-      <c r="C22" s="128"/>
+      <c r="A22" s="111"/>
+      <c r="B22" s="127"/>
+      <c r="C22" s="129"/>
       <c r="D22" s="41"/>
       <c r="E22" s="39"/>
       <c r="F22" s="39"/>
@@ -3456,10 +3456,18 @@
       <c r="Q22" s="39"/>
       <c r="R22" s="42"/>
       <c r="S22" s="43"/>
-      <c r="T22" s="41"/>
-      <c r="U22" s="39"/>
-      <c r="V22" s="39"/>
-      <c r="W22" s="40"/>
+      <c r="T22" s="41">
+        <v>2</v>
+      </c>
+      <c r="U22" s="39">
+        <v>2</v>
+      </c>
+      <c r="V22" s="39">
+        <v>2</v>
+      </c>
+      <c r="W22" s="40">
+        <v>1</v>
+      </c>
       <c r="X22" s="41"/>
       <c r="Y22" s="39"/>
       <c r="Z22" s="39"/>
@@ -3537,14 +3545,14 @@
       <c r="AU23" s="58"/>
     </row>
     <row r="24" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A24" s="123" t="s">
+      <c r="A24" s="110" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="135">
+      <c r="B24" s="112">
         <f>SUM(D24:AU24)</f>
         <v>1</v>
       </c>
-      <c r="C24" s="136">
+      <c r="C24" s="113">
         <f>SUM(D25:AU25)</f>
         <v>0</v>
       </c>
@@ -3596,9 +3604,9 @@
       <c r="AU24" s="48"/>
     </row>
     <row r="25" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="134"/>
-      <c r="B25" s="135"/>
-      <c r="C25" s="136"/>
+      <c r="A25" s="115"/>
+      <c r="B25" s="112"/>
+      <c r="C25" s="113"/>
       <c r="D25" s="41"/>
       <c r="E25" s="39"/>
       <c r="F25" s="39"/>
@@ -3645,14 +3653,14 @@
       <c r="AU25" s="40"/>
     </row>
     <row r="26" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A26" s="123" t="s">
+      <c r="A26" s="110" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="135">
+      <c r="B26" s="112">
         <f t="shared" ref="B26" si="16">SUM(D26:AU26)</f>
         <v>1</v>
       </c>
-      <c r="C26" s="136">
+      <c r="C26" s="113">
         <f t="shared" ref="C26" si="17">SUM(D27:AU27)</f>
         <v>0</v>
       </c>
@@ -3704,9 +3712,9 @@
       <c r="AU26" s="35"/>
     </row>
     <row r="27" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="134"/>
-      <c r="B27" s="131"/>
-      <c r="C27" s="133"/>
+      <c r="A27" s="115"/>
+      <c r="B27" s="116"/>
+      <c r="C27" s="114"/>
       <c r="D27" s="49"/>
       <c r="E27" s="53"/>
       <c r="F27" s="53"/>
@@ -3753,14 +3761,14 @@
       <c r="AU27" s="48"/>
     </row>
     <row r="28" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A28" s="123" t="s">
+      <c r="A28" s="110" t="s">
         <v>26</v>
       </c>
-      <c r="B28" s="125">
+      <c r="B28" s="126">
         <f t="shared" ref="B28" si="18">SUM(D28:AU28)</f>
-        <v>8</v>
-      </c>
-      <c r="C28" s="127">
+        <v>7</v>
+      </c>
+      <c r="C28" s="128">
         <f t="shared" ref="C28" si="19">SUM(D29:AU29)</f>
         <v>0</v>
       </c>
@@ -3790,7 +3798,7 @@
         <v>2</v>
       </c>
       <c r="W28" s="35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X28" s="36"/>
       <c r="Y28" s="34"/>
@@ -3818,9 +3826,9 @@
       <c r="AU28" s="35"/>
     </row>
     <row r="29" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="124"/>
-      <c r="B29" s="126"/>
-      <c r="C29" s="128"/>
+      <c r="A29" s="111"/>
+      <c r="B29" s="127"/>
+      <c r="C29" s="129"/>
       <c r="D29" s="41"/>
       <c r="E29" s="39"/>
       <c r="F29" s="39"/>
@@ -3867,14 +3875,14 @@
       <c r="AU29" s="40"/>
     </row>
     <row r="30" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A30" s="129" t="s">
+      <c r="A30" s="117" t="s">
         <v>27</v>
       </c>
-      <c r="B30" s="130">
+      <c r="B30" s="118">
         <f t="shared" ref="B30" si="20">SUM(D30:AU30)</f>
         <v>7</v>
       </c>
-      <c r="C30" s="132">
+      <c r="C30" s="119">
         <f t="shared" ref="C30" si="21">SUM(D31:AU31)</f>
         <v>0</v>
       </c>
@@ -3932,9 +3940,9 @@
       <c r="AU30" s="48"/>
     </row>
     <row r="31" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="134"/>
-      <c r="B31" s="135"/>
-      <c r="C31" s="136"/>
+      <c r="A31" s="115"/>
+      <c r="B31" s="112"/>
+      <c r="C31" s="113"/>
       <c r="D31" s="41"/>
       <c r="E31" s="39"/>
       <c r="F31" s="39"/>
@@ -3981,14 +3989,14 @@
       <c r="AU31" s="40"/>
     </row>
     <row r="32" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A32" s="123" t="s">
+      <c r="A32" s="110" t="s">
         <v>28</v>
       </c>
-      <c r="B32" s="135">
+      <c r="B32" s="112">
         <f t="shared" ref="B32" si="22">SUM(D32:AU32)</f>
         <v>7</v>
       </c>
-      <c r="C32" s="136">
+      <c r="C32" s="113">
         <f t="shared" ref="C32" si="23">SUM(D33:AU33)</f>
         <v>0</v>
       </c>
@@ -4046,9 +4054,9 @@
       <c r="AU32" s="35"/>
     </row>
     <row r="33" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="134"/>
-      <c r="B33" s="135"/>
-      <c r="C33" s="136"/>
+      <c r="A33" s="115"/>
+      <c r="B33" s="112"/>
+      <c r="C33" s="113"/>
       <c r="D33" s="41"/>
       <c r="E33" s="39"/>
       <c r="F33" s="39"/>
@@ -4095,14 +4103,14 @@
       <c r="AU33" s="40"/>
     </row>
     <row r="34" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A34" s="123" t="s">
+      <c r="A34" s="110" t="s">
         <v>29</v>
       </c>
-      <c r="B34" s="135">
+      <c r="B34" s="112">
         <f t="shared" ref="B34" si="24">SUM(D34:AU34)</f>
         <v>2</v>
       </c>
-      <c r="C34" s="136">
+      <c r="C34" s="113">
         <f t="shared" ref="C34" si="25">SUM(D35:AU35)</f>
         <v>0</v>
       </c>
@@ -4154,9 +4162,9 @@
       <c r="AU34" s="35"/>
     </row>
     <row r="35" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="124"/>
-      <c r="B35" s="135"/>
-      <c r="C35" s="136"/>
+      <c r="A35" s="111"/>
+      <c r="B35" s="112"/>
+      <c r="C35" s="113"/>
       <c r="D35" s="41"/>
       <c r="E35" s="39"/>
       <c r="F35" s="39"/>
@@ -4203,14 +4211,14 @@
       <c r="AU35" s="40"/>
     </row>
     <row r="36" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A36" s="123" t="s">
+      <c r="A36" s="110" t="s">
         <v>30</v>
       </c>
-      <c r="B36" s="135">
+      <c r="B36" s="112">
         <f t="shared" ref="B36" si="26">SUM(D36:AU36)</f>
         <v>4</v>
       </c>
-      <c r="C36" s="136">
+      <c r="C36" s="113">
         <f t="shared" ref="C36" si="27">SUM(D37:AU37)</f>
         <v>0</v>
       </c>
@@ -4264,9 +4272,9 @@
       <c r="AU36" s="35"/>
     </row>
     <row r="37" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="134"/>
-      <c r="B37" s="135"/>
-      <c r="C37" s="136"/>
+      <c r="A37" s="115"/>
+      <c r="B37" s="112"/>
+      <c r="C37" s="113"/>
       <c r="D37" s="41"/>
       <c r="E37" s="39"/>
       <c r="F37" s="39"/>
@@ -4313,14 +4321,14 @@
       <c r="AU37" s="40"/>
     </row>
     <row r="38" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A38" s="123" t="s">
+      <c r="A38" s="110" t="s">
         <v>31</v>
       </c>
-      <c r="B38" s="135">
+      <c r="B38" s="112">
         <f t="shared" ref="B38" si="28">SUM(D38:AU38)</f>
         <v>3</v>
       </c>
-      <c r="C38" s="136">
+      <c r="C38" s="113">
         <f t="shared" ref="C38" si="29">SUM(D39:AU39)</f>
         <v>0</v>
       </c>
@@ -4374,9 +4382,9 @@
       <c r="AU38" s="35"/>
     </row>
     <row r="39" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="134"/>
-      <c r="B39" s="135"/>
-      <c r="C39" s="136"/>
+      <c r="A39" s="115"/>
+      <c r="B39" s="112"/>
+      <c r="C39" s="113"/>
       <c r="D39" s="41"/>
       <c r="E39" s="39"/>
       <c r="F39" s="39"/>
@@ -4423,14 +4431,14 @@
       <c r="AU39" s="40"/>
     </row>
     <row r="40" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A40" s="123" t="s">
+      <c r="A40" s="110" t="s">
         <v>32</v>
       </c>
-      <c r="B40" s="135">
+      <c r="B40" s="112">
         <f t="shared" ref="B40" si="30">SUM(D40:AU40)</f>
         <v>4</v>
       </c>
-      <c r="C40" s="136">
+      <c r="C40" s="113">
         <f t="shared" ref="C40" si="31">SUM(D41:AU41)</f>
         <v>0</v>
       </c>
@@ -4484,9 +4492,9 @@
       <c r="AU40" s="35"/>
     </row>
     <row r="41" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="134"/>
-      <c r="B41" s="135"/>
-      <c r="C41" s="136"/>
+      <c r="A41" s="115"/>
+      <c r="B41" s="112"/>
+      <c r="C41" s="113"/>
       <c r="D41" s="41"/>
       <c r="E41" s="39"/>
       <c r="F41" s="39"/>
@@ -4533,14 +4541,14 @@
       <c r="AU41" s="40"/>
     </row>
     <row r="42" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A42" s="123" t="s">
+      <c r="A42" s="110" t="s">
         <v>33</v>
       </c>
-      <c r="B42" s="135">
+      <c r="B42" s="112">
         <f t="shared" ref="B42" si="32">SUM(D42:AU42)</f>
         <v>3</v>
       </c>
-      <c r="C42" s="136">
+      <c r="C42" s="113">
         <f t="shared" ref="C42" si="33">SUM(D43:AU43)</f>
         <v>0</v>
       </c>
@@ -4594,9 +4602,9 @@
       <c r="AU42" s="35"/>
     </row>
     <row r="43" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="134"/>
-      <c r="B43" s="135"/>
-      <c r="C43" s="136"/>
+      <c r="A43" s="115"/>
+      <c r="B43" s="112"/>
+      <c r="C43" s="113"/>
       <c r="D43" s="41"/>
       <c r="E43" s="39"/>
       <c r="F43" s="39"/>
@@ -4643,14 +4651,14 @@
       <c r="AU43" s="40"/>
     </row>
     <row r="44" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="123" t="s">
+      <c r="A44" s="110" t="s">
         <v>34</v>
       </c>
-      <c r="B44" s="135">
+      <c r="B44" s="112">
         <f t="shared" ref="B44" si="34">SUM(D44:AU44)</f>
         <v>2</v>
       </c>
-      <c r="C44" s="136">
+      <c r="C44" s="113">
         <f t="shared" ref="C44" si="35">SUM(D45:AU45)</f>
         <v>0</v>
       </c>
@@ -4701,9 +4709,9 @@
       <c r="AU44" s="35"/>
     </row>
     <row r="45" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="134"/>
-      <c r="B45" s="135"/>
-      <c r="C45" s="136"/>
+      <c r="A45" s="115"/>
+      <c r="B45" s="112"/>
+      <c r="C45" s="113"/>
       <c r="D45" s="41"/>
       <c r="E45" s="39"/>
       <c r="F45" s="39"/>
@@ -4750,14 +4758,14 @@
       <c r="AU45" s="40"/>
     </row>
     <row r="46" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A46" s="123" t="s">
+      <c r="A46" s="110" t="s">
         <v>48</v>
       </c>
-      <c r="B46" s="135">
+      <c r="B46" s="112">
         <f t="shared" ref="B46" si="36">SUM(D46:AU46)</f>
         <v>3</v>
       </c>
-      <c r="C46" s="136">
+      <c r="C46" s="113">
         <f t="shared" ref="C46" si="37">SUM(D47:AU47)</f>
         <v>0</v>
       </c>
@@ -4811,9 +4819,9 @@
       <c r="AU46" s="35"/>
     </row>
     <row r="47" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="124"/>
-      <c r="B47" s="135"/>
-      <c r="C47" s="136"/>
+      <c r="A47" s="111"/>
+      <c r="B47" s="112"/>
+      <c r="C47" s="113"/>
       <c r="D47" s="49"/>
       <c r="E47" s="53"/>
       <c r="F47" s="53"/>
@@ -4911,16 +4919,16 @@
       <c r="AU48" s="46"/>
     </row>
     <row r="49" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A49" s="123" t="s">
+      <c r="A49" s="110" t="s">
         <v>51</v>
       </c>
-      <c r="B49" s="135">
+      <c r="B49" s="112">
         <f>SUM(D49:AU49)</f>
-        <v>10</v>
-      </c>
-      <c r="C49" s="136">
+        <v>11</v>
+      </c>
+      <c r="C49" s="113">
         <f>SUM(D50:AU50)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D49" s="49"/>
       <c r="E49" s="53"/>
@@ -4949,7 +4957,9 @@
       <c r="T49" s="49"/>
       <c r="U49" s="47"/>
       <c r="V49" s="47"/>
-      <c r="W49" s="48"/>
+      <c r="W49" s="48">
+        <v>1</v>
+      </c>
       <c r="X49" s="49"/>
       <c r="Y49" s="47"/>
       <c r="Z49" s="47"/>
@@ -4988,9 +4998,9 @@
       </c>
     </row>
     <row r="50" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="134"/>
-      <c r="B50" s="131"/>
-      <c r="C50" s="133"/>
+      <c r="A50" s="115"/>
+      <c r="B50" s="116"/>
+      <c r="C50" s="114"/>
       <c r="D50" s="49"/>
       <c r="E50" s="53"/>
       <c r="F50" s="53"/>
@@ -5018,7 +5028,9 @@
       <c r="T50" s="49"/>
       <c r="U50" s="53"/>
       <c r="V50" s="53"/>
-      <c r="W50" s="48"/>
+      <c r="W50" s="48">
+        <v>1</v>
+      </c>
       <c r="X50" s="49"/>
       <c r="Y50" s="53"/>
       <c r="Z50" s="53"/>
@@ -5045,14 +5057,14 @@
       <c r="AU50" s="48"/>
     </row>
     <row r="51" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A51" s="123" t="s">
+      <c r="A51" s="110" t="s">
         <v>60</v>
       </c>
-      <c r="B51" s="125">
+      <c r="B51" s="126">
         <f t="shared" ref="B51" si="38">SUM(D51:AU51)</f>
         <v>4</v>
       </c>
-      <c r="C51" s="127">
+      <c r="C51" s="128">
         <f t="shared" ref="C51" si="39">SUM(D52:AU52)</f>
         <v>3</v>
       </c>
@@ -5110,9 +5122,9 @@
       <c r="AU51" s="35"/>
     </row>
     <row r="52" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="124"/>
-      <c r="B52" s="126"/>
-      <c r="C52" s="128"/>
+      <c r="A52" s="111"/>
+      <c r="B52" s="127"/>
+      <c r="C52" s="129"/>
       <c r="D52" s="41">
         <v>1</v>
       </c>
@@ -5165,14 +5177,14 @@
       <c r="AU52" s="40"/>
     </row>
     <row r="53" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A53" s="129" t="s">
+      <c r="A53" s="117" t="s">
         <v>36</v>
       </c>
-      <c r="B53" s="130">
+      <c r="B53" s="118">
         <f t="shared" ref="B53" si="40">SUM(D53:AU53)</f>
         <v>2</v>
       </c>
-      <c r="C53" s="132">
+      <c r="C53" s="119">
         <f t="shared" ref="C53" si="41">SUM(D54:AU54)</f>
         <v>1</v>
       </c>
@@ -5226,9 +5238,9 @@
       <c r="AU53" s="48"/>
     </row>
     <row r="54" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="124"/>
-      <c r="B54" s="131"/>
-      <c r="C54" s="133"/>
+      <c r="A54" s="111"/>
+      <c r="B54" s="116"/>
+      <c r="C54" s="114"/>
       <c r="D54" s="49"/>
       <c r="E54" s="53"/>
       <c r="F54" s="53">
@@ -5277,176 +5289,176 @@
       <c r="AU54" s="48"/>
     </row>
     <row r="55" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A55" s="117" t="s">
+      <c r="A55" s="136" t="s">
         <v>37</v>
       </c>
-      <c r="B55" s="119">
+      <c r="B55" s="138">
         <f>SUM(B6:B54)</f>
         <v>80</v>
       </c>
-      <c r="C55" s="121">
+      <c r="C55" s="140">
         <f>SUM(C6:C54)</f>
-        <v>28</v>
-      </c>
-      <c r="D55" s="111" cm="1">
+        <v>36</v>
+      </c>
+      <c r="D55" s="134" cm="1">
         <f t="array" ref="D55">SUM(D6:G6+D8:G8+D12:G12+D15:G15+D17:G17+D19:G19+D21:G21+D24:G24+D26:G26+D28:G28+D30:G30+D32:G32+D34:G34+D36:G36+D38:G38+D40:G40+D42:G42+D44:G44+D46:G46+D49:G49+D51:G51+D53:G53)</f>
         <v>8</v>
       </c>
-      <c r="E55" s="106"/>
-      <c r="F55" s="106" cm="1">
+      <c r="E55" s="130"/>
+      <c r="F55" s="130" cm="1">
         <f t="array" ref="F55">SUM(D7:G7+D9:G9+D13:G13+D16:G16+D18:G18+D20:G20+D22:G22+D25:G25+D27:G27+D29:G29+D31:G31+D33:G33+D35:G35+D37:G37+D39:G39+D41:G41+D43:G43+D45:G45+D47:G47+D50:G50+D52:G52+D54:G54)</f>
         <v>8</v>
       </c>
-      <c r="G55" s="107"/>
-      <c r="H55" s="111" cm="1">
+      <c r="G55" s="131"/>
+      <c r="H55" s="134" cm="1">
         <f t="array" ref="H55">SUM(H6:K6+H8:K8+H12:K12+H15:K15+H17:K17+H19:K19+H21:K21+H24:K24+H26:K26+H28:K28+H30:K30+H32:K32+H34:K34+H36:K36+H38:K38+H40:K40+H42:K42+H44:K44+H46:K46+H49:K49+H51:K51+H53:K53)</f>
         <v>8</v>
       </c>
-      <c r="I55" s="106"/>
-      <c r="J55" s="106" cm="1">
+      <c r="I55" s="130"/>
+      <c r="J55" s="130" cm="1">
         <f t="array" ref="J55">SUM(H7:K7+H9:K9+H13:K13+H16:K16+H18:K18+H20:K20+H22:K22+H25:K25+H27:K27+H29:K29+H31:K31+H33:K33+H35:K35+H37:K37+H39:K39+H41:K41+H43:K43+H45:K45+H47:K47+H50:K50+H52:K52+H54:K54)</f>
         <v>8</v>
       </c>
-      <c r="K55" s="107"/>
-      <c r="L55" s="115" cm="1">
+      <c r="K55" s="131"/>
+      <c r="L55" s="149" cm="1">
         <f t="array" ref="L55">SUM(L6:O6+L8:O8+L12:O12+L15:O15+L17:O17+L19:O19+L21:O21+L24:O24+L26:O26+L28:O28+L30:O30+L32:O32+L34:O34+L36:O36+L38:O38+L40:O40+L42:O42+L44:O44+L46:O46+L49:O49+L51:O51+L53:O53)</f>
         <v>8</v>
       </c>
-      <c r="M55" s="106"/>
-      <c r="N55" s="106" cm="1">
+      <c r="M55" s="130"/>
+      <c r="N55" s="130" cm="1">
         <f t="array" ref="N55">SUM(L7:O7+L9:O9+L13:O13+L16:O16+L18:O18+L20:O20+L22:O22+L25:O25+L27:O27+L29:O29+L31:O31+L33:O33+L35:O35+L37:O37+L39:O39+L41:O41+L43:O43+L45:O45+L47:O47+L50:O50+L52:O52+L54:O54)</f>
         <v>8</v>
       </c>
-      <c r="O55" s="107"/>
-      <c r="P55" s="111" cm="1">
+      <c r="O55" s="131"/>
+      <c r="P55" s="134" cm="1">
         <f t="array" ref="P55">SUM(P6:S6+P8:S8+P12:S12+P15:S15+P17:S17+P19:S19+P21:S21+P24:S24+P26:S26+P28:S28+P30:S30+P32:S32+P34:S34+P36:S36+P38:S38+P40:S40+P42:S42+P44:S44+P46:S46+P49:S49+P51:S51+P53:S53)</f>
         <v>4</v>
       </c>
-      <c r="Q55" s="106"/>
-      <c r="R55" s="106" cm="1">
+      <c r="Q55" s="130"/>
+      <c r="R55" s="130" cm="1">
         <f t="array" ref="R55">SUM(P7:S7+P9:S9+P13:S13+P16:S16+P18:S18+P20:S20+P22:S22+P25:S25+P27:S27+P29:S29+P31:S31+P33:S33+P35:S35+P37:S37+P39:S39+P41:S41+P43:S43+P45:S45+P47:S47+P50:S50+P52:S52+P54:S54)</f>
         <v>4</v>
       </c>
-      <c r="S55" s="107"/>
-      <c r="T55" s="111" cm="1">
+      <c r="S55" s="131"/>
+      <c r="T55" s="134" cm="1">
         <f t="array" ref="T55">SUM(T6:W6+T8:W8+T12:W12+T15:W15+T17:W17+T19:W19+T21:W21+T24:W24+T26:W26+T28:W28+T30:W30+T32:W32+T34:W34+T36:W36+T38:W38+T40:W40+T42:W42+T44:W44+T46:W46+T49:W49+T51:W51+T53:W53)</f>
         <v>8</v>
       </c>
-      <c r="U55" s="106"/>
-      <c r="V55" s="106" cm="1">
+      <c r="U55" s="130"/>
+      <c r="V55" s="130" cm="1">
         <f t="array" ref="V55">SUM(T7:W7+T9:W9+T13:W13+T16:W16+T18:W18+T20:W20+T22:W22+T25:W25+T27:W27+T29:W29+T31:W31+T33:W33+T35:W35+T37:W37+T39:W39+T41:W41+T43:W43+T45:W45+T47:W47+T50:W50+T52:W52+T54:W54)</f>
-        <v>0</v>
-      </c>
-      <c r="W55" s="107"/>
-      <c r="X55" s="111" cm="1">
+        <v>8</v>
+      </c>
+      <c r="W55" s="131"/>
+      <c r="X55" s="134" cm="1">
         <f t="array" ref="X55">SUM(X6:AA6+X8:AA8+X12:AA12+X15:AA15+X17:AA17+X19:AA19+X21:AA21+X24:AA24+X26:AA26+X28:AA28+X30:AA30+X32:AA32+X34:AA34+X36:AA36+X38:AA38+X40:AA40+X42:AA42+X44:AA44+X46:AA46+X49:AA49+X51:AA51+X53:AA53)</f>
         <v>8</v>
       </c>
-      <c r="Y55" s="106"/>
-      <c r="Z55" s="106" cm="1">
+      <c r="Y55" s="130"/>
+      <c r="Z55" s="130" cm="1">
         <f t="array" ref="Z55">SUM(X7:AA7+X9:AA9+X13:AA13+X16:AA16+X18:AA18+X20:AA20+X22:AA22+X25:AA25+X27:AA27+X29:AA29+X31:AA31+X33:AA33+X35:AA35+X37:AA37+X39:AA39+X41:AA41+X43:AA43+X45:AA45+X47:AA47+X50:AA50+X52:AA52+X54:AA54)</f>
         <v>0</v>
       </c>
-      <c r="AA55" s="113"/>
-      <c r="AB55" s="111" cm="1">
+      <c r="AA55" s="147"/>
+      <c r="AB55" s="134" cm="1">
         <f t="array" ref="AB55">SUM(AB6:AE6+AB8:AE8+AB12:AE12+AB15:AE15+AB17:AE17+AB19:AE19+AB21:AE21+AB24:AE24+AB26:AE26+AB28:AE28+AB30:AE30+AB32:AE32+AB34:AE34+AB36:AE36+AB38:AE38+AB40:AE40+AB42:AE42+AB44:AE44+AB46:AE46+AB49:AE49+AB51:AE51+AB53:AE53)</f>
         <v>8</v>
       </c>
-      <c r="AC55" s="106"/>
-      <c r="AD55" s="106" cm="1">
+      <c r="AC55" s="130"/>
+      <c r="AD55" s="130" cm="1">
         <f t="array" ref="AD55">SUM(AB7:AE7+AB9:AE9+AB13:AE13+AB16:AE16+AB18:AE18+AB20:AE20+AB22:AE22+AB25:AE25+AB27:AE27+AB29:AE29+AB31:AE31+AB33:AE33+AB35:AE35+AB37:AE37+AB39:AE39+AB41:AE41+AB43:AE43+AB45:AE45+AB47:AE47+AB50:AE50+AB52:AE52+AB54:AE54)</f>
         <v>0</v>
       </c>
-      <c r="AE55" s="107"/>
-      <c r="AF55" s="111" cm="1">
+      <c r="AE55" s="131"/>
+      <c r="AF55" s="134" cm="1">
         <f t="array" ref="AF55">SUM(AF6:AI6+AF8:AI8+AF12:AI12+AF15:AI15+AF17:AI17+AF19:AI19+AF21:AI21+AF24:AI24+AF26:AI26+AF28:AI28+AF30:AI30+AF32:AI32+AF34:AI34+AF36:AI36+AF38:AI38+AF40:AI40+AF42:AI42+AF44:AI44+AF46:AI46+AF49:AI49+AF51:AI51+AF53:AI53)</f>
         <v>4</v>
       </c>
-      <c r="AG55" s="106"/>
-      <c r="AH55" s="106" cm="1">
+      <c r="AG55" s="130"/>
+      <c r="AH55" s="130" cm="1">
         <f t="array" ref="AH55">SUM(AF7:AI7+AF9:AI9+AF13:AI13+AF16:AI16+AF18:AI18+AF20:AI20+AF22:AI22+AF25:AI25+AF27:AI27+AF29:AI29+AF31:AI31+AF33:AI33+AF35:AI35+AF37:AI37+AF39:AI39+AF41:AI41+AF43:AI43+AF45:AI45+AF47:AI47+AF50:AI50+AF52:AI52+AF54:AI54)</f>
         <v>0</v>
       </c>
-      <c r="AI55" s="107"/>
-      <c r="AJ55" s="111" cm="1">
+      <c r="AI55" s="131"/>
+      <c r="AJ55" s="134" cm="1">
         <f t="array" ref="AJ55">SUM(AJ6:AM6+AJ8:AM8+AJ12:AM12+AJ15:AM15+AJ17:AM17+AJ19:AM19+AJ21:AM21+AJ24:AM24+AJ26:AM26+AJ28:AM28+AJ30:AM30+AJ32:AM32+AJ34:AM34+AJ36:AM36+AJ38:AM38+AJ40:AM40+AJ42:AM42+AJ44:AM44+AJ46:AM46+AJ49:AM49+AJ51:AM51+AJ53:AM53)</f>
         <v>8</v>
       </c>
-      <c r="AK55" s="106"/>
-      <c r="AL55" s="106" cm="1">
+      <c r="AK55" s="130"/>
+      <c r="AL55" s="130" cm="1">
         <f t="array" ref="AL55">SUM(AJ7:AM7+AJ9:AM9+AJ13:AM13+AJ16:AM16+AJ18:AM18+AJ20:AM20+AJ22:AM22+AJ25:AM25+AJ27:AM27+AJ29:AM29+AJ31:AM31+AJ33:AM33+AJ35:AM35+AJ37:AM37+AJ39:AM39+AJ41:AM41+AJ43:AM43+AJ45:AM45+AJ47:AM47+AJ50:AM50+AJ52:AM52+AJ54:AM54)</f>
         <v>0</v>
       </c>
-      <c r="AM55" s="107"/>
-      <c r="AN55" s="111" cm="1">
+      <c r="AM55" s="131"/>
+      <c r="AN55" s="134" cm="1">
         <f t="array" ref="AN55">SUM(AN6:AQ6+AN8:AQ8+AN12:AQ12+AN15:AQ15+AN17:AQ17+AN19:AQ19+AN21:AQ21+AN24:AQ24+AN26:AQ26+AN28:AQ28+AN30:AQ30+AN32:AQ32+AN34:AQ34+AN36:AQ36+AN38:AQ38+AN40:AQ40+AN42:AQ42+AN44:AQ44+AN46:AQ46+AN49:AQ49+AN51:AQ51+AN53:AQ53)</f>
         <v>8</v>
       </c>
-      <c r="AO55" s="106"/>
-      <c r="AP55" s="106" cm="1">
+      <c r="AO55" s="130"/>
+      <c r="AP55" s="130" cm="1">
         <f t="array" ref="AP55">SUM(AN7:AQ7+AN9:AQ9+AN13:AQ13+AN16:AQ16+AN18:AQ18+AN20:AQ20+AN22:AQ22+AN25:AQ25+AN27:AQ27+AN29:AQ29+AN31:AQ31+AN33:AQ33+AN35:AQ35+AN37:AQ37+AN39:AQ39+AN41:AQ41+AN43:AQ43+AN45:AQ45+AN47:AQ47+AN50:AQ50+AN52:AQ52+AN54:AQ54)</f>
         <v>0</v>
       </c>
-      <c r="AQ55" s="107"/>
-      <c r="AR55" s="111" cm="1">
+      <c r="AQ55" s="131"/>
+      <c r="AR55" s="134" cm="1">
         <f t="array" ref="AR55">SUM(AR6:AU6+AR8:AU8+AR12:AU12+AR15:AU15+AR17:AU17+AR19:AU19+AR21:AU21+AR24:AU24+AR26:AU26+AR28:AU28+AR30:AU30+AR32:AU32+AR34:AU34+AR36:AU36+AR38:AU38+AR40:AU40+AR42:AU42+AR44:AU44+AR46:AU46+AR49:AU49+AR51:AU51+AR53:AU53)</f>
         <v>8</v>
       </c>
-      <c r="AS55" s="106"/>
-      <c r="AT55" s="106" cm="1">
+      <c r="AS55" s="130"/>
+      <c r="AT55" s="130" cm="1">
         <f t="array" ref="AT55">SUM(AR7:AU7+AR9:AU9+AR13:AU13+AR16:AU16+AR18:AU18+AR20:AU20+AR22:AU22+AR25:AU25+AR27:AU27+AR29:AU29+AR31:AU31+AR33:AU33+AR35:AU35+AR37:AU37+AR39:AU39+AR41:AU41+AR43:AU43+AR45:AU45+AR47:AU47+AR50:AU50+AR52:AU52+AR54:AU54)</f>
         <v>0</v>
       </c>
-      <c r="AU55" s="107"/>
+      <c r="AU55" s="131"/>
     </row>
     <row r="56" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="118"/>
-      <c r="B56" s="120"/>
-      <c r="C56" s="122"/>
-      <c r="D56" s="112"/>
-      <c r="E56" s="108"/>
-      <c r="F56" s="108"/>
-      <c r="G56" s="109"/>
-      <c r="H56" s="112"/>
-      <c r="I56" s="108"/>
-      <c r="J56" s="108"/>
-      <c r="K56" s="109"/>
-      <c r="L56" s="116"/>
-      <c r="M56" s="108"/>
-      <c r="N56" s="108"/>
-      <c r="O56" s="109"/>
-      <c r="P56" s="112"/>
-      <c r="Q56" s="108"/>
-      <c r="R56" s="108"/>
-      <c r="S56" s="109"/>
-      <c r="T56" s="112"/>
-      <c r="U56" s="108"/>
-      <c r="V56" s="108"/>
-      <c r="W56" s="109"/>
-      <c r="X56" s="112"/>
-      <c r="Y56" s="108"/>
-      <c r="Z56" s="108"/>
-      <c r="AA56" s="114"/>
-      <c r="AB56" s="112"/>
-      <c r="AC56" s="108"/>
-      <c r="AD56" s="108"/>
-      <c r="AE56" s="109"/>
-      <c r="AF56" s="112"/>
-      <c r="AG56" s="108"/>
-      <c r="AH56" s="108"/>
-      <c r="AI56" s="109"/>
-      <c r="AJ56" s="112"/>
-      <c r="AK56" s="108"/>
-      <c r="AL56" s="108"/>
-      <c r="AM56" s="109"/>
-      <c r="AN56" s="112"/>
-      <c r="AO56" s="108"/>
-      <c r="AP56" s="108"/>
-      <c r="AQ56" s="109"/>
-      <c r="AR56" s="112"/>
-      <c r="AS56" s="108"/>
-      <c r="AT56" s="108"/>
-      <c r="AU56" s="109"/>
+      <c r="A56" s="137"/>
+      <c r="B56" s="139"/>
+      <c r="C56" s="141"/>
+      <c r="D56" s="135"/>
+      <c r="E56" s="132"/>
+      <c r="F56" s="132"/>
+      <c r="G56" s="133"/>
+      <c r="H56" s="135"/>
+      <c r="I56" s="132"/>
+      <c r="J56" s="132"/>
+      <c r="K56" s="133"/>
+      <c r="L56" s="150"/>
+      <c r="M56" s="132"/>
+      <c r="N56" s="132"/>
+      <c r="O56" s="133"/>
+      <c r="P56" s="135"/>
+      <c r="Q56" s="132"/>
+      <c r="R56" s="132"/>
+      <c r="S56" s="133"/>
+      <c r="T56" s="135"/>
+      <c r="U56" s="132"/>
+      <c r="V56" s="132"/>
+      <c r="W56" s="133"/>
+      <c r="X56" s="135"/>
+      <c r="Y56" s="132"/>
+      <c r="Z56" s="132"/>
+      <c r="AA56" s="148"/>
+      <c r="AB56" s="135"/>
+      <c r="AC56" s="132"/>
+      <c r="AD56" s="132"/>
+      <c r="AE56" s="133"/>
+      <c r="AF56" s="135"/>
+      <c r="AG56" s="132"/>
+      <c r="AH56" s="132"/>
+      <c r="AI56" s="133"/>
+      <c r="AJ56" s="135"/>
+      <c r="AK56" s="132"/>
+      <c r="AL56" s="132"/>
+      <c r="AM56" s="133"/>
+      <c r="AN56" s="135"/>
+      <c r="AO56" s="132"/>
+      <c r="AP56" s="132"/>
+      <c r="AQ56" s="133"/>
+      <c r="AR56" s="135"/>
+      <c r="AS56" s="132"/>
+      <c r="AT56" s="132"/>
+      <c r="AU56" s="133"/>
     </row>
     <row r="57" spans="1:47" ht="17" x14ac:dyDescent="0.25">
       <c r="A57" s="6"/>
@@ -5456,94 +5468,94 @@
       <c r="C57" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D57" s="103" t="s">
+      <c r="D57" s="142" t="s">
         <v>14</v>
       </c>
-      <c r="E57" s="104"/>
-      <c r="F57" s="99" t="s">
+      <c r="E57" s="143"/>
+      <c r="F57" s="144" t="s">
         <v>15</v>
       </c>
-      <c r="G57" s="100"/>
-      <c r="H57" s="103" t="s">
+      <c r="G57" s="145"/>
+      <c r="H57" s="142" t="s">
         <v>14</v>
       </c>
-      <c r="I57" s="104"/>
-      <c r="J57" s="99" t="s">
+      <c r="I57" s="143"/>
+      <c r="J57" s="144" t="s">
         <v>15</v>
       </c>
-      <c r="K57" s="100"/>
-      <c r="L57" s="110" t="s">
+      <c r="K57" s="145"/>
+      <c r="L57" s="146" t="s">
         <v>14</v>
       </c>
-      <c r="M57" s="104"/>
-      <c r="N57" s="99" t="s">
+      <c r="M57" s="143"/>
+      <c r="N57" s="144" t="s">
         <v>15</v>
       </c>
-      <c r="O57" s="100"/>
-      <c r="P57" s="103" t="s">
+      <c r="O57" s="145"/>
+      <c r="P57" s="142" t="s">
         <v>14</v>
       </c>
-      <c r="Q57" s="104"/>
-      <c r="R57" s="99" t="s">
+      <c r="Q57" s="143"/>
+      <c r="R57" s="144" t="s">
         <v>15</v>
       </c>
-      <c r="S57" s="100"/>
-      <c r="T57" s="103" t="s">
+      <c r="S57" s="145"/>
+      <c r="T57" s="142" t="s">
         <v>14</v>
       </c>
-      <c r="U57" s="104"/>
-      <c r="V57" s="99" t="s">
+      <c r="U57" s="143"/>
+      <c r="V57" s="144" t="s">
         <v>15</v>
       </c>
-      <c r="W57" s="100"/>
-      <c r="X57" s="103" t="s">
+      <c r="W57" s="145"/>
+      <c r="X57" s="142" t="s">
         <v>14</v>
       </c>
-      <c r="Y57" s="104"/>
-      <c r="Z57" s="99" t="s">
+      <c r="Y57" s="143"/>
+      <c r="Z57" s="144" t="s">
         <v>15</v>
       </c>
-      <c r="AA57" s="105"/>
-      <c r="AB57" s="103" t="s">
+      <c r="AA57" s="156"/>
+      <c r="AB57" s="142" t="s">
         <v>14</v>
       </c>
-      <c r="AC57" s="104"/>
-      <c r="AD57" s="99" t="s">
+      <c r="AC57" s="143"/>
+      <c r="AD57" s="144" t="s">
         <v>15</v>
       </c>
-      <c r="AE57" s="100"/>
-      <c r="AF57" s="103" t="s">
+      <c r="AE57" s="145"/>
+      <c r="AF57" s="142" t="s">
         <v>14</v>
       </c>
-      <c r="AG57" s="104"/>
-      <c r="AH57" s="99" t="s">
+      <c r="AG57" s="143"/>
+      <c r="AH57" s="144" t="s">
         <v>15</v>
       </c>
-      <c r="AI57" s="100"/>
-      <c r="AJ57" s="103" t="s">
+      <c r="AI57" s="145"/>
+      <c r="AJ57" s="142" t="s">
         <v>14</v>
       </c>
-      <c r="AK57" s="104"/>
-      <c r="AL57" s="99" t="s">
+      <c r="AK57" s="143"/>
+      <c r="AL57" s="144" t="s">
         <v>15</v>
       </c>
-      <c r="AM57" s="100"/>
-      <c r="AN57" s="103" t="s">
+      <c r="AM57" s="145"/>
+      <c r="AN57" s="142" t="s">
         <v>14</v>
       </c>
-      <c r="AO57" s="104"/>
-      <c r="AP57" s="99" t="s">
+      <c r="AO57" s="143"/>
+      <c r="AP57" s="144" t="s">
         <v>15</v>
       </c>
-      <c r="AQ57" s="100"/>
-      <c r="AR57" s="103" t="s">
+      <c r="AQ57" s="145"/>
+      <c r="AR57" s="142" t="s">
         <v>14</v>
       </c>
-      <c r="AS57" s="104"/>
-      <c r="AT57" s="99" t="s">
+      <c r="AS57" s="143"/>
+      <c r="AT57" s="144" t="s">
         <v>15</v>
       </c>
-      <c r="AU57" s="100"/>
+      <c r="AU57" s="145"/>
     </row>
     <row r="58" spans="1:47" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="8"/>
@@ -5553,150 +5565,150 @@
       <c r="C58" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="D58" s="96">
+      <c r="D58" s="151">
         <f>D3</f>
         <v>43873</v>
       </c>
-      <c r="E58" s="97"/>
-      <c r="F58" s="97"/>
-      <c r="G58" s="98"/>
-      <c r="H58" s="96">
+      <c r="E58" s="152"/>
+      <c r="F58" s="152"/>
+      <c r="G58" s="153"/>
+      <c r="H58" s="151">
         <f>H3</f>
         <v>43874</v>
       </c>
-      <c r="I58" s="97"/>
-      <c r="J58" s="97"/>
-      <c r="K58" s="98"/>
-      <c r="L58" s="101">
+      <c r="I58" s="152"/>
+      <c r="J58" s="152"/>
+      <c r="K58" s="153"/>
+      <c r="L58" s="154">
         <f>L3</f>
         <v>43875</v>
       </c>
-      <c r="M58" s="97"/>
-      <c r="N58" s="97"/>
-      <c r="O58" s="98"/>
-      <c r="P58" s="96">
+      <c r="M58" s="152"/>
+      <c r="N58" s="152"/>
+      <c r="O58" s="153"/>
+      <c r="P58" s="151">
         <f>P3</f>
         <v>43878</v>
       </c>
-      <c r="Q58" s="97"/>
-      <c r="R58" s="97"/>
-      <c r="S58" s="98"/>
-      <c r="T58" s="96">
+      <c r="Q58" s="152"/>
+      <c r="R58" s="152"/>
+      <c r="S58" s="153"/>
+      <c r="T58" s="151">
         <f>T3</f>
         <v>43880</v>
       </c>
-      <c r="U58" s="97"/>
-      <c r="V58" s="97"/>
-      <c r="W58" s="98"/>
-      <c r="X58" s="96">
+      <c r="U58" s="152"/>
+      <c r="V58" s="152"/>
+      <c r="W58" s="153"/>
+      <c r="X58" s="151">
         <f>X3</f>
         <v>43881</v>
       </c>
-      <c r="Y58" s="97"/>
-      <c r="Z58" s="97"/>
-      <c r="AA58" s="102"/>
-      <c r="AB58" s="96">
+      <c r="Y58" s="152"/>
+      <c r="Z58" s="152"/>
+      <c r="AA58" s="155"/>
+      <c r="AB58" s="151">
         <f>AB3</f>
         <v>43882</v>
       </c>
-      <c r="AC58" s="97"/>
-      <c r="AD58" s="97"/>
-      <c r="AE58" s="98"/>
-      <c r="AF58" s="96">
+      <c r="AC58" s="152"/>
+      <c r="AD58" s="152"/>
+      <c r="AE58" s="153"/>
+      <c r="AF58" s="151">
         <f>AF3</f>
         <v>43885</v>
       </c>
-      <c r="AG58" s="97"/>
-      <c r="AH58" s="97"/>
-      <c r="AI58" s="98"/>
-      <c r="AJ58" s="96">
+      <c r="AG58" s="152"/>
+      <c r="AH58" s="152"/>
+      <c r="AI58" s="153"/>
+      <c r="AJ58" s="151">
         <f>AJ3</f>
         <v>43887</v>
       </c>
-      <c r="AK58" s="97"/>
-      <c r="AL58" s="97"/>
-      <c r="AM58" s="98"/>
-      <c r="AN58" s="96">
+      <c r="AK58" s="152"/>
+      <c r="AL58" s="152"/>
+      <c r="AM58" s="153"/>
+      <c r="AN58" s="151">
         <f>AN3</f>
         <v>43888</v>
       </c>
-      <c r="AO58" s="97"/>
-      <c r="AP58" s="97"/>
-      <c r="AQ58" s="98"/>
-      <c r="AR58" s="96">
+      <c r="AO58" s="152"/>
+      <c r="AP58" s="152"/>
+      <c r="AQ58" s="153"/>
+      <c r="AR58" s="151">
         <f>AR3</f>
         <v>43889</v>
       </c>
-      <c r="AS58" s="97"/>
-      <c r="AT58" s="97"/>
-      <c r="AU58" s="98"/>
+      <c r="AS58" s="152"/>
+      <c r="AT58" s="152"/>
+      <c r="AU58" s="153"/>
     </row>
     <row r="59" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="60" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="93" t="s">
+      <c r="A60" s="160" t="s">
         <v>39</v>
       </c>
-      <c r="B60" s="94"/>
-      <c r="C60" s="95"/>
+      <c r="B60" s="161"/>
+      <c r="C60" s="162"/>
     </row>
     <row r="61" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A61" s="91" t="s">
+      <c r="A61" s="159" t="s">
         <v>40</v>
       </c>
-      <c r="B61" s="92"/>
+      <c r="B61" s="89"/>
       <c r="C61" s="18"/>
     </row>
     <row r="62" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A62" s="91" t="s">
+      <c r="A62" s="159" t="s">
         <v>41</v>
       </c>
-      <c r="B62" s="92"/>
+      <c r="B62" s="89"/>
       <c r="C62" s="19"/>
     </row>
     <row r="63" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A63" s="91" t="s">
+      <c r="A63" s="159" t="s">
         <v>42</v>
       </c>
-      <c r="B63" s="92"/>
+      <c r="B63" s="89"/>
       <c r="C63" s="20"/>
     </row>
     <row r="64" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A64" s="91" t="s">
+      <c r="A64" s="159" t="s">
         <v>43</v>
       </c>
-      <c r="B64" s="92"/>
+      <c r="B64" s="89"/>
       <c r="C64" s="21"/>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A65" s="91" t="s">
+      <c r="A65" s="159" t="s">
         <v>44</v>
       </c>
-      <c r="B65" s="92"/>
+      <c r="B65" s="89"/>
       <c r="C65" s="22"/>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A66" s="91" t="s">
+      <c r="A66" s="159" t="s">
         <v>12</v>
       </c>
-      <c r="B66" s="92"/>
+      <c r="B66" s="89"/>
       <c r="C66" s="23" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A67" s="91" t="s">
+      <c r="A67" s="159" t="s">
         <v>13</v>
       </c>
-      <c r="B67" s="92"/>
+      <c r="B67" s="89"/>
       <c r="C67" s="23" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="89" t="s">
+      <c r="A68" s="157" t="s">
         <v>47</v>
       </c>
-      <c r="B68" s="90"/>
+      <c r="B68" s="158"/>
       <c r="C68" s="24"/>
     </row>
     <row r="69" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
@@ -5737,32 +5749,145 @@
     </row>
   </sheetData>
   <mergeCells count="189">
-    <mergeCell ref="A1:C3"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="L1:O1"/>
-    <mergeCell ref="P1:S1"/>
-    <mergeCell ref="T1:W1"/>
-    <mergeCell ref="H2:K2"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="P2:S2"/>
-    <mergeCell ref="T2:W2"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="AF2:AI2"/>
-    <mergeCell ref="AJ2:AM2"/>
-    <mergeCell ref="H3:K3"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="P3:S3"/>
-    <mergeCell ref="T3:W3"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="R4:S4"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A60:C60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="AN58:AQ58"/>
+    <mergeCell ref="AR58:AU58"/>
+    <mergeCell ref="AT57:AU57"/>
+    <mergeCell ref="D58:G58"/>
+    <mergeCell ref="H58:K58"/>
+    <mergeCell ref="L58:O58"/>
+    <mergeCell ref="P58:S58"/>
+    <mergeCell ref="T58:W58"/>
+    <mergeCell ref="X58:AA58"/>
+    <mergeCell ref="AB58:AE58"/>
+    <mergeCell ref="AF58:AI58"/>
+    <mergeCell ref="AJ58:AM58"/>
+    <mergeCell ref="AH57:AI57"/>
+    <mergeCell ref="AJ57:AK57"/>
+    <mergeCell ref="AL57:AM57"/>
+    <mergeCell ref="AN57:AO57"/>
+    <mergeCell ref="AP57:AQ57"/>
+    <mergeCell ref="AR57:AS57"/>
+    <mergeCell ref="V57:W57"/>
+    <mergeCell ref="X57:Y57"/>
+    <mergeCell ref="Z57:AA57"/>
+    <mergeCell ref="AB57:AC57"/>
+    <mergeCell ref="AD57:AE57"/>
+    <mergeCell ref="AF57:AG57"/>
+    <mergeCell ref="AT55:AU56"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="F57:G57"/>
+    <mergeCell ref="H57:I57"/>
+    <mergeCell ref="J57:K57"/>
+    <mergeCell ref="L57:M57"/>
+    <mergeCell ref="N57:O57"/>
+    <mergeCell ref="P57:Q57"/>
+    <mergeCell ref="R57:S57"/>
+    <mergeCell ref="T57:U57"/>
+    <mergeCell ref="AH55:AI56"/>
+    <mergeCell ref="AJ55:AK56"/>
+    <mergeCell ref="AL55:AM56"/>
+    <mergeCell ref="AN55:AO56"/>
+    <mergeCell ref="AP55:AQ56"/>
+    <mergeCell ref="AR55:AS56"/>
+    <mergeCell ref="V55:W56"/>
+    <mergeCell ref="X55:Y56"/>
+    <mergeCell ref="Z55:AA56"/>
+    <mergeCell ref="AB55:AC56"/>
+    <mergeCell ref="AD55:AE56"/>
+    <mergeCell ref="AF55:AG56"/>
+    <mergeCell ref="J55:K56"/>
+    <mergeCell ref="L55:M56"/>
+    <mergeCell ref="N55:O56"/>
+    <mergeCell ref="P55:Q56"/>
+    <mergeCell ref="R55:S56"/>
+    <mergeCell ref="T55:U56"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="D55:E56"/>
+    <mergeCell ref="F55:G56"/>
+    <mergeCell ref="H55:I56"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="AR4:AS4"/>
+    <mergeCell ref="AT4:AU4"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="AJ4:AK4"/>
+    <mergeCell ref="AL4:AM4"/>
+    <mergeCell ref="T4:U4"/>
+    <mergeCell ref="V4:W4"/>
     <mergeCell ref="AN1:AQ1"/>
     <mergeCell ref="AR1:AU1"/>
     <mergeCell ref="AN2:AQ2"/>
@@ -5787,145 +5912,32 @@
     <mergeCell ref="AJ1:AM1"/>
     <mergeCell ref="X2:AA2"/>
     <mergeCell ref="AB2:AE2"/>
-    <mergeCell ref="AR4:AS4"/>
-    <mergeCell ref="AT4:AU4"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="AJ4:AK4"/>
-    <mergeCell ref="AL4:AM4"/>
-    <mergeCell ref="T4:U4"/>
-    <mergeCell ref="V4:W4"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="N55:O56"/>
-    <mergeCell ref="P55:Q56"/>
-    <mergeCell ref="R55:S56"/>
-    <mergeCell ref="T55:U56"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="D55:E56"/>
-    <mergeCell ref="F55:G56"/>
-    <mergeCell ref="H55:I56"/>
-    <mergeCell ref="AT55:AU56"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="F57:G57"/>
-    <mergeCell ref="H57:I57"/>
-    <mergeCell ref="J57:K57"/>
-    <mergeCell ref="L57:M57"/>
-    <mergeCell ref="N57:O57"/>
-    <mergeCell ref="P57:Q57"/>
-    <mergeCell ref="R57:S57"/>
-    <mergeCell ref="T57:U57"/>
-    <mergeCell ref="AH55:AI56"/>
-    <mergeCell ref="AJ55:AK56"/>
-    <mergeCell ref="AL55:AM56"/>
-    <mergeCell ref="AN55:AO56"/>
-    <mergeCell ref="AP55:AQ56"/>
-    <mergeCell ref="AR55:AS56"/>
-    <mergeCell ref="V55:W56"/>
-    <mergeCell ref="X55:Y56"/>
-    <mergeCell ref="Z55:AA56"/>
-    <mergeCell ref="AB55:AC56"/>
-    <mergeCell ref="AD55:AE56"/>
-    <mergeCell ref="AF55:AG56"/>
-    <mergeCell ref="J55:K56"/>
-    <mergeCell ref="L55:M56"/>
-    <mergeCell ref="AN58:AQ58"/>
-    <mergeCell ref="AR58:AU58"/>
-    <mergeCell ref="AT57:AU57"/>
-    <mergeCell ref="D58:G58"/>
-    <mergeCell ref="H58:K58"/>
-    <mergeCell ref="L58:O58"/>
-    <mergeCell ref="P58:S58"/>
-    <mergeCell ref="T58:W58"/>
-    <mergeCell ref="X58:AA58"/>
-    <mergeCell ref="AB58:AE58"/>
-    <mergeCell ref="AF58:AI58"/>
-    <mergeCell ref="AJ58:AM58"/>
-    <mergeCell ref="AH57:AI57"/>
-    <mergeCell ref="AJ57:AK57"/>
-    <mergeCell ref="AL57:AM57"/>
-    <mergeCell ref="AN57:AO57"/>
-    <mergeCell ref="AP57:AQ57"/>
-    <mergeCell ref="AR57:AS57"/>
-    <mergeCell ref="V57:W57"/>
-    <mergeCell ref="X57:Y57"/>
-    <mergeCell ref="Z57:AA57"/>
-    <mergeCell ref="AB57:AC57"/>
-    <mergeCell ref="AD57:AE57"/>
-    <mergeCell ref="AF57:AG57"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="A60:C60"/>
-    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="AF2:AI2"/>
+    <mergeCell ref="AJ2:AM2"/>
+    <mergeCell ref="H3:K3"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="P3:S3"/>
+    <mergeCell ref="T3:W3"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="R4:S4"/>
+    <mergeCell ref="A1:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="L1:O1"/>
+    <mergeCell ref="P1:S1"/>
+    <mergeCell ref="T1:W1"/>
+    <mergeCell ref="H2:K2"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="P2:S2"/>
+    <mergeCell ref="T2:W2"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="D2:G2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="D6:AU6 D8:AU8 D12:J12 L12:AU12 K13 D44:AR44 AT44:AU44 AR45">

--- a/02_zeitplan/IPA_Zeitplan_Kabilan_Sivanamam.xlsx
+++ b/02_zeitplan/IPA_Zeitplan_Kabilan_Sivanamam.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kabi/Documents/GitHub/IPA2020/02_zeitplan/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5A77C05-8DB5-2949-88F6-C1CB4A2897E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DB21ACA-CF77-0344-8C51-CDEB15985810}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{919B10DA-F269-3C46-8A86-B94EB657325B}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" xr2:uid="{919B10DA-F269-3C46-8A86-B94EB657325B}"/>
   </bookViews>
   <sheets>
     <sheet name="Zeitplan v1" sheetId="1" r:id="rId1"/>
@@ -1098,16 +1098,166 @@
     <xf numFmtId="1" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="3" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="3" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="3" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="3" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1128,196 +1278,46 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="3" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="3" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="3" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="3" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2142,8 +2142,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE2EA0AA-2CD7-9C47-95CA-C0AE6CDA2CB2}">
   <dimension ref="A1:AU74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="113" workbookViewId="0">
-      <selection activeCell="Q30" sqref="Q30"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="113" workbookViewId="0">
+      <selection activeCell="AB27" sqref="AB27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2155,230 +2155,230 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="96" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="98"/>
-      <c r="H1" s="96" t="s">
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="146" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="147"/>
+      <c r="F1" s="147"/>
+      <c r="G1" s="148"/>
+      <c r="H1" s="146" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="97"/>
-      <c r="J1" s="97"/>
-      <c r="K1" s="98"/>
-      <c r="L1" s="99" t="s">
+      <c r="I1" s="147"/>
+      <c r="J1" s="147"/>
+      <c r="K1" s="148"/>
+      <c r="L1" s="161" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="97"/>
-      <c r="N1" s="97"/>
-      <c r="O1" s="98"/>
-      <c r="P1" s="96" t="s">
+      <c r="M1" s="147"/>
+      <c r="N1" s="147"/>
+      <c r="O1" s="148"/>
+      <c r="P1" s="146" t="s">
         <v>4</v>
       </c>
-      <c r="Q1" s="97"/>
-      <c r="R1" s="97"/>
-      <c r="S1" s="98"/>
-      <c r="T1" s="96" t="s">
+      <c r="Q1" s="147"/>
+      <c r="R1" s="147"/>
+      <c r="S1" s="148"/>
+      <c r="T1" s="146" t="s">
         <v>5</v>
       </c>
-      <c r="U1" s="97"/>
-      <c r="V1" s="97"/>
-      <c r="W1" s="98"/>
-      <c r="X1" s="96" t="s">
+      <c r="U1" s="147"/>
+      <c r="V1" s="147"/>
+      <c r="W1" s="148"/>
+      <c r="X1" s="146" t="s">
         <v>6</v>
       </c>
-      <c r="Y1" s="97"/>
-      <c r="Z1" s="97"/>
-      <c r="AA1" s="108"/>
-      <c r="AB1" s="96" t="s">
+      <c r="Y1" s="147"/>
+      <c r="Z1" s="147"/>
+      <c r="AA1" s="157"/>
+      <c r="AB1" s="146" t="s">
         <v>7</v>
       </c>
-      <c r="AC1" s="97"/>
-      <c r="AD1" s="97"/>
-      <c r="AE1" s="98"/>
-      <c r="AF1" s="96" t="s">
+      <c r="AC1" s="147"/>
+      <c r="AD1" s="147"/>
+      <c r="AE1" s="148"/>
+      <c r="AF1" s="146" t="s">
         <v>8</v>
       </c>
-      <c r="AG1" s="97"/>
-      <c r="AH1" s="97"/>
-      <c r="AI1" s="98"/>
-      <c r="AJ1" s="96" t="s">
+      <c r="AG1" s="147"/>
+      <c r="AH1" s="147"/>
+      <c r="AI1" s="148"/>
+      <c r="AJ1" s="146" t="s">
         <v>9</v>
       </c>
-      <c r="AK1" s="97"/>
-      <c r="AL1" s="97"/>
-      <c r="AM1" s="98"/>
-      <c r="AN1" s="96" t="s">
+      <c r="AK1" s="147"/>
+      <c r="AL1" s="147"/>
+      <c r="AM1" s="148"/>
+      <c r="AN1" s="146" t="s">
         <v>10</v>
       </c>
-      <c r="AO1" s="97"/>
-      <c r="AP1" s="97"/>
-      <c r="AQ1" s="98"/>
-      <c r="AR1" s="96" t="s">
+      <c r="AO1" s="147"/>
+      <c r="AP1" s="147"/>
+      <c r="AQ1" s="148"/>
+      <c r="AR1" s="146" t="s">
         <v>11</v>
       </c>
-      <c r="AS1" s="97"/>
-      <c r="AT1" s="97"/>
-      <c r="AU1" s="98"/>
+      <c r="AS1" s="147"/>
+      <c r="AT1" s="147"/>
+      <c r="AU1" s="148"/>
     </row>
     <row r="2" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A2" s="89"/>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="100" t="str">
+      <c r="A2" s="92"/>
+      <c r="B2" s="92"/>
+      <c r="C2" s="92"/>
+      <c r="D2" s="149" t="str">
         <f>TEXT(D3,"ddd")</f>
         <v>Wed</v>
       </c>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="102"/>
-      <c r="H2" s="100" t="str">
+      <c r="E2" s="150"/>
+      <c r="F2" s="150"/>
+      <c r="G2" s="151"/>
+      <c r="H2" s="149" t="str">
         <f t="shared" ref="H2" si="0">TEXT(H3,"ddd")</f>
         <v>Thu</v>
       </c>
-      <c r="I2" s="101"/>
-      <c r="J2" s="101"/>
-      <c r="K2" s="102"/>
-      <c r="L2" s="103" t="str">
+      <c r="I2" s="150"/>
+      <c r="J2" s="150"/>
+      <c r="K2" s="151"/>
+      <c r="L2" s="162" t="str">
         <f t="shared" ref="L2" si="1">TEXT(L3,"ddd")</f>
         <v>Fri</v>
       </c>
-      <c r="M2" s="101"/>
-      <c r="N2" s="101"/>
-      <c r="O2" s="102"/>
-      <c r="P2" s="100" t="str">
+      <c r="M2" s="150"/>
+      <c r="N2" s="150"/>
+      <c r="O2" s="151"/>
+      <c r="P2" s="149" t="str">
         <f t="shared" ref="P2" si="2">TEXT(P3,"ddd")</f>
         <v>Mon</v>
       </c>
-      <c r="Q2" s="101"/>
-      <c r="R2" s="101"/>
-      <c r="S2" s="102"/>
-      <c r="T2" s="100" t="str">
+      <c r="Q2" s="150"/>
+      <c r="R2" s="150"/>
+      <c r="S2" s="151"/>
+      <c r="T2" s="149" t="str">
         <f t="shared" ref="T2" si="3">TEXT(T3,"ddd")</f>
         <v>Wed</v>
       </c>
-      <c r="U2" s="101"/>
-      <c r="V2" s="101"/>
-      <c r="W2" s="102"/>
-      <c r="X2" s="100" t="str">
+      <c r="U2" s="150"/>
+      <c r="V2" s="150"/>
+      <c r="W2" s="151"/>
+      <c r="X2" s="149" t="str">
         <f t="shared" ref="X2" si="4">TEXT(X3,"ddd")</f>
         <v>Thu</v>
       </c>
-      <c r="Y2" s="101"/>
-      <c r="Z2" s="101"/>
-      <c r="AA2" s="109"/>
-      <c r="AB2" s="100" t="str">
+      <c r="Y2" s="150"/>
+      <c r="Z2" s="150"/>
+      <c r="AA2" s="158"/>
+      <c r="AB2" s="149" t="str">
         <f t="shared" ref="AB2" si="5">TEXT(AB3,"ddd")</f>
         <v>Fri</v>
       </c>
-      <c r="AC2" s="101"/>
-      <c r="AD2" s="101"/>
-      <c r="AE2" s="102"/>
-      <c r="AF2" s="100" t="str">
+      <c r="AC2" s="150"/>
+      <c r="AD2" s="150"/>
+      <c r="AE2" s="151"/>
+      <c r="AF2" s="149" t="str">
         <f t="shared" ref="AF2" si="6">TEXT(AF3,"ddd")</f>
         <v>Mon</v>
       </c>
-      <c r="AG2" s="101"/>
-      <c r="AH2" s="101"/>
-      <c r="AI2" s="102"/>
-      <c r="AJ2" s="100" t="str">
+      <c r="AG2" s="150"/>
+      <c r="AH2" s="150"/>
+      <c r="AI2" s="151"/>
+      <c r="AJ2" s="149" t="str">
         <f t="shared" ref="AJ2" si="7">TEXT(AJ3,"ddd")</f>
         <v>Wed</v>
       </c>
-      <c r="AK2" s="101"/>
-      <c r="AL2" s="101"/>
-      <c r="AM2" s="102"/>
-      <c r="AN2" s="100" t="str">
+      <c r="AK2" s="150"/>
+      <c r="AL2" s="150"/>
+      <c r="AM2" s="151"/>
+      <c r="AN2" s="149" t="str">
         <f t="shared" ref="AN2" si="8">TEXT(AN3,"ddd")</f>
         <v>Thu</v>
       </c>
-      <c r="AO2" s="101"/>
-      <c r="AP2" s="101"/>
-      <c r="AQ2" s="102"/>
-      <c r="AR2" s="100" t="str">
+      <c r="AO2" s="150"/>
+      <c r="AP2" s="150"/>
+      <c r="AQ2" s="151"/>
+      <c r="AR2" s="149" t="str">
         <f t="shared" ref="AR2" si="9">TEXT(AR3,"ddd")</f>
         <v>Fri</v>
       </c>
-      <c r="AS2" s="101"/>
-      <c r="AT2" s="101"/>
-      <c r="AU2" s="102"/>
+      <c r="AS2" s="150"/>
+      <c r="AT2" s="150"/>
+      <c r="AU2" s="151"/>
     </row>
     <row r="3" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A3" s="89"/>
-      <c r="B3" s="89"/>
-      <c r="C3" s="89"/>
-      <c r="D3" s="90">
+      <c r="A3" s="92"/>
+      <c r="B3" s="92"/>
+      <c r="C3" s="92"/>
+      <c r="D3" s="152">
         <v>43873</v>
       </c>
-      <c r="E3" s="91"/>
-      <c r="F3" s="91"/>
-      <c r="G3" s="92"/>
-      <c r="H3" s="90">
+      <c r="E3" s="153"/>
+      <c r="F3" s="153"/>
+      <c r="G3" s="154"/>
+      <c r="H3" s="152">
         <v>43874</v>
       </c>
-      <c r="I3" s="91"/>
-      <c r="J3" s="91"/>
-      <c r="K3" s="92"/>
-      <c r="L3" s="104">
+      <c r="I3" s="153"/>
+      <c r="J3" s="153"/>
+      <c r="K3" s="154"/>
+      <c r="L3" s="159">
         <v>43875</v>
       </c>
-      <c r="M3" s="91"/>
-      <c r="N3" s="91"/>
-      <c r="O3" s="92"/>
-      <c r="P3" s="90">
+      <c r="M3" s="153"/>
+      <c r="N3" s="153"/>
+      <c r="O3" s="154"/>
+      <c r="P3" s="152">
         <v>43878</v>
       </c>
-      <c r="Q3" s="91"/>
-      <c r="R3" s="91"/>
-      <c r="S3" s="92"/>
-      <c r="T3" s="90">
+      <c r="Q3" s="153"/>
+      <c r="R3" s="153"/>
+      <c r="S3" s="154"/>
+      <c r="T3" s="152">
         <v>43880</v>
       </c>
-      <c r="U3" s="91"/>
-      <c r="V3" s="91"/>
-      <c r="W3" s="92"/>
-      <c r="X3" s="90">
+      <c r="U3" s="153"/>
+      <c r="V3" s="153"/>
+      <c r="W3" s="154"/>
+      <c r="X3" s="152">
         <v>43881</v>
       </c>
-      <c r="Y3" s="91"/>
-      <c r="Z3" s="91"/>
-      <c r="AA3" s="106"/>
-      <c r="AB3" s="90">
+      <c r="Y3" s="153"/>
+      <c r="Z3" s="153"/>
+      <c r="AA3" s="155"/>
+      <c r="AB3" s="152">
         <v>43882</v>
       </c>
-      <c r="AC3" s="91"/>
-      <c r="AD3" s="91"/>
-      <c r="AE3" s="92"/>
-      <c r="AF3" s="90">
+      <c r="AC3" s="153"/>
+      <c r="AD3" s="153"/>
+      <c r="AE3" s="154"/>
+      <c r="AF3" s="152">
         <v>43885</v>
       </c>
-      <c r="AG3" s="91"/>
-      <c r="AH3" s="91"/>
-      <c r="AI3" s="92"/>
-      <c r="AJ3" s="90">
+      <c r="AG3" s="153"/>
+      <c r="AH3" s="153"/>
+      <c r="AI3" s="154"/>
+      <c r="AJ3" s="152">
         <v>43887</v>
       </c>
-      <c r="AK3" s="91"/>
-      <c r="AL3" s="91"/>
-      <c r="AM3" s="92"/>
-      <c r="AN3" s="90">
+      <c r="AK3" s="153"/>
+      <c r="AL3" s="153"/>
+      <c r="AM3" s="154"/>
+      <c r="AN3" s="152">
         <v>43888</v>
       </c>
-      <c r="AO3" s="91"/>
-      <c r="AP3" s="91"/>
-      <c r="AQ3" s="92"/>
-      <c r="AR3" s="90">
+      <c r="AO3" s="153"/>
+      <c r="AP3" s="153"/>
+      <c r="AQ3" s="154"/>
+      <c r="AR3" s="152">
         <v>43889</v>
       </c>
-      <c r="AS3" s="91"/>
-      <c r="AT3" s="91"/>
-      <c r="AU3" s="92"/>
+      <c r="AS3" s="153"/>
+      <c r="AT3" s="153"/>
+      <c r="AU3" s="154"/>
     </row>
     <row r="4" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
@@ -2390,94 +2390,94 @@
       <c r="C4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="93" t="s">
+      <c r="D4" s="143" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="94"/>
-      <c r="F4" s="94" t="s">
+      <c r="E4" s="144"/>
+      <c r="F4" s="144" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="95"/>
-      <c r="H4" s="93" t="s">
+      <c r="G4" s="145"/>
+      <c r="H4" s="143" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="94"/>
-      <c r="J4" s="94" t="s">
+      <c r="I4" s="144"/>
+      <c r="J4" s="144" t="s">
         <v>13</v>
       </c>
-      <c r="K4" s="95"/>
-      <c r="L4" s="105" t="s">
+      <c r="K4" s="145"/>
+      <c r="L4" s="160" t="s">
         <v>12</v>
       </c>
-      <c r="M4" s="94"/>
-      <c r="N4" s="94" t="s">
+      <c r="M4" s="144"/>
+      <c r="N4" s="144" t="s">
         <v>13</v>
       </c>
-      <c r="O4" s="95"/>
-      <c r="P4" s="93" t="s">
+      <c r="O4" s="145"/>
+      <c r="P4" s="143" t="s">
         <v>12</v>
       </c>
-      <c r="Q4" s="94"/>
-      <c r="R4" s="94" t="s">
+      <c r="Q4" s="144"/>
+      <c r="R4" s="144" t="s">
         <v>13</v>
       </c>
-      <c r="S4" s="95"/>
-      <c r="T4" s="93" t="s">
+      <c r="S4" s="145"/>
+      <c r="T4" s="143" t="s">
         <v>12</v>
       </c>
-      <c r="U4" s="94"/>
-      <c r="V4" s="94" t="s">
+      <c r="U4" s="144"/>
+      <c r="V4" s="144" t="s">
         <v>13</v>
       </c>
-      <c r="W4" s="95"/>
-      <c r="X4" s="93" t="s">
+      <c r="W4" s="145"/>
+      <c r="X4" s="143" t="s">
         <v>12</v>
       </c>
-      <c r="Y4" s="94"/>
-      <c r="Z4" s="94" t="s">
+      <c r="Y4" s="144"/>
+      <c r="Z4" s="144" t="s">
         <v>13</v>
       </c>
-      <c r="AA4" s="107"/>
-      <c r="AB4" s="93" t="s">
+      <c r="AA4" s="156"/>
+      <c r="AB4" s="143" t="s">
         <v>12</v>
       </c>
-      <c r="AC4" s="94"/>
-      <c r="AD4" s="94" t="s">
+      <c r="AC4" s="144"/>
+      <c r="AD4" s="144" t="s">
         <v>13</v>
       </c>
-      <c r="AE4" s="95"/>
-      <c r="AF4" s="93" t="s">
+      <c r="AE4" s="145"/>
+      <c r="AF4" s="143" t="s">
         <v>12</v>
       </c>
-      <c r="AG4" s="94"/>
-      <c r="AH4" s="94" t="s">
+      <c r="AG4" s="144"/>
+      <c r="AH4" s="144" t="s">
         <v>13</v>
       </c>
-      <c r="AI4" s="95"/>
-      <c r="AJ4" s="93" t="s">
+      <c r="AI4" s="145"/>
+      <c r="AJ4" s="143" t="s">
         <v>12</v>
       </c>
-      <c r="AK4" s="94"/>
-      <c r="AL4" s="94" t="s">
+      <c r="AK4" s="144"/>
+      <c r="AL4" s="144" t="s">
         <v>13</v>
       </c>
-      <c r="AM4" s="95"/>
-      <c r="AN4" s="93" t="s">
+      <c r="AM4" s="145"/>
+      <c r="AN4" s="143" t="s">
         <v>12</v>
       </c>
-      <c r="AO4" s="94"/>
-      <c r="AP4" s="94" t="s">
+      <c r="AO4" s="144"/>
+      <c r="AP4" s="144" t="s">
         <v>13</v>
       </c>
-      <c r="AQ4" s="95"/>
-      <c r="AR4" s="93" t="s">
+      <c r="AQ4" s="145"/>
+      <c r="AR4" s="143" t="s">
         <v>12</v>
       </c>
-      <c r="AS4" s="94"/>
-      <c r="AT4" s="94" t="s">
+      <c r="AS4" s="144"/>
+      <c r="AT4" s="144" t="s">
         <v>13</v>
       </c>
-      <c r="AU4" s="95"/>
+      <c r="AU4" s="145"/>
     </row>
     <row r="5" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
@@ -2531,14 +2531,14 @@
       <c r="AU5" s="17"/>
     </row>
     <row r="6" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A6" s="110" t="s">
+      <c r="A6" s="123" t="s">
         <v>50</v>
       </c>
-      <c r="B6" s="112">
+      <c r="B6" s="135">
         <f>SUM(D6:AU6)</f>
         <v>2</v>
       </c>
-      <c r="C6" s="113">
+      <c r="C6" s="136">
         <f>SUM(D7:AU7)</f>
         <v>2</v>
       </c>
@@ -2592,9 +2592,9 @@
       <c r="AU6" s="35"/>
     </row>
     <row r="7" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="111"/>
-      <c r="B7" s="112"/>
-      <c r="C7" s="113"/>
+      <c r="A7" s="124"/>
+      <c r="B7" s="135"/>
+      <c r="C7" s="136"/>
       <c r="D7" s="41">
         <v>1</v>
       </c>
@@ -2645,14 +2645,14 @@
       <c r="AU7" s="40"/>
     </row>
     <row r="8" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A8" s="110" t="s">
+      <c r="A8" s="123" t="s">
         <v>52</v>
       </c>
-      <c r="B8" s="112">
+      <c r="B8" s="135">
         <f>SUM(D8:AU8)</f>
         <v>4</v>
       </c>
-      <c r="C8" s="113">
+      <c r="C8" s="136">
         <f>SUM(D9:AU9)</f>
         <v>3</v>
       </c>
@@ -2710,9 +2710,9 @@
       </c>
     </row>
     <row r="9" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="115"/>
-      <c r="B9" s="116"/>
-      <c r="C9" s="114"/>
+      <c r="A9" s="134"/>
+      <c r="B9" s="131"/>
+      <c r="C9" s="133"/>
       <c r="D9" s="49"/>
       <c r="E9" s="53">
         <v>1</v>
@@ -2867,14 +2867,14 @@
       <c r="AU11" s="46"/>
     </row>
     <row r="12" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A12" s="117" t="s">
+      <c r="A12" s="129" t="s">
         <v>53</v>
       </c>
-      <c r="B12" s="118">
+      <c r="B12" s="130">
         <f>SUM(D12:AU12)</f>
         <v>7</v>
       </c>
-      <c r="C12" s="119">
+      <c r="C12" s="132">
         <f>SUM(D13:AU13)</f>
         <v>7</v>
       </c>
@@ -2932,9 +2932,9 @@
       <c r="AU12" s="48"/>
     </row>
     <row r="13" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="115"/>
-      <c r="B13" s="112"/>
-      <c r="C13" s="113"/>
+      <c r="A13" s="134"/>
+      <c r="B13" s="135"/>
+      <c r="C13" s="136"/>
       <c r="D13" s="41"/>
       <c r="E13" s="39"/>
       <c r="F13" s="39"/>
@@ -3040,14 +3040,14 @@
       <c r="AU14" s="63"/>
     </row>
     <row r="15" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A15" s="120" t="s">
+      <c r="A15" s="137" t="s">
         <v>59</v>
       </c>
-      <c r="B15" s="122">
+      <c r="B15" s="139">
         <f>SUM(D15:AU15)</f>
         <v>1</v>
       </c>
-      <c r="C15" s="124">
+      <c r="C15" s="141">
         <f>SUM(D16:AU16)</f>
         <v>4</v>
       </c>
@@ -3099,9 +3099,9 @@
       <c r="AU15" s="35"/>
     </row>
     <row r="16" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="121"/>
-      <c r="B16" s="123"/>
-      <c r="C16" s="125"/>
+      <c r="A16" s="138"/>
+      <c r="B16" s="140"/>
+      <c r="C16" s="142"/>
       <c r="D16" s="41"/>
       <c r="E16" s="39"/>
       <c r="F16" s="39"/>
@@ -3154,14 +3154,14 @@
       <c r="AU16" s="40"/>
     </row>
     <row r="17" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A17" s="117" t="s">
+      <c r="A17" s="129" t="s">
         <v>54</v>
       </c>
-      <c r="B17" s="118">
+      <c r="B17" s="130">
         <f t="shared" ref="B17" si="10">SUM(D17:AU17)</f>
         <v>2</v>
       </c>
-      <c r="C17" s="119">
+      <c r="C17" s="132">
         <f t="shared" ref="C17" si="11">SUM(D18:AU18)</f>
         <v>4</v>
       </c>
@@ -3213,9 +3213,9 @@
       <c r="AU17" s="48"/>
     </row>
     <row r="18" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="115"/>
-      <c r="B18" s="112"/>
-      <c r="C18" s="113"/>
+      <c r="A18" s="134"/>
+      <c r="B18" s="135"/>
+      <c r="C18" s="136"/>
       <c r="D18" s="41"/>
       <c r="E18" s="39"/>
       <c r="F18" s="39"/>
@@ -3270,14 +3270,14 @@
       <c r="AU18" s="40"/>
     </row>
     <row r="19" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A19" s="110" t="s">
+      <c r="A19" s="123" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="112">
+      <c r="B19" s="135">
         <f t="shared" ref="B19" si="12">SUM(D19:AU19)</f>
         <v>2</v>
       </c>
-      <c r="C19" s="113">
+      <c r="C19" s="136">
         <f t="shared" ref="C19" si="13">SUM(D20:AU20)</f>
         <v>0</v>
       </c>
@@ -3329,9 +3329,9 @@
       <c r="AU19" s="35"/>
     </row>
     <row r="20" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="115"/>
-      <c r="B20" s="116"/>
-      <c r="C20" s="114"/>
+      <c r="A20" s="134"/>
+      <c r="B20" s="131"/>
+      <c r="C20" s="133"/>
       <c r="D20" s="49"/>
       <c r="E20" s="53"/>
       <c r="F20" s="53"/>
@@ -3378,16 +3378,16 @@
       <c r="AU20" s="48"/>
     </row>
     <row r="21" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A21" s="110" t="s">
+      <c r="A21" s="123" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="126">
+      <c r="B21" s="125">
         <f t="shared" ref="B21" si="14">SUM(D21:AU21)</f>
         <v>1</v>
       </c>
-      <c r="C21" s="128">
+      <c r="C21" s="127">
         <f t="shared" ref="C21" si="15">SUM(D22:AU22)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D21" s="36"/>
       <c r="E21" s="34"/>
@@ -3437,9 +3437,9 @@
       <c r="AU21" s="35"/>
     </row>
     <row r="22" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="111"/>
-      <c r="B22" s="127"/>
-      <c r="C22" s="129"/>
+      <c r="A22" s="124"/>
+      <c r="B22" s="126"/>
+      <c r="C22" s="128"/>
       <c r="D22" s="41"/>
       <c r="E22" s="39"/>
       <c r="F22" s="39"/>
@@ -3468,7 +3468,9 @@
       <c r="W22" s="40">
         <v>1</v>
       </c>
-      <c r="X22" s="41"/>
+      <c r="X22" s="41">
+        <v>1</v>
+      </c>
       <c r="Y22" s="39"/>
       <c r="Z22" s="39"/>
       <c r="AA22" s="39"/>
@@ -3545,16 +3547,16 @@
       <c r="AU23" s="58"/>
     </row>
     <row r="24" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A24" s="110" t="s">
+      <c r="A24" s="123" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="112">
+      <c r="B24" s="135">
         <f>SUM(D24:AU24)</f>
         <v>1</v>
       </c>
-      <c r="C24" s="113">
+      <c r="C24" s="136">
         <f>SUM(D25:AU25)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D24" s="49"/>
       <c r="E24" s="53"/>
@@ -3604,9 +3606,9 @@
       <c r="AU24" s="48"/>
     </row>
     <row r="25" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="115"/>
-      <c r="B25" s="112"/>
-      <c r="C25" s="113"/>
+      <c r="A25" s="134"/>
+      <c r="B25" s="135"/>
+      <c r="C25" s="136"/>
       <c r="D25" s="41"/>
       <c r="E25" s="39"/>
       <c r="F25" s="39"/>
@@ -3627,8 +3629,12 @@
       <c r="U25" s="39"/>
       <c r="V25" s="39"/>
       <c r="W25" s="40"/>
-      <c r="X25" s="41"/>
-      <c r="Y25" s="39"/>
+      <c r="X25" s="41">
+        <v>1</v>
+      </c>
+      <c r="Y25" s="39">
+        <v>1</v>
+      </c>
       <c r="Z25" s="39"/>
       <c r="AA25" s="39"/>
       <c r="AB25" s="41"/>
@@ -3653,16 +3659,16 @@
       <c r="AU25" s="40"/>
     </row>
     <row r="26" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A26" s="110" t="s">
+      <c r="A26" s="123" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="112">
+      <c r="B26" s="135">
         <f t="shared" ref="B26" si="16">SUM(D26:AU26)</f>
         <v>1</v>
       </c>
-      <c r="C26" s="113">
+      <c r="C26" s="136">
         <f t="shared" ref="C26" si="17">SUM(D27:AU27)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D26" s="36"/>
       <c r="E26" s="34"/>
@@ -3712,9 +3718,9 @@
       <c r="AU26" s="35"/>
     </row>
     <row r="27" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="115"/>
-      <c r="B27" s="116"/>
-      <c r="C27" s="114"/>
+      <c r="A27" s="134"/>
+      <c r="B27" s="131"/>
+      <c r="C27" s="133"/>
       <c r="D27" s="49"/>
       <c r="E27" s="53"/>
       <c r="F27" s="53"/>
@@ -3736,9 +3742,15 @@
       <c r="V27" s="53"/>
       <c r="W27" s="48"/>
       <c r="X27" s="49"/>
-      <c r="Y27" s="53"/>
-      <c r="Z27" s="53"/>
-      <c r="AA27" s="53"/>
+      <c r="Y27" s="53">
+        <v>1</v>
+      </c>
+      <c r="Z27" s="53">
+        <v>2</v>
+      </c>
+      <c r="AA27" s="53">
+        <v>1</v>
+      </c>
       <c r="AB27" s="49"/>
       <c r="AC27" s="53"/>
       <c r="AD27" s="53"/>
@@ -3761,14 +3773,14 @@
       <c r="AU27" s="48"/>
     </row>
     <row r="28" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A28" s="110" t="s">
+      <c r="A28" s="123" t="s">
         <v>26</v>
       </c>
-      <c r="B28" s="126">
+      <c r="B28" s="125">
         <f t="shared" ref="B28" si="18">SUM(D28:AU28)</f>
         <v>7</v>
       </c>
-      <c r="C28" s="128">
+      <c r="C28" s="127">
         <f t="shared" ref="C28" si="19">SUM(D29:AU29)</f>
         <v>0</v>
       </c>
@@ -3826,9 +3838,9 @@
       <c r="AU28" s="35"/>
     </row>
     <row r="29" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="111"/>
-      <c r="B29" s="127"/>
-      <c r="C29" s="129"/>
+      <c r="A29" s="124"/>
+      <c r="B29" s="126"/>
+      <c r="C29" s="128"/>
       <c r="D29" s="41"/>
       <c r="E29" s="39"/>
       <c r="F29" s="39"/>
@@ -3875,14 +3887,14 @@
       <c r="AU29" s="40"/>
     </row>
     <row r="30" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A30" s="117" t="s">
+      <c r="A30" s="129" t="s">
         <v>27</v>
       </c>
-      <c r="B30" s="118">
+      <c r="B30" s="130">
         <f t="shared" ref="B30" si="20">SUM(D30:AU30)</f>
         <v>7</v>
       </c>
-      <c r="C30" s="119">
+      <c r="C30" s="132">
         <f t="shared" ref="C30" si="21">SUM(D31:AU31)</f>
         <v>0</v>
       </c>
@@ -3940,9 +3952,9 @@
       <c r="AU30" s="48"/>
     </row>
     <row r="31" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="115"/>
-      <c r="B31" s="112"/>
-      <c r="C31" s="113"/>
+      <c r="A31" s="134"/>
+      <c r="B31" s="135"/>
+      <c r="C31" s="136"/>
       <c r="D31" s="41"/>
       <c r="E31" s="39"/>
       <c r="F31" s="39"/>
@@ -3989,14 +4001,14 @@
       <c r="AU31" s="40"/>
     </row>
     <row r="32" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A32" s="110" t="s">
+      <c r="A32" s="123" t="s">
         <v>28</v>
       </c>
-      <c r="B32" s="112">
+      <c r="B32" s="135">
         <f t="shared" ref="B32" si="22">SUM(D32:AU32)</f>
         <v>7</v>
       </c>
-      <c r="C32" s="113">
+      <c r="C32" s="136">
         <f t="shared" ref="C32" si="23">SUM(D33:AU33)</f>
         <v>0</v>
       </c>
@@ -4054,9 +4066,9 @@
       <c r="AU32" s="35"/>
     </row>
     <row r="33" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="115"/>
-      <c r="B33" s="112"/>
-      <c r="C33" s="113"/>
+      <c r="A33" s="134"/>
+      <c r="B33" s="135"/>
+      <c r="C33" s="136"/>
       <c r="D33" s="41"/>
       <c r="E33" s="39"/>
       <c r="F33" s="39"/>
@@ -4103,14 +4115,14 @@
       <c r="AU33" s="40"/>
     </row>
     <row r="34" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A34" s="110" t="s">
+      <c r="A34" s="123" t="s">
         <v>29</v>
       </c>
-      <c r="B34" s="112">
+      <c r="B34" s="135">
         <f t="shared" ref="B34" si="24">SUM(D34:AU34)</f>
         <v>2</v>
       </c>
-      <c r="C34" s="113">
+      <c r="C34" s="136">
         <f t="shared" ref="C34" si="25">SUM(D35:AU35)</f>
         <v>0</v>
       </c>
@@ -4162,9 +4174,9 @@
       <c r="AU34" s="35"/>
     </row>
     <row r="35" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="111"/>
-      <c r="B35" s="112"/>
-      <c r="C35" s="113"/>
+      <c r="A35" s="124"/>
+      <c r="B35" s="135"/>
+      <c r="C35" s="136"/>
       <c r="D35" s="41"/>
       <c r="E35" s="39"/>
       <c r="F35" s="39"/>
@@ -4211,14 +4223,14 @@
       <c r="AU35" s="40"/>
     </row>
     <row r="36" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A36" s="110" t="s">
+      <c r="A36" s="123" t="s">
         <v>30</v>
       </c>
-      <c r="B36" s="112">
+      <c r="B36" s="135">
         <f t="shared" ref="B36" si="26">SUM(D36:AU36)</f>
         <v>4</v>
       </c>
-      <c r="C36" s="113">
+      <c r="C36" s="136">
         <f t="shared" ref="C36" si="27">SUM(D37:AU37)</f>
         <v>0</v>
       </c>
@@ -4272,9 +4284,9 @@
       <c r="AU36" s="35"/>
     </row>
     <row r="37" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="115"/>
-      <c r="B37" s="112"/>
-      <c r="C37" s="113"/>
+      <c r="A37" s="134"/>
+      <c r="B37" s="135"/>
+      <c r="C37" s="136"/>
       <c r="D37" s="41"/>
       <c r="E37" s="39"/>
       <c r="F37" s="39"/>
@@ -4321,14 +4333,14 @@
       <c r="AU37" s="40"/>
     </row>
     <row r="38" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A38" s="110" t="s">
+      <c r="A38" s="123" t="s">
         <v>31</v>
       </c>
-      <c r="B38" s="112">
+      <c r="B38" s="135">
         <f t="shared" ref="B38" si="28">SUM(D38:AU38)</f>
         <v>3</v>
       </c>
-      <c r="C38" s="113">
+      <c r="C38" s="136">
         <f t="shared" ref="C38" si="29">SUM(D39:AU39)</f>
         <v>0</v>
       </c>
@@ -4382,9 +4394,9 @@
       <c r="AU38" s="35"/>
     </row>
     <row r="39" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="115"/>
-      <c r="B39" s="112"/>
-      <c r="C39" s="113"/>
+      <c r="A39" s="134"/>
+      <c r="B39" s="135"/>
+      <c r="C39" s="136"/>
       <c r="D39" s="41"/>
       <c r="E39" s="39"/>
       <c r="F39" s="39"/>
@@ -4431,14 +4443,14 @@
       <c r="AU39" s="40"/>
     </row>
     <row r="40" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A40" s="110" t="s">
+      <c r="A40" s="123" t="s">
         <v>32</v>
       </c>
-      <c r="B40" s="112">
+      <c r="B40" s="135">
         <f t="shared" ref="B40" si="30">SUM(D40:AU40)</f>
         <v>4</v>
       </c>
-      <c r="C40" s="113">
+      <c r="C40" s="136">
         <f t="shared" ref="C40" si="31">SUM(D41:AU41)</f>
         <v>0</v>
       </c>
@@ -4492,9 +4504,9 @@
       <c r="AU40" s="35"/>
     </row>
     <row r="41" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="115"/>
-      <c r="B41" s="112"/>
-      <c r="C41" s="113"/>
+      <c r="A41" s="134"/>
+      <c r="B41" s="135"/>
+      <c r="C41" s="136"/>
       <c r="D41" s="41"/>
       <c r="E41" s="39"/>
       <c r="F41" s="39"/>
@@ -4541,14 +4553,14 @@
       <c r="AU41" s="40"/>
     </row>
     <row r="42" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A42" s="110" t="s">
+      <c r="A42" s="123" t="s">
         <v>33</v>
       </c>
-      <c r="B42" s="112">
+      <c r="B42" s="135">
         <f t="shared" ref="B42" si="32">SUM(D42:AU42)</f>
         <v>3</v>
       </c>
-      <c r="C42" s="113">
+      <c r="C42" s="136">
         <f t="shared" ref="C42" si="33">SUM(D43:AU43)</f>
         <v>0</v>
       </c>
@@ -4602,9 +4614,9 @@
       <c r="AU42" s="35"/>
     </row>
     <row r="43" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="115"/>
-      <c r="B43" s="112"/>
-      <c r="C43" s="113"/>
+      <c r="A43" s="134"/>
+      <c r="B43" s="135"/>
+      <c r="C43" s="136"/>
       <c r="D43" s="41"/>
       <c r="E43" s="39"/>
       <c r="F43" s="39"/>
@@ -4651,14 +4663,14 @@
       <c r="AU43" s="40"/>
     </row>
     <row r="44" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="110" t="s">
+      <c r="A44" s="123" t="s">
         <v>34</v>
       </c>
-      <c r="B44" s="112">
+      <c r="B44" s="135">
         <f t="shared" ref="B44" si="34">SUM(D44:AU44)</f>
         <v>2</v>
       </c>
-      <c r="C44" s="113">
+      <c r="C44" s="136">
         <f t="shared" ref="C44" si="35">SUM(D45:AU45)</f>
         <v>0</v>
       </c>
@@ -4709,9 +4721,9 @@
       <c r="AU44" s="35"/>
     </row>
     <row r="45" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="115"/>
-      <c r="B45" s="112"/>
-      <c r="C45" s="113"/>
+      <c r="A45" s="134"/>
+      <c r="B45" s="135"/>
+      <c r="C45" s="136"/>
       <c r="D45" s="41"/>
       <c r="E45" s="39"/>
       <c r="F45" s="39"/>
@@ -4758,14 +4770,14 @@
       <c r="AU45" s="40"/>
     </row>
     <row r="46" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A46" s="110" t="s">
+      <c r="A46" s="123" t="s">
         <v>48</v>
       </c>
-      <c r="B46" s="112">
+      <c r="B46" s="135">
         <f t="shared" ref="B46" si="36">SUM(D46:AU46)</f>
         <v>3</v>
       </c>
-      <c r="C46" s="113">
+      <c r="C46" s="136">
         <f t="shared" ref="C46" si="37">SUM(D47:AU47)</f>
         <v>0</v>
       </c>
@@ -4819,9 +4831,9 @@
       <c r="AU46" s="35"/>
     </row>
     <row r="47" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="111"/>
-      <c r="B47" s="112"/>
-      <c r="C47" s="113"/>
+      <c r="A47" s="124"/>
+      <c r="B47" s="135"/>
+      <c r="C47" s="136"/>
       <c r="D47" s="49"/>
       <c r="E47" s="53"/>
       <c r="F47" s="53"/>
@@ -4919,16 +4931,16 @@
       <c r="AU48" s="46"/>
     </row>
     <row r="49" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A49" s="110" t="s">
+      <c r="A49" s="123" t="s">
         <v>51</v>
       </c>
-      <c r="B49" s="112">
+      <c r="B49" s="135">
         <f>SUM(D49:AU49)</f>
         <v>11</v>
       </c>
-      <c r="C49" s="113">
+      <c r="C49" s="136">
         <f>SUM(D50:AU50)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D49" s="49"/>
       <c r="E49" s="53"/>
@@ -4998,9 +5010,9 @@
       </c>
     </row>
     <row r="50" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="115"/>
-      <c r="B50" s="116"/>
-      <c r="C50" s="114"/>
+      <c r="A50" s="134"/>
+      <c r="B50" s="131"/>
+      <c r="C50" s="133"/>
       <c r="D50" s="49"/>
       <c r="E50" s="53"/>
       <c r="F50" s="53"/>
@@ -5034,7 +5046,9 @@
       <c r="X50" s="49"/>
       <c r="Y50" s="53"/>
       <c r="Z50" s="53"/>
-      <c r="AA50" s="53"/>
+      <c r="AA50" s="53">
+        <v>1</v>
+      </c>
       <c r="AB50" s="49"/>
       <c r="AC50" s="53"/>
       <c r="AD50" s="53"/>
@@ -5057,14 +5071,14 @@
       <c r="AU50" s="48"/>
     </row>
     <row r="51" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A51" s="110" t="s">
+      <c r="A51" s="123" t="s">
         <v>60</v>
       </c>
-      <c r="B51" s="126">
+      <c r="B51" s="125">
         <f t="shared" ref="B51" si="38">SUM(D51:AU51)</f>
         <v>4</v>
       </c>
-      <c r="C51" s="128">
+      <c r="C51" s="127">
         <f t="shared" ref="C51" si="39">SUM(D52:AU52)</f>
         <v>3</v>
       </c>
@@ -5122,9 +5136,9 @@
       <c r="AU51" s="35"/>
     </row>
     <row r="52" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="111"/>
-      <c r="B52" s="127"/>
-      <c r="C52" s="129"/>
+      <c r="A52" s="124"/>
+      <c r="B52" s="126"/>
+      <c r="C52" s="128"/>
       <c r="D52" s="41">
         <v>1</v>
       </c>
@@ -5177,14 +5191,14 @@
       <c r="AU52" s="40"/>
     </row>
     <row r="53" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A53" s="117" t="s">
+      <c r="A53" s="129" t="s">
         <v>36</v>
       </c>
-      <c r="B53" s="118">
+      <c r="B53" s="130">
         <f t="shared" ref="B53" si="40">SUM(D53:AU53)</f>
         <v>2</v>
       </c>
-      <c r="C53" s="119">
+      <c r="C53" s="132">
         <f t="shared" ref="C53" si="41">SUM(D54:AU54)</f>
         <v>1</v>
       </c>
@@ -5238,9 +5252,9 @@
       <c r="AU53" s="48"/>
     </row>
     <row r="54" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="111"/>
-      <c r="B54" s="116"/>
-      <c r="C54" s="114"/>
+      <c r="A54" s="124"/>
+      <c r="B54" s="131"/>
+      <c r="C54" s="133"/>
       <c r="D54" s="49"/>
       <c r="E54" s="53"/>
       <c r="F54" s="53">
@@ -5289,176 +5303,176 @@
       <c r="AU54" s="48"/>
     </row>
     <row r="55" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A55" s="136" t="s">
+      <c r="A55" s="117" t="s">
         <v>37</v>
       </c>
-      <c r="B55" s="138">
+      <c r="B55" s="119">
         <f>SUM(B6:B54)</f>
         <v>80</v>
       </c>
-      <c r="C55" s="140">
+      <c r="C55" s="121">
         <f>SUM(C6:C54)</f>
-        <v>36</v>
-      </c>
-      <c r="D55" s="134" cm="1">
+        <v>44</v>
+      </c>
+      <c r="D55" s="111" cm="1">
         <f t="array" ref="D55">SUM(D6:G6+D8:G8+D12:G12+D15:G15+D17:G17+D19:G19+D21:G21+D24:G24+D26:G26+D28:G28+D30:G30+D32:G32+D34:G34+D36:G36+D38:G38+D40:G40+D42:G42+D44:G44+D46:G46+D49:G49+D51:G51+D53:G53)</f>
         <v>8</v>
       </c>
-      <c r="E55" s="130"/>
-      <c r="F55" s="130" cm="1">
+      <c r="E55" s="106"/>
+      <c r="F55" s="106" cm="1">
         <f t="array" ref="F55">SUM(D7:G7+D9:G9+D13:G13+D16:G16+D18:G18+D20:G20+D22:G22+D25:G25+D27:G27+D29:G29+D31:G31+D33:G33+D35:G35+D37:G37+D39:G39+D41:G41+D43:G43+D45:G45+D47:G47+D50:G50+D52:G52+D54:G54)</f>
         <v>8</v>
       </c>
-      <c r="G55" s="131"/>
-      <c r="H55" s="134" cm="1">
+      <c r="G55" s="107"/>
+      <c r="H55" s="111" cm="1">
         <f t="array" ref="H55">SUM(H6:K6+H8:K8+H12:K12+H15:K15+H17:K17+H19:K19+H21:K21+H24:K24+H26:K26+H28:K28+H30:K30+H32:K32+H34:K34+H36:K36+H38:K38+H40:K40+H42:K42+H44:K44+H46:K46+H49:K49+H51:K51+H53:K53)</f>
         <v>8</v>
       </c>
-      <c r="I55" s="130"/>
-      <c r="J55" s="130" cm="1">
+      <c r="I55" s="106"/>
+      <c r="J55" s="106" cm="1">
         <f t="array" ref="J55">SUM(H7:K7+H9:K9+H13:K13+H16:K16+H18:K18+H20:K20+H22:K22+H25:K25+H27:K27+H29:K29+H31:K31+H33:K33+H35:K35+H37:K37+H39:K39+H41:K41+H43:K43+H45:K45+H47:K47+H50:K50+H52:K52+H54:K54)</f>
         <v>8</v>
       </c>
-      <c r="K55" s="131"/>
-      <c r="L55" s="149" cm="1">
+      <c r="K55" s="107"/>
+      <c r="L55" s="115" cm="1">
         <f t="array" ref="L55">SUM(L6:O6+L8:O8+L12:O12+L15:O15+L17:O17+L19:O19+L21:O21+L24:O24+L26:O26+L28:O28+L30:O30+L32:O32+L34:O34+L36:O36+L38:O38+L40:O40+L42:O42+L44:O44+L46:O46+L49:O49+L51:O51+L53:O53)</f>
         <v>8</v>
       </c>
-      <c r="M55" s="130"/>
-      <c r="N55" s="130" cm="1">
+      <c r="M55" s="106"/>
+      <c r="N55" s="106" cm="1">
         <f t="array" ref="N55">SUM(L7:O7+L9:O9+L13:O13+L16:O16+L18:O18+L20:O20+L22:O22+L25:O25+L27:O27+L29:O29+L31:O31+L33:O33+L35:O35+L37:O37+L39:O39+L41:O41+L43:O43+L45:O45+L47:O47+L50:O50+L52:O52+L54:O54)</f>
         <v>8</v>
       </c>
-      <c r="O55" s="131"/>
-      <c r="P55" s="134" cm="1">
+      <c r="O55" s="107"/>
+      <c r="P55" s="111" cm="1">
         <f t="array" ref="P55">SUM(P6:S6+P8:S8+P12:S12+P15:S15+P17:S17+P19:S19+P21:S21+P24:S24+P26:S26+P28:S28+P30:S30+P32:S32+P34:S34+P36:S36+P38:S38+P40:S40+P42:S42+P44:S44+P46:S46+P49:S49+P51:S51+P53:S53)</f>
         <v>4</v>
       </c>
-      <c r="Q55" s="130"/>
-      <c r="R55" s="130" cm="1">
+      <c r="Q55" s="106"/>
+      <c r="R55" s="106" cm="1">
         <f t="array" ref="R55">SUM(P7:S7+P9:S9+P13:S13+P16:S16+P18:S18+P20:S20+P22:S22+P25:S25+P27:S27+P29:S29+P31:S31+P33:S33+P35:S35+P37:S37+P39:S39+P41:S41+P43:S43+P45:S45+P47:S47+P50:S50+P52:S52+P54:S54)</f>
         <v>4</v>
       </c>
-      <c r="S55" s="131"/>
-      <c r="T55" s="134" cm="1">
+      <c r="S55" s="107"/>
+      <c r="T55" s="111" cm="1">
         <f t="array" ref="T55">SUM(T6:W6+T8:W8+T12:W12+T15:W15+T17:W17+T19:W19+T21:W21+T24:W24+T26:W26+T28:W28+T30:W30+T32:W32+T34:W34+T36:W36+T38:W38+T40:W40+T42:W42+T44:W44+T46:W46+T49:W49+T51:W51+T53:W53)</f>
         <v>8</v>
       </c>
-      <c r="U55" s="130"/>
-      <c r="V55" s="130" cm="1">
+      <c r="U55" s="106"/>
+      <c r="V55" s="106" cm="1">
         <f t="array" ref="V55">SUM(T7:W7+T9:W9+T13:W13+T16:W16+T18:W18+T20:W20+T22:W22+T25:W25+T27:W27+T29:W29+T31:W31+T33:W33+T35:W35+T37:W37+T39:W39+T41:W41+T43:W43+T45:W45+T47:W47+T50:W50+T52:W52+T54:W54)</f>
         <v>8</v>
       </c>
-      <c r="W55" s="131"/>
-      <c r="X55" s="134" cm="1">
+      <c r="W55" s="107"/>
+      <c r="X55" s="111" cm="1">
         <f t="array" ref="X55">SUM(X6:AA6+X8:AA8+X12:AA12+X15:AA15+X17:AA17+X19:AA19+X21:AA21+X24:AA24+X26:AA26+X28:AA28+X30:AA30+X32:AA32+X34:AA34+X36:AA36+X38:AA38+X40:AA40+X42:AA42+X44:AA44+X46:AA46+X49:AA49+X51:AA51+X53:AA53)</f>
         <v>8</v>
       </c>
-      <c r="Y55" s="130"/>
-      <c r="Z55" s="130" cm="1">
+      <c r="Y55" s="106"/>
+      <c r="Z55" s="106" cm="1">
         <f t="array" ref="Z55">SUM(X7:AA7+X9:AA9+X13:AA13+X16:AA16+X18:AA18+X20:AA20+X22:AA22+X25:AA25+X27:AA27+X29:AA29+X31:AA31+X33:AA33+X35:AA35+X37:AA37+X39:AA39+X41:AA41+X43:AA43+X45:AA45+X47:AA47+X50:AA50+X52:AA52+X54:AA54)</f>
-        <v>0</v>
-      </c>
-      <c r="AA55" s="147"/>
-      <c r="AB55" s="134" cm="1">
+        <v>8</v>
+      </c>
+      <c r="AA55" s="113"/>
+      <c r="AB55" s="111" cm="1">
         <f t="array" ref="AB55">SUM(AB6:AE6+AB8:AE8+AB12:AE12+AB15:AE15+AB17:AE17+AB19:AE19+AB21:AE21+AB24:AE24+AB26:AE26+AB28:AE28+AB30:AE30+AB32:AE32+AB34:AE34+AB36:AE36+AB38:AE38+AB40:AE40+AB42:AE42+AB44:AE44+AB46:AE46+AB49:AE49+AB51:AE51+AB53:AE53)</f>
         <v>8</v>
       </c>
-      <c r="AC55" s="130"/>
-      <c r="AD55" s="130" cm="1">
+      <c r="AC55" s="106"/>
+      <c r="AD55" s="106" cm="1">
         <f t="array" ref="AD55">SUM(AB7:AE7+AB9:AE9+AB13:AE13+AB16:AE16+AB18:AE18+AB20:AE20+AB22:AE22+AB25:AE25+AB27:AE27+AB29:AE29+AB31:AE31+AB33:AE33+AB35:AE35+AB37:AE37+AB39:AE39+AB41:AE41+AB43:AE43+AB45:AE45+AB47:AE47+AB50:AE50+AB52:AE52+AB54:AE54)</f>
         <v>0</v>
       </c>
-      <c r="AE55" s="131"/>
-      <c r="AF55" s="134" cm="1">
+      <c r="AE55" s="107"/>
+      <c r="AF55" s="111" cm="1">
         <f t="array" ref="AF55">SUM(AF6:AI6+AF8:AI8+AF12:AI12+AF15:AI15+AF17:AI17+AF19:AI19+AF21:AI21+AF24:AI24+AF26:AI26+AF28:AI28+AF30:AI30+AF32:AI32+AF34:AI34+AF36:AI36+AF38:AI38+AF40:AI40+AF42:AI42+AF44:AI44+AF46:AI46+AF49:AI49+AF51:AI51+AF53:AI53)</f>
         <v>4</v>
       </c>
-      <c r="AG55" s="130"/>
-      <c r="AH55" s="130" cm="1">
+      <c r="AG55" s="106"/>
+      <c r="AH55" s="106" cm="1">
         <f t="array" ref="AH55">SUM(AF7:AI7+AF9:AI9+AF13:AI13+AF16:AI16+AF18:AI18+AF20:AI20+AF22:AI22+AF25:AI25+AF27:AI27+AF29:AI29+AF31:AI31+AF33:AI33+AF35:AI35+AF37:AI37+AF39:AI39+AF41:AI41+AF43:AI43+AF45:AI45+AF47:AI47+AF50:AI50+AF52:AI52+AF54:AI54)</f>
         <v>0</v>
       </c>
-      <c r="AI55" s="131"/>
-      <c r="AJ55" s="134" cm="1">
+      <c r="AI55" s="107"/>
+      <c r="AJ55" s="111" cm="1">
         <f t="array" ref="AJ55">SUM(AJ6:AM6+AJ8:AM8+AJ12:AM12+AJ15:AM15+AJ17:AM17+AJ19:AM19+AJ21:AM21+AJ24:AM24+AJ26:AM26+AJ28:AM28+AJ30:AM30+AJ32:AM32+AJ34:AM34+AJ36:AM36+AJ38:AM38+AJ40:AM40+AJ42:AM42+AJ44:AM44+AJ46:AM46+AJ49:AM49+AJ51:AM51+AJ53:AM53)</f>
         <v>8</v>
       </c>
-      <c r="AK55" s="130"/>
-      <c r="AL55" s="130" cm="1">
+      <c r="AK55" s="106"/>
+      <c r="AL55" s="106" cm="1">
         <f t="array" ref="AL55">SUM(AJ7:AM7+AJ9:AM9+AJ13:AM13+AJ16:AM16+AJ18:AM18+AJ20:AM20+AJ22:AM22+AJ25:AM25+AJ27:AM27+AJ29:AM29+AJ31:AM31+AJ33:AM33+AJ35:AM35+AJ37:AM37+AJ39:AM39+AJ41:AM41+AJ43:AM43+AJ45:AM45+AJ47:AM47+AJ50:AM50+AJ52:AM52+AJ54:AM54)</f>
         <v>0</v>
       </c>
-      <c r="AM55" s="131"/>
-      <c r="AN55" s="134" cm="1">
+      <c r="AM55" s="107"/>
+      <c r="AN55" s="111" cm="1">
         <f t="array" ref="AN55">SUM(AN6:AQ6+AN8:AQ8+AN12:AQ12+AN15:AQ15+AN17:AQ17+AN19:AQ19+AN21:AQ21+AN24:AQ24+AN26:AQ26+AN28:AQ28+AN30:AQ30+AN32:AQ32+AN34:AQ34+AN36:AQ36+AN38:AQ38+AN40:AQ40+AN42:AQ42+AN44:AQ44+AN46:AQ46+AN49:AQ49+AN51:AQ51+AN53:AQ53)</f>
         <v>8</v>
       </c>
-      <c r="AO55" s="130"/>
-      <c r="AP55" s="130" cm="1">
+      <c r="AO55" s="106"/>
+      <c r="AP55" s="106" cm="1">
         <f t="array" ref="AP55">SUM(AN7:AQ7+AN9:AQ9+AN13:AQ13+AN16:AQ16+AN18:AQ18+AN20:AQ20+AN22:AQ22+AN25:AQ25+AN27:AQ27+AN29:AQ29+AN31:AQ31+AN33:AQ33+AN35:AQ35+AN37:AQ37+AN39:AQ39+AN41:AQ41+AN43:AQ43+AN45:AQ45+AN47:AQ47+AN50:AQ50+AN52:AQ52+AN54:AQ54)</f>
         <v>0</v>
       </c>
-      <c r="AQ55" s="131"/>
-      <c r="AR55" s="134" cm="1">
+      <c r="AQ55" s="107"/>
+      <c r="AR55" s="111" cm="1">
         <f t="array" ref="AR55">SUM(AR6:AU6+AR8:AU8+AR12:AU12+AR15:AU15+AR17:AU17+AR19:AU19+AR21:AU21+AR24:AU24+AR26:AU26+AR28:AU28+AR30:AU30+AR32:AU32+AR34:AU34+AR36:AU36+AR38:AU38+AR40:AU40+AR42:AU42+AR44:AU44+AR46:AU46+AR49:AU49+AR51:AU51+AR53:AU53)</f>
         <v>8</v>
       </c>
-      <c r="AS55" s="130"/>
-      <c r="AT55" s="130" cm="1">
+      <c r="AS55" s="106"/>
+      <c r="AT55" s="106" cm="1">
         <f t="array" ref="AT55">SUM(AR7:AU7+AR9:AU9+AR13:AU13+AR16:AU16+AR18:AU18+AR20:AU20+AR22:AU22+AR25:AU25+AR27:AU27+AR29:AU29+AR31:AU31+AR33:AU33+AR35:AU35+AR37:AU37+AR39:AU39+AR41:AU41+AR43:AU43+AR45:AU45+AR47:AU47+AR50:AU50+AR52:AU52+AR54:AU54)</f>
         <v>0</v>
       </c>
-      <c r="AU55" s="131"/>
+      <c r="AU55" s="107"/>
     </row>
     <row r="56" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="137"/>
-      <c r="B56" s="139"/>
-      <c r="C56" s="141"/>
-      <c r="D56" s="135"/>
-      <c r="E56" s="132"/>
-      <c r="F56" s="132"/>
-      <c r="G56" s="133"/>
-      <c r="H56" s="135"/>
-      <c r="I56" s="132"/>
-      <c r="J56" s="132"/>
-      <c r="K56" s="133"/>
-      <c r="L56" s="150"/>
-      <c r="M56" s="132"/>
-      <c r="N56" s="132"/>
-      <c r="O56" s="133"/>
-      <c r="P56" s="135"/>
-      <c r="Q56" s="132"/>
-      <c r="R56" s="132"/>
-      <c r="S56" s="133"/>
-      <c r="T56" s="135"/>
-      <c r="U56" s="132"/>
-      <c r="V56" s="132"/>
-      <c r="W56" s="133"/>
-      <c r="X56" s="135"/>
-      <c r="Y56" s="132"/>
-      <c r="Z56" s="132"/>
-      <c r="AA56" s="148"/>
-      <c r="AB56" s="135"/>
-      <c r="AC56" s="132"/>
-      <c r="AD56" s="132"/>
-      <c r="AE56" s="133"/>
-      <c r="AF56" s="135"/>
-      <c r="AG56" s="132"/>
-      <c r="AH56" s="132"/>
-      <c r="AI56" s="133"/>
-      <c r="AJ56" s="135"/>
-      <c r="AK56" s="132"/>
-      <c r="AL56" s="132"/>
-      <c r="AM56" s="133"/>
-      <c r="AN56" s="135"/>
-      <c r="AO56" s="132"/>
-      <c r="AP56" s="132"/>
-      <c r="AQ56" s="133"/>
-      <c r="AR56" s="135"/>
-      <c r="AS56" s="132"/>
-      <c r="AT56" s="132"/>
-      <c r="AU56" s="133"/>
+      <c r="A56" s="118"/>
+      <c r="B56" s="120"/>
+      <c r="C56" s="122"/>
+      <c r="D56" s="112"/>
+      <c r="E56" s="108"/>
+      <c r="F56" s="108"/>
+      <c r="G56" s="109"/>
+      <c r="H56" s="112"/>
+      <c r="I56" s="108"/>
+      <c r="J56" s="108"/>
+      <c r="K56" s="109"/>
+      <c r="L56" s="116"/>
+      <c r="M56" s="108"/>
+      <c r="N56" s="108"/>
+      <c r="O56" s="109"/>
+      <c r="P56" s="112"/>
+      <c r="Q56" s="108"/>
+      <c r="R56" s="108"/>
+      <c r="S56" s="109"/>
+      <c r="T56" s="112"/>
+      <c r="U56" s="108"/>
+      <c r="V56" s="108"/>
+      <c r="W56" s="109"/>
+      <c r="X56" s="112"/>
+      <c r="Y56" s="108"/>
+      <c r="Z56" s="108"/>
+      <c r="AA56" s="114"/>
+      <c r="AB56" s="112"/>
+      <c r="AC56" s="108"/>
+      <c r="AD56" s="108"/>
+      <c r="AE56" s="109"/>
+      <c r="AF56" s="112"/>
+      <c r="AG56" s="108"/>
+      <c r="AH56" s="108"/>
+      <c r="AI56" s="109"/>
+      <c r="AJ56" s="112"/>
+      <c r="AK56" s="108"/>
+      <c r="AL56" s="108"/>
+      <c r="AM56" s="109"/>
+      <c r="AN56" s="112"/>
+      <c r="AO56" s="108"/>
+      <c r="AP56" s="108"/>
+      <c r="AQ56" s="109"/>
+      <c r="AR56" s="112"/>
+      <c r="AS56" s="108"/>
+      <c r="AT56" s="108"/>
+      <c r="AU56" s="109"/>
     </row>
     <row r="57" spans="1:47" ht="17" x14ac:dyDescent="0.25">
       <c r="A57" s="6"/>
@@ -5468,94 +5482,94 @@
       <c r="C57" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D57" s="142" t="s">
+      <c r="D57" s="103" t="s">
         <v>14</v>
       </c>
-      <c r="E57" s="143"/>
-      <c r="F57" s="144" t="s">
+      <c r="E57" s="104"/>
+      <c r="F57" s="99" t="s">
         <v>15</v>
       </c>
-      <c r="G57" s="145"/>
-      <c r="H57" s="142" t="s">
+      <c r="G57" s="100"/>
+      <c r="H57" s="103" t="s">
         <v>14</v>
       </c>
-      <c r="I57" s="143"/>
-      <c r="J57" s="144" t="s">
+      <c r="I57" s="104"/>
+      <c r="J57" s="99" t="s">
         <v>15</v>
       </c>
-      <c r="K57" s="145"/>
-      <c r="L57" s="146" t="s">
+      <c r="K57" s="100"/>
+      <c r="L57" s="110" t="s">
         <v>14</v>
       </c>
-      <c r="M57" s="143"/>
-      <c r="N57" s="144" t="s">
+      <c r="M57" s="104"/>
+      <c r="N57" s="99" t="s">
         <v>15</v>
       </c>
-      <c r="O57" s="145"/>
-      <c r="P57" s="142" t="s">
+      <c r="O57" s="100"/>
+      <c r="P57" s="103" t="s">
         <v>14</v>
       </c>
-      <c r="Q57" s="143"/>
-      <c r="R57" s="144" t="s">
+      <c r="Q57" s="104"/>
+      <c r="R57" s="99" t="s">
         <v>15</v>
       </c>
-      <c r="S57" s="145"/>
-      <c r="T57" s="142" t="s">
+      <c r="S57" s="100"/>
+      <c r="T57" s="103" t="s">
         <v>14</v>
       </c>
-      <c r="U57" s="143"/>
-      <c r="V57" s="144" t="s">
+      <c r="U57" s="104"/>
+      <c r="V57" s="99" t="s">
         <v>15</v>
       </c>
-      <c r="W57" s="145"/>
-      <c r="X57" s="142" t="s">
+      <c r="W57" s="100"/>
+      <c r="X57" s="103" t="s">
         <v>14</v>
       </c>
-      <c r="Y57" s="143"/>
-      <c r="Z57" s="144" t="s">
+      <c r="Y57" s="104"/>
+      <c r="Z57" s="99" t="s">
         <v>15</v>
       </c>
-      <c r="AA57" s="156"/>
-      <c r="AB57" s="142" t="s">
+      <c r="AA57" s="105"/>
+      <c r="AB57" s="103" t="s">
         <v>14</v>
       </c>
-      <c r="AC57" s="143"/>
-      <c r="AD57" s="144" t="s">
+      <c r="AC57" s="104"/>
+      <c r="AD57" s="99" t="s">
         <v>15</v>
       </c>
-      <c r="AE57" s="145"/>
-      <c r="AF57" s="142" t="s">
+      <c r="AE57" s="100"/>
+      <c r="AF57" s="103" t="s">
         <v>14</v>
       </c>
-      <c r="AG57" s="143"/>
-      <c r="AH57" s="144" t="s">
+      <c r="AG57" s="104"/>
+      <c r="AH57" s="99" t="s">
         <v>15</v>
       </c>
-      <c r="AI57" s="145"/>
-      <c r="AJ57" s="142" t="s">
+      <c r="AI57" s="100"/>
+      <c r="AJ57" s="103" t="s">
         <v>14</v>
       </c>
-      <c r="AK57" s="143"/>
-      <c r="AL57" s="144" t="s">
+      <c r="AK57" s="104"/>
+      <c r="AL57" s="99" t="s">
         <v>15</v>
       </c>
-      <c r="AM57" s="145"/>
-      <c r="AN57" s="142" t="s">
+      <c r="AM57" s="100"/>
+      <c r="AN57" s="103" t="s">
         <v>14</v>
       </c>
-      <c r="AO57" s="143"/>
-      <c r="AP57" s="144" t="s">
+      <c r="AO57" s="104"/>
+      <c r="AP57" s="99" t="s">
         <v>15</v>
       </c>
-      <c r="AQ57" s="145"/>
-      <c r="AR57" s="142" t="s">
+      <c r="AQ57" s="100"/>
+      <c r="AR57" s="103" t="s">
         <v>14</v>
       </c>
-      <c r="AS57" s="143"/>
-      <c r="AT57" s="144" t="s">
+      <c r="AS57" s="104"/>
+      <c r="AT57" s="99" t="s">
         <v>15</v>
       </c>
-      <c r="AU57" s="145"/>
+      <c r="AU57" s="100"/>
     </row>
     <row r="58" spans="1:47" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="8"/>
@@ -5565,150 +5579,150 @@
       <c r="C58" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="D58" s="151">
+      <c r="D58" s="96">
         <f>D3</f>
         <v>43873</v>
       </c>
-      <c r="E58" s="152"/>
-      <c r="F58" s="152"/>
-      <c r="G58" s="153"/>
-      <c r="H58" s="151">
+      <c r="E58" s="97"/>
+      <c r="F58" s="97"/>
+      <c r="G58" s="98"/>
+      <c r="H58" s="96">
         <f>H3</f>
         <v>43874</v>
       </c>
-      <c r="I58" s="152"/>
-      <c r="J58" s="152"/>
-      <c r="K58" s="153"/>
-      <c r="L58" s="154">
+      <c r="I58" s="97"/>
+      <c r="J58" s="97"/>
+      <c r="K58" s="98"/>
+      <c r="L58" s="101">
         <f>L3</f>
         <v>43875</v>
       </c>
-      <c r="M58" s="152"/>
-      <c r="N58" s="152"/>
-      <c r="O58" s="153"/>
-      <c r="P58" s="151">
+      <c r="M58" s="97"/>
+      <c r="N58" s="97"/>
+      <c r="O58" s="98"/>
+      <c r="P58" s="96">
         <f>P3</f>
         <v>43878</v>
       </c>
-      <c r="Q58" s="152"/>
-      <c r="R58" s="152"/>
-      <c r="S58" s="153"/>
-      <c r="T58" s="151">
+      <c r="Q58" s="97"/>
+      <c r="R58" s="97"/>
+      <c r="S58" s="98"/>
+      <c r="T58" s="96">
         <f>T3</f>
         <v>43880</v>
       </c>
-      <c r="U58" s="152"/>
-      <c r="V58" s="152"/>
-      <c r="W58" s="153"/>
-      <c r="X58" s="151">
+      <c r="U58" s="97"/>
+      <c r="V58" s="97"/>
+      <c r="W58" s="98"/>
+      <c r="X58" s="96">
         <f>X3</f>
         <v>43881</v>
       </c>
-      <c r="Y58" s="152"/>
-      <c r="Z58" s="152"/>
-      <c r="AA58" s="155"/>
-      <c r="AB58" s="151">
+      <c r="Y58" s="97"/>
+      <c r="Z58" s="97"/>
+      <c r="AA58" s="102"/>
+      <c r="AB58" s="96">
         <f>AB3</f>
         <v>43882</v>
       </c>
-      <c r="AC58" s="152"/>
-      <c r="AD58" s="152"/>
-      <c r="AE58" s="153"/>
-      <c r="AF58" s="151">
+      <c r="AC58" s="97"/>
+      <c r="AD58" s="97"/>
+      <c r="AE58" s="98"/>
+      <c r="AF58" s="96">
         <f>AF3</f>
         <v>43885</v>
       </c>
-      <c r="AG58" s="152"/>
-      <c r="AH58" s="152"/>
-      <c r="AI58" s="153"/>
-      <c r="AJ58" s="151">
+      <c r="AG58" s="97"/>
+      <c r="AH58" s="97"/>
+      <c r="AI58" s="98"/>
+      <c r="AJ58" s="96">
         <f>AJ3</f>
         <v>43887</v>
       </c>
-      <c r="AK58" s="152"/>
-      <c r="AL58" s="152"/>
-      <c r="AM58" s="153"/>
-      <c r="AN58" s="151">
+      <c r="AK58" s="97"/>
+      <c r="AL58" s="97"/>
+      <c r="AM58" s="98"/>
+      <c r="AN58" s="96">
         <f>AN3</f>
         <v>43888</v>
       </c>
-      <c r="AO58" s="152"/>
-      <c r="AP58" s="152"/>
-      <c r="AQ58" s="153"/>
-      <c r="AR58" s="151">
+      <c r="AO58" s="97"/>
+      <c r="AP58" s="97"/>
+      <c r="AQ58" s="98"/>
+      <c r="AR58" s="96">
         <f>AR3</f>
         <v>43889</v>
       </c>
-      <c r="AS58" s="152"/>
-      <c r="AT58" s="152"/>
-      <c r="AU58" s="153"/>
+      <c r="AS58" s="97"/>
+      <c r="AT58" s="97"/>
+      <c r="AU58" s="98"/>
     </row>
     <row r="59" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="60" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="160" t="s">
+      <c r="A60" s="93" t="s">
         <v>39</v>
       </c>
-      <c r="B60" s="161"/>
-      <c r="C60" s="162"/>
+      <c r="B60" s="94"/>
+      <c r="C60" s="95"/>
     </row>
     <row r="61" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A61" s="159" t="s">
+      <c r="A61" s="91" t="s">
         <v>40</v>
       </c>
-      <c r="B61" s="89"/>
+      <c r="B61" s="92"/>
       <c r="C61" s="18"/>
     </row>
     <row r="62" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A62" s="159" t="s">
+      <c r="A62" s="91" t="s">
         <v>41</v>
       </c>
-      <c r="B62" s="89"/>
+      <c r="B62" s="92"/>
       <c r="C62" s="19"/>
     </row>
     <row r="63" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A63" s="159" t="s">
+      <c r="A63" s="91" t="s">
         <v>42</v>
       </c>
-      <c r="B63" s="89"/>
+      <c r="B63" s="92"/>
       <c r="C63" s="20"/>
     </row>
     <row r="64" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A64" s="159" t="s">
+      <c r="A64" s="91" t="s">
         <v>43</v>
       </c>
-      <c r="B64" s="89"/>
+      <c r="B64" s="92"/>
       <c r="C64" s="21"/>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A65" s="159" t="s">
+      <c r="A65" s="91" t="s">
         <v>44</v>
       </c>
-      <c r="B65" s="89"/>
+      <c r="B65" s="92"/>
       <c r="C65" s="22"/>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A66" s="159" t="s">
+      <c r="A66" s="91" t="s">
         <v>12</v>
       </c>
-      <c r="B66" s="89"/>
+      <c r="B66" s="92"/>
       <c r="C66" s="23" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A67" s="159" t="s">
+      <c r="A67" s="91" t="s">
         <v>13</v>
       </c>
-      <c r="B67" s="89"/>
+      <c r="B67" s="92"/>
       <c r="C67" s="23" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="157" t="s">
+      <c r="A68" s="89" t="s">
         <v>47</v>
       </c>
-      <c r="B68" s="158"/>
+      <c r="B68" s="90"/>
       <c r="C68" s="24"/>
     </row>
     <row r="69" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
@@ -5749,15 +5763,162 @@
     </row>
   </sheetData>
   <mergeCells count="189">
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="A60:C60"/>
-    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="A1:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="L1:O1"/>
+    <mergeCell ref="P1:S1"/>
+    <mergeCell ref="T1:W1"/>
+    <mergeCell ref="H2:K2"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="P2:S2"/>
+    <mergeCell ref="T2:W2"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="AF2:AI2"/>
+    <mergeCell ref="AJ2:AM2"/>
+    <mergeCell ref="H3:K3"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="P3:S3"/>
+    <mergeCell ref="T3:W3"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="R4:S4"/>
+    <mergeCell ref="AN1:AQ1"/>
+    <mergeCell ref="AR1:AU1"/>
+    <mergeCell ref="AN2:AQ2"/>
+    <mergeCell ref="AR2:AU2"/>
+    <mergeCell ref="AN3:AQ3"/>
+    <mergeCell ref="AR3:AU3"/>
+    <mergeCell ref="AN4:AO4"/>
+    <mergeCell ref="AP4:AQ4"/>
+    <mergeCell ref="X3:AA3"/>
+    <mergeCell ref="AB3:AE3"/>
+    <mergeCell ref="AF3:AI3"/>
+    <mergeCell ref="AJ3:AM3"/>
+    <mergeCell ref="X4:Y4"/>
+    <mergeCell ref="Z4:AA4"/>
+    <mergeCell ref="AB4:AC4"/>
+    <mergeCell ref="AD4:AE4"/>
+    <mergeCell ref="AF4:AG4"/>
+    <mergeCell ref="AH4:AI4"/>
+    <mergeCell ref="X1:AA1"/>
+    <mergeCell ref="AB1:AE1"/>
+    <mergeCell ref="AF1:AI1"/>
+    <mergeCell ref="AJ1:AM1"/>
+    <mergeCell ref="X2:AA2"/>
+    <mergeCell ref="AB2:AE2"/>
+    <mergeCell ref="AR4:AS4"/>
+    <mergeCell ref="AT4:AU4"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="AJ4:AK4"/>
+    <mergeCell ref="AL4:AM4"/>
+    <mergeCell ref="T4:U4"/>
+    <mergeCell ref="V4:W4"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="N55:O56"/>
+    <mergeCell ref="P55:Q56"/>
+    <mergeCell ref="R55:S56"/>
+    <mergeCell ref="T55:U56"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="D55:E56"/>
+    <mergeCell ref="F55:G56"/>
+    <mergeCell ref="H55:I56"/>
+    <mergeCell ref="AT55:AU56"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="F57:G57"/>
+    <mergeCell ref="H57:I57"/>
+    <mergeCell ref="J57:K57"/>
+    <mergeCell ref="L57:M57"/>
+    <mergeCell ref="N57:O57"/>
+    <mergeCell ref="P57:Q57"/>
+    <mergeCell ref="R57:S57"/>
+    <mergeCell ref="T57:U57"/>
+    <mergeCell ref="AH55:AI56"/>
+    <mergeCell ref="AJ55:AK56"/>
+    <mergeCell ref="AL55:AM56"/>
+    <mergeCell ref="AN55:AO56"/>
+    <mergeCell ref="AP55:AQ56"/>
+    <mergeCell ref="AR55:AS56"/>
+    <mergeCell ref="V55:W56"/>
+    <mergeCell ref="X55:Y56"/>
+    <mergeCell ref="Z55:AA56"/>
+    <mergeCell ref="AB55:AC56"/>
+    <mergeCell ref="AD55:AE56"/>
+    <mergeCell ref="AF55:AG56"/>
+    <mergeCell ref="J55:K56"/>
+    <mergeCell ref="L55:M56"/>
     <mergeCell ref="AN58:AQ58"/>
     <mergeCell ref="AR58:AU58"/>
     <mergeCell ref="AT57:AU57"/>
@@ -5782,162 +5943,15 @@
     <mergeCell ref="AB57:AC57"/>
     <mergeCell ref="AD57:AE57"/>
     <mergeCell ref="AF57:AG57"/>
-    <mergeCell ref="AT55:AU56"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="F57:G57"/>
-    <mergeCell ref="H57:I57"/>
-    <mergeCell ref="J57:K57"/>
-    <mergeCell ref="L57:M57"/>
-    <mergeCell ref="N57:O57"/>
-    <mergeCell ref="P57:Q57"/>
-    <mergeCell ref="R57:S57"/>
-    <mergeCell ref="T57:U57"/>
-    <mergeCell ref="AH55:AI56"/>
-    <mergeCell ref="AJ55:AK56"/>
-    <mergeCell ref="AL55:AM56"/>
-    <mergeCell ref="AN55:AO56"/>
-    <mergeCell ref="AP55:AQ56"/>
-    <mergeCell ref="AR55:AS56"/>
-    <mergeCell ref="V55:W56"/>
-    <mergeCell ref="X55:Y56"/>
-    <mergeCell ref="Z55:AA56"/>
-    <mergeCell ref="AB55:AC56"/>
-    <mergeCell ref="AD55:AE56"/>
-    <mergeCell ref="AF55:AG56"/>
-    <mergeCell ref="J55:K56"/>
-    <mergeCell ref="L55:M56"/>
-    <mergeCell ref="N55:O56"/>
-    <mergeCell ref="P55:Q56"/>
-    <mergeCell ref="R55:S56"/>
-    <mergeCell ref="T55:U56"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="D55:E56"/>
-    <mergeCell ref="F55:G56"/>
-    <mergeCell ref="H55:I56"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="AR4:AS4"/>
-    <mergeCell ref="AT4:AU4"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="AJ4:AK4"/>
-    <mergeCell ref="AL4:AM4"/>
-    <mergeCell ref="T4:U4"/>
-    <mergeCell ref="V4:W4"/>
-    <mergeCell ref="AN1:AQ1"/>
-    <mergeCell ref="AR1:AU1"/>
-    <mergeCell ref="AN2:AQ2"/>
-    <mergeCell ref="AR2:AU2"/>
-    <mergeCell ref="AN3:AQ3"/>
-    <mergeCell ref="AR3:AU3"/>
-    <mergeCell ref="AN4:AO4"/>
-    <mergeCell ref="AP4:AQ4"/>
-    <mergeCell ref="X3:AA3"/>
-    <mergeCell ref="AB3:AE3"/>
-    <mergeCell ref="AF3:AI3"/>
-    <mergeCell ref="AJ3:AM3"/>
-    <mergeCell ref="X4:Y4"/>
-    <mergeCell ref="Z4:AA4"/>
-    <mergeCell ref="AB4:AC4"/>
-    <mergeCell ref="AD4:AE4"/>
-    <mergeCell ref="AF4:AG4"/>
-    <mergeCell ref="AH4:AI4"/>
-    <mergeCell ref="X1:AA1"/>
-    <mergeCell ref="AB1:AE1"/>
-    <mergeCell ref="AF1:AI1"/>
-    <mergeCell ref="AJ1:AM1"/>
-    <mergeCell ref="X2:AA2"/>
-    <mergeCell ref="AB2:AE2"/>
-    <mergeCell ref="AF2:AI2"/>
-    <mergeCell ref="AJ2:AM2"/>
-    <mergeCell ref="H3:K3"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="P3:S3"/>
-    <mergeCell ref="T3:W3"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="R4:S4"/>
-    <mergeCell ref="A1:C3"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="L1:O1"/>
-    <mergeCell ref="P1:S1"/>
-    <mergeCell ref="T1:W1"/>
-    <mergeCell ref="H2:K2"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="P2:S2"/>
-    <mergeCell ref="T2:W2"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A60:C60"/>
+    <mergeCell ref="A61:B61"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="D6:AU6 D8:AU8 D12:J12 L12:AU12 K13 D44:AR44 AT44:AU44 AR45">

--- a/02_zeitplan/IPA_Zeitplan_Kabilan_Sivanamam.xlsx
+++ b/02_zeitplan/IPA_Zeitplan_Kabilan_Sivanamam.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kabi/Documents/GitHub/IPA2020/02_zeitplan/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DB21ACA-CF77-0344-8C51-CDEB15985810}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BCA22B7-3A8B-B546-A8BA-8368E643FC06}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" xr2:uid="{919B10DA-F269-3C46-8A86-B94EB657325B}"/>
   </bookViews>
@@ -135,12 +135,6 @@
     <t>Aufsetzung der Datenbank</t>
   </si>
   <si>
-    <t>Back-End-Struktur einrichten</t>
-  </si>
-  <si>
-    <t>Back-End-Pfade / -Schnittstellen erstellen</t>
-  </si>
-  <si>
     <t>Front-End UI Umsetzung</t>
   </si>
   <si>
@@ -238,6 +232,12 @@
   </si>
   <si>
     <t>Sitzung mit verantwortlicher Fachkraft</t>
+  </si>
+  <si>
+    <t>Server-Struktur einrichten</t>
+  </si>
+  <si>
+    <t>Server-Endpunkte / -Schnittstellen erstellen</t>
   </si>
 </sst>
 </file>
@@ -1098,6 +1098,210 @@
     <xf numFmtId="1" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="3" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="3" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="3" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="3" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -1107,9 +1311,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1117,207 +1318,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="3" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="3" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="3" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="3" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2143,7 +2143,7 @@
   <dimension ref="A1:AU74"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A12" zoomScale="113" workbookViewId="0">
-      <selection activeCell="AB27" sqref="AB27"/>
+      <selection activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2155,230 +2155,230 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="89" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="146" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="147"/>
-      <c r="F1" s="147"/>
-      <c r="G1" s="148"/>
-      <c r="H1" s="146" t="s">
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="96" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="147"/>
-      <c r="J1" s="147"/>
-      <c r="K1" s="148"/>
-      <c r="L1" s="161" t="s">
+      <c r="I1" s="97"/>
+      <c r="J1" s="97"/>
+      <c r="K1" s="98"/>
+      <c r="L1" s="99" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="147"/>
-      <c r="N1" s="147"/>
-      <c r="O1" s="148"/>
-      <c r="P1" s="146" t="s">
+      <c r="M1" s="97"/>
+      <c r="N1" s="97"/>
+      <c r="O1" s="98"/>
+      <c r="P1" s="96" t="s">
         <v>4</v>
       </c>
-      <c r="Q1" s="147"/>
-      <c r="R1" s="147"/>
-      <c r="S1" s="148"/>
-      <c r="T1" s="146" t="s">
+      <c r="Q1" s="97"/>
+      <c r="R1" s="97"/>
+      <c r="S1" s="98"/>
+      <c r="T1" s="96" t="s">
         <v>5</v>
       </c>
-      <c r="U1" s="147"/>
-      <c r="V1" s="147"/>
-      <c r="W1" s="148"/>
-      <c r="X1" s="146" t="s">
+      <c r="U1" s="97"/>
+      <c r="V1" s="97"/>
+      <c r="W1" s="98"/>
+      <c r="X1" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="Y1" s="147"/>
-      <c r="Z1" s="147"/>
-      <c r="AA1" s="157"/>
-      <c r="AB1" s="146" t="s">
+      <c r="Y1" s="97"/>
+      <c r="Z1" s="97"/>
+      <c r="AA1" s="108"/>
+      <c r="AB1" s="96" t="s">
         <v>7</v>
       </c>
-      <c r="AC1" s="147"/>
-      <c r="AD1" s="147"/>
-      <c r="AE1" s="148"/>
-      <c r="AF1" s="146" t="s">
+      <c r="AC1" s="97"/>
+      <c r="AD1" s="97"/>
+      <c r="AE1" s="98"/>
+      <c r="AF1" s="96" t="s">
         <v>8</v>
       </c>
-      <c r="AG1" s="147"/>
-      <c r="AH1" s="147"/>
-      <c r="AI1" s="148"/>
-      <c r="AJ1" s="146" t="s">
+      <c r="AG1" s="97"/>
+      <c r="AH1" s="97"/>
+      <c r="AI1" s="98"/>
+      <c r="AJ1" s="96" t="s">
         <v>9</v>
       </c>
-      <c r="AK1" s="147"/>
-      <c r="AL1" s="147"/>
-      <c r="AM1" s="148"/>
-      <c r="AN1" s="146" t="s">
+      <c r="AK1" s="97"/>
+      <c r="AL1" s="97"/>
+      <c r="AM1" s="98"/>
+      <c r="AN1" s="96" t="s">
         <v>10</v>
       </c>
-      <c r="AO1" s="147"/>
-      <c r="AP1" s="147"/>
-      <c r="AQ1" s="148"/>
-      <c r="AR1" s="146" t="s">
+      <c r="AO1" s="97"/>
+      <c r="AP1" s="97"/>
+      <c r="AQ1" s="98"/>
+      <c r="AR1" s="96" t="s">
         <v>11</v>
       </c>
-      <c r="AS1" s="147"/>
-      <c r="AT1" s="147"/>
-      <c r="AU1" s="148"/>
+      <c r="AS1" s="97"/>
+      <c r="AT1" s="97"/>
+      <c r="AU1" s="98"/>
     </row>
     <row r="2" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A2" s="92"/>
-      <c r="B2" s="92"/>
-      <c r="C2" s="92"/>
-      <c r="D2" s="149" t="str">
+      <c r="A2" s="89"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="100" t="str">
         <f>TEXT(D3,"ddd")</f>
         <v>Wed</v>
       </c>
-      <c r="E2" s="150"/>
-      <c r="F2" s="150"/>
-      <c r="G2" s="151"/>
-      <c r="H2" s="149" t="str">
+      <c r="E2" s="101"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="100" t="str">
         <f t="shared" ref="H2" si="0">TEXT(H3,"ddd")</f>
         <v>Thu</v>
       </c>
-      <c r="I2" s="150"/>
-      <c r="J2" s="150"/>
-      <c r="K2" s="151"/>
-      <c r="L2" s="162" t="str">
+      <c r="I2" s="101"/>
+      <c r="J2" s="101"/>
+      <c r="K2" s="102"/>
+      <c r="L2" s="103" t="str">
         <f t="shared" ref="L2" si="1">TEXT(L3,"ddd")</f>
         <v>Fri</v>
       </c>
-      <c r="M2" s="150"/>
-      <c r="N2" s="150"/>
-      <c r="O2" s="151"/>
-      <c r="P2" s="149" t="str">
+      <c r="M2" s="101"/>
+      <c r="N2" s="101"/>
+      <c r="O2" s="102"/>
+      <c r="P2" s="100" t="str">
         <f t="shared" ref="P2" si="2">TEXT(P3,"ddd")</f>
         <v>Mon</v>
       </c>
-      <c r="Q2" s="150"/>
-      <c r="R2" s="150"/>
-      <c r="S2" s="151"/>
-      <c r="T2" s="149" t="str">
+      <c r="Q2" s="101"/>
+      <c r="R2" s="101"/>
+      <c r="S2" s="102"/>
+      <c r="T2" s="100" t="str">
         <f t="shared" ref="T2" si="3">TEXT(T3,"ddd")</f>
         <v>Wed</v>
       </c>
-      <c r="U2" s="150"/>
-      <c r="V2" s="150"/>
-      <c r="W2" s="151"/>
-      <c r="X2" s="149" t="str">
+      <c r="U2" s="101"/>
+      <c r="V2" s="101"/>
+      <c r="W2" s="102"/>
+      <c r="X2" s="100" t="str">
         <f t="shared" ref="X2" si="4">TEXT(X3,"ddd")</f>
         <v>Thu</v>
       </c>
-      <c r="Y2" s="150"/>
-      <c r="Z2" s="150"/>
-      <c r="AA2" s="158"/>
-      <c r="AB2" s="149" t="str">
+      <c r="Y2" s="101"/>
+      <c r="Z2" s="101"/>
+      <c r="AA2" s="109"/>
+      <c r="AB2" s="100" t="str">
         <f t="shared" ref="AB2" si="5">TEXT(AB3,"ddd")</f>
         <v>Fri</v>
       </c>
-      <c r="AC2" s="150"/>
-      <c r="AD2" s="150"/>
-      <c r="AE2" s="151"/>
-      <c r="AF2" s="149" t="str">
+      <c r="AC2" s="101"/>
+      <c r="AD2" s="101"/>
+      <c r="AE2" s="102"/>
+      <c r="AF2" s="100" t="str">
         <f t="shared" ref="AF2" si="6">TEXT(AF3,"ddd")</f>
         <v>Mon</v>
       </c>
-      <c r="AG2" s="150"/>
-      <c r="AH2" s="150"/>
-      <c r="AI2" s="151"/>
-      <c r="AJ2" s="149" t="str">
+      <c r="AG2" s="101"/>
+      <c r="AH2" s="101"/>
+      <c r="AI2" s="102"/>
+      <c r="AJ2" s="100" t="str">
         <f t="shared" ref="AJ2" si="7">TEXT(AJ3,"ddd")</f>
         <v>Wed</v>
       </c>
-      <c r="AK2" s="150"/>
-      <c r="AL2" s="150"/>
-      <c r="AM2" s="151"/>
-      <c r="AN2" s="149" t="str">
+      <c r="AK2" s="101"/>
+      <c r="AL2" s="101"/>
+      <c r="AM2" s="102"/>
+      <c r="AN2" s="100" t="str">
         <f t="shared" ref="AN2" si="8">TEXT(AN3,"ddd")</f>
         <v>Thu</v>
       </c>
-      <c r="AO2" s="150"/>
-      <c r="AP2" s="150"/>
-      <c r="AQ2" s="151"/>
-      <c r="AR2" s="149" t="str">
+      <c r="AO2" s="101"/>
+      <c r="AP2" s="101"/>
+      <c r="AQ2" s="102"/>
+      <c r="AR2" s="100" t="str">
         <f t="shared" ref="AR2" si="9">TEXT(AR3,"ddd")</f>
         <v>Fri</v>
       </c>
-      <c r="AS2" s="150"/>
-      <c r="AT2" s="150"/>
-      <c r="AU2" s="151"/>
+      <c r="AS2" s="101"/>
+      <c r="AT2" s="101"/>
+      <c r="AU2" s="102"/>
     </row>
     <row r="3" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A3" s="92"/>
-      <c r="B3" s="92"/>
-      <c r="C3" s="92"/>
-      <c r="D3" s="152">
+      <c r="A3" s="89"/>
+      <c r="B3" s="89"/>
+      <c r="C3" s="89"/>
+      <c r="D3" s="90">
         <v>43873</v>
       </c>
-      <c r="E3" s="153"/>
-      <c r="F3" s="153"/>
-      <c r="G3" s="154"/>
-      <c r="H3" s="152">
+      <c r="E3" s="91"/>
+      <c r="F3" s="91"/>
+      <c r="G3" s="92"/>
+      <c r="H3" s="90">
         <v>43874</v>
       </c>
-      <c r="I3" s="153"/>
-      <c r="J3" s="153"/>
-      <c r="K3" s="154"/>
-      <c r="L3" s="159">
+      <c r="I3" s="91"/>
+      <c r="J3" s="91"/>
+      <c r="K3" s="92"/>
+      <c r="L3" s="104">
         <v>43875</v>
       </c>
-      <c r="M3" s="153"/>
-      <c r="N3" s="153"/>
-      <c r="O3" s="154"/>
-      <c r="P3" s="152">
+      <c r="M3" s="91"/>
+      <c r="N3" s="91"/>
+      <c r="O3" s="92"/>
+      <c r="P3" s="90">
         <v>43878</v>
       </c>
-      <c r="Q3" s="153"/>
-      <c r="R3" s="153"/>
-      <c r="S3" s="154"/>
-      <c r="T3" s="152">
+      <c r="Q3" s="91"/>
+      <c r="R3" s="91"/>
+      <c r="S3" s="92"/>
+      <c r="T3" s="90">
         <v>43880</v>
       </c>
-      <c r="U3" s="153"/>
-      <c r="V3" s="153"/>
-      <c r="W3" s="154"/>
-      <c r="X3" s="152">
+      <c r="U3" s="91"/>
+      <c r="V3" s="91"/>
+      <c r="W3" s="92"/>
+      <c r="X3" s="90">
         <v>43881</v>
       </c>
-      <c r="Y3" s="153"/>
-      <c r="Z3" s="153"/>
-      <c r="AA3" s="155"/>
-      <c r="AB3" s="152">
+      <c r="Y3" s="91"/>
+      <c r="Z3" s="91"/>
+      <c r="AA3" s="106"/>
+      <c r="AB3" s="90">
         <v>43882</v>
       </c>
-      <c r="AC3" s="153"/>
-      <c r="AD3" s="153"/>
-      <c r="AE3" s="154"/>
-      <c r="AF3" s="152">
+      <c r="AC3" s="91"/>
+      <c r="AD3" s="91"/>
+      <c r="AE3" s="92"/>
+      <c r="AF3" s="90">
         <v>43885</v>
       </c>
-      <c r="AG3" s="153"/>
-      <c r="AH3" s="153"/>
-      <c r="AI3" s="154"/>
-      <c r="AJ3" s="152">
+      <c r="AG3" s="91"/>
+      <c r="AH3" s="91"/>
+      <c r="AI3" s="92"/>
+      <c r="AJ3" s="90">
         <v>43887</v>
       </c>
-      <c r="AK3" s="153"/>
-      <c r="AL3" s="153"/>
-      <c r="AM3" s="154"/>
-      <c r="AN3" s="152">
+      <c r="AK3" s="91"/>
+      <c r="AL3" s="91"/>
+      <c r="AM3" s="92"/>
+      <c r="AN3" s="90">
         <v>43888</v>
       </c>
-      <c r="AO3" s="153"/>
-      <c r="AP3" s="153"/>
-      <c r="AQ3" s="154"/>
-      <c r="AR3" s="152">
+      <c r="AO3" s="91"/>
+      <c r="AP3" s="91"/>
+      <c r="AQ3" s="92"/>
+      <c r="AR3" s="90">
         <v>43889</v>
       </c>
-      <c r="AS3" s="153"/>
-      <c r="AT3" s="153"/>
-      <c r="AU3" s="154"/>
+      <c r="AS3" s="91"/>
+      <c r="AT3" s="91"/>
+      <c r="AU3" s="92"/>
     </row>
     <row r="4" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
@@ -2390,94 +2390,94 @@
       <c r="C4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="143" t="s">
+      <c r="D4" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="144"/>
-      <c r="F4" s="144" t="s">
+      <c r="E4" s="94"/>
+      <c r="F4" s="94" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="145"/>
-      <c r="H4" s="143" t="s">
+      <c r="G4" s="95"/>
+      <c r="H4" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="144"/>
-      <c r="J4" s="144" t="s">
+      <c r="I4" s="94"/>
+      <c r="J4" s="94" t="s">
         <v>13</v>
       </c>
-      <c r="K4" s="145"/>
-      <c r="L4" s="160" t="s">
+      <c r="K4" s="95"/>
+      <c r="L4" s="105" t="s">
         <v>12</v>
       </c>
-      <c r="M4" s="144"/>
-      <c r="N4" s="144" t="s">
+      <c r="M4" s="94"/>
+      <c r="N4" s="94" t="s">
         <v>13</v>
       </c>
-      <c r="O4" s="145"/>
-      <c r="P4" s="143" t="s">
+      <c r="O4" s="95"/>
+      <c r="P4" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="Q4" s="144"/>
-      <c r="R4" s="144" t="s">
+      <c r="Q4" s="94"/>
+      <c r="R4" s="94" t="s">
         <v>13</v>
       </c>
-      <c r="S4" s="145"/>
-      <c r="T4" s="143" t="s">
+      <c r="S4" s="95"/>
+      <c r="T4" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="U4" s="144"/>
-      <c r="V4" s="144" t="s">
+      <c r="U4" s="94"/>
+      <c r="V4" s="94" t="s">
         <v>13</v>
       </c>
-      <c r="W4" s="145"/>
-      <c r="X4" s="143" t="s">
+      <c r="W4" s="95"/>
+      <c r="X4" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="Y4" s="144"/>
-      <c r="Z4" s="144" t="s">
+      <c r="Y4" s="94"/>
+      <c r="Z4" s="94" t="s">
         <v>13</v>
       </c>
-      <c r="AA4" s="156"/>
-      <c r="AB4" s="143" t="s">
+      <c r="AA4" s="107"/>
+      <c r="AB4" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="AC4" s="144"/>
-      <c r="AD4" s="144" t="s">
+      <c r="AC4" s="94"/>
+      <c r="AD4" s="94" t="s">
         <v>13</v>
       </c>
-      <c r="AE4" s="145"/>
-      <c r="AF4" s="143" t="s">
+      <c r="AE4" s="95"/>
+      <c r="AF4" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="AG4" s="144"/>
-      <c r="AH4" s="144" t="s">
+      <c r="AG4" s="94"/>
+      <c r="AH4" s="94" t="s">
         <v>13</v>
       </c>
-      <c r="AI4" s="145"/>
-      <c r="AJ4" s="143" t="s">
+      <c r="AI4" s="95"/>
+      <c r="AJ4" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="AK4" s="144"/>
-      <c r="AL4" s="144" t="s">
+      <c r="AK4" s="94"/>
+      <c r="AL4" s="94" t="s">
         <v>13</v>
       </c>
-      <c r="AM4" s="145"/>
-      <c r="AN4" s="143" t="s">
+      <c r="AM4" s="95"/>
+      <c r="AN4" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="AO4" s="144"/>
-      <c r="AP4" s="144" t="s">
+      <c r="AO4" s="94"/>
+      <c r="AP4" s="94" t="s">
         <v>13</v>
       </c>
-      <c r="AQ4" s="145"/>
-      <c r="AR4" s="143" t="s">
+      <c r="AQ4" s="95"/>
+      <c r="AR4" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="AS4" s="144"/>
-      <c r="AT4" s="144" t="s">
+      <c r="AS4" s="94"/>
+      <c r="AT4" s="94" t="s">
         <v>13</v>
       </c>
-      <c r="AU4" s="145"/>
+      <c r="AU4" s="95"/>
     </row>
     <row r="5" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
@@ -2531,14 +2531,14 @@
       <c r="AU5" s="17"/>
     </row>
     <row r="6" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A6" s="123" t="s">
-        <v>50</v>
-      </c>
-      <c r="B6" s="135">
+      <c r="A6" s="110" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="112">
         <f>SUM(D6:AU6)</f>
         <v>2</v>
       </c>
-      <c r="C6" s="136">
+      <c r="C6" s="113">
         <f>SUM(D7:AU7)</f>
         <v>2</v>
       </c>
@@ -2592,9 +2592,9 @@
       <c r="AU6" s="35"/>
     </row>
     <row r="7" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="124"/>
-      <c r="B7" s="135"/>
-      <c r="C7" s="136"/>
+      <c r="A7" s="111"/>
+      <c r="B7" s="112"/>
+      <c r="C7" s="113"/>
       <c r="D7" s="41">
         <v>1</v>
       </c>
@@ -2645,14 +2645,14 @@
       <c r="AU7" s="40"/>
     </row>
     <row r="8" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A8" s="123" t="s">
-        <v>52</v>
-      </c>
-      <c r="B8" s="135">
+      <c r="A8" s="110" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="112">
         <f>SUM(D8:AU8)</f>
         <v>4</v>
       </c>
-      <c r="C8" s="136">
+      <c r="C8" s="113">
         <f>SUM(D9:AU9)</f>
         <v>3</v>
       </c>
@@ -2710,9 +2710,9 @@
       </c>
     </row>
     <row r="9" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="134"/>
-      <c r="B9" s="131"/>
-      <c r="C9" s="133"/>
+      <c r="A9" s="115"/>
+      <c r="B9" s="116"/>
+      <c r="C9" s="114"/>
       <c r="D9" s="49"/>
       <c r="E9" s="53">
         <v>1</v>
@@ -2867,14 +2867,14 @@
       <c r="AU11" s="46"/>
     </row>
     <row r="12" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A12" s="129" t="s">
-        <v>53</v>
-      </c>
-      <c r="B12" s="130">
+      <c r="A12" s="117" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" s="118">
         <f>SUM(D12:AU12)</f>
         <v>7</v>
       </c>
-      <c r="C12" s="132">
+      <c r="C12" s="119">
         <f>SUM(D13:AU13)</f>
         <v>7</v>
       </c>
@@ -2932,9 +2932,9 @@
       <c r="AU12" s="48"/>
     </row>
     <row r="13" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="134"/>
-      <c r="B13" s="135"/>
-      <c r="C13" s="136"/>
+      <c r="A13" s="115"/>
+      <c r="B13" s="112"/>
+      <c r="C13" s="113"/>
       <c r="D13" s="41"/>
       <c r="E13" s="39"/>
       <c r="F13" s="39"/>
@@ -3040,14 +3040,14 @@
       <c r="AU14" s="63"/>
     </row>
     <row r="15" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A15" s="137" t="s">
-        <v>59</v>
-      </c>
-      <c r="B15" s="139">
+      <c r="A15" s="120" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" s="122">
         <f>SUM(D15:AU15)</f>
         <v>1</v>
       </c>
-      <c r="C15" s="141">
+      <c r="C15" s="124">
         <f>SUM(D16:AU16)</f>
         <v>4</v>
       </c>
@@ -3099,9 +3099,9 @@
       <c r="AU15" s="35"/>
     </row>
     <row r="16" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="138"/>
-      <c r="B16" s="140"/>
-      <c r="C16" s="142"/>
+      <c r="A16" s="121"/>
+      <c r="B16" s="123"/>
+      <c r="C16" s="125"/>
       <c r="D16" s="41"/>
       <c r="E16" s="39"/>
       <c r="F16" s="39"/>
@@ -3154,14 +3154,14 @@
       <c r="AU16" s="40"/>
     </row>
     <row r="17" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A17" s="129" t="s">
-        <v>54</v>
-      </c>
-      <c r="B17" s="130">
+      <c r="A17" s="117" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" s="118">
         <f t="shared" ref="B17" si="10">SUM(D17:AU17)</f>
         <v>2</v>
       </c>
-      <c r="C17" s="132">
+      <c r="C17" s="119">
         <f t="shared" ref="C17" si="11">SUM(D18:AU18)</f>
         <v>4</v>
       </c>
@@ -3213,9 +3213,9 @@
       <c r="AU17" s="48"/>
     </row>
     <row r="18" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="134"/>
-      <c r="B18" s="135"/>
-      <c r="C18" s="136"/>
+      <c r="A18" s="115"/>
+      <c r="B18" s="112"/>
+      <c r="C18" s="113"/>
       <c r="D18" s="41"/>
       <c r="E18" s="39"/>
       <c r="F18" s="39"/>
@@ -3270,14 +3270,14 @@
       <c r="AU18" s="40"/>
     </row>
     <row r="19" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A19" s="123" t="s">
+      <c r="A19" s="110" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="135">
+      <c r="B19" s="112">
         <f t="shared" ref="B19" si="12">SUM(D19:AU19)</f>
         <v>2</v>
       </c>
-      <c r="C19" s="136">
+      <c r="C19" s="113">
         <f t="shared" ref="C19" si="13">SUM(D20:AU20)</f>
         <v>0</v>
       </c>
@@ -3329,9 +3329,9 @@
       <c r="AU19" s="35"/>
     </row>
     <row r="20" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="134"/>
-      <c r="B20" s="131"/>
-      <c r="C20" s="133"/>
+      <c r="A20" s="115"/>
+      <c r="B20" s="116"/>
+      <c r="C20" s="114"/>
       <c r="D20" s="49"/>
       <c r="E20" s="53"/>
       <c r="F20" s="53"/>
@@ -3378,14 +3378,14 @@
       <c r="AU20" s="48"/>
     </row>
     <row r="21" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A21" s="123" t="s">
+      <c r="A21" s="110" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="125">
+      <c r="B21" s="126">
         <f t="shared" ref="B21" si="14">SUM(D21:AU21)</f>
         <v>1</v>
       </c>
-      <c r="C21" s="127">
+      <c r="C21" s="128">
         <f t="shared" ref="C21" si="15">SUM(D22:AU22)</f>
         <v>8</v>
       </c>
@@ -3437,9 +3437,9 @@
       <c r="AU21" s="35"/>
     </row>
     <row r="22" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="124"/>
-      <c r="B22" s="126"/>
-      <c r="C22" s="128"/>
+      <c r="A22" s="111"/>
+      <c r="B22" s="127"/>
+      <c r="C22" s="129"/>
       <c r="D22" s="41"/>
       <c r="E22" s="39"/>
       <c r="F22" s="39"/>
@@ -3547,14 +3547,14 @@
       <c r="AU23" s="58"/>
     </row>
     <row r="24" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A24" s="123" t="s">
+      <c r="A24" s="110" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="135">
+      <c r="B24" s="112">
         <f>SUM(D24:AU24)</f>
         <v>1</v>
       </c>
-      <c r="C24" s="136">
+      <c r="C24" s="113">
         <f>SUM(D25:AU25)</f>
         <v>2</v>
       </c>
@@ -3606,9 +3606,9 @@
       <c r="AU24" s="48"/>
     </row>
     <row r="25" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="134"/>
-      <c r="B25" s="135"/>
-      <c r="C25" s="136"/>
+      <c r="A25" s="115"/>
+      <c r="B25" s="112"/>
+      <c r="C25" s="113"/>
       <c r="D25" s="41"/>
       <c r="E25" s="39"/>
       <c r="F25" s="39"/>
@@ -3659,16 +3659,16 @@
       <c r="AU25" s="40"/>
     </row>
     <row r="26" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A26" s="123" t="s">
+      <c r="A26" s="110" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="135">
+      <c r="B26" s="112">
         <f t="shared" ref="B26" si="16">SUM(D26:AU26)</f>
         <v>1</v>
       </c>
-      <c r="C26" s="136">
+      <c r="C26" s="113">
         <f t="shared" ref="C26" si="17">SUM(D27:AU27)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D26" s="36"/>
       <c r="E26" s="34"/>
@@ -3718,9 +3718,9 @@
       <c r="AU26" s="35"/>
     </row>
     <row r="27" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="134"/>
-      <c r="B27" s="131"/>
-      <c r="C27" s="133"/>
+      <c r="A27" s="115"/>
+      <c r="B27" s="116"/>
+      <c r="C27" s="114"/>
       <c r="D27" s="49"/>
       <c r="E27" s="53"/>
       <c r="F27" s="53"/>
@@ -3751,7 +3751,9 @@
       <c r="AA27" s="53">
         <v>1</v>
       </c>
-      <c r="AB27" s="49"/>
+      <c r="AB27" s="49">
+        <v>1</v>
+      </c>
       <c r="AC27" s="53"/>
       <c r="AD27" s="53"/>
       <c r="AE27" s="48"/>
@@ -3773,16 +3775,16 @@
       <c r="AU27" s="48"/>
     </row>
     <row r="28" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A28" s="123" t="s">
-        <v>26</v>
-      </c>
-      <c r="B28" s="125">
+      <c r="A28" s="110" t="s">
+        <v>59</v>
+      </c>
+      <c r="B28" s="126">
         <f t="shared" ref="B28" si="18">SUM(D28:AU28)</f>
         <v>7</v>
       </c>
-      <c r="C28" s="127">
+      <c r="C28" s="128">
         <f t="shared" ref="C28" si="19">SUM(D29:AU29)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D28" s="36"/>
       <c r="E28" s="34"/>
@@ -3838,9 +3840,9 @@
       <c r="AU28" s="35"/>
     </row>
     <row r="29" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="124"/>
-      <c r="B29" s="126"/>
-      <c r="C29" s="128"/>
+      <c r="A29" s="111"/>
+      <c r="B29" s="127"/>
+      <c r="C29" s="129"/>
       <c r="D29" s="41"/>
       <c r="E29" s="39"/>
       <c r="F29" s="39"/>
@@ -3865,8 +3867,12 @@
       <c r="Y29" s="39"/>
       <c r="Z29" s="39"/>
       <c r="AA29" s="39"/>
-      <c r="AB29" s="41"/>
-      <c r="AC29" s="39"/>
+      <c r="AB29" s="41">
+        <v>1</v>
+      </c>
+      <c r="AC29" s="39">
+        <v>1</v>
+      </c>
       <c r="AD29" s="39"/>
       <c r="AE29" s="40"/>
       <c r="AF29" s="41"/>
@@ -3887,16 +3893,16 @@
       <c r="AU29" s="40"/>
     </row>
     <row r="30" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A30" s="129" t="s">
-        <v>27</v>
-      </c>
-      <c r="B30" s="130">
+      <c r="A30" s="117" t="s">
+        <v>60</v>
+      </c>
+      <c r="B30" s="118">
         <f t="shared" ref="B30" si="20">SUM(D30:AU30)</f>
         <v>7</v>
       </c>
-      <c r="C30" s="132">
+      <c r="C30" s="119">
         <f t="shared" ref="C30" si="21">SUM(D31:AU31)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D30" s="49"/>
       <c r="E30" s="53"/>
@@ -3952,9 +3958,9 @@
       <c r="AU30" s="48"/>
     </row>
     <row r="31" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="134"/>
-      <c r="B31" s="135"/>
-      <c r="C31" s="136"/>
+      <c r="A31" s="115"/>
+      <c r="B31" s="112"/>
+      <c r="C31" s="113"/>
       <c r="D31" s="41"/>
       <c r="E31" s="39"/>
       <c r="F31" s="39"/>
@@ -3980,9 +3986,15 @@
       <c r="Z31" s="39"/>
       <c r="AA31" s="52"/>
       <c r="AB31" s="41"/>
-      <c r="AC31" s="39"/>
-      <c r="AD31" s="39"/>
-      <c r="AE31" s="40"/>
+      <c r="AC31" s="39">
+        <v>1</v>
+      </c>
+      <c r="AD31" s="39">
+        <v>2</v>
+      </c>
+      <c r="AE31" s="40">
+        <v>1</v>
+      </c>
       <c r="AF31" s="41"/>
       <c r="AG31" s="39"/>
       <c r="AH31" s="42"/>
@@ -4001,14 +4013,14 @@
       <c r="AU31" s="40"/>
     </row>
     <row r="32" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A32" s="123" t="s">
-        <v>28</v>
-      </c>
-      <c r="B32" s="135">
+      <c r="A32" s="110" t="s">
+        <v>26</v>
+      </c>
+      <c r="B32" s="112">
         <f t="shared" ref="B32" si="22">SUM(D32:AU32)</f>
         <v>7</v>
       </c>
-      <c r="C32" s="136">
+      <c r="C32" s="113">
         <f t="shared" ref="C32" si="23">SUM(D33:AU33)</f>
         <v>0</v>
       </c>
@@ -4066,9 +4078,9 @@
       <c r="AU32" s="35"/>
     </row>
     <row r="33" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="134"/>
-      <c r="B33" s="135"/>
-      <c r="C33" s="136"/>
+      <c r="A33" s="115"/>
+      <c r="B33" s="112"/>
+      <c r="C33" s="113"/>
       <c r="D33" s="41"/>
       <c r="E33" s="39"/>
       <c r="F33" s="39"/>
@@ -4115,14 +4127,14 @@
       <c r="AU33" s="40"/>
     </row>
     <row r="34" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A34" s="123" t="s">
-        <v>29</v>
-      </c>
-      <c r="B34" s="135">
+      <c r="A34" s="110" t="s">
+        <v>27</v>
+      </c>
+      <c r="B34" s="112">
         <f t="shared" ref="B34" si="24">SUM(D34:AU34)</f>
         <v>2</v>
       </c>
-      <c r="C34" s="136">
+      <c r="C34" s="113">
         <f t="shared" ref="C34" si="25">SUM(D35:AU35)</f>
         <v>0</v>
       </c>
@@ -4174,9 +4186,9 @@
       <c r="AU34" s="35"/>
     </row>
     <row r="35" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="124"/>
-      <c r="B35" s="135"/>
-      <c r="C35" s="136"/>
+      <c r="A35" s="111"/>
+      <c r="B35" s="112"/>
+      <c r="C35" s="113"/>
       <c r="D35" s="41"/>
       <c r="E35" s="39"/>
       <c r="F35" s="39"/>
@@ -4223,14 +4235,14 @@
       <c r="AU35" s="40"/>
     </row>
     <row r="36" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A36" s="123" t="s">
-        <v>30</v>
-      </c>
-      <c r="B36" s="135">
+      <c r="A36" s="110" t="s">
+        <v>28</v>
+      </c>
+      <c r="B36" s="112">
         <f t="shared" ref="B36" si="26">SUM(D36:AU36)</f>
         <v>4</v>
       </c>
-      <c r="C36" s="136">
+      <c r="C36" s="113">
         <f t="shared" ref="C36" si="27">SUM(D37:AU37)</f>
         <v>0</v>
       </c>
@@ -4284,9 +4296,9 @@
       <c r="AU36" s="35"/>
     </row>
     <row r="37" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="134"/>
-      <c r="B37" s="135"/>
-      <c r="C37" s="136"/>
+      <c r="A37" s="115"/>
+      <c r="B37" s="112"/>
+      <c r="C37" s="113"/>
       <c r="D37" s="41"/>
       <c r="E37" s="39"/>
       <c r="F37" s="39"/>
@@ -4333,14 +4345,14 @@
       <c r="AU37" s="40"/>
     </row>
     <row r="38" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A38" s="123" t="s">
-        <v>31</v>
-      </c>
-      <c r="B38" s="135">
+      <c r="A38" s="110" t="s">
+        <v>29</v>
+      </c>
+      <c r="B38" s="112">
         <f t="shared" ref="B38" si="28">SUM(D38:AU38)</f>
         <v>3</v>
       </c>
-      <c r="C38" s="136">
+      <c r="C38" s="113">
         <f t="shared" ref="C38" si="29">SUM(D39:AU39)</f>
         <v>0</v>
       </c>
@@ -4394,9 +4406,9 @@
       <c r="AU38" s="35"/>
     </row>
     <row r="39" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="134"/>
-      <c r="B39" s="135"/>
-      <c r="C39" s="136"/>
+      <c r="A39" s="115"/>
+      <c r="B39" s="112"/>
+      <c r="C39" s="113"/>
       <c r="D39" s="41"/>
       <c r="E39" s="39"/>
       <c r="F39" s="39"/>
@@ -4443,14 +4455,14 @@
       <c r="AU39" s="40"/>
     </row>
     <row r="40" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A40" s="123" t="s">
-        <v>32</v>
-      </c>
-      <c r="B40" s="135">
+      <c r="A40" s="110" t="s">
+        <v>30</v>
+      </c>
+      <c r="B40" s="112">
         <f t="shared" ref="B40" si="30">SUM(D40:AU40)</f>
         <v>4</v>
       </c>
-      <c r="C40" s="136">
+      <c r="C40" s="113">
         <f t="shared" ref="C40" si="31">SUM(D41:AU41)</f>
         <v>0</v>
       </c>
@@ -4504,9 +4516,9 @@
       <c r="AU40" s="35"/>
     </row>
     <row r="41" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="134"/>
-      <c r="B41" s="135"/>
-      <c r="C41" s="136"/>
+      <c r="A41" s="115"/>
+      <c r="B41" s="112"/>
+      <c r="C41" s="113"/>
       <c r="D41" s="41"/>
       <c r="E41" s="39"/>
       <c r="F41" s="39"/>
@@ -4553,14 +4565,14 @@
       <c r="AU41" s="40"/>
     </row>
     <row r="42" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A42" s="123" t="s">
-        <v>33</v>
-      </c>
-      <c r="B42" s="135">
+      <c r="A42" s="110" t="s">
+        <v>31</v>
+      </c>
+      <c r="B42" s="112">
         <f t="shared" ref="B42" si="32">SUM(D42:AU42)</f>
         <v>3</v>
       </c>
-      <c r="C42" s="136">
+      <c r="C42" s="113">
         <f t="shared" ref="C42" si="33">SUM(D43:AU43)</f>
         <v>0</v>
       </c>
@@ -4614,9 +4626,9 @@
       <c r="AU42" s="35"/>
     </row>
     <row r="43" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="134"/>
-      <c r="B43" s="135"/>
-      <c r="C43" s="136"/>
+      <c r="A43" s="115"/>
+      <c r="B43" s="112"/>
+      <c r="C43" s="113"/>
       <c r="D43" s="41"/>
       <c r="E43" s="39"/>
       <c r="F43" s="39"/>
@@ -4663,14 +4675,14 @@
       <c r="AU43" s="40"/>
     </row>
     <row r="44" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="123" t="s">
-        <v>34</v>
-      </c>
-      <c r="B44" s="135">
+      <c r="A44" s="110" t="s">
+        <v>32</v>
+      </c>
+      <c r="B44" s="112">
         <f t="shared" ref="B44" si="34">SUM(D44:AU44)</f>
         <v>2</v>
       </c>
-      <c r="C44" s="136">
+      <c r="C44" s="113">
         <f t="shared" ref="C44" si="35">SUM(D45:AU45)</f>
         <v>0</v>
       </c>
@@ -4721,9 +4733,9 @@
       <c r="AU44" s="35"/>
     </row>
     <row r="45" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="134"/>
-      <c r="B45" s="135"/>
-      <c r="C45" s="136"/>
+      <c r="A45" s="115"/>
+      <c r="B45" s="112"/>
+      <c r="C45" s="113"/>
       <c r="D45" s="41"/>
       <c r="E45" s="39"/>
       <c r="F45" s="39"/>
@@ -4770,14 +4782,14 @@
       <c r="AU45" s="40"/>
     </row>
     <row r="46" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A46" s="123" t="s">
-        <v>48</v>
-      </c>
-      <c r="B46" s="135">
+      <c r="A46" s="110" t="s">
+        <v>46</v>
+      </c>
+      <c r="B46" s="112">
         <f t="shared" ref="B46" si="36">SUM(D46:AU46)</f>
         <v>3</v>
       </c>
-      <c r="C46" s="136">
+      <c r="C46" s="113">
         <f t="shared" ref="C46" si="37">SUM(D47:AU47)</f>
         <v>0</v>
       </c>
@@ -4831,9 +4843,9 @@
       <c r="AU46" s="35"/>
     </row>
     <row r="47" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="124"/>
-      <c r="B47" s="135"/>
-      <c r="C47" s="136"/>
+      <c r="A47" s="111"/>
+      <c r="B47" s="112"/>
+      <c r="C47" s="113"/>
       <c r="D47" s="49"/>
       <c r="E47" s="53"/>
       <c r="F47" s="53"/>
@@ -4881,7 +4893,7 @@
     </row>
     <row r="48" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B48" s="5"/>
       <c r="C48" s="12"/>
@@ -4931,16 +4943,16 @@
       <c r="AU48" s="46"/>
     </row>
     <row r="49" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A49" s="123" t="s">
-        <v>51</v>
-      </c>
-      <c r="B49" s="135">
+      <c r="A49" s="110" t="s">
+        <v>49</v>
+      </c>
+      <c r="B49" s="112">
         <f>SUM(D49:AU49)</f>
         <v>11</v>
       </c>
-      <c r="C49" s="136">
+      <c r="C49" s="113">
         <f>SUM(D50:AU50)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D49" s="49"/>
       <c r="E49" s="53"/>
@@ -5010,9 +5022,9 @@
       </c>
     </row>
     <row r="50" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="134"/>
-      <c r="B50" s="131"/>
-      <c r="C50" s="133"/>
+      <c r="A50" s="115"/>
+      <c r="B50" s="116"/>
+      <c r="C50" s="114"/>
       <c r="D50" s="49"/>
       <c r="E50" s="53"/>
       <c r="F50" s="53"/>
@@ -5052,7 +5064,9 @@
       <c r="AB50" s="49"/>
       <c r="AC50" s="53"/>
       <c r="AD50" s="53"/>
-      <c r="AE50" s="48"/>
+      <c r="AE50" s="48">
+        <v>1</v>
+      </c>
       <c r="AF50" s="49"/>
       <c r="AG50" s="53"/>
       <c r="AH50" s="54"/>
@@ -5071,14 +5085,14 @@
       <c r="AU50" s="48"/>
     </row>
     <row r="51" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A51" s="123" t="s">
-        <v>60</v>
-      </c>
-      <c r="B51" s="125">
+      <c r="A51" s="110" t="s">
+        <v>58</v>
+      </c>
+      <c r="B51" s="126">
         <f t="shared" ref="B51" si="38">SUM(D51:AU51)</f>
         <v>4</v>
       </c>
-      <c r="C51" s="127">
+      <c r="C51" s="128">
         <f t="shared" ref="C51" si="39">SUM(D52:AU52)</f>
         <v>3</v>
       </c>
@@ -5136,9 +5150,9 @@
       <c r="AU51" s="35"/>
     </row>
     <row r="52" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="124"/>
-      <c r="B52" s="126"/>
-      <c r="C52" s="128"/>
+      <c r="A52" s="111"/>
+      <c r="B52" s="127"/>
+      <c r="C52" s="129"/>
       <c r="D52" s="41">
         <v>1</v>
       </c>
@@ -5191,14 +5205,14 @@
       <c r="AU52" s="40"/>
     </row>
     <row r="53" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A53" s="129" t="s">
-        <v>36</v>
-      </c>
-      <c r="B53" s="130">
+      <c r="A53" s="117" t="s">
+        <v>34</v>
+      </c>
+      <c r="B53" s="118">
         <f t="shared" ref="B53" si="40">SUM(D53:AU53)</f>
         <v>2</v>
       </c>
-      <c r="C53" s="132">
+      <c r="C53" s="119">
         <f t="shared" ref="C53" si="41">SUM(D54:AU54)</f>
         <v>1</v>
       </c>
@@ -5252,9 +5266,9 @@
       <c r="AU53" s="48"/>
     </row>
     <row r="54" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="124"/>
-      <c r="B54" s="131"/>
-      <c r="C54" s="133"/>
+      <c r="A54" s="111"/>
+      <c r="B54" s="116"/>
+      <c r="C54" s="114"/>
       <c r="D54" s="49"/>
       <c r="E54" s="53"/>
       <c r="F54" s="53">
@@ -5303,176 +5317,176 @@
       <c r="AU54" s="48"/>
     </row>
     <row r="55" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A55" s="117" t="s">
-        <v>37</v>
-      </c>
-      <c r="B55" s="119">
+      <c r="A55" s="136" t="s">
+        <v>35</v>
+      </c>
+      <c r="B55" s="138">
         <f>SUM(B6:B54)</f>
         <v>80</v>
       </c>
-      <c r="C55" s="121">
+      <c r="C55" s="140">
         <f>SUM(C6:C54)</f>
-        <v>44</v>
-      </c>
-      <c r="D55" s="111" cm="1">
+        <v>52</v>
+      </c>
+      <c r="D55" s="134" cm="1">
         <f t="array" ref="D55">SUM(D6:G6+D8:G8+D12:G12+D15:G15+D17:G17+D19:G19+D21:G21+D24:G24+D26:G26+D28:G28+D30:G30+D32:G32+D34:G34+D36:G36+D38:G38+D40:G40+D42:G42+D44:G44+D46:G46+D49:G49+D51:G51+D53:G53)</f>
         <v>8</v>
       </c>
-      <c r="E55" s="106"/>
-      <c r="F55" s="106" cm="1">
+      <c r="E55" s="130"/>
+      <c r="F55" s="130" cm="1">
         <f t="array" ref="F55">SUM(D7:G7+D9:G9+D13:G13+D16:G16+D18:G18+D20:G20+D22:G22+D25:G25+D27:G27+D29:G29+D31:G31+D33:G33+D35:G35+D37:G37+D39:G39+D41:G41+D43:G43+D45:G45+D47:G47+D50:G50+D52:G52+D54:G54)</f>
         <v>8</v>
       </c>
-      <c r="G55" s="107"/>
-      <c r="H55" s="111" cm="1">
+      <c r="G55" s="131"/>
+      <c r="H55" s="134" cm="1">
         <f t="array" ref="H55">SUM(H6:K6+H8:K8+H12:K12+H15:K15+H17:K17+H19:K19+H21:K21+H24:K24+H26:K26+H28:K28+H30:K30+H32:K32+H34:K34+H36:K36+H38:K38+H40:K40+H42:K42+H44:K44+H46:K46+H49:K49+H51:K51+H53:K53)</f>
         <v>8</v>
       </c>
-      <c r="I55" s="106"/>
-      <c r="J55" s="106" cm="1">
+      <c r="I55" s="130"/>
+      <c r="J55" s="130" cm="1">
         <f t="array" ref="J55">SUM(H7:K7+H9:K9+H13:K13+H16:K16+H18:K18+H20:K20+H22:K22+H25:K25+H27:K27+H29:K29+H31:K31+H33:K33+H35:K35+H37:K37+H39:K39+H41:K41+H43:K43+H45:K45+H47:K47+H50:K50+H52:K52+H54:K54)</f>
         <v>8</v>
       </c>
-      <c r="K55" s="107"/>
-      <c r="L55" s="115" cm="1">
+      <c r="K55" s="131"/>
+      <c r="L55" s="149" cm="1">
         <f t="array" ref="L55">SUM(L6:O6+L8:O8+L12:O12+L15:O15+L17:O17+L19:O19+L21:O21+L24:O24+L26:O26+L28:O28+L30:O30+L32:O32+L34:O34+L36:O36+L38:O38+L40:O40+L42:O42+L44:O44+L46:O46+L49:O49+L51:O51+L53:O53)</f>
         <v>8</v>
       </c>
-      <c r="M55" s="106"/>
-      <c r="N55" s="106" cm="1">
+      <c r="M55" s="130"/>
+      <c r="N55" s="130" cm="1">
         <f t="array" ref="N55">SUM(L7:O7+L9:O9+L13:O13+L16:O16+L18:O18+L20:O20+L22:O22+L25:O25+L27:O27+L29:O29+L31:O31+L33:O33+L35:O35+L37:O37+L39:O39+L41:O41+L43:O43+L45:O45+L47:O47+L50:O50+L52:O52+L54:O54)</f>
         <v>8</v>
       </c>
-      <c r="O55" s="107"/>
-      <c r="P55" s="111" cm="1">
+      <c r="O55" s="131"/>
+      <c r="P55" s="134" cm="1">
         <f t="array" ref="P55">SUM(P6:S6+P8:S8+P12:S12+P15:S15+P17:S17+P19:S19+P21:S21+P24:S24+P26:S26+P28:S28+P30:S30+P32:S32+P34:S34+P36:S36+P38:S38+P40:S40+P42:S42+P44:S44+P46:S46+P49:S49+P51:S51+P53:S53)</f>
         <v>4</v>
       </c>
-      <c r="Q55" s="106"/>
-      <c r="R55" s="106" cm="1">
+      <c r="Q55" s="130"/>
+      <c r="R55" s="130" cm="1">
         <f t="array" ref="R55">SUM(P7:S7+P9:S9+P13:S13+P16:S16+P18:S18+P20:S20+P22:S22+P25:S25+P27:S27+P29:S29+P31:S31+P33:S33+P35:S35+P37:S37+P39:S39+P41:S41+P43:S43+P45:S45+P47:S47+P50:S50+P52:S52+P54:S54)</f>
         <v>4</v>
       </c>
-      <c r="S55" s="107"/>
-      <c r="T55" s="111" cm="1">
+      <c r="S55" s="131"/>
+      <c r="T55" s="134" cm="1">
         <f t="array" ref="T55">SUM(T6:W6+T8:W8+T12:W12+T15:W15+T17:W17+T19:W19+T21:W21+T24:W24+T26:W26+T28:W28+T30:W30+T32:W32+T34:W34+T36:W36+T38:W38+T40:W40+T42:W42+T44:W44+T46:W46+T49:W49+T51:W51+T53:W53)</f>
         <v>8</v>
       </c>
-      <c r="U55" s="106"/>
-      <c r="V55" s="106" cm="1">
+      <c r="U55" s="130"/>
+      <c r="V55" s="130" cm="1">
         <f t="array" ref="V55">SUM(T7:W7+T9:W9+T13:W13+T16:W16+T18:W18+T20:W20+T22:W22+T25:W25+T27:W27+T29:W29+T31:W31+T33:W33+T35:W35+T37:W37+T39:W39+T41:W41+T43:W43+T45:W45+T47:W47+T50:W50+T52:W52+T54:W54)</f>
         <v>8</v>
       </c>
-      <c r="W55" s="107"/>
-      <c r="X55" s="111" cm="1">
+      <c r="W55" s="131"/>
+      <c r="X55" s="134" cm="1">
         <f t="array" ref="X55">SUM(X6:AA6+X8:AA8+X12:AA12+X15:AA15+X17:AA17+X19:AA19+X21:AA21+X24:AA24+X26:AA26+X28:AA28+X30:AA30+X32:AA32+X34:AA34+X36:AA36+X38:AA38+X40:AA40+X42:AA42+X44:AA44+X46:AA46+X49:AA49+X51:AA51+X53:AA53)</f>
         <v>8</v>
       </c>
-      <c r="Y55" s="106"/>
-      <c r="Z55" s="106" cm="1">
+      <c r="Y55" s="130"/>
+      <c r="Z55" s="130" cm="1">
         <f t="array" ref="Z55">SUM(X7:AA7+X9:AA9+X13:AA13+X16:AA16+X18:AA18+X20:AA20+X22:AA22+X25:AA25+X27:AA27+X29:AA29+X31:AA31+X33:AA33+X35:AA35+X37:AA37+X39:AA39+X41:AA41+X43:AA43+X45:AA45+X47:AA47+X50:AA50+X52:AA52+X54:AA54)</f>
         <v>8</v>
       </c>
-      <c r="AA55" s="113"/>
-      <c r="AB55" s="111" cm="1">
+      <c r="AA55" s="147"/>
+      <c r="AB55" s="134" cm="1">
         <f t="array" ref="AB55">SUM(AB6:AE6+AB8:AE8+AB12:AE12+AB15:AE15+AB17:AE17+AB19:AE19+AB21:AE21+AB24:AE24+AB26:AE26+AB28:AE28+AB30:AE30+AB32:AE32+AB34:AE34+AB36:AE36+AB38:AE38+AB40:AE40+AB42:AE42+AB44:AE44+AB46:AE46+AB49:AE49+AB51:AE51+AB53:AE53)</f>
         <v>8</v>
       </c>
-      <c r="AC55" s="106"/>
-      <c r="AD55" s="106" cm="1">
+      <c r="AC55" s="130"/>
+      <c r="AD55" s="130" cm="1">
         <f t="array" ref="AD55">SUM(AB7:AE7+AB9:AE9+AB13:AE13+AB16:AE16+AB18:AE18+AB20:AE20+AB22:AE22+AB25:AE25+AB27:AE27+AB29:AE29+AB31:AE31+AB33:AE33+AB35:AE35+AB37:AE37+AB39:AE39+AB41:AE41+AB43:AE43+AB45:AE45+AB47:AE47+AB50:AE50+AB52:AE52+AB54:AE54)</f>
-        <v>0</v>
-      </c>
-      <c r="AE55" s="107"/>
-      <c r="AF55" s="111" cm="1">
+        <v>8</v>
+      </c>
+      <c r="AE55" s="131"/>
+      <c r="AF55" s="134" cm="1">
         <f t="array" ref="AF55">SUM(AF6:AI6+AF8:AI8+AF12:AI12+AF15:AI15+AF17:AI17+AF19:AI19+AF21:AI21+AF24:AI24+AF26:AI26+AF28:AI28+AF30:AI30+AF32:AI32+AF34:AI34+AF36:AI36+AF38:AI38+AF40:AI40+AF42:AI42+AF44:AI44+AF46:AI46+AF49:AI49+AF51:AI51+AF53:AI53)</f>
         <v>4</v>
       </c>
-      <c r="AG55" s="106"/>
-      <c r="AH55" s="106" cm="1">
+      <c r="AG55" s="130"/>
+      <c r="AH55" s="130" cm="1">
         <f t="array" ref="AH55">SUM(AF7:AI7+AF9:AI9+AF13:AI13+AF16:AI16+AF18:AI18+AF20:AI20+AF22:AI22+AF25:AI25+AF27:AI27+AF29:AI29+AF31:AI31+AF33:AI33+AF35:AI35+AF37:AI37+AF39:AI39+AF41:AI41+AF43:AI43+AF45:AI45+AF47:AI47+AF50:AI50+AF52:AI52+AF54:AI54)</f>
         <v>0</v>
       </c>
-      <c r="AI55" s="107"/>
-      <c r="AJ55" s="111" cm="1">
+      <c r="AI55" s="131"/>
+      <c r="AJ55" s="134" cm="1">
         <f t="array" ref="AJ55">SUM(AJ6:AM6+AJ8:AM8+AJ12:AM12+AJ15:AM15+AJ17:AM17+AJ19:AM19+AJ21:AM21+AJ24:AM24+AJ26:AM26+AJ28:AM28+AJ30:AM30+AJ32:AM32+AJ34:AM34+AJ36:AM36+AJ38:AM38+AJ40:AM40+AJ42:AM42+AJ44:AM44+AJ46:AM46+AJ49:AM49+AJ51:AM51+AJ53:AM53)</f>
         <v>8</v>
       </c>
-      <c r="AK55" s="106"/>
-      <c r="AL55" s="106" cm="1">
+      <c r="AK55" s="130"/>
+      <c r="AL55" s="130" cm="1">
         <f t="array" ref="AL55">SUM(AJ7:AM7+AJ9:AM9+AJ13:AM13+AJ16:AM16+AJ18:AM18+AJ20:AM20+AJ22:AM22+AJ25:AM25+AJ27:AM27+AJ29:AM29+AJ31:AM31+AJ33:AM33+AJ35:AM35+AJ37:AM37+AJ39:AM39+AJ41:AM41+AJ43:AM43+AJ45:AM45+AJ47:AM47+AJ50:AM50+AJ52:AM52+AJ54:AM54)</f>
         <v>0</v>
       </c>
-      <c r="AM55" s="107"/>
-      <c r="AN55" s="111" cm="1">
+      <c r="AM55" s="131"/>
+      <c r="AN55" s="134" cm="1">
         <f t="array" ref="AN55">SUM(AN6:AQ6+AN8:AQ8+AN12:AQ12+AN15:AQ15+AN17:AQ17+AN19:AQ19+AN21:AQ21+AN24:AQ24+AN26:AQ26+AN28:AQ28+AN30:AQ30+AN32:AQ32+AN34:AQ34+AN36:AQ36+AN38:AQ38+AN40:AQ40+AN42:AQ42+AN44:AQ44+AN46:AQ46+AN49:AQ49+AN51:AQ51+AN53:AQ53)</f>
         <v>8</v>
       </c>
-      <c r="AO55" s="106"/>
-      <c r="AP55" s="106" cm="1">
+      <c r="AO55" s="130"/>
+      <c r="AP55" s="130" cm="1">
         <f t="array" ref="AP55">SUM(AN7:AQ7+AN9:AQ9+AN13:AQ13+AN16:AQ16+AN18:AQ18+AN20:AQ20+AN22:AQ22+AN25:AQ25+AN27:AQ27+AN29:AQ29+AN31:AQ31+AN33:AQ33+AN35:AQ35+AN37:AQ37+AN39:AQ39+AN41:AQ41+AN43:AQ43+AN45:AQ45+AN47:AQ47+AN50:AQ50+AN52:AQ52+AN54:AQ54)</f>
         <v>0</v>
       </c>
-      <c r="AQ55" s="107"/>
-      <c r="AR55" s="111" cm="1">
+      <c r="AQ55" s="131"/>
+      <c r="AR55" s="134" cm="1">
         <f t="array" ref="AR55">SUM(AR6:AU6+AR8:AU8+AR12:AU12+AR15:AU15+AR17:AU17+AR19:AU19+AR21:AU21+AR24:AU24+AR26:AU26+AR28:AU28+AR30:AU30+AR32:AU32+AR34:AU34+AR36:AU36+AR38:AU38+AR40:AU40+AR42:AU42+AR44:AU44+AR46:AU46+AR49:AU49+AR51:AU51+AR53:AU53)</f>
         <v>8</v>
       </c>
-      <c r="AS55" s="106"/>
-      <c r="AT55" s="106" cm="1">
+      <c r="AS55" s="130"/>
+      <c r="AT55" s="130" cm="1">
         <f t="array" ref="AT55">SUM(AR7:AU7+AR9:AU9+AR13:AU13+AR16:AU16+AR18:AU18+AR20:AU20+AR22:AU22+AR25:AU25+AR27:AU27+AR29:AU29+AR31:AU31+AR33:AU33+AR35:AU35+AR37:AU37+AR39:AU39+AR41:AU41+AR43:AU43+AR45:AU45+AR47:AU47+AR50:AU50+AR52:AU52+AR54:AU54)</f>
         <v>0</v>
       </c>
-      <c r="AU55" s="107"/>
+      <c r="AU55" s="131"/>
     </row>
     <row r="56" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="118"/>
-      <c r="B56" s="120"/>
-      <c r="C56" s="122"/>
-      <c r="D56" s="112"/>
-      <c r="E56" s="108"/>
-      <c r="F56" s="108"/>
-      <c r="G56" s="109"/>
-      <c r="H56" s="112"/>
-      <c r="I56" s="108"/>
-      <c r="J56" s="108"/>
-      <c r="K56" s="109"/>
-      <c r="L56" s="116"/>
-      <c r="M56" s="108"/>
-      <c r="N56" s="108"/>
-      <c r="O56" s="109"/>
-      <c r="P56" s="112"/>
-      <c r="Q56" s="108"/>
-      <c r="R56" s="108"/>
-      <c r="S56" s="109"/>
-      <c r="T56" s="112"/>
-      <c r="U56" s="108"/>
-      <c r="V56" s="108"/>
-      <c r="W56" s="109"/>
-      <c r="X56" s="112"/>
-      <c r="Y56" s="108"/>
-      <c r="Z56" s="108"/>
-      <c r="AA56" s="114"/>
-      <c r="AB56" s="112"/>
-      <c r="AC56" s="108"/>
-      <c r="AD56" s="108"/>
-      <c r="AE56" s="109"/>
-      <c r="AF56" s="112"/>
-      <c r="AG56" s="108"/>
-      <c r="AH56" s="108"/>
-      <c r="AI56" s="109"/>
-      <c r="AJ56" s="112"/>
-      <c r="AK56" s="108"/>
-      <c r="AL56" s="108"/>
-      <c r="AM56" s="109"/>
-      <c r="AN56" s="112"/>
-      <c r="AO56" s="108"/>
-      <c r="AP56" s="108"/>
-      <c r="AQ56" s="109"/>
-      <c r="AR56" s="112"/>
-      <c r="AS56" s="108"/>
-      <c r="AT56" s="108"/>
-      <c r="AU56" s="109"/>
+      <c r="A56" s="137"/>
+      <c r="B56" s="139"/>
+      <c r="C56" s="141"/>
+      <c r="D56" s="135"/>
+      <c r="E56" s="132"/>
+      <c r="F56" s="132"/>
+      <c r="G56" s="133"/>
+      <c r="H56" s="135"/>
+      <c r="I56" s="132"/>
+      <c r="J56" s="132"/>
+      <c r="K56" s="133"/>
+      <c r="L56" s="150"/>
+      <c r="M56" s="132"/>
+      <c r="N56" s="132"/>
+      <c r="O56" s="133"/>
+      <c r="P56" s="135"/>
+      <c r="Q56" s="132"/>
+      <c r="R56" s="132"/>
+      <c r="S56" s="133"/>
+      <c r="T56" s="135"/>
+      <c r="U56" s="132"/>
+      <c r="V56" s="132"/>
+      <c r="W56" s="133"/>
+      <c r="X56" s="135"/>
+      <c r="Y56" s="132"/>
+      <c r="Z56" s="132"/>
+      <c r="AA56" s="148"/>
+      <c r="AB56" s="135"/>
+      <c r="AC56" s="132"/>
+      <c r="AD56" s="132"/>
+      <c r="AE56" s="133"/>
+      <c r="AF56" s="135"/>
+      <c r="AG56" s="132"/>
+      <c r="AH56" s="132"/>
+      <c r="AI56" s="133"/>
+      <c r="AJ56" s="135"/>
+      <c r="AK56" s="132"/>
+      <c r="AL56" s="132"/>
+      <c r="AM56" s="133"/>
+      <c r="AN56" s="135"/>
+      <c r="AO56" s="132"/>
+      <c r="AP56" s="132"/>
+      <c r="AQ56" s="133"/>
+      <c r="AR56" s="135"/>
+      <c r="AS56" s="132"/>
+      <c r="AT56" s="132"/>
+      <c r="AU56" s="133"/>
     </row>
     <row r="57" spans="1:47" ht="17" x14ac:dyDescent="0.25">
       <c r="A57" s="6"/>
@@ -5482,313 +5496,426 @@
       <c r="C57" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D57" s="103" t="s">
+      <c r="D57" s="142" t="s">
         <v>14</v>
       </c>
-      <c r="E57" s="104"/>
-      <c r="F57" s="99" t="s">
+      <c r="E57" s="143"/>
+      <c r="F57" s="144" t="s">
         <v>15</v>
       </c>
-      <c r="G57" s="100"/>
-      <c r="H57" s="103" t="s">
+      <c r="G57" s="145"/>
+      <c r="H57" s="142" t="s">
         <v>14</v>
       </c>
-      <c r="I57" s="104"/>
-      <c r="J57" s="99" t="s">
+      <c r="I57" s="143"/>
+      <c r="J57" s="144" t="s">
         <v>15</v>
       </c>
-      <c r="K57" s="100"/>
-      <c r="L57" s="110" t="s">
+      <c r="K57" s="145"/>
+      <c r="L57" s="146" t="s">
         <v>14</v>
       </c>
-      <c r="M57" s="104"/>
-      <c r="N57" s="99" t="s">
+      <c r="M57" s="143"/>
+      <c r="N57" s="144" t="s">
         <v>15</v>
       </c>
-      <c r="O57" s="100"/>
-      <c r="P57" s="103" t="s">
+      <c r="O57" s="145"/>
+      <c r="P57" s="142" t="s">
         <v>14</v>
       </c>
-      <c r="Q57" s="104"/>
-      <c r="R57" s="99" t="s">
+      <c r="Q57" s="143"/>
+      <c r="R57" s="144" t="s">
         <v>15</v>
       </c>
-      <c r="S57" s="100"/>
-      <c r="T57" s="103" t="s">
+      <c r="S57" s="145"/>
+      <c r="T57" s="142" t="s">
         <v>14</v>
       </c>
-      <c r="U57" s="104"/>
-      <c r="V57" s="99" t="s">
+      <c r="U57" s="143"/>
+      <c r="V57" s="144" t="s">
         <v>15</v>
       </c>
-      <c r="W57" s="100"/>
-      <c r="X57" s="103" t="s">
+      <c r="W57" s="145"/>
+      <c r="X57" s="142" t="s">
         <v>14</v>
       </c>
-      <c r="Y57" s="104"/>
-      <c r="Z57" s="99" t="s">
+      <c r="Y57" s="143"/>
+      <c r="Z57" s="144" t="s">
         <v>15</v>
       </c>
-      <c r="AA57" s="105"/>
-      <c r="AB57" s="103" t="s">
+      <c r="AA57" s="156"/>
+      <c r="AB57" s="142" t="s">
         <v>14</v>
       </c>
-      <c r="AC57" s="104"/>
-      <c r="AD57" s="99" t="s">
+      <c r="AC57" s="143"/>
+      <c r="AD57" s="144" t="s">
         <v>15</v>
       </c>
-      <c r="AE57" s="100"/>
-      <c r="AF57" s="103" t="s">
+      <c r="AE57" s="145"/>
+      <c r="AF57" s="142" t="s">
         <v>14</v>
       </c>
-      <c r="AG57" s="104"/>
-      <c r="AH57" s="99" t="s">
+      <c r="AG57" s="143"/>
+      <c r="AH57" s="144" t="s">
         <v>15</v>
       </c>
-      <c r="AI57" s="100"/>
-      <c r="AJ57" s="103" t="s">
+      <c r="AI57" s="145"/>
+      <c r="AJ57" s="142" t="s">
         <v>14</v>
       </c>
-      <c r="AK57" s="104"/>
-      <c r="AL57" s="99" t="s">
+      <c r="AK57" s="143"/>
+      <c r="AL57" s="144" t="s">
         <v>15</v>
       </c>
-      <c r="AM57" s="100"/>
-      <c r="AN57" s="103" t="s">
+      <c r="AM57" s="145"/>
+      <c r="AN57" s="142" t="s">
         <v>14</v>
       </c>
-      <c r="AO57" s="104"/>
-      <c r="AP57" s="99" t="s">
+      <c r="AO57" s="143"/>
+      <c r="AP57" s="144" t="s">
         <v>15</v>
       </c>
-      <c r="AQ57" s="100"/>
-      <c r="AR57" s="103" t="s">
+      <c r="AQ57" s="145"/>
+      <c r="AR57" s="142" t="s">
         <v>14</v>
       </c>
-      <c r="AS57" s="104"/>
-      <c r="AT57" s="99" t="s">
+      <c r="AS57" s="143"/>
+      <c r="AT57" s="144" t="s">
         <v>15</v>
       </c>
-      <c r="AU57" s="100"/>
+      <c r="AU57" s="145"/>
     </row>
     <row r="58" spans="1:47" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="8"/>
       <c r="B58" s="9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C58" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="D58" s="96">
+        <v>36</v>
+      </c>
+      <c r="D58" s="151">
         <f>D3</f>
         <v>43873</v>
       </c>
-      <c r="E58" s="97"/>
-      <c r="F58" s="97"/>
-      <c r="G58" s="98"/>
-      <c r="H58" s="96">
+      <c r="E58" s="152"/>
+      <c r="F58" s="152"/>
+      <c r="G58" s="153"/>
+      <c r="H58" s="151">
         <f>H3</f>
         <v>43874</v>
       </c>
-      <c r="I58" s="97"/>
-      <c r="J58" s="97"/>
-      <c r="K58" s="98"/>
-      <c r="L58" s="101">
+      <c r="I58" s="152"/>
+      <c r="J58" s="152"/>
+      <c r="K58" s="153"/>
+      <c r="L58" s="154">
         <f>L3</f>
         <v>43875</v>
       </c>
-      <c r="M58" s="97"/>
-      <c r="N58" s="97"/>
-      <c r="O58" s="98"/>
-      <c r="P58" s="96">
+      <c r="M58" s="152"/>
+      <c r="N58" s="152"/>
+      <c r="O58" s="153"/>
+      <c r="P58" s="151">
         <f>P3</f>
         <v>43878</v>
       </c>
-      <c r="Q58" s="97"/>
-      <c r="R58" s="97"/>
-      <c r="S58" s="98"/>
-      <c r="T58" s="96">
+      <c r="Q58" s="152"/>
+      <c r="R58" s="152"/>
+      <c r="S58" s="153"/>
+      <c r="T58" s="151">
         <f>T3</f>
         <v>43880</v>
       </c>
-      <c r="U58" s="97"/>
-      <c r="V58" s="97"/>
-      <c r="W58" s="98"/>
-      <c r="X58" s="96">
+      <c r="U58" s="152"/>
+      <c r="V58" s="152"/>
+      <c r="W58" s="153"/>
+      <c r="X58" s="151">
         <f>X3</f>
         <v>43881</v>
       </c>
-      <c r="Y58" s="97"/>
-      <c r="Z58" s="97"/>
-      <c r="AA58" s="102"/>
-      <c r="AB58" s="96">
+      <c r="Y58" s="152"/>
+      <c r="Z58" s="152"/>
+      <c r="AA58" s="155"/>
+      <c r="AB58" s="151">
         <f>AB3</f>
         <v>43882</v>
       </c>
-      <c r="AC58" s="97"/>
-      <c r="AD58" s="97"/>
-      <c r="AE58" s="98"/>
-      <c r="AF58" s="96">
+      <c r="AC58" s="152"/>
+      <c r="AD58" s="152"/>
+      <c r="AE58" s="153"/>
+      <c r="AF58" s="151">
         <f>AF3</f>
         <v>43885</v>
       </c>
-      <c r="AG58" s="97"/>
-      <c r="AH58" s="97"/>
-      <c r="AI58" s="98"/>
-      <c r="AJ58" s="96">
+      <c r="AG58" s="152"/>
+      <c r="AH58" s="152"/>
+      <c r="AI58" s="153"/>
+      <c r="AJ58" s="151">
         <f>AJ3</f>
         <v>43887</v>
       </c>
-      <c r="AK58" s="97"/>
-      <c r="AL58" s="97"/>
-      <c r="AM58" s="98"/>
-      <c r="AN58" s="96">
+      <c r="AK58" s="152"/>
+      <c r="AL58" s="152"/>
+      <c r="AM58" s="153"/>
+      <c r="AN58" s="151">
         <f>AN3</f>
         <v>43888</v>
       </c>
-      <c r="AO58" s="97"/>
-      <c r="AP58" s="97"/>
-      <c r="AQ58" s="98"/>
-      <c r="AR58" s="96">
+      <c r="AO58" s="152"/>
+      <c r="AP58" s="152"/>
+      <c r="AQ58" s="153"/>
+      <c r="AR58" s="151">
         <f>AR3</f>
         <v>43889</v>
       </c>
-      <c r="AS58" s="97"/>
-      <c r="AT58" s="97"/>
-      <c r="AU58" s="98"/>
+      <c r="AS58" s="152"/>
+      <c r="AT58" s="152"/>
+      <c r="AU58" s="153"/>
     </row>
     <row r="59" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="60" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="93" t="s">
+      <c r="A60" s="160" t="s">
+        <v>37</v>
+      </c>
+      <c r="B60" s="161"/>
+      <c r="C60" s="162"/>
+    </row>
+    <row r="61" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="A61" s="159" t="s">
+        <v>38</v>
+      </c>
+      <c r="B61" s="89"/>
+      <c r="C61" s="18"/>
+    </row>
+    <row r="62" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="A62" s="159" t="s">
         <v>39</v>
       </c>
-      <c r="B60" s="94"/>
-      <c r="C60" s="95"/>
-    </row>
-    <row r="61" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A61" s="91" t="s">
+      <c r="B62" s="89"/>
+      <c r="C62" s="19"/>
+    </row>
+    <row r="63" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="A63" s="159" t="s">
         <v>40</v>
       </c>
-      <c r="B61" s="92"/>
-      <c r="C61" s="18"/>
-    </row>
-    <row r="62" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A62" s="91" t="s">
+      <c r="B63" s="89"/>
+      <c r="C63" s="20"/>
+    </row>
+    <row r="64" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="A64" s="159" t="s">
         <v>41</v>
       </c>
-      <c r="B62" s="92"/>
-      <c r="C62" s="19"/>
-    </row>
-    <row r="63" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A63" s="91" t="s">
+      <c r="B64" s="89"/>
+      <c r="C64" s="21"/>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65" s="159" t="s">
         <v>42</v>
       </c>
-      <c r="B63" s="92"/>
-      <c r="C63" s="20"/>
-    </row>
-    <row r="64" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A64" s="91" t="s">
+      <c r="B65" s="89"/>
+      <c r="C65" s="22"/>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66" s="159" t="s">
+        <v>12</v>
+      </c>
+      <c r="B66" s="89"/>
+      <c r="C66" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="B64" s="92"/>
-      <c r="C64" s="21"/>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A65" s="91" t="s">
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67" s="159" t="s">
+        <v>13</v>
+      </c>
+      <c r="B67" s="89"/>
+      <c r="C67" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="B65" s="92"/>
-      <c r="C65" s="22"/>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A66" s="91" t="s">
-        <v>12</v>
-      </c>
-      <c r="B66" s="92"/>
-      <c r="C66" s="23" t="s">
+    </row>
+    <row r="68" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="157" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A67" s="91" t="s">
-        <v>13</v>
-      </c>
-      <c r="B67" s="92"/>
-      <c r="C67" s="23" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="89" t="s">
-        <v>47</v>
-      </c>
-      <c r="B68" s="90"/>
+      <c r="B68" s="158"/>
       <c r="C68" s="24"/>
     </row>
     <row r="69" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="70" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A70" s="28" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B70" s="26"/>
       <c r="C70" s="26"/>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" s="29" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B71" s="25"/>
       <c r="C71" s="27"/>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" s="29" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B72" s="25"/>
       <c r="C72" s="27"/>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" s="29" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B73" s="25"/>
       <c r="C73" s="27"/>
     </row>
     <row r="74" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A74" s="30" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B74" s="25"/>
       <c r="C74" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="189">
-    <mergeCell ref="A1:C3"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="L1:O1"/>
-    <mergeCell ref="P1:S1"/>
-    <mergeCell ref="T1:W1"/>
-    <mergeCell ref="H2:K2"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="P2:S2"/>
-    <mergeCell ref="T2:W2"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="AF2:AI2"/>
-    <mergeCell ref="AJ2:AM2"/>
-    <mergeCell ref="H3:K3"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="P3:S3"/>
-    <mergeCell ref="T3:W3"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="R4:S4"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A60:C60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="AN58:AQ58"/>
+    <mergeCell ref="AR58:AU58"/>
+    <mergeCell ref="AT57:AU57"/>
+    <mergeCell ref="D58:G58"/>
+    <mergeCell ref="H58:K58"/>
+    <mergeCell ref="L58:O58"/>
+    <mergeCell ref="P58:S58"/>
+    <mergeCell ref="T58:W58"/>
+    <mergeCell ref="X58:AA58"/>
+    <mergeCell ref="AB58:AE58"/>
+    <mergeCell ref="AF58:AI58"/>
+    <mergeCell ref="AJ58:AM58"/>
+    <mergeCell ref="AH57:AI57"/>
+    <mergeCell ref="AJ57:AK57"/>
+    <mergeCell ref="AL57:AM57"/>
+    <mergeCell ref="AN57:AO57"/>
+    <mergeCell ref="AP57:AQ57"/>
+    <mergeCell ref="AR57:AS57"/>
+    <mergeCell ref="V57:W57"/>
+    <mergeCell ref="X57:Y57"/>
+    <mergeCell ref="Z57:AA57"/>
+    <mergeCell ref="AB57:AC57"/>
+    <mergeCell ref="AD57:AE57"/>
+    <mergeCell ref="AF57:AG57"/>
+    <mergeCell ref="AT55:AU56"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="F57:G57"/>
+    <mergeCell ref="H57:I57"/>
+    <mergeCell ref="J57:K57"/>
+    <mergeCell ref="L57:M57"/>
+    <mergeCell ref="N57:O57"/>
+    <mergeCell ref="P57:Q57"/>
+    <mergeCell ref="R57:S57"/>
+    <mergeCell ref="T57:U57"/>
+    <mergeCell ref="AH55:AI56"/>
+    <mergeCell ref="AJ55:AK56"/>
+    <mergeCell ref="AL55:AM56"/>
+    <mergeCell ref="AN55:AO56"/>
+    <mergeCell ref="AP55:AQ56"/>
+    <mergeCell ref="AR55:AS56"/>
+    <mergeCell ref="V55:W56"/>
+    <mergeCell ref="X55:Y56"/>
+    <mergeCell ref="Z55:AA56"/>
+    <mergeCell ref="AB55:AC56"/>
+    <mergeCell ref="AD55:AE56"/>
+    <mergeCell ref="AF55:AG56"/>
+    <mergeCell ref="J55:K56"/>
+    <mergeCell ref="L55:M56"/>
+    <mergeCell ref="N55:O56"/>
+    <mergeCell ref="P55:Q56"/>
+    <mergeCell ref="R55:S56"/>
+    <mergeCell ref="T55:U56"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="D55:E56"/>
+    <mergeCell ref="F55:G56"/>
+    <mergeCell ref="H55:I56"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="AR4:AS4"/>
+    <mergeCell ref="AT4:AU4"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="AJ4:AK4"/>
+    <mergeCell ref="AL4:AM4"/>
+    <mergeCell ref="T4:U4"/>
+    <mergeCell ref="V4:W4"/>
     <mergeCell ref="AN1:AQ1"/>
     <mergeCell ref="AR1:AU1"/>
     <mergeCell ref="AN2:AQ2"/>
@@ -5813,145 +5940,32 @@
     <mergeCell ref="AJ1:AM1"/>
     <mergeCell ref="X2:AA2"/>
     <mergeCell ref="AB2:AE2"/>
-    <mergeCell ref="AR4:AS4"/>
-    <mergeCell ref="AT4:AU4"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="AJ4:AK4"/>
-    <mergeCell ref="AL4:AM4"/>
-    <mergeCell ref="T4:U4"/>
-    <mergeCell ref="V4:W4"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="N55:O56"/>
-    <mergeCell ref="P55:Q56"/>
-    <mergeCell ref="R55:S56"/>
-    <mergeCell ref="T55:U56"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="D55:E56"/>
-    <mergeCell ref="F55:G56"/>
-    <mergeCell ref="H55:I56"/>
-    <mergeCell ref="AT55:AU56"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="F57:G57"/>
-    <mergeCell ref="H57:I57"/>
-    <mergeCell ref="J57:K57"/>
-    <mergeCell ref="L57:M57"/>
-    <mergeCell ref="N57:O57"/>
-    <mergeCell ref="P57:Q57"/>
-    <mergeCell ref="R57:S57"/>
-    <mergeCell ref="T57:U57"/>
-    <mergeCell ref="AH55:AI56"/>
-    <mergeCell ref="AJ55:AK56"/>
-    <mergeCell ref="AL55:AM56"/>
-    <mergeCell ref="AN55:AO56"/>
-    <mergeCell ref="AP55:AQ56"/>
-    <mergeCell ref="AR55:AS56"/>
-    <mergeCell ref="V55:W56"/>
-    <mergeCell ref="X55:Y56"/>
-    <mergeCell ref="Z55:AA56"/>
-    <mergeCell ref="AB55:AC56"/>
-    <mergeCell ref="AD55:AE56"/>
-    <mergeCell ref="AF55:AG56"/>
-    <mergeCell ref="J55:K56"/>
-    <mergeCell ref="L55:M56"/>
-    <mergeCell ref="AN58:AQ58"/>
-    <mergeCell ref="AR58:AU58"/>
-    <mergeCell ref="AT57:AU57"/>
-    <mergeCell ref="D58:G58"/>
-    <mergeCell ref="H58:K58"/>
-    <mergeCell ref="L58:O58"/>
-    <mergeCell ref="P58:S58"/>
-    <mergeCell ref="T58:W58"/>
-    <mergeCell ref="X58:AA58"/>
-    <mergeCell ref="AB58:AE58"/>
-    <mergeCell ref="AF58:AI58"/>
-    <mergeCell ref="AJ58:AM58"/>
-    <mergeCell ref="AH57:AI57"/>
-    <mergeCell ref="AJ57:AK57"/>
-    <mergeCell ref="AL57:AM57"/>
-    <mergeCell ref="AN57:AO57"/>
-    <mergeCell ref="AP57:AQ57"/>
-    <mergeCell ref="AR57:AS57"/>
-    <mergeCell ref="V57:W57"/>
-    <mergeCell ref="X57:Y57"/>
-    <mergeCell ref="Z57:AA57"/>
-    <mergeCell ref="AB57:AC57"/>
-    <mergeCell ref="AD57:AE57"/>
-    <mergeCell ref="AF57:AG57"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="A60:C60"/>
-    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="AF2:AI2"/>
+    <mergeCell ref="AJ2:AM2"/>
+    <mergeCell ref="H3:K3"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="P3:S3"/>
+    <mergeCell ref="T3:W3"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="R4:S4"/>
+    <mergeCell ref="A1:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="L1:O1"/>
+    <mergeCell ref="P1:S1"/>
+    <mergeCell ref="T1:W1"/>
+    <mergeCell ref="H2:K2"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="P2:S2"/>
+    <mergeCell ref="T2:W2"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="D2:G2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="D6:AU6 D8:AU8 D12:J12 L12:AU12 K13 D44:AR44 AT44:AU44 AR45">

--- a/02_zeitplan/IPA_Zeitplan_Kabilan_Sivanamam.xlsx
+++ b/02_zeitplan/IPA_Zeitplan_Kabilan_Sivanamam.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kabi/Documents/GitHub/IPA2020/02_zeitplan/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BCA22B7-3A8B-B546-A8BA-8368E643FC06}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E65962F-5105-6344-B50E-9840858D3663}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" xr2:uid="{919B10DA-F269-3C46-8A86-B94EB657325B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{919B10DA-F269-3C46-8A86-B94EB657325B}"/>
   </bookViews>
   <sheets>
     <sheet name="Zeitplan v1" sheetId="1" r:id="rId1"/>
@@ -1098,16 +1098,166 @@
     <xf numFmtId="1" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="3" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="3" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="3" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="3" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1128,196 +1278,46 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="3" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="3" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="3" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="3" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2142,8 +2142,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE2EA0AA-2CD7-9C47-95CA-C0AE6CDA2CB2}">
   <dimension ref="A1:AU74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="113" workbookViewId="0">
-      <selection activeCell="O21" sqref="O21"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="AD51" sqref="AD51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2155,230 +2155,230 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="96" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="98"/>
-      <c r="H1" s="96" t="s">
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="146" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="147"/>
+      <c r="F1" s="147"/>
+      <c r="G1" s="148"/>
+      <c r="H1" s="146" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="97"/>
-      <c r="J1" s="97"/>
-      <c r="K1" s="98"/>
-      <c r="L1" s="99" t="s">
+      <c r="I1" s="147"/>
+      <c r="J1" s="147"/>
+      <c r="K1" s="148"/>
+      <c r="L1" s="161" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="97"/>
-      <c r="N1" s="97"/>
-      <c r="O1" s="98"/>
-      <c r="P1" s="96" t="s">
+      <c r="M1" s="147"/>
+      <c r="N1" s="147"/>
+      <c r="O1" s="148"/>
+      <c r="P1" s="146" t="s">
         <v>4</v>
       </c>
-      <c r="Q1" s="97"/>
-      <c r="R1" s="97"/>
-      <c r="S1" s="98"/>
-      <c r="T1" s="96" t="s">
+      <c r="Q1" s="147"/>
+      <c r="R1" s="147"/>
+      <c r="S1" s="148"/>
+      <c r="T1" s="146" t="s">
         <v>5</v>
       </c>
-      <c r="U1" s="97"/>
-      <c r="V1" s="97"/>
-      <c r="W1" s="98"/>
-      <c r="X1" s="96" t="s">
+      <c r="U1" s="147"/>
+      <c r="V1" s="147"/>
+      <c r="W1" s="148"/>
+      <c r="X1" s="146" t="s">
         <v>6</v>
       </c>
-      <c r="Y1" s="97"/>
-      <c r="Z1" s="97"/>
-      <c r="AA1" s="108"/>
-      <c r="AB1" s="96" t="s">
+      <c r="Y1" s="147"/>
+      <c r="Z1" s="147"/>
+      <c r="AA1" s="157"/>
+      <c r="AB1" s="146" t="s">
         <v>7</v>
       </c>
-      <c r="AC1" s="97"/>
-      <c r="AD1" s="97"/>
-      <c r="AE1" s="98"/>
-      <c r="AF1" s="96" t="s">
+      <c r="AC1" s="147"/>
+      <c r="AD1" s="147"/>
+      <c r="AE1" s="148"/>
+      <c r="AF1" s="146" t="s">
         <v>8</v>
       </c>
-      <c r="AG1" s="97"/>
-      <c r="AH1" s="97"/>
-      <c r="AI1" s="98"/>
-      <c r="AJ1" s="96" t="s">
+      <c r="AG1" s="147"/>
+      <c r="AH1" s="147"/>
+      <c r="AI1" s="148"/>
+      <c r="AJ1" s="146" t="s">
         <v>9</v>
       </c>
-      <c r="AK1" s="97"/>
-      <c r="AL1" s="97"/>
-      <c r="AM1" s="98"/>
-      <c r="AN1" s="96" t="s">
+      <c r="AK1" s="147"/>
+      <c r="AL1" s="147"/>
+      <c r="AM1" s="148"/>
+      <c r="AN1" s="146" t="s">
         <v>10</v>
       </c>
-      <c r="AO1" s="97"/>
-      <c r="AP1" s="97"/>
-      <c r="AQ1" s="98"/>
-      <c r="AR1" s="96" t="s">
+      <c r="AO1" s="147"/>
+      <c r="AP1" s="147"/>
+      <c r="AQ1" s="148"/>
+      <c r="AR1" s="146" t="s">
         <v>11</v>
       </c>
-      <c r="AS1" s="97"/>
-      <c r="AT1" s="97"/>
-      <c r="AU1" s="98"/>
+      <c r="AS1" s="147"/>
+      <c r="AT1" s="147"/>
+      <c r="AU1" s="148"/>
     </row>
     <row r="2" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A2" s="89"/>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="100" t="str">
+      <c r="A2" s="92"/>
+      <c r="B2" s="92"/>
+      <c r="C2" s="92"/>
+      <c r="D2" s="149" t="str">
         <f>TEXT(D3,"ddd")</f>
         <v>Wed</v>
       </c>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="102"/>
-      <c r="H2" s="100" t="str">
+      <c r="E2" s="150"/>
+      <c r="F2" s="150"/>
+      <c r="G2" s="151"/>
+      <c r="H2" s="149" t="str">
         <f t="shared" ref="H2" si="0">TEXT(H3,"ddd")</f>
         <v>Thu</v>
       </c>
-      <c r="I2" s="101"/>
-      <c r="J2" s="101"/>
-      <c r="K2" s="102"/>
-      <c r="L2" s="103" t="str">
+      <c r="I2" s="150"/>
+      <c r="J2" s="150"/>
+      <c r="K2" s="151"/>
+      <c r="L2" s="162" t="str">
         <f t="shared" ref="L2" si="1">TEXT(L3,"ddd")</f>
         <v>Fri</v>
       </c>
-      <c r="M2" s="101"/>
-      <c r="N2" s="101"/>
-      <c r="O2" s="102"/>
-      <c r="P2" s="100" t="str">
+      <c r="M2" s="150"/>
+      <c r="N2" s="150"/>
+      <c r="O2" s="151"/>
+      <c r="P2" s="149" t="str">
         <f t="shared" ref="P2" si="2">TEXT(P3,"ddd")</f>
         <v>Mon</v>
       </c>
-      <c r="Q2" s="101"/>
-      <c r="R2" s="101"/>
-      <c r="S2" s="102"/>
-      <c r="T2" s="100" t="str">
+      <c r="Q2" s="150"/>
+      <c r="R2" s="150"/>
+      <c r="S2" s="151"/>
+      <c r="T2" s="149" t="str">
         <f t="shared" ref="T2" si="3">TEXT(T3,"ddd")</f>
         <v>Wed</v>
       </c>
-      <c r="U2" s="101"/>
-      <c r="V2" s="101"/>
-      <c r="W2" s="102"/>
-      <c r="X2" s="100" t="str">
+      <c r="U2" s="150"/>
+      <c r="V2" s="150"/>
+      <c r="W2" s="151"/>
+      <c r="X2" s="149" t="str">
         <f t="shared" ref="X2" si="4">TEXT(X3,"ddd")</f>
         <v>Thu</v>
       </c>
-      <c r="Y2" s="101"/>
-      <c r="Z2" s="101"/>
-      <c r="AA2" s="109"/>
-      <c r="AB2" s="100" t="str">
+      <c r="Y2" s="150"/>
+      <c r="Z2" s="150"/>
+      <c r="AA2" s="158"/>
+      <c r="AB2" s="149" t="str">
         <f t="shared" ref="AB2" si="5">TEXT(AB3,"ddd")</f>
         <v>Fri</v>
       </c>
-      <c r="AC2" s="101"/>
-      <c r="AD2" s="101"/>
-      <c r="AE2" s="102"/>
-      <c r="AF2" s="100" t="str">
+      <c r="AC2" s="150"/>
+      <c r="AD2" s="150"/>
+      <c r="AE2" s="151"/>
+      <c r="AF2" s="149" t="str">
         <f t="shared" ref="AF2" si="6">TEXT(AF3,"ddd")</f>
         <v>Mon</v>
       </c>
-      <c r="AG2" s="101"/>
-      <c r="AH2" s="101"/>
-      <c r="AI2" s="102"/>
-      <c r="AJ2" s="100" t="str">
+      <c r="AG2" s="150"/>
+      <c r="AH2" s="150"/>
+      <c r="AI2" s="151"/>
+      <c r="AJ2" s="149" t="str">
         <f t="shared" ref="AJ2" si="7">TEXT(AJ3,"ddd")</f>
         <v>Wed</v>
       </c>
-      <c r="AK2" s="101"/>
-      <c r="AL2" s="101"/>
-      <c r="AM2" s="102"/>
-      <c r="AN2" s="100" t="str">
+      <c r="AK2" s="150"/>
+      <c r="AL2" s="150"/>
+      <c r="AM2" s="151"/>
+      <c r="AN2" s="149" t="str">
         <f t="shared" ref="AN2" si="8">TEXT(AN3,"ddd")</f>
         <v>Thu</v>
       </c>
-      <c r="AO2" s="101"/>
-      <c r="AP2" s="101"/>
-      <c r="AQ2" s="102"/>
-      <c r="AR2" s="100" t="str">
+      <c r="AO2" s="150"/>
+      <c r="AP2" s="150"/>
+      <c r="AQ2" s="151"/>
+      <c r="AR2" s="149" t="str">
         <f t="shared" ref="AR2" si="9">TEXT(AR3,"ddd")</f>
         <v>Fri</v>
       </c>
-      <c r="AS2" s="101"/>
-      <c r="AT2" s="101"/>
-      <c r="AU2" s="102"/>
+      <c r="AS2" s="150"/>
+      <c r="AT2" s="150"/>
+      <c r="AU2" s="151"/>
     </row>
     <row r="3" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A3" s="89"/>
-      <c r="B3" s="89"/>
-      <c r="C3" s="89"/>
-      <c r="D3" s="90">
+      <c r="A3" s="92"/>
+      <c r="B3" s="92"/>
+      <c r="C3" s="92"/>
+      <c r="D3" s="152">
         <v>43873</v>
       </c>
-      <c r="E3" s="91"/>
-      <c r="F3" s="91"/>
-      <c r="G3" s="92"/>
-      <c r="H3" s="90">
+      <c r="E3" s="153"/>
+      <c r="F3" s="153"/>
+      <c r="G3" s="154"/>
+      <c r="H3" s="152">
         <v>43874</v>
       </c>
-      <c r="I3" s="91"/>
-      <c r="J3" s="91"/>
-      <c r="K3" s="92"/>
-      <c r="L3" s="104">
+      <c r="I3" s="153"/>
+      <c r="J3" s="153"/>
+      <c r="K3" s="154"/>
+      <c r="L3" s="159">
         <v>43875</v>
       </c>
-      <c r="M3" s="91"/>
-      <c r="N3" s="91"/>
-      <c r="O3" s="92"/>
-      <c r="P3" s="90">
+      <c r="M3" s="153"/>
+      <c r="N3" s="153"/>
+      <c r="O3" s="154"/>
+      <c r="P3" s="152">
         <v>43878</v>
       </c>
-      <c r="Q3" s="91"/>
-      <c r="R3" s="91"/>
-      <c r="S3" s="92"/>
-      <c r="T3" s="90">
+      <c r="Q3" s="153"/>
+      <c r="R3" s="153"/>
+      <c r="S3" s="154"/>
+      <c r="T3" s="152">
         <v>43880</v>
       </c>
-      <c r="U3" s="91"/>
-      <c r="V3" s="91"/>
-      <c r="W3" s="92"/>
-      <c r="X3" s="90">
+      <c r="U3" s="153"/>
+      <c r="V3" s="153"/>
+      <c r="W3" s="154"/>
+      <c r="X3" s="152">
         <v>43881</v>
       </c>
-      <c r="Y3" s="91"/>
-      <c r="Z3" s="91"/>
-      <c r="AA3" s="106"/>
-      <c r="AB3" s="90">
+      <c r="Y3" s="153"/>
+      <c r="Z3" s="153"/>
+      <c r="AA3" s="155"/>
+      <c r="AB3" s="152">
         <v>43882</v>
       </c>
-      <c r="AC3" s="91"/>
-      <c r="AD3" s="91"/>
-      <c r="AE3" s="92"/>
-      <c r="AF3" s="90">
+      <c r="AC3" s="153"/>
+      <c r="AD3" s="153"/>
+      <c r="AE3" s="154"/>
+      <c r="AF3" s="152">
         <v>43885</v>
       </c>
-      <c r="AG3" s="91"/>
-      <c r="AH3" s="91"/>
-      <c r="AI3" s="92"/>
-      <c r="AJ3" s="90">
+      <c r="AG3" s="153"/>
+      <c r="AH3" s="153"/>
+      <c r="AI3" s="154"/>
+      <c r="AJ3" s="152">
         <v>43887</v>
       </c>
-      <c r="AK3" s="91"/>
-      <c r="AL3" s="91"/>
-      <c r="AM3" s="92"/>
-      <c r="AN3" s="90">
+      <c r="AK3" s="153"/>
+      <c r="AL3" s="153"/>
+      <c r="AM3" s="154"/>
+      <c r="AN3" s="152">
         <v>43888</v>
       </c>
-      <c r="AO3" s="91"/>
-      <c r="AP3" s="91"/>
-      <c r="AQ3" s="92"/>
-      <c r="AR3" s="90">
+      <c r="AO3" s="153"/>
+      <c r="AP3" s="153"/>
+      <c r="AQ3" s="154"/>
+      <c r="AR3" s="152">
         <v>43889</v>
       </c>
-      <c r="AS3" s="91"/>
-      <c r="AT3" s="91"/>
-      <c r="AU3" s="92"/>
+      <c r="AS3" s="153"/>
+      <c r="AT3" s="153"/>
+      <c r="AU3" s="154"/>
     </row>
     <row r="4" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
@@ -2390,94 +2390,94 @@
       <c r="C4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="93" t="s">
+      <c r="D4" s="143" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="94"/>
-      <c r="F4" s="94" t="s">
+      <c r="E4" s="144"/>
+      <c r="F4" s="144" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="95"/>
-      <c r="H4" s="93" t="s">
+      <c r="G4" s="145"/>
+      <c r="H4" s="143" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="94"/>
-      <c r="J4" s="94" t="s">
+      <c r="I4" s="144"/>
+      <c r="J4" s="144" t="s">
         <v>13</v>
       </c>
-      <c r="K4" s="95"/>
-      <c r="L4" s="105" t="s">
+      <c r="K4" s="145"/>
+      <c r="L4" s="160" t="s">
         <v>12</v>
       </c>
-      <c r="M4" s="94"/>
-      <c r="N4" s="94" t="s">
+      <c r="M4" s="144"/>
+      <c r="N4" s="144" t="s">
         <v>13</v>
       </c>
-      <c r="O4" s="95"/>
-      <c r="P4" s="93" t="s">
+      <c r="O4" s="145"/>
+      <c r="P4" s="143" t="s">
         <v>12</v>
       </c>
-      <c r="Q4" s="94"/>
-      <c r="R4" s="94" t="s">
+      <c r="Q4" s="144"/>
+      <c r="R4" s="144" t="s">
         <v>13</v>
       </c>
-      <c r="S4" s="95"/>
-      <c r="T4" s="93" t="s">
+      <c r="S4" s="145"/>
+      <c r="T4" s="143" t="s">
         <v>12</v>
       </c>
-      <c r="U4" s="94"/>
-      <c r="V4" s="94" t="s">
+      <c r="U4" s="144"/>
+      <c r="V4" s="144" t="s">
         <v>13</v>
       </c>
-      <c r="W4" s="95"/>
-      <c r="X4" s="93" t="s">
+      <c r="W4" s="145"/>
+      <c r="X4" s="143" t="s">
         <v>12</v>
       </c>
-      <c r="Y4" s="94"/>
-      <c r="Z4" s="94" t="s">
+      <c r="Y4" s="144"/>
+      <c r="Z4" s="144" t="s">
         <v>13</v>
       </c>
-      <c r="AA4" s="107"/>
-      <c r="AB4" s="93" t="s">
+      <c r="AA4" s="156"/>
+      <c r="AB4" s="143" t="s">
         <v>12</v>
       </c>
-      <c r="AC4" s="94"/>
-      <c r="AD4" s="94" t="s">
+      <c r="AC4" s="144"/>
+      <c r="AD4" s="144" t="s">
         <v>13</v>
       </c>
-      <c r="AE4" s="95"/>
-      <c r="AF4" s="93" t="s">
+      <c r="AE4" s="145"/>
+      <c r="AF4" s="143" t="s">
         <v>12</v>
       </c>
-      <c r="AG4" s="94"/>
-      <c r="AH4" s="94" t="s">
+      <c r="AG4" s="144"/>
+      <c r="AH4" s="144" t="s">
         <v>13</v>
       </c>
-      <c r="AI4" s="95"/>
-      <c r="AJ4" s="93" t="s">
+      <c r="AI4" s="145"/>
+      <c r="AJ4" s="143" t="s">
         <v>12</v>
       </c>
-      <c r="AK4" s="94"/>
-      <c r="AL4" s="94" t="s">
+      <c r="AK4" s="144"/>
+      <c r="AL4" s="144" t="s">
         <v>13</v>
       </c>
-      <c r="AM4" s="95"/>
-      <c r="AN4" s="93" t="s">
+      <c r="AM4" s="145"/>
+      <c r="AN4" s="143" t="s">
         <v>12</v>
       </c>
-      <c r="AO4" s="94"/>
-      <c r="AP4" s="94" t="s">
+      <c r="AO4" s="144"/>
+      <c r="AP4" s="144" t="s">
         <v>13</v>
       </c>
-      <c r="AQ4" s="95"/>
-      <c r="AR4" s="93" t="s">
+      <c r="AQ4" s="145"/>
+      <c r="AR4" s="143" t="s">
         <v>12</v>
       </c>
-      <c r="AS4" s="94"/>
-      <c r="AT4" s="94" t="s">
+      <c r="AS4" s="144"/>
+      <c r="AT4" s="144" t="s">
         <v>13</v>
       </c>
-      <c r="AU4" s="95"/>
+      <c r="AU4" s="145"/>
     </row>
     <row r="5" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
@@ -2531,14 +2531,14 @@
       <c r="AU5" s="17"/>
     </row>
     <row r="6" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A6" s="110" t="s">
+      <c r="A6" s="123" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="112">
+      <c r="B6" s="135">
         <f>SUM(D6:AU6)</f>
         <v>2</v>
       </c>
-      <c r="C6" s="113">
+      <c r="C6" s="136">
         <f>SUM(D7:AU7)</f>
         <v>2</v>
       </c>
@@ -2592,9 +2592,9 @@
       <c r="AU6" s="35"/>
     </row>
     <row r="7" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="111"/>
-      <c r="B7" s="112"/>
-      <c r="C7" s="113"/>
+      <c r="A7" s="124"/>
+      <c r="B7" s="135"/>
+      <c r="C7" s="136"/>
       <c r="D7" s="41">
         <v>1</v>
       </c>
@@ -2645,14 +2645,14 @@
       <c r="AU7" s="40"/>
     </row>
     <row r="8" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A8" s="110" t="s">
+      <c r="A8" s="123" t="s">
         <v>50</v>
       </c>
-      <c r="B8" s="112">
+      <c r="B8" s="135">
         <f>SUM(D8:AU8)</f>
         <v>4</v>
       </c>
-      <c r="C8" s="113">
+      <c r="C8" s="136">
         <f>SUM(D9:AU9)</f>
         <v>3</v>
       </c>
@@ -2710,9 +2710,9 @@
       </c>
     </row>
     <row r="9" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="115"/>
-      <c r="B9" s="116"/>
-      <c r="C9" s="114"/>
+      <c r="A9" s="134"/>
+      <c r="B9" s="131"/>
+      <c r="C9" s="133"/>
       <c r="D9" s="49"/>
       <c r="E9" s="53">
         <v>1</v>
@@ -2867,14 +2867,14 @@
       <c r="AU11" s="46"/>
     </row>
     <row r="12" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A12" s="117" t="s">
+      <c r="A12" s="129" t="s">
         <v>51</v>
       </c>
-      <c r="B12" s="118">
+      <c r="B12" s="130">
         <f>SUM(D12:AU12)</f>
         <v>7</v>
       </c>
-      <c r="C12" s="119">
+      <c r="C12" s="132">
         <f>SUM(D13:AU13)</f>
         <v>7</v>
       </c>
@@ -2932,9 +2932,9 @@
       <c r="AU12" s="48"/>
     </row>
     <row r="13" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="115"/>
-      <c r="B13" s="112"/>
-      <c r="C13" s="113"/>
+      <c r="A13" s="134"/>
+      <c r="B13" s="135"/>
+      <c r="C13" s="136"/>
       <c r="D13" s="41"/>
       <c r="E13" s="39"/>
       <c r="F13" s="39"/>
@@ -3040,14 +3040,14 @@
       <c r="AU14" s="63"/>
     </row>
     <row r="15" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A15" s="120" t="s">
+      <c r="A15" s="137" t="s">
         <v>57</v>
       </c>
-      <c r="B15" s="122">
+      <c r="B15" s="139">
         <f>SUM(D15:AU15)</f>
         <v>1</v>
       </c>
-      <c r="C15" s="124">
+      <c r="C15" s="141">
         <f>SUM(D16:AU16)</f>
         <v>4</v>
       </c>
@@ -3099,9 +3099,9 @@
       <c r="AU15" s="35"/>
     </row>
     <row r="16" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="121"/>
-      <c r="B16" s="123"/>
-      <c r="C16" s="125"/>
+      <c r="A16" s="138"/>
+      <c r="B16" s="140"/>
+      <c r="C16" s="142"/>
       <c r="D16" s="41"/>
       <c r="E16" s="39"/>
       <c r="F16" s="39"/>
@@ -3154,14 +3154,14 @@
       <c r="AU16" s="40"/>
     </row>
     <row r="17" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A17" s="117" t="s">
+      <c r="A17" s="129" t="s">
         <v>52</v>
       </c>
-      <c r="B17" s="118">
+      <c r="B17" s="130">
         <f t="shared" ref="B17" si="10">SUM(D17:AU17)</f>
         <v>2</v>
       </c>
-      <c r="C17" s="119">
+      <c r="C17" s="132">
         <f t="shared" ref="C17" si="11">SUM(D18:AU18)</f>
         <v>4</v>
       </c>
@@ -3213,9 +3213,9 @@
       <c r="AU17" s="48"/>
     </row>
     <row r="18" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="115"/>
-      <c r="B18" s="112"/>
-      <c r="C18" s="113"/>
+      <c r="A18" s="134"/>
+      <c r="B18" s="135"/>
+      <c r="C18" s="136"/>
       <c r="D18" s="41"/>
       <c r="E18" s="39"/>
       <c r="F18" s="39"/>
@@ -3270,14 +3270,14 @@
       <c r="AU18" s="40"/>
     </row>
     <row r="19" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A19" s="110" t="s">
+      <c r="A19" s="123" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="112">
+      <c r="B19" s="135">
         <f t="shared" ref="B19" si="12">SUM(D19:AU19)</f>
         <v>2</v>
       </c>
-      <c r="C19" s="113">
+      <c r="C19" s="136">
         <f t="shared" ref="C19" si="13">SUM(D20:AU20)</f>
         <v>0</v>
       </c>
@@ -3329,9 +3329,9 @@
       <c r="AU19" s="35"/>
     </row>
     <row r="20" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="115"/>
-      <c r="B20" s="116"/>
-      <c r="C20" s="114"/>
+      <c r="A20" s="134"/>
+      <c r="B20" s="131"/>
+      <c r="C20" s="133"/>
       <c r="D20" s="49"/>
       <c r="E20" s="53"/>
       <c r="F20" s="53"/>
@@ -3378,14 +3378,14 @@
       <c r="AU20" s="48"/>
     </row>
     <row r="21" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A21" s="110" t="s">
+      <c r="A21" s="123" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="126">
+      <c r="B21" s="125">
         <f t="shared" ref="B21" si="14">SUM(D21:AU21)</f>
         <v>1</v>
       </c>
-      <c r="C21" s="128">
+      <c r="C21" s="127">
         <f t="shared" ref="C21" si="15">SUM(D22:AU22)</f>
         <v>8</v>
       </c>
@@ -3437,9 +3437,9 @@
       <c r="AU21" s="35"/>
     </row>
     <row r="22" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="111"/>
-      <c r="B22" s="127"/>
-      <c r="C22" s="129"/>
+      <c r="A22" s="124"/>
+      <c r="B22" s="126"/>
+      <c r="C22" s="128"/>
       <c r="D22" s="41"/>
       <c r="E22" s="39"/>
       <c r="F22" s="39"/>
@@ -3547,14 +3547,14 @@
       <c r="AU23" s="58"/>
     </row>
     <row r="24" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A24" s="110" t="s">
+      <c r="A24" s="123" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="112">
+      <c r="B24" s="135">
         <f>SUM(D24:AU24)</f>
         <v>1</v>
       </c>
-      <c r="C24" s="113">
+      <c r="C24" s="136">
         <f>SUM(D25:AU25)</f>
         <v>2</v>
       </c>
@@ -3606,9 +3606,9 @@
       <c r="AU24" s="48"/>
     </row>
     <row r="25" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="115"/>
-      <c r="B25" s="112"/>
-      <c r="C25" s="113"/>
+      <c r="A25" s="134"/>
+      <c r="B25" s="135"/>
+      <c r="C25" s="136"/>
       <c r="D25" s="41"/>
       <c r="E25" s="39"/>
       <c r="F25" s="39"/>
@@ -3659,14 +3659,14 @@
       <c r="AU25" s="40"/>
     </row>
     <row r="26" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A26" s="110" t="s">
+      <c r="A26" s="123" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="112">
+      <c r="B26" s="135">
         <f t="shared" ref="B26" si="16">SUM(D26:AU26)</f>
         <v>1</v>
       </c>
-      <c r="C26" s="113">
+      <c r="C26" s="136">
         <f t="shared" ref="C26" si="17">SUM(D27:AU27)</f>
         <v>5</v>
       </c>
@@ -3718,9 +3718,9 @@
       <c r="AU26" s="35"/>
     </row>
     <row r="27" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="115"/>
-      <c r="B27" s="116"/>
-      <c r="C27" s="114"/>
+      <c r="A27" s="134"/>
+      <c r="B27" s="131"/>
+      <c r="C27" s="133"/>
       <c r="D27" s="49"/>
       <c r="E27" s="53"/>
       <c r="F27" s="53"/>
@@ -3775,14 +3775,14 @@
       <c r="AU27" s="48"/>
     </row>
     <row r="28" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A28" s="110" t="s">
+      <c r="A28" s="123" t="s">
         <v>59</v>
       </c>
-      <c r="B28" s="126">
+      <c r="B28" s="125">
         <f t="shared" ref="B28" si="18">SUM(D28:AU28)</f>
         <v>7</v>
       </c>
-      <c r="C28" s="128">
+      <c r="C28" s="127">
         <f t="shared" ref="C28" si="19">SUM(D29:AU29)</f>
         <v>2</v>
       </c>
@@ -3840,9 +3840,9 @@
       <c r="AU28" s="35"/>
     </row>
     <row r="29" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="111"/>
-      <c r="B29" s="127"/>
-      <c r="C29" s="129"/>
+      <c r="A29" s="124"/>
+      <c r="B29" s="126"/>
+      <c r="C29" s="128"/>
       <c r="D29" s="41"/>
       <c r="E29" s="39"/>
       <c r="F29" s="39"/>
@@ -3893,16 +3893,16 @@
       <c r="AU29" s="40"/>
     </row>
     <row r="30" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A30" s="117" t="s">
+      <c r="A30" s="129" t="s">
         <v>60</v>
       </c>
-      <c r="B30" s="118">
+      <c r="B30" s="130">
         <f t="shared" ref="B30" si="20">SUM(D30:AU30)</f>
         <v>7</v>
       </c>
-      <c r="C30" s="119">
+      <c r="C30" s="132">
         <f t="shared" ref="C30" si="21">SUM(D31:AU31)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D30" s="49"/>
       <c r="E30" s="53"/>
@@ -3958,9 +3958,9 @@
       <c r="AU30" s="48"/>
     </row>
     <row r="31" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="115"/>
-      <c r="B31" s="112"/>
-      <c r="C31" s="113"/>
+      <c r="A31" s="134"/>
+      <c r="B31" s="135"/>
+      <c r="C31" s="136"/>
       <c r="D31" s="41"/>
       <c r="E31" s="39"/>
       <c r="F31" s="39"/>
@@ -3995,7 +3995,9 @@
       <c r="AE31" s="40">
         <v>1</v>
       </c>
-      <c r="AF31" s="41"/>
+      <c r="AF31" s="41">
+        <v>1</v>
+      </c>
       <c r="AG31" s="39"/>
       <c r="AH31" s="42"/>
       <c r="AI31" s="43"/>
@@ -4013,16 +4015,16 @@
       <c r="AU31" s="40"/>
     </row>
     <row r="32" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A32" s="110" t="s">
+      <c r="A32" s="123" t="s">
         <v>26</v>
       </c>
-      <c r="B32" s="112">
+      <c r="B32" s="135">
         <f t="shared" ref="B32" si="22">SUM(D32:AU32)</f>
         <v>7</v>
       </c>
-      <c r="C32" s="113">
+      <c r="C32" s="136">
         <f t="shared" ref="C32" si="23">SUM(D33:AU33)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D32" s="36"/>
       <c r="E32" s="34"/>
@@ -4078,9 +4080,9 @@
       <c r="AU32" s="35"/>
     </row>
     <row r="33" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="115"/>
-      <c r="B33" s="112"/>
-      <c r="C33" s="113"/>
+      <c r="A33" s="134"/>
+      <c r="B33" s="135"/>
+      <c r="C33" s="136"/>
       <c r="D33" s="41"/>
       <c r="E33" s="39"/>
       <c r="F33" s="39"/>
@@ -4109,7 +4111,9 @@
       <c r="AC33" s="39"/>
       <c r="AD33" s="71"/>
       <c r="AE33" s="40"/>
-      <c r="AF33" s="41"/>
+      <c r="AF33" s="41">
+        <v>1</v>
+      </c>
       <c r="AG33" s="39"/>
       <c r="AH33" s="42"/>
       <c r="AI33" s="43"/>
@@ -4127,14 +4131,14 @@
       <c r="AU33" s="40"/>
     </row>
     <row r="34" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A34" s="110" t="s">
+      <c r="A34" s="123" t="s">
         <v>27</v>
       </c>
-      <c r="B34" s="112">
+      <c r="B34" s="135">
         <f t="shared" ref="B34" si="24">SUM(D34:AU34)</f>
         <v>2</v>
       </c>
-      <c r="C34" s="113">
+      <c r="C34" s="136">
         <f t="shared" ref="C34" si="25">SUM(D35:AU35)</f>
         <v>0</v>
       </c>
@@ -4186,9 +4190,9 @@
       <c r="AU34" s="35"/>
     </row>
     <row r="35" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="111"/>
-      <c r="B35" s="112"/>
-      <c r="C35" s="113"/>
+      <c r="A35" s="124"/>
+      <c r="B35" s="135"/>
+      <c r="C35" s="136"/>
       <c r="D35" s="41"/>
       <c r="E35" s="39"/>
       <c r="F35" s="39"/>
@@ -4235,14 +4239,14 @@
       <c r="AU35" s="40"/>
     </row>
     <row r="36" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A36" s="110" t="s">
+      <c r="A36" s="123" t="s">
         <v>28</v>
       </c>
-      <c r="B36" s="112">
+      <c r="B36" s="135">
         <f t="shared" ref="B36" si="26">SUM(D36:AU36)</f>
         <v>4</v>
       </c>
-      <c r="C36" s="113">
+      <c r="C36" s="136">
         <f t="shared" ref="C36" si="27">SUM(D37:AU37)</f>
         <v>0</v>
       </c>
@@ -4296,9 +4300,9 @@
       <c r="AU36" s="35"/>
     </row>
     <row r="37" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="115"/>
-      <c r="B37" s="112"/>
-      <c r="C37" s="113"/>
+      <c r="A37" s="134"/>
+      <c r="B37" s="135"/>
+      <c r="C37" s="136"/>
       <c r="D37" s="41"/>
       <c r="E37" s="39"/>
       <c r="F37" s="39"/>
@@ -4345,14 +4349,14 @@
       <c r="AU37" s="40"/>
     </row>
     <row r="38" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A38" s="110" t="s">
+      <c r="A38" s="123" t="s">
         <v>29</v>
       </c>
-      <c r="B38" s="112">
+      <c r="B38" s="135">
         <f t="shared" ref="B38" si="28">SUM(D38:AU38)</f>
         <v>3</v>
       </c>
-      <c r="C38" s="113">
+      <c r="C38" s="136">
         <f t="shared" ref="C38" si="29">SUM(D39:AU39)</f>
         <v>0</v>
       </c>
@@ -4406,9 +4410,9 @@
       <c r="AU38" s="35"/>
     </row>
     <row r="39" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="115"/>
-      <c r="B39" s="112"/>
-      <c r="C39" s="113"/>
+      <c r="A39" s="134"/>
+      <c r="B39" s="135"/>
+      <c r="C39" s="136"/>
       <c r="D39" s="41"/>
       <c r="E39" s="39"/>
       <c r="F39" s="39"/>
@@ -4455,14 +4459,14 @@
       <c r="AU39" s="40"/>
     </row>
     <row r="40" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A40" s="110" t="s">
+      <c r="A40" s="123" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="112">
+      <c r="B40" s="135">
         <f t="shared" ref="B40" si="30">SUM(D40:AU40)</f>
         <v>4</v>
       </c>
-      <c r="C40" s="113">
+      <c r="C40" s="136">
         <f t="shared" ref="C40" si="31">SUM(D41:AU41)</f>
         <v>0</v>
       </c>
@@ -4516,9 +4520,9 @@
       <c r="AU40" s="35"/>
     </row>
     <row r="41" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="115"/>
-      <c r="B41" s="112"/>
-      <c r="C41" s="113"/>
+      <c r="A41" s="134"/>
+      <c r="B41" s="135"/>
+      <c r="C41" s="136"/>
       <c r="D41" s="41"/>
       <c r="E41" s="39"/>
       <c r="F41" s="39"/>
@@ -4565,14 +4569,14 @@
       <c r="AU41" s="40"/>
     </row>
     <row r="42" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A42" s="110" t="s">
+      <c r="A42" s="123" t="s">
         <v>31</v>
       </c>
-      <c r="B42" s="112">
+      <c r="B42" s="135">
         <f t="shared" ref="B42" si="32">SUM(D42:AU42)</f>
         <v>3</v>
       </c>
-      <c r="C42" s="113">
+      <c r="C42" s="136">
         <f t="shared" ref="C42" si="33">SUM(D43:AU43)</f>
         <v>0</v>
       </c>
@@ -4626,9 +4630,9 @@
       <c r="AU42" s="35"/>
     </row>
     <row r="43" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="115"/>
-      <c r="B43" s="112"/>
-      <c r="C43" s="113"/>
+      <c r="A43" s="134"/>
+      <c r="B43" s="135"/>
+      <c r="C43" s="136"/>
       <c r="D43" s="41"/>
       <c r="E43" s="39"/>
       <c r="F43" s="39"/>
@@ -4675,14 +4679,14 @@
       <c r="AU43" s="40"/>
     </row>
     <row r="44" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="110" t="s">
+      <c r="A44" s="123" t="s">
         <v>32</v>
       </c>
-      <c r="B44" s="112">
+      <c r="B44" s="135">
         <f t="shared" ref="B44" si="34">SUM(D44:AU44)</f>
         <v>2</v>
       </c>
-      <c r="C44" s="113">
+      <c r="C44" s="136">
         <f t="shared" ref="C44" si="35">SUM(D45:AU45)</f>
         <v>0</v>
       </c>
@@ -4733,9 +4737,9 @@
       <c r="AU44" s="35"/>
     </row>
     <row r="45" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="115"/>
-      <c r="B45" s="112"/>
-      <c r="C45" s="113"/>
+      <c r="A45" s="134"/>
+      <c r="B45" s="135"/>
+      <c r="C45" s="136"/>
       <c r="D45" s="41"/>
       <c r="E45" s="39"/>
       <c r="F45" s="39"/>
@@ -4782,14 +4786,14 @@
       <c r="AU45" s="40"/>
     </row>
     <row r="46" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A46" s="110" t="s">
+      <c r="A46" s="123" t="s">
         <v>46</v>
       </c>
-      <c r="B46" s="112">
+      <c r="B46" s="135">
         <f t="shared" ref="B46" si="36">SUM(D46:AU46)</f>
         <v>3</v>
       </c>
-      <c r="C46" s="113">
+      <c r="C46" s="136">
         <f t="shared" ref="C46" si="37">SUM(D47:AU47)</f>
         <v>0</v>
       </c>
@@ -4843,9 +4847,9 @@
       <c r="AU46" s="35"/>
     </row>
     <row r="47" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="111"/>
-      <c r="B47" s="112"/>
-      <c r="C47" s="113"/>
+      <c r="A47" s="124"/>
+      <c r="B47" s="135"/>
+      <c r="C47" s="136"/>
       <c r="D47" s="49"/>
       <c r="E47" s="53"/>
       <c r="F47" s="53"/>
@@ -4943,16 +4947,16 @@
       <c r="AU48" s="46"/>
     </row>
     <row r="49" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A49" s="110" t="s">
+      <c r="A49" s="123" t="s">
         <v>49</v>
       </c>
-      <c r="B49" s="112">
+      <c r="B49" s="135">
         <f>SUM(D49:AU49)</f>
         <v>11</v>
       </c>
-      <c r="C49" s="113">
+      <c r="C49" s="136">
         <f>SUM(D50:AU50)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D49" s="49"/>
       <c r="E49" s="53"/>
@@ -5022,9 +5026,9 @@
       </c>
     </row>
     <row r="50" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="115"/>
-      <c r="B50" s="116"/>
-      <c r="C50" s="114"/>
+      <c r="A50" s="134"/>
+      <c r="B50" s="131"/>
+      <c r="C50" s="133"/>
       <c r="D50" s="49"/>
       <c r="E50" s="53"/>
       <c r="F50" s="53"/>
@@ -5068,7 +5072,9 @@
         <v>1</v>
       </c>
       <c r="AF50" s="49"/>
-      <c r="AG50" s="53"/>
+      <c r="AG50" s="53">
+        <v>1</v>
+      </c>
       <c r="AH50" s="54"/>
       <c r="AI50" s="51"/>
       <c r="AJ50" s="49"/>
@@ -5085,14 +5091,14 @@
       <c r="AU50" s="48"/>
     </row>
     <row r="51" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A51" s="110" t="s">
+      <c r="A51" s="123" t="s">
         <v>58</v>
       </c>
-      <c r="B51" s="126">
+      <c r="B51" s="125">
         <f t="shared" ref="B51" si="38">SUM(D51:AU51)</f>
         <v>4</v>
       </c>
-      <c r="C51" s="128">
+      <c r="C51" s="127">
         <f t="shared" ref="C51" si="39">SUM(D52:AU52)</f>
         <v>3</v>
       </c>
@@ -5150,9 +5156,9 @@
       <c r="AU51" s="35"/>
     </row>
     <row r="52" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="111"/>
-      <c r="B52" s="127"/>
-      <c r="C52" s="129"/>
+      <c r="A52" s="124"/>
+      <c r="B52" s="126"/>
+      <c r="C52" s="128"/>
       <c r="D52" s="41">
         <v>1</v>
       </c>
@@ -5205,16 +5211,16 @@
       <c r="AU52" s="40"/>
     </row>
     <row r="53" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A53" s="117" t="s">
+      <c r="A53" s="129" t="s">
         <v>34</v>
       </c>
-      <c r="B53" s="118">
+      <c r="B53" s="130">
         <f t="shared" ref="B53" si="40">SUM(D53:AU53)</f>
         <v>2</v>
       </c>
-      <c r="C53" s="119">
+      <c r="C53" s="132">
         <f t="shared" ref="C53" si="41">SUM(D54:AU54)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D53" s="49"/>
       <c r="E53" s="53"/>
@@ -5266,9 +5272,9 @@
       <c r="AU53" s="48"/>
     </row>
     <row r="54" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="111"/>
-      <c r="B54" s="116"/>
-      <c r="C54" s="114"/>
+      <c r="A54" s="124"/>
+      <c r="B54" s="131"/>
+      <c r="C54" s="133"/>
       <c r="D54" s="49"/>
       <c r="E54" s="53"/>
       <c r="F54" s="53">
@@ -5300,7 +5306,9 @@
       <c r="AD54" s="53"/>
       <c r="AE54" s="48"/>
       <c r="AF54" s="49"/>
-      <c r="AG54" s="47"/>
+      <c r="AG54" s="47">
+        <v>1</v>
+      </c>
       <c r="AH54" s="50"/>
       <c r="AI54" s="51"/>
       <c r="AJ54" s="49"/>
@@ -5317,176 +5325,176 @@
       <c r="AU54" s="48"/>
     </row>
     <row r="55" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A55" s="136" t="s">
+      <c r="A55" s="117" t="s">
         <v>35</v>
       </c>
-      <c r="B55" s="138">
+      <c r="B55" s="119">
         <f>SUM(B6:B54)</f>
         <v>80</v>
       </c>
-      <c r="C55" s="140">
+      <c r="C55" s="121">
         <f>SUM(C6:C54)</f>
-        <v>52</v>
-      </c>
-      <c r="D55" s="134" cm="1">
+        <v>56</v>
+      </c>
+      <c r="D55" s="111" cm="1">
         <f t="array" ref="D55">SUM(D6:G6+D8:G8+D12:G12+D15:G15+D17:G17+D19:G19+D21:G21+D24:G24+D26:G26+D28:G28+D30:G30+D32:G32+D34:G34+D36:G36+D38:G38+D40:G40+D42:G42+D44:G44+D46:G46+D49:G49+D51:G51+D53:G53)</f>
         <v>8</v>
       </c>
-      <c r="E55" s="130"/>
-      <c r="F55" s="130" cm="1">
+      <c r="E55" s="106"/>
+      <c r="F55" s="106" cm="1">
         <f t="array" ref="F55">SUM(D7:G7+D9:G9+D13:G13+D16:G16+D18:G18+D20:G20+D22:G22+D25:G25+D27:G27+D29:G29+D31:G31+D33:G33+D35:G35+D37:G37+D39:G39+D41:G41+D43:G43+D45:G45+D47:G47+D50:G50+D52:G52+D54:G54)</f>
         <v>8</v>
       </c>
-      <c r="G55" s="131"/>
-      <c r="H55" s="134" cm="1">
+      <c r="G55" s="107"/>
+      <c r="H55" s="111" cm="1">
         <f t="array" ref="H55">SUM(H6:K6+H8:K8+H12:K12+H15:K15+H17:K17+H19:K19+H21:K21+H24:K24+H26:K26+H28:K28+H30:K30+H32:K32+H34:K34+H36:K36+H38:K38+H40:K40+H42:K42+H44:K44+H46:K46+H49:K49+H51:K51+H53:K53)</f>
         <v>8</v>
       </c>
-      <c r="I55" s="130"/>
-      <c r="J55" s="130" cm="1">
+      <c r="I55" s="106"/>
+      <c r="J55" s="106" cm="1">
         <f t="array" ref="J55">SUM(H7:K7+H9:K9+H13:K13+H16:K16+H18:K18+H20:K20+H22:K22+H25:K25+H27:K27+H29:K29+H31:K31+H33:K33+H35:K35+H37:K37+H39:K39+H41:K41+H43:K43+H45:K45+H47:K47+H50:K50+H52:K52+H54:K54)</f>
         <v>8</v>
       </c>
-      <c r="K55" s="131"/>
-      <c r="L55" s="149" cm="1">
+      <c r="K55" s="107"/>
+      <c r="L55" s="115" cm="1">
         <f t="array" ref="L55">SUM(L6:O6+L8:O8+L12:O12+L15:O15+L17:O17+L19:O19+L21:O21+L24:O24+L26:O26+L28:O28+L30:O30+L32:O32+L34:O34+L36:O36+L38:O38+L40:O40+L42:O42+L44:O44+L46:O46+L49:O49+L51:O51+L53:O53)</f>
         <v>8</v>
       </c>
-      <c r="M55" s="130"/>
-      <c r="N55" s="130" cm="1">
+      <c r="M55" s="106"/>
+      <c r="N55" s="106" cm="1">
         <f t="array" ref="N55">SUM(L7:O7+L9:O9+L13:O13+L16:O16+L18:O18+L20:O20+L22:O22+L25:O25+L27:O27+L29:O29+L31:O31+L33:O33+L35:O35+L37:O37+L39:O39+L41:O41+L43:O43+L45:O45+L47:O47+L50:O50+L52:O52+L54:O54)</f>
         <v>8</v>
       </c>
-      <c r="O55" s="131"/>
-      <c r="P55" s="134" cm="1">
+      <c r="O55" s="107"/>
+      <c r="P55" s="111" cm="1">
         <f t="array" ref="P55">SUM(P6:S6+P8:S8+P12:S12+P15:S15+P17:S17+P19:S19+P21:S21+P24:S24+P26:S26+P28:S28+P30:S30+P32:S32+P34:S34+P36:S36+P38:S38+P40:S40+P42:S42+P44:S44+P46:S46+P49:S49+P51:S51+P53:S53)</f>
         <v>4</v>
       </c>
-      <c r="Q55" s="130"/>
-      <c r="R55" s="130" cm="1">
+      <c r="Q55" s="106"/>
+      <c r="R55" s="106" cm="1">
         <f t="array" ref="R55">SUM(P7:S7+P9:S9+P13:S13+P16:S16+P18:S18+P20:S20+P22:S22+P25:S25+P27:S27+P29:S29+P31:S31+P33:S33+P35:S35+P37:S37+P39:S39+P41:S41+P43:S43+P45:S45+P47:S47+P50:S50+P52:S52+P54:S54)</f>
         <v>4</v>
       </c>
-      <c r="S55" s="131"/>
-      <c r="T55" s="134" cm="1">
+      <c r="S55" s="107"/>
+      <c r="T55" s="111" cm="1">
         <f t="array" ref="T55">SUM(T6:W6+T8:W8+T12:W12+T15:W15+T17:W17+T19:W19+T21:W21+T24:W24+T26:W26+T28:W28+T30:W30+T32:W32+T34:W34+T36:W36+T38:W38+T40:W40+T42:W42+T44:W44+T46:W46+T49:W49+T51:W51+T53:W53)</f>
         <v>8</v>
       </c>
-      <c r="U55" s="130"/>
-      <c r="V55" s="130" cm="1">
+      <c r="U55" s="106"/>
+      <c r="V55" s="106" cm="1">
         <f t="array" ref="V55">SUM(T7:W7+T9:W9+T13:W13+T16:W16+T18:W18+T20:W20+T22:W22+T25:W25+T27:W27+T29:W29+T31:W31+T33:W33+T35:W35+T37:W37+T39:W39+T41:W41+T43:W43+T45:W45+T47:W47+T50:W50+T52:W52+T54:W54)</f>
         <v>8</v>
       </c>
-      <c r="W55" s="131"/>
-      <c r="X55" s="134" cm="1">
+      <c r="W55" s="107"/>
+      <c r="X55" s="111" cm="1">
         <f t="array" ref="X55">SUM(X6:AA6+X8:AA8+X12:AA12+X15:AA15+X17:AA17+X19:AA19+X21:AA21+X24:AA24+X26:AA26+X28:AA28+X30:AA30+X32:AA32+X34:AA34+X36:AA36+X38:AA38+X40:AA40+X42:AA42+X44:AA44+X46:AA46+X49:AA49+X51:AA51+X53:AA53)</f>
         <v>8</v>
       </c>
-      <c r="Y55" s="130"/>
-      <c r="Z55" s="130" cm="1">
+      <c r="Y55" s="106"/>
+      <c r="Z55" s="106" cm="1">
         <f t="array" ref="Z55">SUM(X7:AA7+X9:AA9+X13:AA13+X16:AA16+X18:AA18+X20:AA20+X22:AA22+X25:AA25+X27:AA27+X29:AA29+X31:AA31+X33:AA33+X35:AA35+X37:AA37+X39:AA39+X41:AA41+X43:AA43+X45:AA45+X47:AA47+X50:AA50+X52:AA52+X54:AA54)</f>
         <v>8</v>
       </c>
-      <c r="AA55" s="147"/>
-      <c r="AB55" s="134" cm="1">
+      <c r="AA55" s="113"/>
+      <c r="AB55" s="111" cm="1">
         <f t="array" ref="AB55">SUM(AB6:AE6+AB8:AE8+AB12:AE12+AB15:AE15+AB17:AE17+AB19:AE19+AB21:AE21+AB24:AE24+AB26:AE26+AB28:AE28+AB30:AE30+AB32:AE32+AB34:AE34+AB36:AE36+AB38:AE38+AB40:AE40+AB42:AE42+AB44:AE44+AB46:AE46+AB49:AE49+AB51:AE51+AB53:AE53)</f>
         <v>8</v>
       </c>
-      <c r="AC55" s="130"/>
-      <c r="AD55" s="130" cm="1">
+      <c r="AC55" s="106"/>
+      <c r="AD55" s="106" cm="1">
         <f t="array" ref="AD55">SUM(AB7:AE7+AB9:AE9+AB13:AE13+AB16:AE16+AB18:AE18+AB20:AE20+AB22:AE22+AB25:AE25+AB27:AE27+AB29:AE29+AB31:AE31+AB33:AE33+AB35:AE35+AB37:AE37+AB39:AE39+AB41:AE41+AB43:AE43+AB45:AE45+AB47:AE47+AB50:AE50+AB52:AE52+AB54:AE54)</f>
         <v>8</v>
       </c>
-      <c r="AE55" s="131"/>
-      <c r="AF55" s="134" cm="1">
+      <c r="AE55" s="107"/>
+      <c r="AF55" s="111" cm="1">
         <f t="array" ref="AF55">SUM(AF6:AI6+AF8:AI8+AF12:AI12+AF15:AI15+AF17:AI17+AF19:AI19+AF21:AI21+AF24:AI24+AF26:AI26+AF28:AI28+AF30:AI30+AF32:AI32+AF34:AI34+AF36:AI36+AF38:AI38+AF40:AI40+AF42:AI42+AF44:AI44+AF46:AI46+AF49:AI49+AF51:AI51+AF53:AI53)</f>
         <v>4</v>
       </c>
-      <c r="AG55" s="130"/>
-      <c r="AH55" s="130" cm="1">
+      <c r="AG55" s="106"/>
+      <c r="AH55" s="106" cm="1">
         <f t="array" ref="AH55">SUM(AF7:AI7+AF9:AI9+AF13:AI13+AF16:AI16+AF18:AI18+AF20:AI20+AF22:AI22+AF25:AI25+AF27:AI27+AF29:AI29+AF31:AI31+AF33:AI33+AF35:AI35+AF37:AI37+AF39:AI39+AF41:AI41+AF43:AI43+AF45:AI45+AF47:AI47+AF50:AI50+AF52:AI52+AF54:AI54)</f>
-        <v>0</v>
-      </c>
-      <c r="AI55" s="131"/>
-      <c r="AJ55" s="134" cm="1">
+        <v>4</v>
+      </c>
+      <c r="AI55" s="107"/>
+      <c r="AJ55" s="111" cm="1">
         <f t="array" ref="AJ55">SUM(AJ6:AM6+AJ8:AM8+AJ12:AM12+AJ15:AM15+AJ17:AM17+AJ19:AM19+AJ21:AM21+AJ24:AM24+AJ26:AM26+AJ28:AM28+AJ30:AM30+AJ32:AM32+AJ34:AM34+AJ36:AM36+AJ38:AM38+AJ40:AM40+AJ42:AM42+AJ44:AM44+AJ46:AM46+AJ49:AM49+AJ51:AM51+AJ53:AM53)</f>
         <v>8</v>
       </c>
-      <c r="AK55" s="130"/>
-      <c r="AL55" s="130" cm="1">
+      <c r="AK55" s="106"/>
+      <c r="AL55" s="106" cm="1">
         <f t="array" ref="AL55">SUM(AJ7:AM7+AJ9:AM9+AJ13:AM13+AJ16:AM16+AJ18:AM18+AJ20:AM20+AJ22:AM22+AJ25:AM25+AJ27:AM27+AJ29:AM29+AJ31:AM31+AJ33:AM33+AJ35:AM35+AJ37:AM37+AJ39:AM39+AJ41:AM41+AJ43:AM43+AJ45:AM45+AJ47:AM47+AJ50:AM50+AJ52:AM52+AJ54:AM54)</f>
         <v>0</v>
       </c>
-      <c r="AM55" s="131"/>
-      <c r="AN55" s="134" cm="1">
+      <c r="AM55" s="107"/>
+      <c r="AN55" s="111" cm="1">
         <f t="array" ref="AN55">SUM(AN6:AQ6+AN8:AQ8+AN12:AQ12+AN15:AQ15+AN17:AQ17+AN19:AQ19+AN21:AQ21+AN24:AQ24+AN26:AQ26+AN28:AQ28+AN30:AQ30+AN32:AQ32+AN34:AQ34+AN36:AQ36+AN38:AQ38+AN40:AQ40+AN42:AQ42+AN44:AQ44+AN46:AQ46+AN49:AQ49+AN51:AQ51+AN53:AQ53)</f>
         <v>8</v>
       </c>
-      <c r="AO55" s="130"/>
-      <c r="AP55" s="130" cm="1">
+      <c r="AO55" s="106"/>
+      <c r="AP55" s="106" cm="1">
         <f t="array" ref="AP55">SUM(AN7:AQ7+AN9:AQ9+AN13:AQ13+AN16:AQ16+AN18:AQ18+AN20:AQ20+AN22:AQ22+AN25:AQ25+AN27:AQ27+AN29:AQ29+AN31:AQ31+AN33:AQ33+AN35:AQ35+AN37:AQ37+AN39:AQ39+AN41:AQ41+AN43:AQ43+AN45:AQ45+AN47:AQ47+AN50:AQ50+AN52:AQ52+AN54:AQ54)</f>
         <v>0</v>
       </c>
-      <c r="AQ55" s="131"/>
-      <c r="AR55" s="134" cm="1">
+      <c r="AQ55" s="107"/>
+      <c r="AR55" s="111" cm="1">
         <f t="array" ref="AR55">SUM(AR6:AU6+AR8:AU8+AR12:AU12+AR15:AU15+AR17:AU17+AR19:AU19+AR21:AU21+AR24:AU24+AR26:AU26+AR28:AU28+AR30:AU30+AR32:AU32+AR34:AU34+AR36:AU36+AR38:AU38+AR40:AU40+AR42:AU42+AR44:AU44+AR46:AU46+AR49:AU49+AR51:AU51+AR53:AU53)</f>
         <v>8</v>
       </c>
-      <c r="AS55" s="130"/>
-      <c r="AT55" s="130" cm="1">
+      <c r="AS55" s="106"/>
+      <c r="AT55" s="106" cm="1">
         <f t="array" ref="AT55">SUM(AR7:AU7+AR9:AU9+AR13:AU13+AR16:AU16+AR18:AU18+AR20:AU20+AR22:AU22+AR25:AU25+AR27:AU27+AR29:AU29+AR31:AU31+AR33:AU33+AR35:AU35+AR37:AU37+AR39:AU39+AR41:AU41+AR43:AU43+AR45:AU45+AR47:AU47+AR50:AU50+AR52:AU52+AR54:AU54)</f>
         <v>0</v>
       </c>
-      <c r="AU55" s="131"/>
+      <c r="AU55" s="107"/>
     </row>
     <row r="56" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="137"/>
-      <c r="B56" s="139"/>
-      <c r="C56" s="141"/>
-      <c r="D56" s="135"/>
-      <c r="E56" s="132"/>
-      <c r="F56" s="132"/>
-      <c r="G56" s="133"/>
-      <c r="H56" s="135"/>
-      <c r="I56" s="132"/>
-      <c r="J56" s="132"/>
-      <c r="K56" s="133"/>
-      <c r="L56" s="150"/>
-      <c r="M56" s="132"/>
-      <c r="N56" s="132"/>
-      <c r="O56" s="133"/>
-      <c r="P56" s="135"/>
-      <c r="Q56" s="132"/>
-      <c r="R56" s="132"/>
-      <c r="S56" s="133"/>
-      <c r="T56" s="135"/>
-      <c r="U56" s="132"/>
-      <c r="V56" s="132"/>
-      <c r="W56" s="133"/>
-      <c r="X56" s="135"/>
-      <c r="Y56" s="132"/>
-      <c r="Z56" s="132"/>
-      <c r="AA56" s="148"/>
-      <c r="AB56" s="135"/>
-      <c r="AC56" s="132"/>
-      <c r="AD56" s="132"/>
-      <c r="AE56" s="133"/>
-      <c r="AF56" s="135"/>
-      <c r="AG56" s="132"/>
-      <c r="AH56" s="132"/>
-      <c r="AI56" s="133"/>
-      <c r="AJ56" s="135"/>
-      <c r="AK56" s="132"/>
-      <c r="AL56" s="132"/>
-      <c r="AM56" s="133"/>
-      <c r="AN56" s="135"/>
-      <c r="AO56" s="132"/>
-      <c r="AP56" s="132"/>
-      <c r="AQ56" s="133"/>
-      <c r="AR56" s="135"/>
-      <c r="AS56" s="132"/>
-      <c r="AT56" s="132"/>
-      <c r="AU56" s="133"/>
+      <c r="A56" s="118"/>
+      <c r="B56" s="120"/>
+      <c r="C56" s="122"/>
+      <c r="D56" s="112"/>
+      <c r="E56" s="108"/>
+      <c r="F56" s="108"/>
+      <c r="G56" s="109"/>
+      <c r="H56" s="112"/>
+      <c r="I56" s="108"/>
+      <c r="J56" s="108"/>
+      <c r="K56" s="109"/>
+      <c r="L56" s="116"/>
+      <c r="M56" s="108"/>
+      <c r="N56" s="108"/>
+      <c r="O56" s="109"/>
+      <c r="P56" s="112"/>
+      <c r="Q56" s="108"/>
+      <c r="R56" s="108"/>
+      <c r="S56" s="109"/>
+      <c r="T56" s="112"/>
+      <c r="U56" s="108"/>
+      <c r="V56" s="108"/>
+      <c r="W56" s="109"/>
+      <c r="X56" s="112"/>
+      <c r="Y56" s="108"/>
+      <c r="Z56" s="108"/>
+      <c r="AA56" s="114"/>
+      <c r="AB56" s="112"/>
+      <c r="AC56" s="108"/>
+      <c r="AD56" s="108"/>
+      <c r="AE56" s="109"/>
+      <c r="AF56" s="112"/>
+      <c r="AG56" s="108"/>
+      <c r="AH56" s="108"/>
+      <c r="AI56" s="109"/>
+      <c r="AJ56" s="112"/>
+      <c r="AK56" s="108"/>
+      <c r="AL56" s="108"/>
+      <c r="AM56" s="109"/>
+      <c r="AN56" s="112"/>
+      <c r="AO56" s="108"/>
+      <c r="AP56" s="108"/>
+      <c r="AQ56" s="109"/>
+      <c r="AR56" s="112"/>
+      <c r="AS56" s="108"/>
+      <c r="AT56" s="108"/>
+      <c r="AU56" s="109"/>
     </row>
     <row r="57" spans="1:47" ht="17" x14ac:dyDescent="0.25">
       <c r="A57" s="6"/>
@@ -5496,94 +5504,94 @@
       <c r="C57" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D57" s="142" t="s">
+      <c r="D57" s="103" t="s">
         <v>14</v>
       </c>
-      <c r="E57" s="143"/>
-      <c r="F57" s="144" t="s">
+      <c r="E57" s="104"/>
+      <c r="F57" s="99" t="s">
         <v>15</v>
       </c>
-      <c r="G57" s="145"/>
-      <c r="H57" s="142" t="s">
+      <c r="G57" s="100"/>
+      <c r="H57" s="103" t="s">
         <v>14</v>
       </c>
-      <c r="I57" s="143"/>
-      <c r="J57" s="144" t="s">
+      <c r="I57" s="104"/>
+      <c r="J57" s="99" t="s">
         <v>15</v>
       </c>
-      <c r="K57" s="145"/>
-      <c r="L57" s="146" t="s">
+      <c r="K57" s="100"/>
+      <c r="L57" s="110" t="s">
         <v>14</v>
       </c>
-      <c r="M57" s="143"/>
-      <c r="N57" s="144" t="s">
+      <c r="M57" s="104"/>
+      <c r="N57" s="99" t="s">
         <v>15</v>
       </c>
-      <c r="O57" s="145"/>
-      <c r="P57" s="142" t="s">
+      <c r="O57" s="100"/>
+      <c r="P57" s="103" t="s">
         <v>14</v>
       </c>
-      <c r="Q57" s="143"/>
-      <c r="R57" s="144" t="s">
+      <c r="Q57" s="104"/>
+      <c r="R57" s="99" t="s">
         <v>15</v>
       </c>
-      <c r="S57" s="145"/>
-      <c r="T57" s="142" t="s">
+      <c r="S57" s="100"/>
+      <c r="T57" s="103" t="s">
         <v>14</v>
       </c>
-      <c r="U57" s="143"/>
-      <c r="V57" s="144" t="s">
+      <c r="U57" s="104"/>
+      <c r="V57" s="99" t="s">
         <v>15</v>
       </c>
-      <c r="W57" s="145"/>
-      <c r="X57" s="142" t="s">
+      <c r="W57" s="100"/>
+      <c r="X57" s="103" t="s">
         <v>14</v>
       </c>
-      <c r="Y57" s="143"/>
-      <c r="Z57" s="144" t="s">
+      <c r="Y57" s="104"/>
+      <c r="Z57" s="99" t="s">
         <v>15</v>
       </c>
-      <c r="AA57" s="156"/>
-      <c r="AB57" s="142" t="s">
+      <c r="AA57" s="105"/>
+      <c r="AB57" s="103" t="s">
         <v>14</v>
       </c>
-      <c r="AC57" s="143"/>
-      <c r="AD57" s="144" t="s">
+      <c r="AC57" s="104"/>
+      <c r="AD57" s="99" t="s">
         <v>15</v>
       </c>
-      <c r="AE57" s="145"/>
-      <c r="AF57" s="142" t="s">
+      <c r="AE57" s="100"/>
+      <c r="AF57" s="103" t="s">
         <v>14</v>
       </c>
-      <c r="AG57" s="143"/>
-      <c r="AH57" s="144" t="s">
+      <c r="AG57" s="104"/>
+      <c r="AH57" s="99" t="s">
         <v>15</v>
       </c>
-      <c r="AI57" s="145"/>
-      <c r="AJ57" s="142" t="s">
+      <c r="AI57" s="100"/>
+      <c r="AJ57" s="103" t="s">
         <v>14</v>
       </c>
-      <c r="AK57" s="143"/>
-      <c r="AL57" s="144" t="s">
+      <c r="AK57" s="104"/>
+      <c r="AL57" s="99" t="s">
         <v>15</v>
       </c>
-      <c r="AM57" s="145"/>
-      <c r="AN57" s="142" t="s">
+      <c r="AM57" s="100"/>
+      <c r="AN57" s="103" t="s">
         <v>14</v>
       </c>
-      <c r="AO57" s="143"/>
-      <c r="AP57" s="144" t="s">
+      <c r="AO57" s="104"/>
+      <c r="AP57" s="99" t="s">
         <v>15</v>
       </c>
-      <c r="AQ57" s="145"/>
-      <c r="AR57" s="142" t="s">
+      <c r="AQ57" s="100"/>
+      <c r="AR57" s="103" t="s">
         <v>14</v>
       </c>
-      <c r="AS57" s="143"/>
-      <c r="AT57" s="144" t="s">
+      <c r="AS57" s="104"/>
+      <c r="AT57" s="99" t="s">
         <v>15</v>
       </c>
-      <c r="AU57" s="145"/>
+      <c r="AU57" s="100"/>
     </row>
     <row r="58" spans="1:47" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="8"/>
@@ -5593,150 +5601,150 @@
       <c r="C58" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="D58" s="151">
+      <c r="D58" s="96">
         <f>D3</f>
         <v>43873</v>
       </c>
-      <c r="E58" s="152"/>
-      <c r="F58" s="152"/>
-      <c r="G58" s="153"/>
-      <c r="H58" s="151">
+      <c r="E58" s="97"/>
+      <c r="F58" s="97"/>
+      <c r="G58" s="98"/>
+      <c r="H58" s="96">
         <f>H3</f>
         <v>43874</v>
       </c>
-      <c r="I58" s="152"/>
-      <c r="J58" s="152"/>
-      <c r="K58" s="153"/>
-      <c r="L58" s="154">
+      <c r="I58" s="97"/>
+      <c r="J58" s="97"/>
+      <c r="K58" s="98"/>
+      <c r="L58" s="101">
         <f>L3</f>
         <v>43875</v>
       </c>
-      <c r="M58" s="152"/>
-      <c r="N58" s="152"/>
-      <c r="O58" s="153"/>
-      <c r="P58" s="151">
+      <c r="M58" s="97"/>
+      <c r="N58" s="97"/>
+      <c r="O58" s="98"/>
+      <c r="P58" s="96">
         <f>P3</f>
         <v>43878</v>
       </c>
-      <c r="Q58" s="152"/>
-      <c r="R58" s="152"/>
-      <c r="S58" s="153"/>
-      <c r="T58" s="151">
+      <c r="Q58" s="97"/>
+      <c r="R58" s="97"/>
+      <c r="S58" s="98"/>
+      <c r="T58" s="96">
         <f>T3</f>
         <v>43880</v>
       </c>
-      <c r="U58" s="152"/>
-      <c r="V58" s="152"/>
-      <c r="W58" s="153"/>
-      <c r="X58" s="151">
+      <c r="U58" s="97"/>
+      <c r="V58" s="97"/>
+      <c r="W58" s="98"/>
+      <c r="X58" s="96">
         <f>X3</f>
         <v>43881</v>
       </c>
-      <c r="Y58" s="152"/>
-      <c r="Z58" s="152"/>
-      <c r="AA58" s="155"/>
-      <c r="AB58" s="151">
+      <c r="Y58" s="97"/>
+      <c r="Z58" s="97"/>
+      <c r="AA58" s="102"/>
+      <c r="AB58" s="96">
         <f>AB3</f>
         <v>43882</v>
       </c>
-      <c r="AC58" s="152"/>
-      <c r="AD58" s="152"/>
-      <c r="AE58" s="153"/>
-      <c r="AF58" s="151">
+      <c r="AC58" s="97"/>
+      <c r="AD58" s="97"/>
+      <c r="AE58" s="98"/>
+      <c r="AF58" s="96">
         <f>AF3</f>
         <v>43885</v>
       </c>
-      <c r="AG58" s="152"/>
-      <c r="AH58" s="152"/>
-      <c r="AI58" s="153"/>
-      <c r="AJ58" s="151">
+      <c r="AG58" s="97"/>
+      <c r="AH58" s="97"/>
+      <c r="AI58" s="98"/>
+      <c r="AJ58" s="96">
         <f>AJ3</f>
         <v>43887</v>
       </c>
-      <c r="AK58" s="152"/>
-      <c r="AL58" s="152"/>
-      <c r="AM58" s="153"/>
-      <c r="AN58" s="151">
+      <c r="AK58" s="97"/>
+      <c r="AL58" s="97"/>
+      <c r="AM58" s="98"/>
+      <c r="AN58" s="96">
         <f>AN3</f>
         <v>43888</v>
       </c>
-      <c r="AO58" s="152"/>
-      <c r="AP58" s="152"/>
-      <c r="AQ58" s="153"/>
-      <c r="AR58" s="151">
+      <c r="AO58" s="97"/>
+      <c r="AP58" s="97"/>
+      <c r="AQ58" s="98"/>
+      <c r="AR58" s="96">
         <f>AR3</f>
         <v>43889</v>
       </c>
-      <c r="AS58" s="152"/>
-      <c r="AT58" s="152"/>
-      <c r="AU58" s="153"/>
+      <c r="AS58" s="97"/>
+      <c r="AT58" s="97"/>
+      <c r="AU58" s="98"/>
     </row>
     <row r="59" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="60" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="160" t="s">
+      <c r="A60" s="93" t="s">
         <v>37</v>
       </c>
-      <c r="B60" s="161"/>
-      <c r="C60" s="162"/>
+      <c r="B60" s="94"/>
+      <c r="C60" s="95"/>
     </row>
     <row r="61" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A61" s="159" t="s">
+      <c r="A61" s="91" t="s">
         <v>38</v>
       </c>
-      <c r="B61" s="89"/>
+      <c r="B61" s="92"/>
       <c r="C61" s="18"/>
     </row>
     <row r="62" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A62" s="159" t="s">
+      <c r="A62" s="91" t="s">
         <v>39</v>
       </c>
-      <c r="B62" s="89"/>
+      <c r="B62" s="92"/>
       <c r="C62" s="19"/>
     </row>
     <row r="63" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A63" s="159" t="s">
+      <c r="A63" s="91" t="s">
         <v>40</v>
       </c>
-      <c r="B63" s="89"/>
+      <c r="B63" s="92"/>
       <c r="C63" s="20"/>
     </row>
     <row r="64" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A64" s="159" t="s">
+      <c r="A64" s="91" t="s">
         <v>41</v>
       </c>
-      <c r="B64" s="89"/>
+      <c r="B64" s="92"/>
       <c r="C64" s="21"/>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A65" s="159" t="s">
+      <c r="A65" s="91" t="s">
         <v>42</v>
       </c>
-      <c r="B65" s="89"/>
+      <c r="B65" s="92"/>
       <c r="C65" s="22"/>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A66" s="159" t="s">
+      <c r="A66" s="91" t="s">
         <v>12</v>
       </c>
-      <c r="B66" s="89"/>
+      <c r="B66" s="92"/>
       <c r="C66" s="23" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A67" s="159" t="s">
+      <c r="A67" s="91" t="s">
         <v>13</v>
       </c>
-      <c r="B67" s="89"/>
+      <c r="B67" s="92"/>
       <c r="C67" s="23" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="157" t="s">
+      <c r="A68" s="89" t="s">
         <v>45</v>
       </c>
-      <c r="B68" s="158"/>
+      <c r="B68" s="90"/>
       <c r="C68" s="24"/>
     </row>
     <row r="69" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
@@ -5777,15 +5785,162 @@
     </row>
   </sheetData>
   <mergeCells count="189">
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="A60:C60"/>
-    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="A1:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="L1:O1"/>
+    <mergeCell ref="P1:S1"/>
+    <mergeCell ref="T1:W1"/>
+    <mergeCell ref="H2:K2"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="P2:S2"/>
+    <mergeCell ref="T2:W2"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="AF2:AI2"/>
+    <mergeCell ref="AJ2:AM2"/>
+    <mergeCell ref="H3:K3"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="P3:S3"/>
+    <mergeCell ref="T3:W3"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="R4:S4"/>
+    <mergeCell ref="AN1:AQ1"/>
+    <mergeCell ref="AR1:AU1"/>
+    <mergeCell ref="AN2:AQ2"/>
+    <mergeCell ref="AR2:AU2"/>
+    <mergeCell ref="AN3:AQ3"/>
+    <mergeCell ref="AR3:AU3"/>
+    <mergeCell ref="AN4:AO4"/>
+    <mergeCell ref="AP4:AQ4"/>
+    <mergeCell ref="X3:AA3"/>
+    <mergeCell ref="AB3:AE3"/>
+    <mergeCell ref="AF3:AI3"/>
+    <mergeCell ref="AJ3:AM3"/>
+    <mergeCell ref="X4:Y4"/>
+    <mergeCell ref="Z4:AA4"/>
+    <mergeCell ref="AB4:AC4"/>
+    <mergeCell ref="AD4:AE4"/>
+    <mergeCell ref="AF4:AG4"/>
+    <mergeCell ref="AH4:AI4"/>
+    <mergeCell ref="X1:AA1"/>
+    <mergeCell ref="AB1:AE1"/>
+    <mergeCell ref="AF1:AI1"/>
+    <mergeCell ref="AJ1:AM1"/>
+    <mergeCell ref="X2:AA2"/>
+    <mergeCell ref="AB2:AE2"/>
+    <mergeCell ref="AR4:AS4"/>
+    <mergeCell ref="AT4:AU4"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="AJ4:AK4"/>
+    <mergeCell ref="AL4:AM4"/>
+    <mergeCell ref="T4:U4"/>
+    <mergeCell ref="V4:W4"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="N55:O56"/>
+    <mergeCell ref="P55:Q56"/>
+    <mergeCell ref="R55:S56"/>
+    <mergeCell ref="T55:U56"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="D55:E56"/>
+    <mergeCell ref="F55:G56"/>
+    <mergeCell ref="H55:I56"/>
+    <mergeCell ref="AT55:AU56"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="F57:G57"/>
+    <mergeCell ref="H57:I57"/>
+    <mergeCell ref="J57:K57"/>
+    <mergeCell ref="L57:M57"/>
+    <mergeCell ref="N57:O57"/>
+    <mergeCell ref="P57:Q57"/>
+    <mergeCell ref="R57:S57"/>
+    <mergeCell ref="T57:U57"/>
+    <mergeCell ref="AH55:AI56"/>
+    <mergeCell ref="AJ55:AK56"/>
+    <mergeCell ref="AL55:AM56"/>
+    <mergeCell ref="AN55:AO56"/>
+    <mergeCell ref="AP55:AQ56"/>
+    <mergeCell ref="AR55:AS56"/>
+    <mergeCell ref="V55:W56"/>
+    <mergeCell ref="X55:Y56"/>
+    <mergeCell ref="Z55:AA56"/>
+    <mergeCell ref="AB55:AC56"/>
+    <mergeCell ref="AD55:AE56"/>
+    <mergeCell ref="AF55:AG56"/>
+    <mergeCell ref="J55:K56"/>
+    <mergeCell ref="L55:M56"/>
     <mergeCell ref="AN58:AQ58"/>
     <mergeCell ref="AR58:AU58"/>
     <mergeCell ref="AT57:AU57"/>
@@ -5810,162 +5965,15 @@
     <mergeCell ref="AB57:AC57"/>
     <mergeCell ref="AD57:AE57"/>
     <mergeCell ref="AF57:AG57"/>
-    <mergeCell ref="AT55:AU56"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="F57:G57"/>
-    <mergeCell ref="H57:I57"/>
-    <mergeCell ref="J57:K57"/>
-    <mergeCell ref="L57:M57"/>
-    <mergeCell ref="N57:O57"/>
-    <mergeCell ref="P57:Q57"/>
-    <mergeCell ref="R57:S57"/>
-    <mergeCell ref="T57:U57"/>
-    <mergeCell ref="AH55:AI56"/>
-    <mergeCell ref="AJ55:AK56"/>
-    <mergeCell ref="AL55:AM56"/>
-    <mergeCell ref="AN55:AO56"/>
-    <mergeCell ref="AP55:AQ56"/>
-    <mergeCell ref="AR55:AS56"/>
-    <mergeCell ref="V55:W56"/>
-    <mergeCell ref="X55:Y56"/>
-    <mergeCell ref="Z55:AA56"/>
-    <mergeCell ref="AB55:AC56"/>
-    <mergeCell ref="AD55:AE56"/>
-    <mergeCell ref="AF55:AG56"/>
-    <mergeCell ref="J55:K56"/>
-    <mergeCell ref="L55:M56"/>
-    <mergeCell ref="N55:O56"/>
-    <mergeCell ref="P55:Q56"/>
-    <mergeCell ref="R55:S56"/>
-    <mergeCell ref="T55:U56"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="D55:E56"/>
-    <mergeCell ref="F55:G56"/>
-    <mergeCell ref="H55:I56"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="AR4:AS4"/>
-    <mergeCell ref="AT4:AU4"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="AJ4:AK4"/>
-    <mergeCell ref="AL4:AM4"/>
-    <mergeCell ref="T4:U4"/>
-    <mergeCell ref="V4:W4"/>
-    <mergeCell ref="AN1:AQ1"/>
-    <mergeCell ref="AR1:AU1"/>
-    <mergeCell ref="AN2:AQ2"/>
-    <mergeCell ref="AR2:AU2"/>
-    <mergeCell ref="AN3:AQ3"/>
-    <mergeCell ref="AR3:AU3"/>
-    <mergeCell ref="AN4:AO4"/>
-    <mergeCell ref="AP4:AQ4"/>
-    <mergeCell ref="X3:AA3"/>
-    <mergeCell ref="AB3:AE3"/>
-    <mergeCell ref="AF3:AI3"/>
-    <mergeCell ref="AJ3:AM3"/>
-    <mergeCell ref="X4:Y4"/>
-    <mergeCell ref="Z4:AA4"/>
-    <mergeCell ref="AB4:AC4"/>
-    <mergeCell ref="AD4:AE4"/>
-    <mergeCell ref="AF4:AG4"/>
-    <mergeCell ref="AH4:AI4"/>
-    <mergeCell ref="X1:AA1"/>
-    <mergeCell ref="AB1:AE1"/>
-    <mergeCell ref="AF1:AI1"/>
-    <mergeCell ref="AJ1:AM1"/>
-    <mergeCell ref="X2:AA2"/>
-    <mergeCell ref="AB2:AE2"/>
-    <mergeCell ref="AF2:AI2"/>
-    <mergeCell ref="AJ2:AM2"/>
-    <mergeCell ref="H3:K3"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="P3:S3"/>
-    <mergeCell ref="T3:W3"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="R4:S4"/>
-    <mergeCell ref="A1:C3"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="L1:O1"/>
-    <mergeCell ref="P1:S1"/>
-    <mergeCell ref="T1:W1"/>
-    <mergeCell ref="H2:K2"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="P2:S2"/>
-    <mergeCell ref="T2:W2"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A60:C60"/>
+    <mergeCell ref="A61:B61"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="D6:AU6 D8:AU8 D12:J12 L12:AU12 K13 D44:AR44 AT44:AU44 AR45">

--- a/02_zeitplan/IPA_Zeitplan_Kabilan_Sivanamam.xlsx
+++ b/02_zeitplan/IPA_Zeitplan_Kabilan_Sivanamam.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kabi/Documents/GitHub/IPA2020/02_zeitplan/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E65962F-5105-6344-B50E-9840858D3663}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2BD00D5-A9DB-D540-AEFF-AAA57145FCB6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{919B10DA-F269-3C46-8A86-B94EB657325B}"/>
   </bookViews>
@@ -1098,6 +1098,210 @@
     <xf numFmtId="1" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="3" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="3" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="3" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="3" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -1107,9 +1311,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1117,207 +1318,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="3" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="3" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="3" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="3" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2142,8 +2142,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE2EA0AA-2CD7-9C47-95CA-C0AE6CDA2CB2}">
   <dimension ref="A1:AU74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="AD51" sqref="AD51"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="AD43" sqref="AD43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2155,230 +2155,230 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="89" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="146" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="147"/>
-      <c r="F1" s="147"/>
-      <c r="G1" s="148"/>
-      <c r="H1" s="146" t="s">
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="96" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="147"/>
-      <c r="J1" s="147"/>
-      <c r="K1" s="148"/>
-      <c r="L1" s="161" t="s">
+      <c r="I1" s="97"/>
+      <c r="J1" s="97"/>
+      <c r="K1" s="98"/>
+      <c r="L1" s="99" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="147"/>
-      <c r="N1" s="147"/>
-      <c r="O1" s="148"/>
-      <c r="P1" s="146" t="s">
+      <c r="M1" s="97"/>
+      <c r="N1" s="97"/>
+      <c r="O1" s="98"/>
+      <c r="P1" s="96" t="s">
         <v>4</v>
       </c>
-      <c r="Q1" s="147"/>
-      <c r="R1" s="147"/>
-      <c r="S1" s="148"/>
-      <c r="T1" s="146" t="s">
+      <c r="Q1" s="97"/>
+      <c r="R1" s="97"/>
+      <c r="S1" s="98"/>
+      <c r="T1" s="96" t="s">
         <v>5</v>
       </c>
-      <c r="U1" s="147"/>
-      <c r="V1" s="147"/>
-      <c r="W1" s="148"/>
-      <c r="X1" s="146" t="s">
+      <c r="U1" s="97"/>
+      <c r="V1" s="97"/>
+      <c r="W1" s="98"/>
+      <c r="X1" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="Y1" s="147"/>
-      <c r="Z1" s="147"/>
-      <c r="AA1" s="157"/>
-      <c r="AB1" s="146" t="s">
+      <c r="Y1" s="97"/>
+      <c r="Z1" s="97"/>
+      <c r="AA1" s="108"/>
+      <c r="AB1" s="96" t="s">
         <v>7</v>
       </c>
-      <c r="AC1" s="147"/>
-      <c r="AD1" s="147"/>
-      <c r="AE1" s="148"/>
-      <c r="AF1" s="146" t="s">
+      <c r="AC1" s="97"/>
+      <c r="AD1" s="97"/>
+      <c r="AE1" s="98"/>
+      <c r="AF1" s="96" t="s">
         <v>8</v>
       </c>
-      <c r="AG1" s="147"/>
-      <c r="AH1" s="147"/>
-      <c r="AI1" s="148"/>
-      <c r="AJ1" s="146" t="s">
+      <c r="AG1" s="97"/>
+      <c r="AH1" s="97"/>
+      <c r="AI1" s="98"/>
+      <c r="AJ1" s="96" t="s">
         <v>9</v>
       </c>
-      <c r="AK1" s="147"/>
-      <c r="AL1" s="147"/>
-      <c r="AM1" s="148"/>
-      <c r="AN1" s="146" t="s">
+      <c r="AK1" s="97"/>
+      <c r="AL1" s="97"/>
+      <c r="AM1" s="98"/>
+      <c r="AN1" s="96" t="s">
         <v>10</v>
       </c>
-      <c r="AO1" s="147"/>
-      <c r="AP1" s="147"/>
-      <c r="AQ1" s="148"/>
-      <c r="AR1" s="146" t="s">
+      <c r="AO1" s="97"/>
+      <c r="AP1" s="97"/>
+      <c r="AQ1" s="98"/>
+      <c r="AR1" s="96" t="s">
         <v>11</v>
       </c>
-      <c r="AS1" s="147"/>
-      <c r="AT1" s="147"/>
-      <c r="AU1" s="148"/>
+      <c r="AS1" s="97"/>
+      <c r="AT1" s="97"/>
+      <c r="AU1" s="98"/>
     </row>
     <row r="2" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A2" s="92"/>
-      <c r="B2" s="92"/>
-      <c r="C2" s="92"/>
-      <c r="D2" s="149" t="str">
+      <c r="A2" s="89"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="100" t="str">
         <f>TEXT(D3,"ddd")</f>
         <v>Wed</v>
       </c>
-      <c r="E2" s="150"/>
-      <c r="F2" s="150"/>
-      <c r="G2" s="151"/>
-      <c r="H2" s="149" t="str">
+      <c r="E2" s="101"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="100" t="str">
         <f t="shared" ref="H2" si="0">TEXT(H3,"ddd")</f>
         <v>Thu</v>
       </c>
-      <c r="I2" s="150"/>
-      <c r="J2" s="150"/>
-      <c r="K2" s="151"/>
-      <c r="L2" s="162" t="str">
+      <c r="I2" s="101"/>
+      <c r="J2" s="101"/>
+      <c r="K2" s="102"/>
+      <c r="L2" s="103" t="str">
         <f t="shared" ref="L2" si="1">TEXT(L3,"ddd")</f>
         <v>Fri</v>
       </c>
-      <c r="M2" s="150"/>
-      <c r="N2" s="150"/>
-      <c r="O2" s="151"/>
-      <c r="P2" s="149" t="str">
+      <c r="M2" s="101"/>
+      <c r="N2" s="101"/>
+      <c r="O2" s="102"/>
+      <c r="P2" s="100" t="str">
         <f t="shared" ref="P2" si="2">TEXT(P3,"ddd")</f>
         <v>Mon</v>
       </c>
-      <c r="Q2" s="150"/>
-      <c r="R2" s="150"/>
-      <c r="S2" s="151"/>
-      <c r="T2" s="149" t="str">
+      <c r="Q2" s="101"/>
+      <c r="R2" s="101"/>
+      <c r="S2" s="102"/>
+      <c r="T2" s="100" t="str">
         <f t="shared" ref="T2" si="3">TEXT(T3,"ddd")</f>
         <v>Wed</v>
       </c>
-      <c r="U2" s="150"/>
-      <c r="V2" s="150"/>
-      <c r="W2" s="151"/>
-      <c r="X2" s="149" t="str">
+      <c r="U2" s="101"/>
+      <c r="V2" s="101"/>
+      <c r="W2" s="102"/>
+      <c r="X2" s="100" t="str">
         <f t="shared" ref="X2" si="4">TEXT(X3,"ddd")</f>
         <v>Thu</v>
       </c>
-      <c r="Y2" s="150"/>
-      <c r="Z2" s="150"/>
-      <c r="AA2" s="158"/>
-      <c r="AB2" s="149" t="str">
+      <c r="Y2" s="101"/>
+      <c r="Z2" s="101"/>
+      <c r="AA2" s="109"/>
+      <c r="AB2" s="100" t="str">
         <f t="shared" ref="AB2" si="5">TEXT(AB3,"ddd")</f>
         <v>Fri</v>
       </c>
-      <c r="AC2" s="150"/>
-      <c r="AD2" s="150"/>
-      <c r="AE2" s="151"/>
-      <c r="AF2" s="149" t="str">
+      <c r="AC2" s="101"/>
+      <c r="AD2" s="101"/>
+      <c r="AE2" s="102"/>
+      <c r="AF2" s="100" t="str">
         <f t="shared" ref="AF2" si="6">TEXT(AF3,"ddd")</f>
         <v>Mon</v>
       </c>
-      <c r="AG2" s="150"/>
-      <c r="AH2" s="150"/>
-      <c r="AI2" s="151"/>
-      <c r="AJ2" s="149" t="str">
+      <c r="AG2" s="101"/>
+      <c r="AH2" s="101"/>
+      <c r="AI2" s="102"/>
+      <c r="AJ2" s="100" t="str">
         <f t="shared" ref="AJ2" si="7">TEXT(AJ3,"ddd")</f>
         <v>Wed</v>
       </c>
-      <c r="AK2" s="150"/>
-      <c r="AL2" s="150"/>
-      <c r="AM2" s="151"/>
-      <c r="AN2" s="149" t="str">
+      <c r="AK2" s="101"/>
+      <c r="AL2" s="101"/>
+      <c r="AM2" s="102"/>
+      <c r="AN2" s="100" t="str">
         <f t="shared" ref="AN2" si="8">TEXT(AN3,"ddd")</f>
         <v>Thu</v>
       </c>
-      <c r="AO2" s="150"/>
-      <c r="AP2" s="150"/>
-      <c r="AQ2" s="151"/>
-      <c r="AR2" s="149" t="str">
+      <c r="AO2" s="101"/>
+      <c r="AP2" s="101"/>
+      <c r="AQ2" s="102"/>
+      <c r="AR2" s="100" t="str">
         <f t="shared" ref="AR2" si="9">TEXT(AR3,"ddd")</f>
         <v>Fri</v>
       </c>
-      <c r="AS2" s="150"/>
-      <c r="AT2" s="150"/>
-      <c r="AU2" s="151"/>
+      <c r="AS2" s="101"/>
+      <c r="AT2" s="101"/>
+      <c r="AU2" s="102"/>
     </row>
     <row r="3" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A3" s="92"/>
-      <c r="B3" s="92"/>
-      <c r="C3" s="92"/>
-      <c r="D3" s="152">
+      <c r="A3" s="89"/>
+      <c r="B3" s="89"/>
+      <c r="C3" s="89"/>
+      <c r="D3" s="90">
         <v>43873</v>
       </c>
-      <c r="E3" s="153"/>
-      <c r="F3" s="153"/>
-      <c r="G3" s="154"/>
-      <c r="H3" s="152">
+      <c r="E3" s="91"/>
+      <c r="F3" s="91"/>
+      <c r="G3" s="92"/>
+      <c r="H3" s="90">
         <v>43874</v>
       </c>
-      <c r="I3" s="153"/>
-      <c r="J3" s="153"/>
-      <c r="K3" s="154"/>
-      <c r="L3" s="159">
+      <c r="I3" s="91"/>
+      <c r="J3" s="91"/>
+      <c r="K3" s="92"/>
+      <c r="L3" s="104">
         <v>43875</v>
       </c>
-      <c r="M3" s="153"/>
-      <c r="N3" s="153"/>
-      <c r="O3" s="154"/>
-      <c r="P3" s="152">
+      <c r="M3" s="91"/>
+      <c r="N3" s="91"/>
+      <c r="O3" s="92"/>
+      <c r="P3" s="90">
         <v>43878</v>
       </c>
-      <c r="Q3" s="153"/>
-      <c r="R3" s="153"/>
-      <c r="S3" s="154"/>
-      <c r="T3" s="152">
+      <c r="Q3" s="91"/>
+      <c r="R3" s="91"/>
+      <c r="S3" s="92"/>
+      <c r="T3" s="90">
         <v>43880</v>
       </c>
-      <c r="U3" s="153"/>
-      <c r="V3" s="153"/>
-      <c r="W3" s="154"/>
-      <c r="X3" s="152">
+      <c r="U3" s="91"/>
+      <c r="V3" s="91"/>
+      <c r="W3" s="92"/>
+      <c r="X3" s="90">
         <v>43881</v>
       </c>
-      <c r="Y3" s="153"/>
-      <c r="Z3" s="153"/>
-      <c r="AA3" s="155"/>
-      <c r="AB3" s="152">
+      <c r="Y3" s="91"/>
+      <c r="Z3" s="91"/>
+      <c r="AA3" s="106"/>
+      <c r="AB3" s="90">
         <v>43882</v>
       </c>
-      <c r="AC3" s="153"/>
-      <c r="AD3" s="153"/>
-      <c r="AE3" s="154"/>
-      <c r="AF3" s="152">
+      <c r="AC3" s="91"/>
+      <c r="AD3" s="91"/>
+      <c r="AE3" s="92"/>
+      <c r="AF3" s="90">
         <v>43885</v>
       </c>
-      <c r="AG3" s="153"/>
-      <c r="AH3" s="153"/>
-      <c r="AI3" s="154"/>
-      <c r="AJ3" s="152">
+      <c r="AG3" s="91"/>
+      <c r="AH3" s="91"/>
+      <c r="AI3" s="92"/>
+      <c r="AJ3" s="90">
         <v>43887</v>
       </c>
-      <c r="AK3" s="153"/>
-      <c r="AL3" s="153"/>
-      <c r="AM3" s="154"/>
-      <c r="AN3" s="152">
+      <c r="AK3" s="91"/>
+      <c r="AL3" s="91"/>
+      <c r="AM3" s="92"/>
+      <c r="AN3" s="90">
         <v>43888</v>
       </c>
-      <c r="AO3" s="153"/>
-      <c r="AP3" s="153"/>
-      <c r="AQ3" s="154"/>
-      <c r="AR3" s="152">
+      <c r="AO3" s="91"/>
+      <c r="AP3" s="91"/>
+      <c r="AQ3" s="92"/>
+      <c r="AR3" s="90">
         <v>43889</v>
       </c>
-      <c r="AS3" s="153"/>
-      <c r="AT3" s="153"/>
-      <c r="AU3" s="154"/>
+      <c r="AS3" s="91"/>
+      <c r="AT3" s="91"/>
+      <c r="AU3" s="92"/>
     </row>
     <row r="4" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
@@ -2390,94 +2390,94 @@
       <c r="C4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="143" t="s">
+      <c r="D4" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="144"/>
-      <c r="F4" s="144" t="s">
+      <c r="E4" s="94"/>
+      <c r="F4" s="94" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="145"/>
-      <c r="H4" s="143" t="s">
+      <c r="G4" s="95"/>
+      <c r="H4" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="144"/>
-      <c r="J4" s="144" t="s">
+      <c r="I4" s="94"/>
+      <c r="J4" s="94" t="s">
         <v>13</v>
       </c>
-      <c r="K4" s="145"/>
-      <c r="L4" s="160" t="s">
+      <c r="K4" s="95"/>
+      <c r="L4" s="105" t="s">
         <v>12</v>
       </c>
-      <c r="M4" s="144"/>
-      <c r="N4" s="144" t="s">
+      <c r="M4" s="94"/>
+      <c r="N4" s="94" t="s">
         <v>13</v>
       </c>
-      <c r="O4" s="145"/>
-      <c r="P4" s="143" t="s">
+      <c r="O4" s="95"/>
+      <c r="P4" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="Q4" s="144"/>
-      <c r="R4" s="144" t="s">
+      <c r="Q4" s="94"/>
+      <c r="R4" s="94" t="s">
         <v>13</v>
       </c>
-      <c r="S4" s="145"/>
-      <c r="T4" s="143" t="s">
+      <c r="S4" s="95"/>
+      <c r="T4" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="U4" s="144"/>
-      <c r="V4" s="144" t="s">
+      <c r="U4" s="94"/>
+      <c r="V4" s="94" t="s">
         <v>13</v>
       </c>
-      <c r="W4" s="145"/>
-      <c r="X4" s="143" t="s">
+      <c r="W4" s="95"/>
+      <c r="X4" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="Y4" s="144"/>
-      <c r="Z4" s="144" t="s">
+      <c r="Y4" s="94"/>
+      <c r="Z4" s="94" t="s">
         <v>13</v>
       </c>
-      <c r="AA4" s="156"/>
-      <c r="AB4" s="143" t="s">
+      <c r="AA4" s="107"/>
+      <c r="AB4" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="AC4" s="144"/>
-      <c r="AD4" s="144" t="s">
+      <c r="AC4" s="94"/>
+      <c r="AD4" s="94" t="s">
         <v>13</v>
       </c>
-      <c r="AE4" s="145"/>
-      <c r="AF4" s="143" t="s">
+      <c r="AE4" s="95"/>
+      <c r="AF4" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="AG4" s="144"/>
-      <c r="AH4" s="144" t="s">
+      <c r="AG4" s="94"/>
+      <c r="AH4" s="94" t="s">
         <v>13</v>
       </c>
-      <c r="AI4" s="145"/>
-      <c r="AJ4" s="143" t="s">
+      <c r="AI4" s="95"/>
+      <c r="AJ4" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="AK4" s="144"/>
-      <c r="AL4" s="144" t="s">
+      <c r="AK4" s="94"/>
+      <c r="AL4" s="94" t="s">
         <v>13</v>
       </c>
-      <c r="AM4" s="145"/>
-      <c r="AN4" s="143" t="s">
+      <c r="AM4" s="95"/>
+      <c r="AN4" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="AO4" s="144"/>
-      <c r="AP4" s="144" t="s">
+      <c r="AO4" s="94"/>
+      <c r="AP4" s="94" t="s">
         <v>13</v>
       </c>
-      <c r="AQ4" s="145"/>
-      <c r="AR4" s="143" t="s">
+      <c r="AQ4" s="95"/>
+      <c r="AR4" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="AS4" s="144"/>
-      <c r="AT4" s="144" t="s">
+      <c r="AS4" s="94"/>
+      <c r="AT4" s="94" t="s">
         <v>13</v>
       </c>
-      <c r="AU4" s="145"/>
+      <c r="AU4" s="95"/>
     </row>
     <row r="5" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
@@ -2531,14 +2531,14 @@
       <c r="AU5" s="17"/>
     </row>
     <row r="6" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A6" s="123" t="s">
+      <c r="A6" s="110" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="135">
+      <c r="B6" s="112">
         <f>SUM(D6:AU6)</f>
         <v>2</v>
       </c>
-      <c r="C6" s="136">
+      <c r="C6" s="113">
         <f>SUM(D7:AU7)</f>
         <v>2</v>
       </c>
@@ -2592,9 +2592,9 @@
       <c r="AU6" s="35"/>
     </row>
     <row r="7" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="124"/>
-      <c r="B7" s="135"/>
-      <c r="C7" s="136"/>
+      <c r="A7" s="111"/>
+      <c r="B7" s="112"/>
+      <c r="C7" s="113"/>
       <c r="D7" s="41">
         <v>1</v>
       </c>
@@ -2645,14 +2645,14 @@
       <c r="AU7" s="40"/>
     </row>
     <row r="8" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A8" s="123" t="s">
+      <c r="A8" s="110" t="s">
         <v>50</v>
       </c>
-      <c r="B8" s="135">
+      <c r="B8" s="112">
         <f>SUM(D8:AU8)</f>
         <v>4</v>
       </c>
-      <c r="C8" s="136">
+      <c r="C8" s="113">
         <f>SUM(D9:AU9)</f>
         <v>3</v>
       </c>
@@ -2710,9 +2710,9 @@
       </c>
     </row>
     <row r="9" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="134"/>
-      <c r="B9" s="131"/>
-      <c r="C9" s="133"/>
+      <c r="A9" s="115"/>
+      <c r="B9" s="116"/>
+      <c r="C9" s="114"/>
       <c r="D9" s="49"/>
       <c r="E9" s="53">
         <v>1</v>
@@ -2867,14 +2867,14 @@
       <c r="AU11" s="46"/>
     </row>
     <row r="12" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A12" s="129" t="s">
+      <c r="A12" s="117" t="s">
         <v>51</v>
       </c>
-      <c r="B12" s="130">
+      <c r="B12" s="118">
         <f>SUM(D12:AU12)</f>
         <v>7</v>
       </c>
-      <c r="C12" s="132">
+      <c r="C12" s="119">
         <f>SUM(D13:AU13)</f>
         <v>7</v>
       </c>
@@ -2932,9 +2932,9 @@
       <c r="AU12" s="48"/>
     </row>
     <row r="13" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="134"/>
-      <c r="B13" s="135"/>
-      <c r="C13" s="136"/>
+      <c r="A13" s="115"/>
+      <c r="B13" s="112"/>
+      <c r="C13" s="113"/>
       <c r="D13" s="41"/>
       <c r="E13" s="39"/>
       <c r="F13" s="39"/>
@@ -3040,14 +3040,14 @@
       <c r="AU14" s="63"/>
     </row>
     <row r="15" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A15" s="137" t="s">
+      <c r="A15" s="120" t="s">
         <v>57</v>
       </c>
-      <c r="B15" s="139">
+      <c r="B15" s="122">
         <f>SUM(D15:AU15)</f>
         <v>1</v>
       </c>
-      <c r="C15" s="141">
+      <c r="C15" s="124">
         <f>SUM(D16:AU16)</f>
         <v>4</v>
       </c>
@@ -3099,9 +3099,9 @@
       <c r="AU15" s="35"/>
     </row>
     <row r="16" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="138"/>
-      <c r="B16" s="140"/>
-      <c r="C16" s="142"/>
+      <c r="A16" s="121"/>
+      <c r="B16" s="123"/>
+      <c r="C16" s="125"/>
       <c r="D16" s="41"/>
       <c r="E16" s="39"/>
       <c r="F16" s="39"/>
@@ -3154,14 +3154,14 @@
       <c r="AU16" s="40"/>
     </row>
     <row r="17" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A17" s="129" t="s">
+      <c r="A17" s="117" t="s">
         <v>52</v>
       </c>
-      <c r="B17" s="130">
+      <c r="B17" s="118">
         <f t="shared" ref="B17" si="10">SUM(D17:AU17)</f>
         <v>2</v>
       </c>
-      <c r="C17" s="132">
+      <c r="C17" s="119">
         <f t="shared" ref="C17" si="11">SUM(D18:AU18)</f>
         <v>4</v>
       </c>
@@ -3213,9 +3213,9 @@
       <c r="AU17" s="48"/>
     </row>
     <row r="18" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="134"/>
-      <c r="B18" s="135"/>
-      <c r="C18" s="136"/>
+      <c r="A18" s="115"/>
+      <c r="B18" s="112"/>
+      <c r="C18" s="113"/>
       <c r="D18" s="41"/>
       <c r="E18" s="39"/>
       <c r="F18" s="39"/>
@@ -3270,14 +3270,14 @@
       <c r="AU18" s="40"/>
     </row>
     <row r="19" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A19" s="123" t="s">
+      <c r="A19" s="110" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="135">
+      <c r="B19" s="112">
         <f t="shared" ref="B19" si="12">SUM(D19:AU19)</f>
         <v>2</v>
       </c>
-      <c r="C19" s="136">
+      <c r="C19" s="113">
         <f t="shared" ref="C19" si="13">SUM(D20:AU20)</f>
         <v>0</v>
       </c>
@@ -3329,9 +3329,9 @@
       <c r="AU19" s="35"/>
     </row>
     <row r="20" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="134"/>
-      <c r="B20" s="131"/>
-      <c r="C20" s="133"/>
+      <c r="A20" s="115"/>
+      <c r="B20" s="116"/>
+      <c r="C20" s="114"/>
       <c r="D20" s="49"/>
       <c r="E20" s="53"/>
       <c r="F20" s="53"/>
@@ -3378,14 +3378,14 @@
       <c r="AU20" s="48"/>
     </row>
     <row r="21" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A21" s="123" t="s">
+      <c r="A21" s="110" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="125">
+      <c r="B21" s="126">
         <f t="shared" ref="B21" si="14">SUM(D21:AU21)</f>
         <v>1</v>
       </c>
-      <c r="C21" s="127">
+      <c r="C21" s="128">
         <f t="shared" ref="C21" si="15">SUM(D22:AU22)</f>
         <v>8</v>
       </c>
@@ -3437,9 +3437,9 @@
       <c r="AU21" s="35"/>
     </row>
     <row r="22" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="124"/>
-      <c r="B22" s="126"/>
-      <c r="C22" s="128"/>
+      <c r="A22" s="111"/>
+      <c r="B22" s="127"/>
+      <c r="C22" s="129"/>
       <c r="D22" s="41"/>
       <c r="E22" s="39"/>
       <c r="F22" s="39"/>
@@ -3547,14 +3547,14 @@
       <c r="AU23" s="58"/>
     </row>
     <row r="24" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A24" s="123" t="s">
+      <c r="A24" s="110" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="135">
+      <c r="B24" s="112">
         <f>SUM(D24:AU24)</f>
         <v>1</v>
       </c>
-      <c r="C24" s="136">
+      <c r="C24" s="113">
         <f>SUM(D25:AU25)</f>
         <v>2</v>
       </c>
@@ -3606,9 +3606,9 @@
       <c r="AU24" s="48"/>
     </row>
     <row r="25" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="134"/>
-      <c r="B25" s="135"/>
-      <c r="C25" s="136"/>
+      <c r="A25" s="115"/>
+      <c r="B25" s="112"/>
+      <c r="C25" s="113"/>
       <c r="D25" s="41"/>
       <c r="E25" s="39"/>
       <c r="F25" s="39"/>
@@ -3659,14 +3659,14 @@
       <c r="AU25" s="40"/>
     </row>
     <row r="26" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A26" s="123" t="s">
+      <c r="A26" s="110" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="135">
+      <c r="B26" s="112">
         <f t="shared" ref="B26" si="16">SUM(D26:AU26)</f>
         <v>1</v>
       </c>
-      <c r="C26" s="136">
+      <c r="C26" s="113">
         <f t="shared" ref="C26" si="17">SUM(D27:AU27)</f>
         <v>5</v>
       </c>
@@ -3718,9 +3718,9 @@
       <c r="AU26" s="35"/>
     </row>
     <row r="27" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="134"/>
-      <c r="B27" s="131"/>
-      <c r="C27" s="133"/>
+      <c r="A27" s="115"/>
+      <c r="B27" s="116"/>
+      <c r="C27" s="114"/>
       <c r="D27" s="49"/>
       <c r="E27" s="53"/>
       <c r="F27" s="53"/>
@@ -3775,14 +3775,14 @@
       <c r="AU27" s="48"/>
     </row>
     <row r="28" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A28" s="123" t="s">
+      <c r="A28" s="110" t="s">
         <v>59</v>
       </c>
-      <c r="B28" s="125">
+      <c r="B28" s="126">
         <f t="shared" ref="B28" si="18">SUM(D28:AU28)</f>
         <v>7</v>
       </c>
-      <c r="C28" s="127">
+      <c r="C28" s="128">
         <f t="shared" ref="C28" si="19">SUM(D29:AU29)</f>
         <v>2</v>
       </c>
@@ -3840,9 +3840,9 @@
       <c r="AU28" s="35"/>
     </row>
     <row r="29" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="124"/>
-      <c r="B29" s="126"/>
-      <c r="C29" s="128"/>
+      <c r="A29" s="111"/>
+      <c r="B29" s="127"/>
+      <c r="C29" s="129"/>
       <c r="D29" s="41"/>
       <c r="E29" s="39"/>
       <c r="F29" s="39"/>
@@ -3893,14 +3893,14 @@
       <c r="AU29" s="40"/>
     </row>
     <row r="30" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A30" s="129" t="s">
+      <c r="A30" s="117" t="s">
         <v>60</v>
       </c>
-      <c r="B30" s="130">
+      <c r="B30" s="118">
         <f t="shared" ref="B30" si="20">SUM(D30:AU30)</f>
         <v>7</v>
       </c>
-      <c r="C30" s="132">
+      <c r="C30" s="119">
         <f t="shared" ref="C30" si="21">SUM(D31:AU31)</f>
         <v>5</v>
       </c>
@@ -3958,9 +3958,9 @@
       <c r="AU30" s="48"/>
     </row>
     <row r="31" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="134"/>
-      <c r="B31" s="135"/>
-      <c r="C31" s="136"/>
+      <c r="A31" s="115"/>
+      <c r="B31" s="112"/>
+      <c r="C31" s="113"/>
       <c r="D31" s="41"/>
       <c r="E31" s="39"/>
       <c r="F31" s="39"/>
@@ -4015,16 +4015,16 @@
       <c r="AU31" s="40"/>
     </row>
     <row r="32" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A32" s="123" t="s">
+      <c r="A32" s="110" t="s">
         <v>26</v>
       </c>
-      <c r="B32" s="135">
+      <c r="B32" s="112">
         <f t="shared" ref="B32" si="22">SUM(D32:AU32)</f>
         <v>7</v>
       </c>
-      <c r="C32" s="136">
+      <c r="C32" s="113">
         <f t="shared" ref="C32" si="23">SUM(D33:AU33)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D32" s="36"/>
       <c r="E32" s="34"/>
@@ -4080,9 +4080,9 @@
       <c r="AU32" s="35"/>
     </row>
     <row r="33" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="134"/>
-      <c r="B33" s="135"/>
-      <c r="C33" s="136"/>
+      <c r="A33" s="115"/>
+      <c r="B33" s="112"/>
+      <c r="C33" s="113"/>
       <c r="D33" s="41"/>
       <c r="E33" s="39"/>
       <c r="F33" s="39"/>
@@ -4117,8 +4117,12 @@
       <c r="AG33" s="39"/>
       <c r="AH33" s="42"/>
       <c r="AI33" s="43"/>
-      <c r="AJ33" s="41"/>
-      <c r="AK33" s="39"/>
+      <c r="AJ33" s="41">
+        <v>2</v>
+      </c>
+      <c r="AK33" s="39">
+        <v>1</v>
+      </c>
       <c r="AL33" s="39"/>
       <c r="AM33" s="40"/>
       <c r="AN33" s="41"/>
@@ -4131,16 +4135,16 @@
       <c r="AU33" s="40"/>
     </row>
     <row r="34" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A34" s="123" t="s">
+      <c r="A34" s="110" t="s">
         <v>27</v>
       </c>
-      <c r="B34" s="135">
+      <c r="B34" s="112">
         <f t="shared" ref="B34" si="24">SUM(D34:AU34)</f>
         <v>2</v>
       </c>
-      <c r="C34" s="136">
+      <c r="C34" s="113">
         <f t="shared" ref="C34" si="25">SUM(D35:AU35)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D34" s="36"/>
       <c r="E34" s="34"/>
@@ -4190,9 +4194,9 @@
       <c r="AU34" s="35"/>
     </row>
     <row r="35" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="124"/>
-      <c r="B35" s="135"/>
-      <c r="C35" s="136"/>
+      <c r="A35" s="111"/>
+      <c r="B35" s="112"/>
+      <c r="C35" s="113"/>
       <c r="D35" s="41"/>
       <c r="E35" s="39"/>
       <c r="F35" s="39"/>
@@ -4226,8 +4230,12 @@
       <c r="AH35" s="42"/>
       <c r="AI35" s="43"/>
       <c r="AJ35" s="41"/>
-      <c r="AK35" s="39"/>
-      <c r="AL35" s="39"/>
+      <c r="AK35" s="39">
+        <v>1</v>
+      </c>
+      <c r="AL35" s="39">
+        <v>2</v>
+      </c>
       <c r="AM35" s="40"/>
       <c r="AN35" s="41"/>
       <c r="AO35" s="39"/>
@@ -4239,16 +4247,16 @@
       <c r="AU35" s="40"/>
     </row>
     <row r="36" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A36" s="123" t="s">
+      <c r="A36" s="110" t="s">
         <v>28</v>
       </c>
-      <c r="B36" s="135">
+      <c r="B36" s="112">
         <f t="shared" ref="B36" si="26">SUM(D36:AU36)</f>
         <v>4</v>
       </c>
-      <c r="C36" s="136">
+      <c r="C36" s="113">
         <f t="shared" ref="C36" si="27">SUM(D37:AU37)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D36" s="36"/>
       <c r="E36" s="34"/>
@@ -4300,9 +4308,9 @@
       <c r="AU36" s="35"/>
     </row>
     <row r="37" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="134"/>
-      <c r="B37" s="135"/>
-      <c r="C37" s="136"/>
+      <c r="A37" s="115"/>
+      <c r="B37" s="112"/>
+      <c r="C37" s="113"/>
       <c r="D37" s="41"/>
       <c r="E37" s="39"/>
       <c r="F37" s="39"/>
@@ -4338,7 +4346,9 @@
       <c r="AJ37" s="41"/>
       <c r="AK37" s="39"/>
       <c r="AL37" s="39"/>
-      <c r="AM37" s="40"/>
+      <c r="AM37" s="40">
+        <v>1</v>
+      </c>
       <c r="AN37" s="41"/>
       <c r="AO37" s="39"/>
       <c r="AP37" s="39"/>
@@ -4349,14 +4359,14 @@
       <c r="AU37" s="40"/>
     </row>
     <row r="38" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A38" s="123" t="s">
+      <c r="A38" s="110" t="s">
         <v>29</v>
       </c>
-      <c r="B38" s="135">
+      <c r="B38" s="112">
         <f t="shared" ref="B38" si="28">SUM(D38:AU38)</f>
         <v>3</v>
       </c>
-      <c r="C38" s="136">
+      <c r="C38" s="113">
         <f t="shared" ref="C38" si="29">SUM(D39:AU39)</f>
         <v>0</v>
       </c>
@@ -4410,9 +4420,9 @@
       <c r="AU38" s="35"/>
     </row>
     <row r="39" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="134"/>
-      <c r="B39" s="135"/>
-      <c r="C39" s="136"/>
+      <c r="A39" s="115"/>
+      <c r="B39" s="112"/>
+      <c r="C39" s="113"/>
       <c r="D39" s="41"/>
       <c r="E39" s="39"/>
       <c r="F39" s="39"/>
@@ -4459,14 +4469,14 @@
       <c r="AU39" s="40"/>
     </row>
     <row r="40" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A40" s="123" t="s">
+      <c r="A40" s="110" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="135">
+      <c r="B40" s="112">
         <f t="shared" ref="B40" si="30">SUM(D40:AU40)</f>
         <v>4</v>
       </c>
-      <c r="C40" s="136">
+      <c r="C40" s="113">
         <f t="shared" ref="C40" si="31">SUM(D41:AU41)</f>
         <v>0</v>
       </c>
@@ -4520,9 +4530,9 @@
       <c r="AU40" s="35"/>
     </row>
     <row r="41" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="134"/>
-      <c r="B41" s="135"/>
-      <c r="C41" s="136"/>
+      <c r="A41" s="115"/>
+      <c r="B41" s="112"/>
+      <c r="C41" s="113"/>
       <c r="D41" s="41"/>
       <c r="E41" s="39"/>
       <c r="F41" s="39"/>
@@ -4569,14 +4579,14 @@
       <c r="AU41" s="40"/>
     </row>
     <row r="42" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A42" s="123" t="s">
+      <c r="A42" s="110" t="s">
         <v>31</v>
       </c>
-      <c r="B42" s="135">
+      <c r="B42" s="112">
         <f t="shared" ref="B42" si="32">SUM(D42:AU42)</f>
         <v>3</v>
       </c>
-      <c r="C42" s="136">
+      <c r="C42" s="113">
         <f t="shared" ref="C42" si="33">SUM(D43:AU43)</f>
         <v>0</v>
       </c>
@@ -4630,9 +4640,9 @@
       <c r="AU42" s="35"/>
     </row>
     <row r="43" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="134"/>
-      <c r="B43" s="135"/>
-      <c r="C43" s="136"/>
+      <c r="A43" s="115"/>
+      <c r="B43" s="112"/>
+      <c r="C43" s="113"/>
       <c r="D43" s="41"/>
       <c r="E43" s="39"/>
       <c r="F43" s="39"/>
@@ -4679,14 +4689,14 @@
       <c r="AU43" s="40"/>
     </row>
     <row r="44" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="123" t="s">
+      <c r="A44" s="110" t="s">
         <v>32</v>
       </c>
-      <c r="B44" s="135">
+      <c r="B44" s="112">
         <f t="shared" ref="B44" si="34">SUM(D44:AU44)</f>
         <v>2</v>
       </c>
-      <c r="C44" s="136">
+      <c r="C44" s="113">
         <f t="shared" ref="C44" si="35">SUM(D45:AU45)</f>
         <v>0</v>
       </c>
@@ -4737,9 +4747,9 @@
       <c r="AU44" s="35"/>
     </row>
     <row r="45" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="134"/>
-      <c r="B45" s="135"/>
-      <c r="C45" s="136"/>
+      <c r="A45" s="115"/>
+      <c r="B45" s="112"/>
+      <c r="C45" s="113"/>
       <c r="D45" s="41"/>
       <c r="E45" s="39"/>
       <c r="F45" s="39"/>
@@ -4786,14 +4796,14 @@
       <c r="AU45" s="40"/>
     </row>
     <row r="46" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A46" s="123" t="s">
+      <c r="A46" s="110" t="s">
         <v>46</v>
       </c>
-      <c r="B46" s="135">
+      <c r="B46" s="112">
         <f t="shared" ref="B46" si="36">SUM(D46:AU46)</f>
         <v>3</v>
       </c>
-      <c r="C46" s="136">
+      <c r="C46" s="113">
         <f t="shared" ref="C46" si="37">SUM(D47:AU47)</f>
         <v>0</v>
       </c>
@@ -4847,9 +4857,9 @@
       <c r="AU46" s="35"/>
     </row>
     <row r="47" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="124"/>
-      <c r="B47" s="135"/>
-      <c r="C47" s="136"/>
+      <c r="A47" s="111"/>
+      <c r="B47" s="112"/>
+      <c r="C47" s="113"/>
       <c r="D47" s="49"/>
       <c r="E47" s="53"/>
       <c r="F47" s="53"/>
@@ -4947,16 +4957,16 @@
       <c r="AU48" s="46"/>
     </row>
     <row r="49" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A49" s="123" t="s">
+      <c r="A49" s="110" t="s">
         <v>49</v>
       </c>
-      <c r="B49" s="135">
+      <c r="B49" s="112">
         <f>SUM(D49:AU49)</f>
         <v>11</v>
       </c>
-      <c r="C49" s="136">
+      <c r="C49" s="113">
         <f>SUM(D50:AU50)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" s="49"/>
       <c r="E49" s="53"/>
@@ -5026,9 +5036,9 @@
       </c>
     </row>
     <row r="50" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="134"/>
-      <c r="B50" s="131"/>
-      <c r="C50" s="133"/>
+      <c r="A50" s="115"/>
+      <c r="B50" s="116"/>
+      <c r="C50" s="114"/>
       <c r="D50" s="49"/>
       <c r="E50" s="53"/>
       <c r="F50" s="53"/>
@@ -5080,7 +5090,9 @@
       <c r="AJ50" s="49"/>
       <c r="AK50" s="53"/>
       <c r="AL50" s="53"/>
-      <c r="AM50" s="48"/>
+      <c r="AM50" s="48">
+        <v>1</v>
+      </c>
       <c r="AN50" s="49"/>
       <c r="AO50" s="53"/>
       <c r="AP50" s="53"/>
@@ -5091,14 +5103,14 @@
       <c r="AU50" s="48"/>
     </row>
     <row r="51" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A51" s="123" t="s">
+      <c r="A51" s="110" t="s">
         <v>58</v>
       </c>
-      <c r="B51" s="125">
+      <c r="B51" s="126">
         <f t="shared" ref="B51" si="38">SUM(D51:AU51)</f>
         <v>4</v>
       </c>
-      <c r="C51" s="127">
+      <c r="C51" s="128">
         <f t="shared" ref="C51" si="39">SUM(D52:AU52)</f>
         <v>3</v>
       </c>
@@ -5156,9 +5168,9 @@
       <c r="AU51" s="35"/>
     </row>
     <row r="52" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="124"/>
-      <c r="B52" s="126"/>
-      <c r="C52" s="128"/>
+      <c r="A52" s="111"/>
+      <c r="B52" s="127"/>
+      <c r="C52" s="129"/>
       <c r="D52" s="41">
         <v>1</v>
       </c>
@@ -5211,14 +5223,14 @@
       <c r="AU52" s="40"/>
     </row>
     <row r="53" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A53" s="129" t="s">
+      <c r="A53" s="117" t="s">
         <v>34</v>
       </c>
-      <c r="B53" s="130">
+      <c r="B53" s="118">
         <f t="shared" ref="B53" si="40">SUM(D53:AU53)</f>
         <v>2</v>
       </c>
-      <c r="C53" s="132">
+      <c r="C53" s="119">
         <f t="shared" ref="C53" si="41">SUM(D54:AU54)</f>
         <v>2</v>
       </c>
@@ -5272,9 +5284,9 @@
       <c r="AU53" s="48"/>
     </row>
     <row r="54" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="124"/>
-      <c r="B54" s="131"/>
-      <c r="C54" s="133"/>
+      <c r="A54" s="111"/>
+      <c r="B54" s="116"/>
+      <c r="C54" s="114"/>
       <c r="D54" s="49"/>
       <c r="E54" s="53"/>
       <c r="F54" s="53">
@@ -5325,176 +5337,176 @@
       <c r="AU54" s="48"/>
     </row>
     <row r="55" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A55" s="117" t="s">
+      <c r="A55" s="136" t="s">
         <v>35</v>
       </c>
-      <c r="B55" s="119">
+      <c r="B55" s="138">
         <f>SUM(B6:B54)</f>
         <v>80</v>
       </c>
-      <c r="C55" s="121">
+      <c r="C55" s="140">
         <f>SUM(C6:C54)</f>
-        <v>56</v>
-      </c>
-      <c r="D55" s="111" cm="1">
+        <v>64</v>
+      </c>
+      <c r="D55" s="134" cm="1">
         <f t="array" ref="D55">SUM(D6:G6+D8:G8+D12:G12+D15:G15+D17:G17+D19:G19+D21:G21+D24:G24+D26:G26+D28:G28+D30:G30+D32:G32+D34:G34+D36:G36+D38:G38+D40:G40+D42:G42+D44:G44+D46:G46+D49:G49+D51:G51+D53:G53)</f>
         <v>8</v>
       </c>
-      <c r="E55" s="106"/>
-      <c r="F55" s="106" cm="1">
+      <c r="E55" s="130"/>
+      <c r="F55" s="130" cm="1">
         <f t="array" ref="F55">SUM(D7:G7+D9:G9+D13:G13+D16:G16+D18:G18+D20:G20+D22:G22+D25:G25+D27:G27+D29:G29+D31:G31+D33:G33+D35:G35+D37:G37+D39:G39+D41:G41+D43:G43+D45:G45+D47:G47+D50:G50+D52:G52+D54:G54)</f>
         <v>8</v>
       </c>
-      <c r="G55" s="107"/>
-      <c r="H55" s="111" cm="1">
+      <c r="G55" s="131"/>
+      <c r="H55" s="134" cm="1">
         <f t="array" ref="H55">SUM(H6:K6+H8:K8+H12:K12+H15:K15+H17:K17+H19:K19+H21:K21+H24:K24+H26:K26+H28:K28+H30:K30+H32:K32+H34:K34+H36:K36+H38:K38+H40:K40+H42:K42+H44:K44+H46:K46+H49:K49+H51:K51+H53:K53)</f>
         <v>8</v>
       </c>
-      <c r="I55" s="106"/>
-      <c r="J55" s="106" cm="1">
+      <c r="I55" s="130"/>
+      <c r="J55" s="130" cm="1">
         <f t="array" ref="J55">SUM(H7:K7+H9:K9+H13:K13+H16:K16+H18:K18+H20:K20+H22:K22+H25:K25+H27:K27+H29:K29+H31:K31+H33:K33+H35:K35+H37:K37+H39:K39+H41:K41+H43:K43+H45:K45+H47:K47+H50:K50+H52:K52+H54:K54)</f>
         <v>8</v>
       </c>
-      <c r="K55" s="107"/>
-      <c r="L55" s="115" cm="1">
+      <c r="K55" s="131"/>
+      <c r="L55" s="149" cm="1">
         <f t="array" ref="L55">SUM(L6:O6+L8:O8+L12:O12+L15:O15+L17:O17+L19:O19+L21:O21+L24:O24+L26:O26+L28:O28+L30:O30+L32:O32+L34:O34+L36:O36+L38:O38+L40:O40+L42:O42+L44:O44+L46:O46+L49:O49+L51:O51+L53:O53)</f>
         <v>8</v>
       </c>
-      <c r="M55" s="106"/>
-      <c r="N55" s="106" cm="1">
+      <c r="M55" s="130"/>
+      <c r="N55" s="130" cm="1">
         <f t="array" ref="N55">SUM(L7:O7+L9:O9+L13:O13+L16:O16+L18:O18+L20:O20+L22:O22+L25:O25+L27:O27+L29:O29+L31:O31+L33:O33+L35:O35+L37:O37+L39:O39+L41:O41+L43:O43+L45:O45+L47:O47+L50:O50+L52:O52+L54:O54)</f>
         <v>8</v>
       </c>
-      <c r="O55" s="107"/>
-      <c r="P55" s="111" cm="1">
+      <c r="O55" s="131"/>
+      <c r="P55" s="134" cm="1">
         <f t="array" ref="P55">SUM(P6:S6+P8:S8+P12:S12+P15:S15+P17:S17+P19:S19+P21:S21+P24:S24+P26:S26+P28:S28+P30:S30+P32:S32+P34:S34+P36:S36+P38:S38+P40:S40+P42:S42+P44:S44+P46:S46+P49:S49+P51:S51+P53:S53)</f>
         <v>4</v>
       </c>
-      <c r="Q55" s="106"/>
-      <c r="R55" s="106" cm="1">
+      <c r="Q55" s="130"/>
+      <c r="R55" s="130" cm="1">
         <f t="array" ref="R55">SUM(P7:S7+P9:S9+P13:S13+P16:S16+P18:S18+P20:S20+P22:S22+P25:S25+P27:S27+P29:S29+P31:S31+P33:S33+P35:S35+P37:S37+P39:S39+P41:S41+P43:S43+P45:S45+P47:S47+P50:S50+P52:S52+P54:S54)</f>
         <v>4</v>
       </c>
-      <c r="S55" s="107"/>
-      <c r="T55" s="111" cm="1">
+      <c r="S55" s="131"/>
+      <c r="T55" s="134" cm="1">
         <f t="array" ref="T55">SUM(T6:W6+T8:W8+T12:W12+T15:W15+T17:W17+T19:W19+T21:W21+T24:W24+T26:W26+T28:W28+T30:W30+T32:W32+T34:W34+T36:W36+T38:W38+T40:W40+T42:W42+T44:W44+T46:W46+T49:W49+T51:W51+T53:W53)</f>
         <v>8</v>
       </c>
-      <c r="U55" s="106"/>
-      <c r="V55" s="106" cm="1">
+      <c r="U55" s="130"/>
+      <c r="V55" s="130" cm="1">
         <f t="array" ref="V55">SUM(T7:W7+T9:W9+T13:W13+T16:W16+T18:W18+T20:W20+T22:W22+T25:W25+T27:W27+T29:W29+T31:W31+T33:W33+T35:W35+T37:W37+T39:W39+T41:W41+T43:W43+T45:W45+T47:W47+T50:W50+T52:W52+T54:W54)</f>
         <v>8</v>
       </c>
-      <c r="W55" s="107"/>
-      <c r="X55" s="111" cm="1">
+      <c r="W55" s="131"/>
+      <c r="X55" s="134" cm="1">
         <f t="array" ref="X55">SUM(X6:AA6+X8:AA8+X12:AA12+X15:AA15+X17:AA17+X19:AA19+X21:AA21+X24:AA24+X26:AA26+X28:AA28+X30:AA30+X32:AA32+X34:AA34+X36:AA36+X38:AA38+X40:AA40+X42:AA42+X44:AA44+X46:AA46+X49:AA49+X51:AA51+X53:AA53)</f>
         <v>8</v>
       </c>
-      <c r="Y55" s="106"/>
-      <c r="Z55" s="106" cm="1">
+      <c r="Y55" s="130"/>
+      <c r="Z55" s="130" cm="1">
         <f t="array" ref="Z55">SUM(X7:AA7+X9:AA9+X13:AA13+X16:AA16+X18:AA18+X20:AA20+X22:AA22+X25:AA25+X27:AA27+X29:AA29+X31:AA31+X33:AA33+X35:AA35+X37:AA37+X39:AA39+X41:AA41+X43:AA43+X45:AA45+X47:AA47+X50:AA50+X52:AA52+X54:AA54)</f>
         <v>8</v>
       </c>
-      <c r="AA55" s="113"/>
-      <c r="AB55" s="111" cm="1">
+      <c r="AA55" s="147"/>
+      <c r="AB55" s="134" cm="1">
         <f t="array" ref="AB55">SUM(AB6:AE6+AB8:AE8+AB12:AE12+AB15:AE15+AB17:AE17+AB19:AE19+AB21:AE21+AB24:AE24+AB26:AE26+AB28:AE28+AB30:AE30+AB32:AE32+AB34:AE34+AB36:AE36+AB38:AE38+AB40:AE40+AB42:AE42+AB44:AE44+AB46:AE46+AB49:AE49+AB51:AE51+AB53:AE53)</f>
         <v>8</v>
       </c>
-      <c r="AC55" s="106"/>
-      <c r="AD55" s="106" cm="1">
+      <c r="AC55" s="130"/>
+      <c r="AD55" s="130" cm="1">
         <f t="array" ref="AD55">SUM(AB7:AE7+AB9:AE9+AB13:AE13+AB16:AE16+AB18:AE18+AB20:AE20+AB22:AE22+AB25:AE25+AB27:AE27+AB29:AE29+AB31:AE31+AB33:AE33+AB35:AE35+AB37:AE37+AB39:AE39+AB41:AE41+AB43:AE43+AB45:AE45+AB47:AE47+AB50:AE50+AB52:AE52+AB54:AE54)</f>
         <v>8</v>
       </c>
-      <c r="AE55" s="107"/>
-      <c r="AF55" s="111" cm="1">
+      <c r="AE55" s="131"/>
+      <c r="AF55" s="134" cm="1">
         <f t="array" ref="AF55">SUM(AF6:AI6+AF8:AI8+AF12:AI12+AF15:AI15+AF17:AI17+AF19:AI19+AF21:AI21+AF24:AI24+AF26:AI26+AF28:AI28+AF30:AI30+AF32:AI32+AF34:AI34+AF36:AI36+AF38:AI38+AF40:AI40+AF42:AI42+AF44:AI44+AF46:AI46+AF49:AI49+AF51:AI51+AF53:AI53)</f>
         <v>4</v>
       </c>
-      <c r="AG55" s="106"/>
-      <c r="AH55" s="106" cm="1">
+      <c r="AG55" s="130"/>
+      <c r="AH55" s="130" cm="1">
         <f t="array" ref="AH55">SUM(AF7:AI7+AF9:AI9+AF13:AI13+AF16:AI16+AF18:AI18+AF20:AI20+AF22:AI22+AF25:AI25+AF27:AI27+AF29:AI29+AF31:AI31+AF33:AI33+AF35:AI35+AF37:AI37+AF39:AI39+AF41:AI41+AF43:AI43+AF45:AI45+AF47:AI47+AF50:AI50+AF52:AI52+AF54:AI54)</f>
         <v>4</v>
       </c>
-      <c r="AI55" s="107"/>
-      <c r="AJ55" s="111" cm="1">
+      <c r="AI55" s="131"/>
+      <c r="AJ55" s="134" cm="1">
         <f t="array" ref="AJ55">SUM(AJ6:AM6+AJ8:AM8+AJ12:AM12+AJ15:AM15+AJ17:AM17+AJ19:AM19+AJ21:AM21+AJ24:AM24+AJ26:AM26+AJ28:AM28+AJ30:AM30+AJ32:AM32+AJ34:AM34+AJ36:AM36+AJ38:AM38+AJ40:AM40+AJ42:AM42+AJ44:AM44+AJ46:AM46+AJ49:AM49+AJ51:AM51+AJ53:AM53)</f>
         <v>8</v>
       </c>
-      <c r="AK55" s="106"/>
-      <c r="AL55" s="106" cm="1">
+      <c r="AK55" s="130"/>
+      <c r="AL55" s="130" cm="1">
         <f t="array" ref="AL55">SUM(AJ7:AM7+AJ9:AM9+AJ13:AM13+AJ16:AM16+AJ18:AM18+AJ20:AM20+AJ22:AM22+AJ25:AM25+AJ27:AM27+AJ29:AM29+AJ31:AM31+AJ33:AM33+AJ35:AM35+AJ37:AM37+AJ39:AM39+AJ41:AM41+AJ43:AM43+AJ45:AM45+AJ47:AM47+AJ50:AM50+AJ52:AM52+AJ54:AM54)</f>
-        <v>0</v>
-      </c>
-      <c r="AM55" s="107"/>
-      <c r="AN55" s="111" cm="1">
+        <v>8</v>
+      </c>
+      <c r="AM55" s="131"/>
+      <c r="AN55" s="134" cm="1">
         <f t="array" ref="AN55">SUM(AN6:AQ6+AN8:AQ8+AN12:AQ12+AN15:AQ15+AN17:AQ17+AN19:AQ19+AN21:AQ21+AN24:AQ24+AN26:AQ26+AN28:AQ28+AN30:AQ30+AN32:AQ32+AN34:AQ34+AN36:AQ36+AN38:AQ38+AN40:AQ40+AN42:AQ42+AN44:AQ44+AN46:AQ46+AN49:AQ49+AN51:AQ51+AN53:AQ53)</f>
         <v>8</v>
       </c>
-      <c r="AO55" s="106"/>
-      <c r="AP55" s="106" cm="1">
+      <c r="AO55" s="130"/>
+      <c r="AP55" s="130" cm="1">
         <f t="array" ref="AP55">SUM(AN7:AQ7+AN9:AQ9+AN13:AQ13+AN16:AQ16+AN18:AQ18+AN20:AQ20+AN22:AQ22+AN25:AQ25+AN27:AQ27+AN29:AQ29+AN31:AQ31+AN33:AQ33+AN35:AQ35+AN37:AQ37+AN39:AQ39+AN41:AQ41+AN43:AQ43+AN45:AQ45+AN47:AQ47+AN50:AQ50+AN52:AQ52+AN54:AQ54)</f>
         <v>0</v>
       </c>
-      <c r="AQ55" s="107"/>
-      <c r="AR55" s="111" cm="1">
+      <c r="AQ55" s="131"/>
+      <c r="AR55" s="134" cm="1">
         <f t="array" ref="AR55">SUM(AR6:AU6+AR8:AU8+AR12:AU12+AR15:AU15+AR17:AU17+AR19:AU19+AR21:AU21+AR24:AU24+AR26:AU26+AR28:AU28+AR30:AU30+AR32:AU32+AR34:AU34+AR36:AU36+AR38:AU38+AR40:AU40+AR42:AU42+AR44:AU44+AR46:AU46+AR49:AU49+AR51:AU51+AR53:AU53)</f>
         <v>8</v>
       </c>
-      <c r="AS55" s="106"/>
-      <c r="AT55" s="106" cm="1">
+      <c r="AS55" s="130"/>
+      <c r="AT55" s="130" cm="1">
         <f t="array" ref="AT55">SUM(AR7:AU7+AR9:AU9+AR13:AU13+AR16:AU16+AR18:AU18+AR20:AU20+AR22:AU22+AR25:AU25+AR27:AU27+AR29:AU29+AR31:AU31+AR33:AU33+AR35:AU35+AR37:AU37+AR39:AU39+AR41:AU41+AR43:AU43+AR45:AU45+AR47:AU47+AR50:AU50+AR52:AU52+AR54:AU54)</f>
         <v>0</v>
       </c>
-      <c r="AU55" s="107"/>
+      <c r="AU55" s="131"/>
     </row>
     <row r="56" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="118"/>
-      <c r="B56" s="120"/>
-      <c r="C56" s="122"/>
-      <c r="D56" s="112"/>
-      <c r="E56" s="108"/>
-      <c r="F56" s="108"/>
-      <c r="G56" s="109"/>
-      <c r="H56" s="112"/>
-      <c r="I56" s="108"/>
-      <c r="J56" s="108"/>
-      <c r="K56" s="109"/>
-      <c r="L56" s="116"/>
-      <c r="M56" s="108"/>
-      <c r="N56" s="108"/>
-      <c r="O56" s="109"/>
-      <c r="P56" s="112"/>
-      <c r="Q56" s="108"/>
-      <c r="R56" s="108"/>
-      <c r="S56" s="109"/>
-      <c r="T56" s="112"/>
-      <c r="U56" s="108"/>
-      <c r="V56" s="108"/>
-      <c r="W56" s="109"/>
-      <c r="X56" s="112"/>
-      <c r="Y56" s="108"/>
-      <c r="Z56" s="108"/>
-      <c r="AA56" s="114"/>
-      <c r="AB56" s="112"/>
-      <c r="AC56" s="108"/>
-      <c r="AD56" s="108"/>
-      <c r="AE56" s="109"/>
-      <c r="AF56" s="112"/>
-      <c r="AG56" s="108"/>
-      <c r="AH56" s="108"/>
-      <c r="AI56" s="109"/>
-      <c r="AJ56" s="112"/>
-      <c r="AK56" s="108"/>
-      <c r="AL56" s="108"/>
-      <c r="AM56" s="109"/>
-      <c r="AN56" s="112"/>
-      <c r="AO56" s="108"/>
-      <c r="AP56" s="108"/>
-      <c r="AQ56" s="109"/>
-      <c r="AR56" s="112"/>
-      <c r="AS56" s="108"/>
-      <c r="AT56" s="108"/>
-      <c r="AU56" s="109"/>
+      <c r="A56" s="137"/>
+      <c r="B56" s="139"/>
+      <c r="C56" s="141"/>
+      <c r="D56" s="135"/>
+      <c r="E56" s="132"/>
+      <c r="F56" s="132"/>
+      <c r="G56" s="133"/>
+      <c r="H56" s="135"/>
+      <c r="I56" s="132"/>
+      <c r="J56" s="132"/>
+      <c r="K56" s="133"/>
+      <c r="L56" s="150"/>
+      <c r="M56" s="132"/>
+      <c r="N56" s="132"/>
+      <c r="O56" s="133"/>
+      <c r="P56" s="135"/>
+      <c r="Q56" s="132"/>
+      <c r="R56" s="132"/>
+      <c r="S56" s="133"/>
+      <c r="T56" s="135"/>
+      <c r="U56" s="132"/>
+      <c r="V56" s="132"/>
+      <c r="W56" s="133"/>
+      <c r="X56" s="135"/>
+      <c r="Y56" s="132"/>
+      <c r="Z56" s="132"/>
+      <c r="AA56" s="148"/>
+      <c r="AB56" s="135"/>
+      <c r="AC56" s="132"/>
+      <c r="AD56" s="132"/>
+      <c r="AE56" s="133"/>
+      <c r="AF56" s="135"/>
+      <c r="AG56" s="132"/>
+      <c r="AH56" s="132"/>
+      <c r="AI56" s="133"/>
+      <c r="AJ56" s="135"/>
+      <c r="AK56" s="132"/>
+      <c r="AL56" s="132"/>
+      <c r="AM56" s="133"/>
+      <c r="AN56" s="135"/>
+      <c r="AO56" s="132"/>
+      <c r="AP56" s="132"/>
+      <c r="AQ56" s="133"/>
+      <c r="AR56" s="135"/>
+      <c r="AS56" s="132"/>
+      <c r="AT56" s="132"/>
+      <c r="AU56" s="133"/>
     </row>
     <row r="57" spans="1:47" ht="17" x14ac:dyDescent="0.25">
       <c r="A57" s="6"/>
@@ -5504,94 +5516,94 @@
       <c r="C57" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D57" s="103" t="s">
+      <c r="D57" s="142" t="s">
         <v>14</v>
       </c>
-      <c r="E57" s="104"/>
-      <c r="F57" s="99" t="s">
+      <c r="E57" s="143"/>
+      <c r="F57" s="144" t="s">
         <v>15</v>
       </c>
-      <c r="G57" s="100"/>
-      <c r="H57" s="103" t="s">
+      <c r="G57" s="145"/>
+      <c r="H57" s="142" t="s">
         <v>14</v>
       </c>
-      <c r="I57" s="104"/>
-      <c r="J57" s="99" t="s">
+      <c r="I57" s="143"/>
+      <c r="J57" s="144" t="s">
         <v>15</v>
       </c>
-      <c r="K57" s="100"/>
-      <c r="L57" s="110" t="s">
+      <c r="K57" s="145"/>
+      <c r="L57" s="146" t="s">
         <v>14</v>
       </c>
-      <c r="M57" s="104"/>
-      <c r="N57" s="99" t="s">
+      <c r="M57" s="143"/>
+      <c r="N57" s="144" t="s">
         <v>15</v>
       </c>
-      <c r="O57" s="100"/>
-      <c r="P57" s="103" t="s">
+      <c r="O57" s="145"/>
+      <c r="P57" s="142" t="s">
         <v>14</v>
       </c>
-      <c r="Q57" s="104"/>
-      <c r="R57" s="99" t="s">
+      <c r="Q57" s="143"/>
+      <c r="R57" s="144" t="s">
         <v>15</v>
       </c>
-      <c r="S57" s="100"/>
-      <c r="T57" s="103" t="s">
+      <c r="S57" s="145"/>
+      <c r="T57" s="142" t="s">
         <v>14</v>
       </c>
-      <c r="U57" s="104"/>
-      <c r="V57" s="99" t="s">
+      <c r="U57" s="143"/>
+      <c r="V57" s="144" t="s">
         <v>15</v>
       </c>
-      <c r="W57" s="100"/>
-      <c r="X57" s="103" t="s">
+      <c r="W57" s="145"/>
+      <c r="X57" s="142" t="s">
         <v>14</v>
       </c>
-      <c r="Y57" s="104"/>
-      <c r="Z57" s="99" t="s">
+      <c r="Y57" s="143"/>
+      <c r="Z57" s="144" t="s">
         <v>15</v>
       </c>
-      <c r="AA57" s="105"/>
-      <c r="AB57" s="103" t="s">
+      <c r="AA57" s="156"/>
+      <c r="AB57" s="142" t="s">
         <v>14</v>
       </c>
-      <c r="AC57" s="104"/>
-      <c r="AD57" s="99" t="s">
+      <c r="AC57" s="143"/>
+      <c r="AD57" s="144" t="s">
         <v>15</v>
       </c>
-      <c r="AE57" s="100"/>
-      <c r="AF57" s="103" t="s">
+      <c r="AE57" s="145"/>
+      <c r="AF57" s="142" t="s">
         <v>14</v>
       </c>
-      <c r="AG57" s="104"/>
-      <c r="AH57" s="99" t="s">
+      <c r="AG57" s="143"/>
+      <c r="AH57" s="144" t="s">
         <v>15</v>
       </c>
-      <c r="AI57" s="100"/>
-      <c r="AJ57" s="103" t="s">
+      <c r="AI57" s="145"/>
+      <c r="AJ57" s="142" t="s">
         <v>14</v>
       </c>
-      <c r="AK57" s="104"/>
-      <c r="AL57" s="99" t="s">
+      <c r="AK57" s="143"/>
+      <c r="AL57" s="144" t="s">
         <v>15</v>
       </c>
-      <c r="AM57" s="100"/>
-      <c r="AN57" s="103" t="s">
+      <c r="AM57" s="145"/>
+      <c r="AN57" s="142" t="s">
         <v>14</v>
       </c>
-      <c r="AO57" s="104"/>
-      <c r="AP57" s="99" t="s">
+      <c r="AO57" s="143"/>
+      <c r="AP57" s="144" t="s">
         <v>15</v>
       </c>
-      <c r="AQ57" s="100"/>
-      <c r="AR57" s="103" t="s">
+      <c r="AQ57" s="145"/>
+      <c r="AR57" s="142" t="s">
         <v>14</v>
       </c>
-      <c r="AS57" s="104"/>
-      <c r="AT57" s="99" t="s">
+      <c r="AS57" s="143"/>
+      <c r="AT57" s="144" t="s">
         <v>15</v>
       </c>
-      <c r="AU57" s="100"/>
+      <c r="AU57" s="145"/>
     </row>
     <row r="58" spans="1:47" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="8"/>
@@ -5601,150 +5613,150 @@
       <c r="C58" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="D58" s="96">
+      <c r="D58" s="151">
         <f>D3</f>
         <v>43873</v>
       </c>
-      <c r="E58" s="97"/>
-      <c r="F58" s="97"/>
-      <c r="G58" s="98"/>
-      <c r="H58" s="96">
+      <c r="E58" s="152"/>
+      <c r="F58" s="152"/>
+      <c r="G58" s="153"/>
+      <c r="H58" s="151">
         <f>H3</f>
         <v>43874</v>
       </c>
-      <c r="I58" s="97"/>
-      <c r="J58" s="97"/>
-      <c r="K58" s="98"/>
-      <c r="L58" s="101">
+      <c r="I58" s="152"/>
+      <c r="J58" s="152"/>
+      <c r="K58" s="153"/>
+      <c r="L58" s="154">
         <f>L3</f>
         <v>43875</v>
       </c>
-      <c r="M58" s="97"/>
-      <c r="N58" s="97"/>
-      <c r="O58" s="98"/>
-      <c r="P58" s="96">
+      <c r="M58" s="152"/>
+      <c r="N58" s="152"/>
+      <c r="O58" s="153"/>
+      <c r="P58" s="151">
         <f>P3</f>
         <v>43878</v>
       </c>
-      <c r="Q58" s="97"/>
-      <c r="R58" s="97"/>
-      <c r="S58" s="98"/>
-      <c r="T58" s="96">
+      <c r="Q58" s="152"/>
+      <c r="R58" s="152"/>
+      <c r="S58" s="153"/>
+      <c r="T58" s="151">
         <f>T3</f>
         <v>43880</v>
       </c>
-      <c r="U58" s="97"/>
-      <c r="V58" s="97"/>
-      <c r="W58" s="98"/>
-      <c r="X58" s="96">
+      <c r="U58" s="152"/>
+      <c r="V58" s="152"/>
+      <c r="W58" s="153"/>
+      <c r="X58" s="151">
         <f>X3</f>
         <v>43881</v>
       </c>
-      <c r="Y58" s="97"/>
-      <c r="Z58" s="97"/>
-      <c r="AA58" s="102"/>
-      <c r="AB58" s="96">
+      <c r="Y58" s="152"/>
+      <c r="Z58" s="152"/>
+      <c r="AA58" s="155"/>
+      <c r="AB58" s="151">
         <f>AB3</f>
         <v>43882</v>
       </c>
-      <c r="AC58" s="97"/>
-      <c r="AD58" s="97"/>
-      <c r="AE58" s="98"/>
-      <c r="AF58" s="96">
+      <c r="AC58" s="152"/>
+      <c r="AD58" s="152"/>
+      <c r="AE58" s="153"/>
+      <c r="AF58" s="151">
         <f>AF3</f>
         <v>43885</v>
       </c>
-      <c r="AG58" s="97"/>
-      <c r="AH58" s="97"/>
-      <c r="AI58" s="98"/>
-      <c r="AJ58" s="96">
+      <c r="AG58" s="152"/>
+      <c r="AH58" s="152"/>
+      <c r="AI58" s="153"/>
+      <c r="AJ58" s="151">
         <f>AJ3</f>
         <v>43887</v>
       </c>
-      <c r="AK58" s="97"/>
-      <c r="AL58" s="97"/>
-      <c r="AM58" s="98"/>
-      <c r="AN58" s="96">
+      <c r="AK58" s="152"/>
+      <c r="AL58" s="152"/>
+      <c r="AM58" s="153"/>
+      <c r="AN58" s="151">
         <f>AN3</f>
         <v>43888</v>
       </c>
-      <c r="AO58" s="97"/>
-      <c r="AP58" s="97"/>
-      <c r="AQ58" s="98"/>
-      <c r="AR58" s="96">
+      <c r="AO58" s="152"/>
+      <c r="AP58" s="152"/>
+      <c r="AQ58" s="153"/>
+      <c r="AR58" s="151">
         <f>AR3</f>
         <v>43889</v>
       </c>
-      <c r="AS58" s="97"/>
-      <c r="AT58" s="97"/>
-      <c r="AU58" s="98"/>
+      <c r="AS58" s="152"/>
+      <c r="AT58" s="152"/>
+      <c r="AU58" s="153"/>
     </row>
     <row r="59" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="60" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="93" t="s">
+      <c r="A60" s="160" t="s">
         <v>37</v>
       </c>
-      <c r="B60" s="94"/>
-      <c r="C60" s="95"/>
+      <c r="B60" s="161"/>
+      <c r="C60" s="162"/>
     </row>
     <row r="61" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A61" s="91" t="s">
+      <c r="A61" s="159" t="s">
         <v>38</v>
       </c>
-      <c r="B61" s="92"/>
+      <c r="B61" s="89"/>
       <c r="C61" s="18"/>
     </row>
     <row r="62" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A62" s="91" t="s">
+      <c r="A62" s="159" t="s">
         <v>39</v>
       </c>
-      <c r="B62" s="92"/>
+      <c r="B62" s="89"/>
       <c r="C62" s="19"/>
     </row>
     <row r="63" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A63" s="91" t="s">
+      <c r="A63" s="159" t="s">
         <v>40</v>
       </c>
-      <c r="B63" s="92"/>
+      <c r="B63" s="89"/>
       <c r="C63" s="20"/>
     </row>
     <row r="64" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A64" s="91" t="s">
+      <c r="A64" s="159" t="s">
         <v>41</v>
       </c>
-      <c r="B64" s="92"/>
+      <c r="B64" s="89"/>
       <c r="C64" s="21"/>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A65" s="91" t="s">
+      <c r="A65" s="159" t="s">
         <v>42</v>
       </c>
-      <c r="B65" s="92"/>
+      <c r="B65" s="89"/>
       <c r="C65" s="22"/>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A66" s="91" t="s">
+      <c r="A66" s="159" t="s">
         <v>12</v>
       </c>
-      <c r="B66" s="92"/>
+      <c r="B66" s="89"/>
       <c r="C66" s="23" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A67" s="91" t="s">
+      <c r="A67" s="159" t="s">
         <v>13</v>
       </c>
-      <c r="B67" s="92"/>
+      <c r="B67" s="89"/>
       <c r="C67" s="23" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="89" t="s">
+      <c r="A68" s="157" t="s">
         <v>45</v>
       </c>
-      <c r="B68" s="90"/>
+      <c r="B68" s="158"/>
       <c r="C68" s="24"/>
     </row>
     <row r="69" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
@@ -5785,32 +5797,145 @@
     </row>
   </sheetData>
   <mergeCells count="189">
-    <mergeCell ref="A1:C3"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="L1:O1"/>
-    <mergeCell ref="P1:S1"/>
-    <mergeCell ref="T1:W1"/>
-    <mergeCell ref="H2:K2"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="P2:S2"/>
-    <mergeCell ref="T2:W2"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="AF2:AI2"/>
-    <mergeCell ref="AJ2:AM2"/>
-    <mergeCell ref="H3:K3"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="P3:S3"/>
-    <mergeCell ref="T3:W3"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="R4:S4"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A60:C60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="AN58:AQ58"/>
+    <mergeCell ref="AR58:AU58"/>
+    <mergeCell ref="AT57:AU57"/>
+    <mergeCell ref="D58:G58"/>
+    <mergeCell ref="H58:K58"/>
+    <mergeCell ref="L58:O58"/>
+    <mergeCell ref="P58:S58"/>
+    <mergeCell ref="T58:W58"/>
+    <mergeCell ref="X58:AA58"/>
+    <mergeCell ref="AB58:AE58"/>
+    <mergeCell ref="AF58:AI58"/>
+    <mergeCell ref="AJ58:AM58"/>
+    <mergeCell ref="AH57:AI57"/>
+    <mergeCell ref="AJ57:AK57"/>
+    <mergeCell ref="AL57:AM57"/>
+    <mergeCell ref="AN57:AO57"/>
+    <mergeCell ref="AP57:AQ57"/>
+    <mergeCell ref="AR57:AS57"/>
+    <mergeCell ref="V57:W57"/>
+    <mergeCell ref="X57:Y57"/>
+    <mergeCell ref="Z57:AA57"/>
+    <mergeCell ref="AB57:AC57"/>
+    <mergeCell ref="AD57:AE57"/>
+    <mergeCell ref="AF57:AG57"/>
+    <mergeCell ref="AT55:AU56"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="F57:G57"/>
+    <mergeCell ref="H57:I57"/>
+    <mergeCell ref="J57:K57"/>
+    <mergeCell ref="L57:M57"/>
+    <mergeCell ref="N57:O57"/>
+    <mergeCell ref="P57:Q57"/>
+    <mergeCell ref="R57:S57"/>
+    <mergeCell ref="T57:U57"/>
+    <mergeCell ref="AH55:AI56"/>
+    <mergeCell ref="AJ55:AK56"/>
+    <mergeCell ref="AL55:AM56"/>
+    <mergeCell ref="AN55:AO56"/>
+    <mergeCell ref="AP55:AQ56"/>
+    <mergeCell ref="AR55:AS56"/>
+    <mergeCell ref="V55:W56"/>
+    <mergeCell ref="X55:Y56"/>
+    <mergeCell ref="Z55:AA56"/>
+    <mergeCell ref="AB55:AC56"/>
+    <mergeCell ref="AD55:AE56"/>
+    <mergeCell ref="AF55:AG56"/>
+    <mergeCell ref="J55:K56"/>
+    <mergeCell ref="L55:M56"/>
+    <mergeCell ref="N55:O56"/>
+    <mergeCell ref="P55:Q56"/>
+    <mergeCell ref="R55:S56"/>
+    <mergeCell ref="T55:U56"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="D55:E56"/>
+    <mergeCell ref="F55:G56"/>
+    <mergeCell ref="H55:I56"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="AR4:AS4"/>
+    <mergeCell ref="AT4:AU4"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="AJ4:AK4"/>
+    <mergeCell ref="AL4:AM4"/>
+    <mergeCell ref="T4:U4"/>
+    <mergeCell ref="V4:W4"/>
     <mergeCell ref="AN1:AQ1"/>
     <mergeCell ref="AR1:AU1"/>
     <mergeCell ref="AN2:AQ2"/>
@@ -5835,145 +5960,32 @@
     <mergeCell ref="AJ1:AM1"/>
     <mergeCell ref="X2:AA2"/>
     <mergeCell ref="AB2:AE2"/>
-    <mergeCell ref="AR4:AS4"/>
-    <mergeCell ref="AT4:AU4"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="AJ4:AK4"/>
-    <mergeCell ref="AL4:AM4"/>
-    <mergeCell ref="T4:U4"/>
-    <mergeCell ref="V4:W4"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="N55:O56"/>
-    <mergeCell ref="P55:Q56"/>
-    <mergeCell ref="R55:S56"/>
-    <mergeCell ref="T55:U56"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="D55:E56"/>
-    <mergeCell ref="F55:G56"/>
-    <mergeCell ref="H55:I56"/>
-    <mergeCell ref="AT55:AU56"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="F57:G57"/>
-    <mergeCell ref="H57:I57"/>
-    <mergeCell ref="J57:K57"/>
-    <mergeCell ref="L57:M57"/>
-    <mergeCell ref="N57:O57"/>
-    <mergeCell ref="P57:Q57"/>
-    <mergeCell ref="R57:S57"/>
-    <mergeCell ref="T57:U57"/>
-    <mergeCell ref="AH55:AI56"/>
-    <mergeCell ref="AJ55:AK56"/>
-    <mergeCell ref="AL55:AM56"/>
-    <mergeCell ref="AN55:AO56"/>
-    <mergeCell ref="AP55:AQ56"/>
-    <mergeCell ref="AR55:AS56"/>
-    <mergeCell ref="V55:W56"/>
-    <mergeCell ref="X55:Y56"/>
-    <mergeCell ref="Z55:AA56"/>
-    <mergeCell ref="AB55:AC56"/>
-    <mergeCell ref="AD55:AE56"/>
-    <mergeCell ref="AF55:AG56"/>
-    <mergeCell ref="J55:K56"/>
-    <mergeCell ref="L55:M56"/>
-    <mergeCell ref="AN58:AQ58"/>
-    <mergeCell ref="AR58:AU58"/>
-    <mergeCell ref="AT57:AU57"/>
-    <mergeCell ref="D58:G58"/>
-    <mergeCell ref="H58:K58"/>
-    <mergeCell ref="L58:O58"/>
-    <mergeCell ref="P58:S58"/>
-    <mergeCell ref="T58:W58"/>
-    <mergeCell ref="X58:AA58"/>
-    <mergeCell ref="AB58:AE58"/>
-    <mergeCell ref="AF58:AI58"/>
-    <mergeCell ref="AJ58:AM58"/>
-    <mergeCell ref="AH57:AI57"/>
-    <mergeCell ref="AJ57:AK57"/>
-    <mergeCell ref="AL57:AM57"/>
-    <mergeCell ref="AN57:AO57"/>
-    <mergeCell ref="AP57:AQ57"/>
-    <mergeCell ref="AR57:AS57"/>
-    <mergeCell ref="V57:W57"/>
-    <mergeCell ref="X57:Y57"/>
-    <mergeCell ref="Z57:AA57"/>
-    <mergeCell ref="AB57:AC57"/>
-    <mergeCell ref="AD57:AE57"/>
-    <mergeCell ref="AF57:AG57"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="A60:C60"/>
-    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="AF2:AI2"/>
+    <mergeCell ref="AJ2:AM2"/>
+    <mergeCell ref="H3:K3"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="P3:S3"/>
+    <mergeCell ref="T3:W3"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="R4:S4"/>
+    <mergeCell ref="A1:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="L1:O1"/>
+    <mergeCell ref="P1:S1"/>
+    <mergeCell ref="T1:W1"/>
+    <mergeCell ref="H2:K2"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="P2:S2"/>
+    <mergeCell ref="T2:W2"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="D2:G2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="D6:AU6 D8:AU8 D12:J12 L12:AU12 K13 D44:AR44 AT44:AU44 AR45">

--- a/02_zeitplan/IPA_Zeitplan_Kabilan_Sivanamam.xlsx
+++ b/02_zeitplan/IPA_Zeitplan_Kabilan_Sivanamam.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kabi/Documents/GitHub/IPA2020/02_zeitplan/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2BD00D5-A9DB-D540-AEFF-AAA57145FCB6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C61D3CB-B35E-C845-80B1-B573444292B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{919B10DA-F269-3C46-8A86-B94EB657325B}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{919B10DA-F269-3C46-8A86-B94EB657325B}"/>
   </bookViews>
   <sheets>
     <sheet name="Zeitplan v1" sheetId="1" r:id="rId1"/>
@@ -1098,16 +1098,166 @@
     <xf numFmtId="1" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="3" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="3" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="3" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="3" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1128,196 +1278,46 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="3" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="3" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="3" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="3" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2142,8 +2142,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE2EA0AA-2CD7-9C47-95CA-C0AE6CDA2CB2}">
   <dimension ref="A1:AU74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="AD43" sqref="AD43"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="75" workbookViewId="0">
+      <selection activeCell="AQ46" sqref="AQ46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2155,230 +2155,230 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="96" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="98"/>
-      <c r="H1" s="96" t="s">
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="146" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="147"/>
+      <c r="F1" s="147"/>
+      <c r="G1" s="148"/>
+      <c r="H1" s="146" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="97"/>
-      <c r="J1" s="97"/>
-      <c r="K1" s="98"/>
-      <c r="L1" s="99" t="s">
+      <c r="I1" s="147"/>
+      <c r="J1" s="147"/>
+      <c r="K1" s="148"/>
+      <c r="L1" s="161" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="97"/>
-      <c r="N1" s="97"/>
-      <c r="O1" s="98"/>
-      <c r="P1" s="96" t="s">
+      <c r="M1" s="147"/>
+      <c r="N1" s="147"/>
+      <c r="O1" s="148"/>
+      <c r="P1" s="146" t="s">
         <v>4</v>
       </c>
-      <c r="Q1" s="97"/>
-      <c r="R1" s="97"/>
-      <c r="S1" s="98"/>
-      <c r="T1" s="96" t="s">
+      <c r="Q1" s="147"/>
+      <c r="R1" s="147"/>
+      <c r="S1" s="148"/>
+      <c r="T1" s="146" t="s">
         <v>5</v>
       </c>
-      <c r="U1" s="97"/>
-      <c r="V1" s="97"/>
-      <c r="W1" s="98"/>
-      <c r="X1" s="96" t="s">
+      <c r="U1" s="147"/>
+      <c r="V1" s="147"/>
+      <c r="W1" s="148"/>
+      <c r="X1" s="146" t="s">
         <v>6</v>
       </c>
-      <c r="Y1" s="97"/>
-      <c r="Z1" s="97"/>
-      <c r="AA1" s="108"/>
-      <c r="AB1" s="96" t="s">
+      <c r="Y1" s="147"/>
+      <c r="Z1" s="147"/>
+      <c r="AA1" s="157"/>
+      <c r="AB1" s="146" t="s">
         <v>7</v>
       </c>
-      <c r="AC1" s="97"/>
-      <c r="AD1" s="97"/>
-      <c r="AE1" s="98"/>
-      <c r="AF1" s="96" t="s">
+      <c r="AC1" s="147"/>
+      <c r="AD1" s="147"/>
+      <c r="AE1" s="148"/>
+      <c r="AF1" s="146" t="s">
         <v>8</v>
       </c>
-      <c r="AG1" s="97"/>
-      <c r="AH1" s="97"/>
-      <c r="AI1" s="98"/>
-      <c r="AJ1" s="96" t="s">
+      <c r="AG1" s="147"/>
+      <c r="AH1" s="147"/>
+      <c r="AI1" s="148"/>
+      <c r="AJ1" s="146" t="s">
         <v>9</v>
       </c>
-      <c r="AK1" s="97"/>
-      <c r="AL1" s="97"/>
-      <c r="AM1" s="98"/>
-      <c r="AN1" s="96" t="s">
+      <c r="AK1" s="147"/>
+      <c r="AL1" s="147"/>
+      <c r="AM1" s="148"/>
+      <c r="AN1" s="146" t="s">
         <v>10</v>
       </c>
-      <c r="AO1" s="97"/>
-      <c r="AP1" s="97"/>
-      <c r="AQ1" s="98"/>
-      <c r="AR1" s="96" t="s">
+      <c r="AO1" s="147"/>
+      <c r="AP1" s="147"/>
+      <c r="AQ1" s="148"/>
+      <c r="AR1" s="146" t="s">
         <v>11</v>
       </c>
-      <c r="AS1" s="97"/>
-      <c r="AT1" s="97"/>
-      <c r="AU1" s="98"/>
+      <c r="AS1" s="147"/>
+      <c r="AT1" s="147"/>
+      <c r="AU1" s="148"/>
     </row>
     <row r="2" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A2" s="89"/>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="100" t="str">
+      <c r="A2" s="92"/>
+      <c r="B2" s="92"/>
+      <c r="C2" s="92"/>
+      <c r="D2" s="149" t="str">
         <f>TEXT(D3,"ddd")</f>
         <v>Wed</v>
       </c>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="102"/>
-      <c r="H2" s="100" t="str">
+      <c r="E2" s="150"/>
+      <c r="F2" s="150"/>
+      <c r="G2" s="151"/>
+      <c r="H2" s="149" t="str">
         <f t="shared" ref="H2" si="0">TEXT(H3,"ddd")</f>
         <v>Thu</v>
       </c>
-      <c r="I2" s="101"/>
-      <c r="J2" s="101"/>
-      <c r="K2" s="102"/>
-      <c r="L2" s="103" t="str">
+      <c r="I2" s="150"/>
+      <c r="J2" s="150"/>
+      <c r="K2" s="151"/>
+      <c r="L2" s="162" t="str">
         <f t="shared" ref="L2" si="1">TEXT(L3,"ddd")</f>
         <v>Fri</v>
       </c>
-      <c r="M2" s="101"/>
-      <c r="N2" s="101"/>
-      <c r="O2" s="102"/>
-      <c r="P2" s="100" t="str">
+      <c r="M2" s="150"/>
+      <c r="N2" s="150"/>
+      <c r="O2" s="151"/>
+      <c r="P2" s="149" t="str">
         <f t="shared" ref="P2" si="2">TEXT(P3,"ddd")</f>
         <v>Mon</v>
       </c>
-      <c r="Q2" s="101"/>
-      <c r="R2" s="101"/>
-      <c r="S2" s="102"/>
-      <c r="T2" s="100" t="str">
+      <c r="Q2" s="150"/>
+      <c r="R2" s="150"/>
+      <c r="S2" s="151"/>
+      <c r="T2" s="149" t="str">
         <f t="shared" ref="T2" si="3">TEXT(T3,"ddd")</f>
         <v>Wed</v>
       </c>
-      <c r="U2" s="101"/>
-      <c r="V2" s="101"/>
-      <c r="W2" s="102"/>
-      <c r="X2" s="100" t="str">
+      <c r="U2" s="150"/>
+      <c r="V2" s="150"/>
+      <c r="W2" s="151"/>
+      <c r="X2" s="149" t="str">
         <f t="shared" ref="X2" si="4">TEXT(X3,"ddd")</f>
         <v>Thu</v>
       </c>
-      <c r="Y2" s="101"/>
-      <c r="Z2" s="101"/>
-      <c r="AA2" s="109"/>
-      <c r="AB2" s="100" t="str">
+      <c r="Y2" s="150"/>
+      <c r="Z2" s="150"/>
+      <c r="AA2" s="158"/>
+      <c r="AB2" s="149" t="str">
         <f t="shared" ref="AB2" si="5">TEXT(AB3,"ddd")</f>
         <v>Fri</v>
       </c>
-      <c r="AC2" s="101"/>
-      <c r="AD2" s="101"/>
-      <c r="AE2" s="102"/>
-      <c r="AF2" s="100" t="str">
+      <c r="AC2" s="150"/>
+      <c r="AD2" s="150"/>
+      <c r="AE2" s="151"/>
+      <c r="AF2" s="149" t="str">
         <f t="shared" ref="AF2" si="6">TEXT(AF3,"ddd")</f>
         <v>Mon</v>
       </c>
-      <c r="AG2" s="101"/>
-      <c r="AH2" s="101"/>
-      <c r="AI2" s="102"/>
-      <c r="AJ2" s="100" t="str">
+      <c r="AG2" s="150"/>
+      <c r="AH2" s="150"/>
+      <c r="AI2" s="151"/>
+      <c r="AJ2" s="149" t="str">
         <f t="shared" ref="AJ2" si="7">TEXT(AJ3,"ddd")</f>
         <v>Wed</v>
       </c>
-      <c r="AK2" s="101"/>
-      <c r="AL2" s="101"/>
-      <c r="AM2" s="102"/>
-      <c r="AN2" s="100" t="str">
+      <c r="AK2" s="150"/>
+      <c r="AL2" s="150"/>
+      <c r="AM2" s="151"/>
+      <c r="AN2" s="149" t="str">
         <f t="shared" ref="AN2" si="8">TEXT(AN3,"ddd")</f>
         <v>Thu</v>
       </c>
-      <c r="AO2" s="101"/>
-      <c r="AP2" s="101"/>
-      <c r="AQ2" s="102"/>
-      <c r="AR2" s="100" t="str">
+      <c r="AO2" s="150"/>
+      <c r="AP2" s="150"/>
+      <c r="AQ2" s="151"/>
+      <c r="AR2" s="149" t="str">
         <f t="shared" ref="AR2" si="9">TEXT(AR3,"ddd")</f>
         <v>Fri</v>
       </c>
-      <c r="AS2" s="101"/>
-      <c r="AT2" s="101"/>
-      <c r="AU2" s="102"/>
+      <c r="AS2" s="150"/>
+      <c r="AT2" s="150"/>
+      <c r="AU2" s="151"/>
     </row>
     <row r="3" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A3" s="89"/>
-      <c r="B3" s="89"/>
-      <c r="C3" s="89"/>
-      <c r="D3" s="90">
+      <c r="A3" s="92"/>
+      <c r="B3" s="92"/>
+      <c r="C3" s="92"/>
+      <c r="D3" s="152">
         <v>43873</v>
       </c>
-      <c r="E3" s="91"/>
-      <c r="F3" s="91"/>
-      <c r="G3" s="92"/>
-      <c r="H3" s="90">
+      <c r="E3" s="153"/>
+      <c r="F3" s="153"/>
+      <c r="G3" s="154"/>
+      <c r="H3" s="152">
         <v>43874</v>
       </c>
-      <c r="I3" s="91"/>
-      <c r="J3" s="91"/>
-      <c r="K3" s="92"/>
-      <c r="L3" s="104">
+      <c r="I3" s="153"/>
+      <c r="J3" s="153"/>
+      <c r="K3" s="154"/>
+      <c r="L3" s="159">
         <v>43875</v>
       </c>
-      <c r="M3" s="91"/>
-      <c r="N3" s="91"/>
-      <c r="O3" s="92"/>
-      <c r="P3" s="90">
+      <c r="M3" s="153"/>
+      <c r="N3" s="153"/>
+      <c r="O3" s="154"/>
+      <c r="P3" s="152">
         <v>43878</v>
       </c>
-      <c r="Q3" s="91"/>
-      <c r="R3" s="91"/>
-      <c r="S3" s="92"/>
-      <c r="T3" s="90">
+      <c r="Q3" s="153"/>
+      <c r="R3" s="153"/>
+      <c r="S3" s="154"/>
+      <c r="T3" s="152">
         <v>43880</v>
       </c>
-      <c r="U3" s="91"/>
-      <c r="V3" s="91"/>
-      <c r="W3" s="92"/>
-      <c r="X3" s="90">
+      <c r="U3" s="153"/>
+      <c r="V3" s="153"/>
+      <c r="W3" s="154"/>
+      <c r="X3" s="152">
         <v>43881</v>
       </c>
-      <c r="Y3" s="91"/>
-      <c r="Z3" s="91"/>
-      <c r="AA3" s="106"/>
-      <c r="AB3" s="90">
+      <c r="Y3" s="153"/>
+      <c r="Z3" s="153"/>
+      <c r="AA3" s="155"/>
+      <c r="AB3" s="152">
         <v>43882</v>
       </c>
-      <c r="AC3" s="91"/>
-      <c r="AD3" s="91"/>
-      <c r="AE3" s="92"/>
-      <c r="AF3" s="90">
+      <c r="AC3" s="153"/>
+      <c r="AD3" s="153"/>
+      <c r="AE3" s="154"/>
+      <c r="AF3" s="152">
         <v>43885</v>
       </c>
-      <c r="AG3" s="91"/>
-      <c r="AH3" s="91"/>
-      <c r="AI3" s="92"/>
-      <c r="AJ3" s="90">
+      <c r="AG3" s="153"/>
+      <c r="AH3" s="153"/>
+      <c r="AI3" s="154"/>
+      <c r="AJ3" s="152">
         <v>43887</v>
       </c>
-      <c r="AK3" s="91"/>
-      <c r="AL3" s="91"/>
-      <c r="AM3" s="92"/>
-      <c r="AN3" s="90">
+      <c r="AK3" s="153"/>
+      <c r="AL3" s="153"/>
+      <c r="AM3" s="154"/>
+      <c r="AN3" s="152">
         <v>43888</v>
       </c>
-      <c r="AO3" s="91"/>
-      <c r="AP3" s="91"/>
-      <c r="AQ3" s="92"/>
-      <c r="AR3" s="90">
+      <c r="AO3" s="153"/>
+      <c r="AP3" s="153"/>
+      <c r="AQ3" s="154"/>
+      <c r="AR3" s="152">
         <v>43889</v>
       </c>
-      <c r="AS3" s="91"/>
-      <c r="AT3" s="91"/>
-      <c r="AU3" s="92"/>
+      <c r="AS3" s="153"/>
+      <c r="AT3" s="153"/>
+      <c r="AU3" s="154"/>
     </row>
     <row r="4" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
@@ -2390,94 +2390,94 @@
       <c r="C4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="93" t="s">
+      <c r="D4" s="143" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="94"/>
-      <c r="F4" s="94" t="s">
+      <c r="E4" s="144"/>
+      <c r="F4" s="144" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="95"/>
-      <c r="H4" s="93" t="s">
+      <c r="G4" s="145"/>
+      <c r="H4" s="143" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="94"/>
-      <c r="J4" s="94" t="s">
+      <c r="I4" s="144"/>
+      <c r="J4" s="144" t="s">
         <v>13</v>
       </c>
-      <c r="K4" s="95"/>
-      <c r="L4" s="105" t="s">
+      <c r="K4" s="145"/>
+      <c r="L4" s="160" t="s">
         <v>12</v>
       </c>
-      <c r="M4" s="94"/>
-      <c r="N4" s="94" t="s">
+      <c r="M4" s="144"/>
+      <c r="N4" s="144" t="s">
         <v>13</v>
       </c>
-      <c r="O4" s="95"/>
-      <c r="P4" s="93" t="s">
+      <c r="O4" s="145"/>
+      <c r="P4" s="143" t="s">
         <v>12</v>
       </c>
-      <c r="Q4" s="94"/>
-      <c r="R4" s="94" t="s">
+      <c r="Q4" s="144"/>
+      <c r="R4" s="144" t="s">
         <v>13</v>
       </c>
-      <c r="S4" s="95"/>
-      <c r="T4" s="93" t="s">
+      <c r="S4" s="145"/>
+      <c r="T4" s="143" t="s">
         <v>12</v>
       </c>
-      <c r="U4" s="94"/>
-      <c r="V4" s="94" t="s">
+      <c r="U4" s="144"/>
+      <c r="V4" s="144" t="s">
         <v>13</v>
       </c>
-      <c r="W4" s="95"/>
-      <c r="X4" s="93" t="s">
+      <c r="W4" s="145"/>
+      <c r="X4" s="143" t="s">
         <v>12</v>
       </c>
-      <c r="Y4" s="94"/>
-      <c r="Z4" s="94" t="s">
+      <c r="Y4" s="144"/>
+      <c r="Z4" s="144" t="s">
         <v>13</v>
       </c>
-      <c r="AA4" s="107"/>
-      <c r="AB4" s="93" t="s">
+      <c r="AA4" s="156"/>
+      <c r="AB4" s="143" t="s">
         <v>12</v>
       </c>
-      <c r="AC4" s="94"/>
-      <c r="AD4" s="94" t="s">
+      <c r="AC4" s="144"/>
+      <c r="AD4" s="144" t="s">
         <v>13</v>
       </c>
-      <c r="AE4" s="95"/>
-      <c r="AF4" s="93" t="s">
+      <c r="AE4" s="145"/>
+      <c r="AF4" s="143" t="s">
         <v>12</v>
       </c>
-      <c r="AG4" s="94"/>
-      <c r="AH4" s="94" t="s">
+      <c r="AG4" s="144"/>
+      <c r="AH4" s="144" t="s">
         <v>13</v>
       </c>
-      <c r="AI4" s="95"/>
-      <c r="AJ4" s="93" t="s">
+      <c r="AI4" s="145"/>
+      <c r="AJ4" s="143" t="s">
         <v>12</v>
       </c>
-      <c r="AK4" s="94"/>
-      <c r="AL4" s="94" t="s">
+      <c r="AK4" s="144"/>
+      <c r="AL4" s="144" t="s">
         <v>13</v>
       </c>
-      <c r="AM4" s="95"/>
-      <c r="AN4" s="93" t="s">
+      <c r="AM4" s="145"/>
+      <c r="AN4" s="143" t="s">
         <v>12</v>
       </c>
-      <c r="AO4" s="94"/>
-      <c r="AP4" s="94" t="s">
+      <c r="AO4" s="144"/>
+      <c r="AP4" s="144" t="s">
         <v>13</v>
       </c>
-      <c r="AQ4" s="95"/>
-      <c r="AR4" s="93" t="s">
+      <c r="AQ4" s="145"/>
+      <c r="AR4" s="143" t="s">
         <v>12</v>
       </c>
-      <c r="AS4" s="94"/>
-      <c r="AT4" s="94" t="s">
+      <c r="AS4" s="144"/>
+      <c r="AT4" s="144" t="s">
         <v>13</v>
       </c>
-      <c r="AU4" s="95"/>
+      <c r="AU4" s="145"/>
     </row>
     <row r="5" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
@@ -2531,14 +2531,14 @@
       <c r="AU5" s="17"/>
     </row>
     <row r="6" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A6" s="110" t="s">
+      <c r="A6" s="123" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="112">
+      <c r="B6" s="135">
         <f>SUM(D6:AU6)</f>
         <v>2</v>
       </c>
-      <c r="C6" s="113">
+      <c r="C6" s="136">
         <f>SUM(D7:AU7)</f>
         <v>2</v>
       </c>
@@ -2592,9 +2592,9 @@
       <c r="AU6" s="35"/>
     </row>
     <row r="7" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="111"/>
-      <c r="B7" s="112"/>
-      <c r="C7" s="113"/>
+      <c r="A7" s="124"/>
+      <c r="B7" s="135"/>
+      <c r="C7" s="136"/>
       <c r="D7" s="41">
         <v>1</v>
       </c>
@@ -2645,14 +2645,14 @@
       <c r="AU7" s="40"/>
     </row>
     <row r="8" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A8" s="110" t="s">
+      <c r="A8" s="123" t="s">
         <v>50</v>
       </c>
-      <c r="B8" s="112">
+      <c r="B8" s="135">
         <f>SUM(D8:AU8)</f>
         <v>4</v>
       </c>
-      <c r="C8" s="113">
+      <c r="C8" s="136">
         <f>SUM(D9:AU9)</f>
         <v>3</v>
       </c>
@@ -2710,9 +2710,9 @@
       </c>
     </row>
     <row r="9" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="115"/>
-      <c r="B9" s="116"/>
-      <c r="C9" s="114"/>
+      <c r="A9" s="134"/>
+      <c r="B9" s="131"/>
+      <c r="C9" s="133"/>
       <c r="D9" s="49"/>
       <c r="E9" s="53">
         <v>1</v>
@@ -2867,14 +2867,14 @@
       <c r="AU11" s="46"/>
     </row>
     <row r="12" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A12" s="117" t="s">
+      <c r="A12" s="129" t="s">
         <v>51</v>
       </c>
-      <c r="B12" s="118">
+      <c r="B12" s="130">
         <f>SUM(D12:AU12)</f>
         <v>7</v>
       </c>
-      <c r="C12" s="119">
+      <c r="C12" s="132">
         <f>SUM(D13:AU13)</f>
         <v>7</v>
       </c>
@@ -2932,9 +2932,9 @@
       <c r="AU12" s="48"/>
     </row>
     <row r="13" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="115"/>
-      <c r="B13" s="112"/>
-      <c r="C13" s="113"/>
+      <c r="A13" s="134"/>
+      <c r="B13" s="135"/>
+      <c r="C13" s="136"/>
       <c r="D13" s="41"/>
       <c r="E13" s="39"/>
       <c r="F13" s="39"/>
@@ -3040,14 +3040,14 @@
       <c r="AU14" s="63"/>
     </row>
     <row r="15" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A15" s="120" t="s">
+      <c r="A15" s="137" t="s">
         <v>57</v>
       </c>
-      <c r="B15" s="122">
+      <c r="B15" s="139">
         <f>SUM(D15:AU15)</f>
         <v>1</v>
       </c>
-      <c r="C15" s="124">
+      <c r="C15" s="141">
         <f>SUM(D16:AU16)</f>
         <v>4</v>
       </c>
@@ -3099,9 +3099,9 @@
       <c r="AU15" s="35"/>
     </row>
     <row r="16" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="121"/>
-      <c r="B16" s="123"/>
-      <c r="C16" s="125"/>
+      <c r="A16" s="138"/>
+      <c r="B16" s="140"/>
+      <c r="C16" s="142"/>
       <c r="D16" s="41"/>
       <c r="E16" s="39"/>
       <c r="F16" s="39"/>
@@ -3154,14 +3154,14 @@
       <c r="AU16" s="40"/>
     </row>
     <row r="17" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A17" s="117" t="s">
+      <c r="A17" s="129" t="s">
         <v>52</v>
       </c>
-      <c r="B17" s="118">
+      <c r="B17" s="130">
         <f t="shared" ref="B17" si="10">SUM(D17:AU17)</f>
         <v>2</v>
       </c>
-      <c r="C17" s="119">
+      <c r="C17" s="132">
         <f t="shared" ref="C17" si="11">SUM(D18:AU18)</f>
         <v>4</v>
       </c>
@@ -3213,9 +3213,9 @@
       <c r="AU17" s="48"/>
     </row>
     <row r="18" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="115"/>
-      <c r="B18" s="112"/>
-      <c r="C18" s="113"/>
+      <c r="A18" s="134"/>
+      <c r="B18" s="135"/>
+      <c r="C18" s="136"/>
       <c r="D18" s="41"/>
       <c r="E18" s="39"/>
       <c r="F18" s="39"/>
@@ -3270,14 +3270,14 @@
       <c r="AU18" s="40"/>
     </row>
     <row r="19" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A19" s="110" t="s">
+      <c r="A19" s="123" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="112">
+      <c r="B19" s="135">
         <f t="shared" ref="B19" si="12">SUM(D19:AU19)</f>
         <v>2</v>
       </c>
-      <c r="C19" s="113">
+      <c r="C19" s="136">
         <f t="shared" ref="C19" si="13">SUM(D20:AU20)</f>
         <v>0</v>
       </c>
@@ -3329,9 +3329,9 @@
       <c r="AU19" s="35"/>
     </row>
     <row r="20" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="115"/>
-      <c r="B20" s="116"/>
-      <c r="C20" s="114"/>
+      <c r="A20" s="134"/>
+      <c r="B20" s="131"/>
+      <c r="C20" s="133"/>
       <c r="D20" s="49"/>
       <c r="E20" s="53"/>
       <c r="F20" s="53"/>
@@ -3378,16 +3378,16 @@
       <c r="AU20" s="48"/>
     </row>
     <row r="21" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A21" s="110" t="s">
+      <c r="A21" s="123" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="126">
+      <c r="B21" s="125">
         <f t="shared" ref="B21" si="14">SUM(D21:AU21)</f>
         <v>1</v>
       </c>
-      <c r="C21" s="128">
+      <c r="C21" s="127">
         <f t="shared" ref="C21" si="15">SUM(D22:AU22)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" s="36"/>
       <c r="E21" s="34"/>
@@ -3437,9 +3437,9 @@
       <c r="AU21" s="35"/>
     </row>
     <row r="22" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="111"/>
-      <c r="B22" s="127"/>
-      <c r="C22" s="129"/>
+      <c r="A22" s="124"/>
+      <c r="B22" s="126"/>
+      <c r="C22" s="128"/>
       <c r="D22" s="41"/>
       <c r="E22" s="39"/>
       <c r="F22" s="39"/>
@@ -3486,7 +3486,9 @@
       <c r="AK22" s="39"/>
       <c r="AL22" s="39"/>
       <c r="AM22" s="40"/>
-      <c r="AN22" s="41"/>
+      <c r="AN22" s="41">
+        <v>1</v>
+      </c>
       <c r="AO22" s="39"/>
       <c r="AP22" s="39"/>
       <c r="AQ22" s="40"/>
@@ -3547,14 +3549,14 @@
       <c r="AU23" s="58"/>
     </row>
     <row r="24" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A24" s="110" t="s">
+      <c r="A24" s="123" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="112">
+      <c r="B24" s="135">
         <f>SUM(D24:AU24)</f>
         <v>1</v>
       </c>
-      <c r="C24" s="113">
+      <c r="C24" s="136">
         <f>SUM(D25:AU25)</f>
         <v>2</v>
       </c>
@@ -3606,9 +3608,9 @@
       <c r="AU24" s="48"/>
     </row>
     <row r="25" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="115"/>
-      <c r="B25" s="112"/>
-      <c r="C25" s="113"/>
+      <c r="A25" s="134"/>
+      <c r="B25" s="135"/>
+      <c r="C25" s="136"/>
       <c r="D25" s="41"/>
       <c r="E25" s="39"/>
       <c r="F25" s="39"/>
@@ -3659,14 +3661,14 @@
       <c r="AU25" s="40"/>
     </row>
     <row r="26" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A26" s="110" t="s">
+      <c r="A26" s="123" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="112">
+      <c r="B26" s="135">
         <f t="shared" ref="B26" si="16">SUM(D26:AU26)</f>
         <v>1</v>
       </c>
-      <c r="C26" s="113">
+      <c r="C26" s="136">
         <f t="shared" ref="C26" si="17">SUM(D27:AU27)</f>
         <v>5</v>
       </c>
@@ -3718,9 +3720,9 @@
       <c r="AU26" s="35"/>
     </row>
     <row r="27" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="115"/>
-      <c r="B27" s="116"/>
-      <c r="C27" s="114"/>
+      <c r="A27" s="134"/>
+      <c r="B27" s="131"/>
+      <c r="C27" s="133"/>
       <c r="D27" s="49"/>
       <c r="E27" s="53"/>
       <c r="F27" s="53"/>
@@ -3775,14 +3777,14 @@
       <c r="AU27" s="48"/>
     </row>
     <row r="28" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A28" s="110" t="s">
+      <c r="A28" s="123" t="s">
         <v>59</v>
       </c>
-      <c r="B28" s="126">
+      <c r="B28" s="125">
         <f t="shared" ref="B28" si="18">SUM(D28:AU28)</f>
         <v>7</v>
       </c>
-      <c r="C28" s="128">
+      <c r="C28" s="127">
         <f t="shared" ref="C28" si="19">SUM(D29:AU29)</f>
         <v>2</v>
       </c>
@@ -3840,9 +3842,9 @@
       <c r="AU28" s="35"/>
     </row>
     <row r="29" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="111"/>
-      <c r="B29" s="127"/>
-      <c r="C29" s="129"/>
+      <c r="A29" s="124"/>
+      <c r="B29" s="126"/>
+      <c r="C29" s="128"/>
       <c r="D29" s="41"/>
       <c r="E29" s="39"/>
       <c r="F29" s="39"/>
@@ -3893,14 +3895,14 @@
       <c r="AU29" s="40"/>
     </row>
     <row r="30" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A30" s="117" t="s">
+      <c r="A30" s="129" t="s">
         <v>60</v>
       </c>
-      <c r="B30" s="118">
+      <c r="B30" s="130">
         <f t="shared" ref="B30" si="20">SUM(D30:AU30)</f>
         <v>7</v>
       </c>
-      <c r="C30" s="119">
+      <c r="C30" s="132">
         <f t="shared" ref="C30" si="21">SUM(D31:AU31)</f>
         <v>5</v>
       </c>
@@ -3958,9 +3960,9 @@
       <c r="AU30" s="48"/>
     </row>
     <row r="31" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="115"/>
-      <c r="B31" s="112"/>
-      <c r="C31" s="113"/>
+      <c r="A31" s="134"/>
+      <c r="B31" s="135"/>
+      <c r="C31" s="136"/>
       <c r="D31" s="41"/>
       <c r="E31" s="39"/>
       <c r="F31" s="39"/>
@@ -4015,14 +4017,14 @@
       <c r="AU31" s="40"/>
     </row>
     <row r="32" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A32" s="110" t="s">
+      <c r="A32" s="123" t="s">
         <v>26</v>
       </c>
-      <c r="B32" s="112">
+      <c r="B32" s="135">
         <f t="shared" ref="B32" si="22">SUM(D32:AU32)</f>
         <v>7</v>
       </c>
-      <c r="C32" s="113">
+      <c r="C32" s="136">
         <f t="shared" ref="C32" si="23">SUM(D33:AU33)</f>
         <v>4</v>
       </c>
@@ -4080,9 +4082,9 @@
       <c r="AU32" s="35"/>
     </row>
     <row r="33" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="115"/>
-      <c r="B33" s="112"/>
-      <c r="C33" s="113"/>
+      <c r="A33" s="134"/>
+      <c r="B33" s="135"/>
+      <c r="C33" s="136"/>
       <c r="D33" s="41"/>
       <c r="E33" s="39"/>
       <c r="F33" s="39"/>
@@ -4135,14 +4137,14 @@
       <c r="AU33" s="40"/>
     </row>
     <row r="34" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A34" s="110" t="s">
+      <c r="A34" s="123" t="s">
         <v>27</v>
       </c>
-      <c r="B34" s="112">
+      <c r="B34" s="135">
         <f t="shared" ref="B34" si="24">SUM(D34:AU34)</f>
         <v>2</v>
       </c>
-      <c r="C34" s="113">
+      <c r="C34" s="136">
         <f t="shared" ref="C34" si="25">SUM(D35:AU35)</f>
         <v>3</v>
       </c>
@@ -4194,9 +4196,9 @@
       <c r="AU34" s="35"/>
     </row>
     <row r="35" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="111"/>
-      <c r="B35" s="112"/>
-      <c r="C35" s="113"/>
+      <c r="A35" s="124"/>
+      <c r="B35" s="135"/>
+      <c r="C35" s="136"/>
       <c r="D35" s="41"/>
       <c r="E35" s="39"/>
       <c r="F35" s="39"/>
@@ -4247,14 +4249,14 @@
       <c r="AU35" s="40"/>
     </row>
     <row r="36" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A36" s="110" t="s">
+      <c r="A36" s="123" t="s">
         <v>28</v>
       </c>
-      <c r="B36" s="112">
+      <c r="B36" s="135">
         <f t="shared" ref="B36" si="26">SUM(D36:AU36)</f>
         <v>4</v>
       </c>
-      <c r="C36" s="113">
+      <c r="C36" s="136">
         <f t="shared" ref="C36" si="27">SUM(D37:AU37)</f>
         <v>1</v>
       </c>
@@ -4308,9 +4310,9 @@
       <c r="AU36" s="35"/>
     </row>
     <row r="37" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="115"/>
-      <c r="B37" s="112"/>
-      <c r="C37" s="113"/>
+      <c r="A37" s="134"/>
+      <c r="B37" s="135"/>
+      <c r="C37" s="136"/>
       <c r="D37" s="41"/>
       <c r="E37" s="39"/>
       <c r="F37" s="39"/>
@@ -4359,14 +4361,14 @@
       <c r="AU37" s="40"/>
     </row>
     <row r="38" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A38" s="110" t="s">
+      <c r="A38" s="123" t="s">
         <v>29</v>
       </c>
-      <c r="B38" s="112">
+      <c r="B38" s="135">
         <f t="shared" ref="B38" si="28">SUM(D38:AU38)</f>
         <v>3</v>
       </c>
-      <c r="C38" s="113">
+      <c r="C38" s="136">
         <f t="shared" ref="C38" si="29">SUM(D39:AU39)</f>
         <v>0</v>
       </c>
@@ -4420,9 +4422,9 @@
       <c r="AU38" s="35"/>
     </row>
     <row r="39" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="115"/>
-      <c r="B39" s="112"/>
-      <c r="C39" s="113"/>
+      <c r="A39" s="134"/>
+      <c r="B39" s="135"/>
+      <c r="C39" s="136"/>
       <c r="D39" s="41"/>
       <c r="E39" s="39"/>
       <c r="F39" s="39"/>
@@ -4469,16 +4471,16 @@
       <c r="AU39" s="40"/>
     </row>
     <row r="40" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A40" s="110" t="s">
+      <c r="A40" s="123" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="112">
+      <c r="B40" s="135">
         <f t="shared" ref="B40" si="30">SUM(D40:AU40)</f>
         <v>4</v>
       </c>
-      <c r="C40" s="113">
+      <c r="C40" s="136">
         <f t="shared" ref="C40" si="31">SUM(D41:AU41)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D40" s="36"/>
       <c r="E40" s="34"/>
@@ -4530,9 +4532,9 @@
       <c r="AU40" s="35"/>
     </row>
     <row r="41" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="115"/>
-      <c r="B41" s="112"/>
-      <c r="C41" s="113"/>
+      <c r="A41" s="134"/>
+      <c r="B41" s="135"/>
+      <c r="C41" s="136"/>
       <c r="D41" s="41"/>
       <c r="E41" s="39"/>
       <c r="F41" s="39"/>
@@ -4570,7 +4572,9 @@
       <c r="AL41" s="39"/>
       <c r="AM41" s="40"/>
       <c r="AN41" s="41"/>
-      <c r="AO41" s="39"/>
+      <c r="AO41" s="39">
+        <v>1</v>
+      </c>
       <c r="AP41" s="39"/>
       <c r="AQ41" s="40"/>
       <c r="AR41" s="41"/>
@@ -4579,16 +4583,16 @@
       <c r="AU41" s="40"/>
     </row>
     <row r="42" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A42" s="110" t="s">
+      <c r="A42" s="123" t="s">
         <v>31</v>
       </c>
-      <c r="B42" s="112">
+      <c r="B42" s="135">
         <f t="shared" ref="B42" si="32">SUM(D42:AU42)</f>
         <v>3</v>
       </c>
-      <c r="C42" s="113">
+      <c r="C42" s="136">
         <f t="shared" ref="C42" si="33">SUM(D43:AU43)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D42" s="36"/>
       <c r="E42" s="34"/>
@@ -4640,9 +4644,9 @@
       <c r="AU42" s="35"/>
     </row>
     <row r="43" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="115"/>
-      <c r="B43" s="112"/>
-      <c r="C43" s="113"/>
+      <c r="A43" s="134"/>
+      <c r="B43" s="135"/>
+      <c r="C43" s="136"/>
       <c r="D43" s="41"/>
       <c r="E43" s="39"/>
       <c r="F43" s="39"/>
@@ -4681,24 +4685,28 @@
       <c r="AM43" s="40"/>
       <c r="AN43" s="41"/>
       <c r="AO43" s="39"/>
-      <c r="AP43" s="39"/>
-      <c r="AQ43" s="40"/>
+      <c r="AP43" s="39">
+        <v>2</v>
+      </c>
+      <c r="AQ43" s="40">
+        <v>1</v>
+      </c>
       <c r="AR43" s="41"/>
       <c r="AS43" s="39"/>
       <c r="AT43" s="39"/>
       <c r="AU43" s="40"/>
     </row>
     <row r="44" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="110" t="s">
+      <c r="A44" s="123" t="s">
         <v>32</v>
       </c>
-      <c r="B44" s="112">
+      <c r="B44" s="135">
         <f t="shared" ref="B44" si="34">SUM(D44:AU44)</f>
         <v>2</v>
       </c>
-      <c r="C44" s="113">
+      <c r="C44" s="136">
         <f t="shared" ref="C44" si="35">SUM(D45:AU45)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D44" s="36"/>
       <c r="E44" s="34"/>
@@ -4747,9 +4755,9 @@
       <c r="AU44" s="35"/>
     </row>
     <row r="45" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="115"/>
-      <c r="B45" s="112"/>
-      <c r="C45" s="113"/>
+      <c r="A45" s="134"/>
+      <c r="B45" s="135"/>
+      <c r="C45" s="136"/>
       <c r="D45" s="41"/>
       <c r="E45" s="39"/>
       <c r="F45" s="39"/>
@@ -4786,8 +4794,12 @@
       <c r="AK45" s="39"/>
       <c r="AL45" s="39"/>
       <c r="AM45" s="40"/>
-      <c r="AN45" s="41"/>
-      <c r="AO45" s="39"/>
+      <c r="AN45" s="41">
+        <v>1</v>
+      </c>
+      <c r="AO45" s="39">
+        <v>1</v>
+      </c>
       <c r="AP45" s="39"/>
       <c r="AQ45" s="40"/>
       <c r="AR45" s="34"/>
@@ -4796,14 +4808,14 @@
       <c r="AU45" s="40"/>
     </row>
     <row r="46" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A46" s="110" t="s">
+      <c r="A46" s="123" t="s">
         <v>46</v>
       </c>
-      <c r="B46" s="112">
+      <c r="B46" s="135">
         <f t="shared" ref="B46" si="36">SUM(D46:AU46)</f>
         <v>3</v>
       </c>
-      <c r="C46" s="113">
+      <c r="C46" s="136">
         <f t="shared" ref="C46" si="37">SUM(D47:AU47)</f>
         <v>0</v>
       </c>
@@ -4857,9 +4869,9 @@
       <c r="AU46" s="35"/>
     </row>
     <row r="47" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="111"/>
-      <c r="B47" s="112"/>
-      <c r="C47" s="113"/>
+      <c r="A47" s="124"/>
+      <c r="B47" s="135"/>
+      <c r="C47" s="136"/>
       <c r="D47" s="49"/>
       <c r="E47" s="53"/>
       <c r="F47" s="53"/>
@@ -4957,16 +4969,16 @@
       <c r="AU48" s="46"/>
     </row>
     <row r="49" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A49" s="110" t="s">
+      <c r="A49" s="123" t="s">
         <v>49</v>
       </c>
-      <c r="B49" s="112">
+      <c r="B49" s="135">
         <f>SUM(D49:AU49)</f>
         <v>11</v>
       </c>
-      <c r="C49" s="113">
+      <c r="C49" s="136">
         <f>SUM(D50:AU50)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" s="49"/>
       <c r="E49" s="53"/>
@@ -5036,9 +5048,9 @@
       </c>
     </row>
     <row r="50" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="115"/>
-      <c r="B50" s="116"/>
-      <c r="C50" s="114"/>
+      <c r="A50" s="134"/>
+      <c r="B50" s="131"/>
+      <c r="C50" s="133"/>
       <c r="D50" s="49"/>
       <c r="E50" s="53"/>
       <c r="F50" s="53"/>
@@ -5096,21 +5108,23 @@
       <c r="AN50" s="49"/>
       <c r="AO50" s="53"/>
       <c r="AP50" s="53"/>
-      <c r="AQ50" s="48"/>
+      <c r="AQ50" s="48">
+        <v>1</v>
+      </c>
       <c r="AR50" s="49"/>
       <c r="AS50" s="53"/>
       <c r="AT50" s="53"/>
       <c r="AU50" s="48"/>
     </row>
     <row r="51" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A51" s="110" t="s">
+      <c r="A51" s="123" t="s">
         <v>58</v>
       </c>
-      <c r="B51" s="126">
+      <c r="B51" s="125">
         <f t="shared" ref="B51" si="38">SUM(D51:AU51)</f>
         <v>4</v>
       </c>
-      <c r="C51" s="128">
+      <c r="C51" s="127">
         <f t="shared" ref="C51" si="39">SUM(D52:AU52)</f>
         <v>3</v>
       </c>
@@ -5168,9 +5182,9 @@
       <c r="AU51" s="35"/>
     </row>
     <row r="52" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="111"/>
-      <c r="B52" s="127"/>
-      <c r="C52" s="129"/>
+      <c r="A52" s="124"/>
+      <c r="B52" s="126"/>
+      <c r="C52" s="128"/>
       <c r="D52" s="41">
         <v>1</v>
       </c>
@@ -5223,14 +5237,14 @@
       <c r="AU52" s="40"/>
     </row>
     <row r="53" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A53" s="117" t="s">
+      <c r="A53" s="129" t="s">
         <v>34</v>
       </c>
-      <c r="B53" s="118">
+      <c r="B53" s="130">
         <f t="shared" ref="B53" si="40">SUM(D53:AU53)</f>
         <v>2</v>
       </c>
-      <c r="C53" s="119">
+      <c r="C53" s="132">
         <f t="shared" ref="C53" si="41">SUM(D54:AU54)</f>
         <v>2</v>
       </c>
@@ -5284,9 +5298,9 @@
       <c r="AU53" s="48"/>
     </row>
     <row r="54" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="111"/>
-      <c r="B54" s="116"/>
-      <c r="C54" s="114"/>
+      <c r="A54" s="124"/>
+      <c r="B54" s="131"/>
+      <c r="C54" s="133"/>
       <c r="D54" s="49"/>
       <c r="E54" s="53"/>
       <c r="F54" s="53">
@@ -5337,176 +5351,176 @@
       <c r="AU54" s="48"/>
     </row>
     <row r="55" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A55" s="136" t="s">
+      <c r="A55" s="117" t="s">
         <v>35</v>
       </c>
-      <c r="B55" s="138">
+      <c r="B55" s="119">
         <f>SUM(B6:B54)</f>
         <v>80</v>
       </c>
-      <c r="C55" s="140">
+      <c r="C55" s="121">
         <f>SUM(C6:C54)</f>
-        <v>64</v>
-      </c>
-      <c r="D55" s="134" cm="1">
+        <v>72</v>
+      </c>
+      <c r="D55" s="111" cm="1">
         <f t="array" ref="D55">SUM(D6:G6+D8:G8+D12:G12+D15:G15+D17:G17+D19:G19+D21:G21+D24:G24+D26:G26+D28:G28+D30:G30+D32:G32+D34:G34+D36:G36+D38:G38+D40:G40+D42:G42+D44:G44+D46:G46+D49:G49+D51:G51+D53:G53)</f>
         <v>8</v>
       </c>
-      <c r="E55" s="130"/>
-      <c r="F55" s="130" cm="1">
+      <c r="E55" s="106"/>
+      <c r="F55" s="106" cm="1">
         <f t="array" ref="F55">SUM(D7:G7+D9:G9+D13:G13+D16:G16+D18:G18+D20:G20+D22:G22+D25:G25+D27:G27+D29:G29+D31:G31+D33:G33+D35:G35+D37:G37+D39:G39+D41:G41+D43:G43+D45:G45+D47:G47+D50:G50+D52:G52+D54:G54)</f>
         <v>8</v>
       </c>
-      <c r="G55" s="131"/>
-      <c r="H55" s="134" cm="1">
+      <c r="G55" s="107"/>
+      <c r="H55" s="111" cm="1">
         <f t="array" ref="H55">SUM(H6:K6+H8:K8+H12:K12+H15:K15+H17:K17+H19:K19+H21:K21+H24:K24+H26:K26+H28:K28+H30:K30+H32:K32+H34:K34+H36:K36+H38:K38+H40:K40+H42:K42+H44:K44+H46:K46+H49:K49+H51:K51+H53:K53)</f>
         <v>8</v>
       </c>
-      <c r="I55" s="130"/>
-      <c r="J55" s="130" cm="1">
+      <c r="I55" s="106"/>
+      <c r="J55" s="106" cm="1">
         <f t="array" ref="J55">SUM(H7:K7+H9:K9+H13:K13+H16:K16+H18:K18+H20:K20+H22:K22+H25:K25+H27:K27+H29:K29+H31:K31+H33:K33+H35:K35+H37:K37+H39:K39+H41:K41+H43:K43+H45:K45+H47:K47+H50:K50+H52:K52+H54:K54)</f>
         <v>8</v>
       </c>
-      <c r="K55" s="131"/>
-      <c r="L55" s="149" cm="1">
+      <c r="K55" s="107"/>
+      <c r="L55" s="115" cm="1">
         <f t="array" ref="L55">SUM(L6:O6+L8:O8+L12:O12+L15:O15+L17:O17+L19:O19+L21:O21+L24:O24+L26:O26+L28:O28+L30:O30+L32:O32+L34:O34+L36:O36+L38:O38+L40:O40+L42:O42+L44:O44+L46:O46+L49:O49+L51:O51+L53:O53)</f>
         <v>8</v>
       </c>
-      <c r="M55" s="130"/>
-      <c r="N55" s="130" cm="1">
+      <c r="M55" s="106"/>
+      <c r="N55" s="106" cm="1">
         <f t="array" ref="N55">SUM(L7:O7+L9:O9+L13:O13+L16:O16+L18:O18+L20:O20+L22:O22+L25:O25+L27:O27+L29:O29+L31:O31+L33:O33+L35:O35+L37:O37+L39:O39+L41:O41+L43:O43+L45:O45+L47:O47+L50:O50+L52:O52+L54:O54)</f>
         <v>8</v>
       </c>
-      <c r="O55" s="131"/>
-      <c r="P55" s="134" cm="1">
+      <c r="O55" s="107"/>
+      <c r="P55" s="111" cm="1">
         <f t="array" ref="P55">SUM(P6:S6+P8:S8+P12:S12+P15:S15+P17:S17+P19:S19+P21:S21+P24:S24+P26:S26+P28:S28+P30:S30+P32:S32+P34:S34+P36:S36+P38:S38+P40:S40+P42:S42+P44:S44+P46:S46+P49:S49+P51:S51+P53:S53)</f>
         <v>4</v>
       </c>
-      <c r="Q55" s="130"/>
-      <c r="R55" s="130" cm="1">
+      <c r="Q55" s="106"/>
+      <c r="R55" s="106" cm="1">
         <f t="array" ref="R55">SUM(P7:S7+P9:S9+P13:S13+P16:S16+P18:S18+P20:S20+P22:S22+P25:S25+P27:S27+P29:S29+P31:S31+P33:S33+P35:S35+P37:S37+P39:S39+P41:S41+P43:S43+P45:S45+P47:S47+P50:S50+P52:S52+P54:S54)</f>
         <v>4</v>
       </c>
-      <c r="S55" s="131"/>
-      <c r="T55" s="134" cm="1">
+      <c r="S55" s="107"/>
+      <c r="T55" s="111" cm="1">
         <f t="array" ref="T55">SUM(T6:W6+T8:W8+T12:W12+T15:W15+T17:W17+T19:W19+T21:W21+T24:W24+T26:W26+T28:W28+T30:W30+T32:W32+T34:W34+T36:W36+T38:W38+T40:W40+T42:W42+T44:W44+T46:W46+T49:W49+T51:W51+T53:W53)</f>
         <v>8</v>
       </c>
-      <c r="U55" s="130"/>
-      <c r="V55" s="130" cm="1">
+      <c r="U55" s="106"/>
+      <c r="V55" s="106" cm="1">
         <f t="array" ref="V55">SUM(T7:W7+T9:W9+T13:W13+T16:W16+T18:W18+T20:W20+T22:W22+T25:W25+T27:W27+T29:W29+T31:W31+T33:W33+T35:W35+T37:W37+T39:W39+T41:W41+T43:W43+T45:W45+T47:W47+T50:W50+T52:W52+T54:W54)</f>
         <v>8</v>
       </c>
-      <c r="W55" s="131"/>
-      <c r="X55" s="134" cm="1">
+      <c r="W55" s="107"/>
+      <c r="X55" s="111" cm="1">
         <f t="array" ref="X55">SUM(X6:AA6+X8:AA8+X12:AA12+X15:AA15+X17:AA17+X19:AA19+X21:AA21+X24:AA24+X26:AA26+X28:AA28+X30:AA30+X32:AA32+X34:AA34+X36:AA36+X38:AA38+X40:AA40+X42:AA42+X44:AA44+X46:AA46+X49:AA49+X51:AA51+X53:AA53)</f>
         <v>8</v>
       </c>
-      <c r="Y55" s="130"/>
-      <c r="Z55" s="130" cm="1">
+      <c r="Y55" s="106"/>
+      <c r="Z55" s="106" cm="1">
         <f t="array" ref="Z55">SUM(X7:AA7+X9:AA9+X13:AA13+X16:AA16+X18:AA18+X20:AA20+X22:AA22+X25:AA25+X27:AA27+X29:AA29+X31:AA31+X33:AA33+X35:AA35+X37:AA37+X39:AA39+X41:AA41+X43:AA43+X45:AA45+X47:AA47+X50:AA50+X52:AA52+X54:AA54)</f>
         <v>8</v>
       </c>
-      <c r="AA55" s="147"/>
-      <c r="AB55" s="134" cm="1">
+      <c r="AA55" s="113"/>
+      <c r="AB55" s="111" cm="1">
         <f t="array" ref="AB55">SUM(AB6:AE6+AB8:AE8+AB12:AE12+AB15:AE15+AB17:AE17+AB19:AE19+AB21:AE21+AB24:AE24+AB26:AE26+AB28:AE28+AB30:AE30+AB32:AE32+AB34:AE34+AB36:AE36+AB38:AE38+AB40:AE40+AB42:AE42+AB44:AE44+AB46:AE46+AB49:AE49+AB51:AE51+AB53:AE53)</f>
         <v>8</v>
       </c>
-      <c r="AC55" s="130"/>
-      <c r="AD55" s="130" cm="1">
+      <c r="AC55" s="106"/>
+      <c r="AD55" s="106" cm="1">
         <f t="array" ref="AD55">SUM(AB7:AE7+AB9:AE9+AB13:AE13+AB16:AE16+AB18:AE18+AB20:AE20+AB22:AE22+AB25:AE25+AB27:AE27+AB29:AE29+AB31:AE31+AB33:AE33+AB35:AE35+AB37:AE37+AB39:AE39+AB41:AE41+AB43:AE43+AB45:AE45+AB47:AE47+AB50:AE50+AB52:AE52+AB54:AE54)</f>
         <v>8</v>
       </c>
-      <c r="AE55" s="131"/>
-      <c r="AF55" s="134" cm="1">
+      <c r="AE55" s="107"/>
+      <c r="AF55" s="111" cm="1">
         <f t="array" ref="AF55">SUM(AF6:AI6+AF8:AI8+AF12:AI12+AF15:AI15+AF17:AI17+AF19:AI19+AF21:AI21+AF24:AI24+AF26:AI26+AF28:AI28+AF30:AI30+AF32:AI32+AF34:AI34+AF36:AI36+AF38:AI38+AF40:AI40+AF42:AI42+AF44:AI44+AF46:AI46+AF49:AI49+AF51:AI51+AF53:AI53)</f>
         <v>4</v>
       </c>
-      <c r="AG55" s="130"/>
-      <c r="AH55" s="130" cm="1">
+      <c r="AG55" s="106"/>
+      <c r="AH55" s="106" cm="1">
         <f t="array" ref="AH55">SUM(AF7:AI7+AF9:AI9+AF13:AI13+AF16:AI16+AF18:AI18+AF20:AI20+AF22:AI22+AF25:AI25+AF27:AI27+AF29:AI29+AF31:AI31+AF33:AI33+AF35:AI35+AF37:AI37+AF39:AI39+AF41:AI41+AF43:AI43+AF45:AI45+AF47:AI47+AF50:AI50+AF52:AI52+AF54:AI54)</f>
         <v>4</v>
       </c>
-      <c r="AI55" s="131"/>
-      <c r="AJ55" s="134" cm="1">
+      <c r="AI55" s="107"/>
+      <c r="AJ55" s="111" cm="1">
         <f t="array" ref="AJ55">SUM(AJ6:AM6+AJ8:AM8+AJ12:AM12+AJ15:AM15+AJ17:AM17+AJ19:AM19+AJ21:AM21+AJ24:AM24+AJ26:AM26+AJ28:AM28+AJ30:AM30+AJ32:AM32+AJ34:AM34+AJ36:AM36+AJ38:AM38+AJ40:AM40+AJ42:AM42+AJ44:AM44+AJ46:AM46+AJ49:AM49+AJ51:AM51+AJ53:AM53)</f>
         <v>8</v>
       </c>
-      <c r="AK55" s="130"/>
-      <c r="AL55" s="130" cm="1">
+      <c r="AK55" s="106"/>
+      <c r="AL55" s="106" cm="1">
         <f t="array" ref="AL55">SUM(AJ7:AM7+AJ9:AM9+AJ13:AM13+AJ16:AM16+AJ18:AM18+AJ20:AM20+AJ22:AM22+AJ25:AM25+AJ27:AM27+AJ29:AM29+AJ31:AM31+AJ33:AM33+AJ35:AM35+AJ37:AM37+AJ39:AM39+AJ41:AM41+AJ43:AM43+AJ45:AM45+AJ47:AM47+AJ50:AM50+AJ52:AM52+AJ54:AM54)</f>
         <v>8</v>
       </c>
-      <c r="AM55" s="131"/>
-      <c r="AN55" s="134" cm="1">
+      <c r="AM55" s="107"/>
+      <c r="AN55" s="111" cm="1">
         <f t="array" ref="AN55">SUM(AN6:AQ6+AN8:AQ8+AN12:AQ12+AN15:AQ15+AN17:AQ17+AN19:AQ19+AN21:AQ21+AN24:AQ24+AN26:AQ26+AN28:AQ28+AN30:AQ30+AN32:AQ32+AN34:AQ34+AN36:AQ36+AN38:AQ38+AN40:AQ40+AN42:AQ42+AN44:AQ44+AN46:AQ46+AN49:AQ49+AN51:AQ51+AN53:AQ53)</f>
         <v>8</v>
       </c>
-      <c r="AO55" s="130"/>
-      <c r="AP55" s="130" cm="1">
+      <c r="AO55" s="106"/>
+      <c r="AP55" s="106" cm="1">
         <f t="array" ref="AP55">SUM(AN7:AQ7+AN9:AQ9+AN13:AQ13+AN16:AQ16+AN18:AQ18+AN20:AQ20+AN22:AQ22+AN25:AQ25+AN27:AQ27+AN29:AQ29+AN31:AQ31+AN33:AQ33+AN35:AQ35+AN37:AQ37+AN39:AQ39+AN41:AQ41+AN43:AQ43+AN45:AQ45+AN47:AQ47+AN50:AQ50+AN52:AQ52+AN54:AQ54)</f>
-        <v>0</v>
-      </c>
-      <c r="AQ55" s="131"/>
-      <c r="AR55" s="134" cm="1">
+        <v>8</v>
+      </c>
+      <c r="AQ55" s="107"/>
+      <c r="AR55" s="111" cm="1">
         <f t="array" ref="AR55">SUM(AR6:AU6+AR8:AU8+AR12:AU12+AR15:AU15+AR17:AU17+AR19:AU19+AR21:AU21+AR24:AU24+AR26:AU26+AR28:AU28+AR30:AU30+AR32:AU32+AR34:AU34+AR36:AU36+AR38:AU38+AR40:AU40+AR42:AU42+AR44:AU44+AR46:AU46+AR49:AU49+AR51:AU51+AR53:AU53)</f>
         <v>8</v>
       </c>
-      <c r="AS55" s="130"/>
-      <c r="AT55" s="130" cm="1">
+      <c r="AS55" s="106"/>
+      <c r="AT55" s="106" cm="1">
         <f t="array" ref="AT55">SUM(AR7:AU7+AR9:AU9+AR13:AU13+AR16:AU16+AR18:AU18+AR20:AU20+AR22:AU22+AR25:AU25+AR27:AU27+AR29:AU29+AR31:AU31+AR33:AU33+AR35:AU35+AR37:AU37+AR39:AU39+AR41:AU41+AR43:AU43+AR45:AU45+AR47:AU47+AR50:AU50+AR52:AU52+AR54:AU54)</f>
         <v>0</v>
       </c>
-      <c r="AU55" s="131"/>
+      <c r="AU55" s="107"/>
     </row>
     <row r="56" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="137"/>
-      <c r="B56" s="139"/>
-      <c r="C56" s="141"/>
-      <c r="D56" s="135"/>
-      <c r="E56" s="132"/>
-      <c r="F56" s="132"/>
-      <c r="G56" s="133"/>
-      <c r="H56" s="135"/>
-      <c r="I56" s="132"/>
-      <c r="J56" s="132"/>
-      <c r="K56" s="133"/>
-      <c r="L56" s="150"/>
-      <c r="M56" s="132"/>
-      <c r="N56" s="132"/>
-      <c r="O56" s="133"/>
-      <c r="P56" s="135"/>
-      <c r="Q56" s="132"/>
-      <c r="R56" s="132"/>
-      <c r="S56" s="133"/>
-      <c r="T56" s="135"/>
-      <c r="U56" s="132"/>
-      <c r="V56" s="132"/>
-      <c r="W56" s="133"/>
-      <c r="X56" s="135"/>
-      <c r="Y56" s="132"/>
-      <c r="Z56" s="132"/>
-      <c r="AA56" s="148"/>
-      <c r="AB56" s="135"/>
-      <c r="AC56" s="132"/>
-      <c r="AD56" s="132"/>
-      <c r="AE56" s="133"/>
-      <c r="AF56" s="135"/>
-      <c r="AG56" s="132"/>
-      <c r="AH56" s="132"/>
-      <c r="AI56" s="133"/>
-      <c r="AJ56" s="135"/>
-      <c r="AK56" s="132"/>
-      <c r="AL56" s="132"/>
-      <c r="AM56" s="133"/>
-      <c r="AN56" s="135"/>
-      <c r="AO56" s="132"/>
-      <c r="AP56" s="132"/>
-      <c r="AQ56" s="133"/>
-      <c r="AR56" s="135"/>
-      <c r="AS56" s="132"/>
-      <c r="AT56" s="132"/>
-      <c r="AU56" s="133"/>
+      <c r="A56" s="118"/>
+      <c r="B56" s="120"/>
+      <c r="C56" s="122"/>
+      <c r="D56" s="112"/>
+      <c r="E56" s="108"/>
+      <c r="F56" s="108"/>
+      <c r="G56" s="109"/>
+      <c r="H56" s="112"/>
+      <c r="I56" s="108"/>
+      <c r="J56" s="108"/>
+      <c r="K56" s="109"/>
+      <c r="L56" s="116"/>
+      <c r="M56" s="108"/>
+      <c r="N56" s="108"/>
+      <c r="O56" s="109"/>
+      <c r="P56" s="112"/>
+      <c r="Q56" s="108"/>
+      <c r="R56" s="108"/>
+      <c r="S56" s="109"/>
+      <c r="T56" s="112"/>
+      <c r="U56" s="108"/>
+      <c r="V56" s="108"/>
+      <c r="W56" s="109"/>
+      <c r="X56" s="112"/>
+      <c r="Y56" s="108"/>
+      <c r="Z56" s="108"/>
+      <c r="AA56" s="114"/>
+      <c r="AB56" s="112"/>
+      <c r="AC56" s="108"/>
+      <c r="AD56" s="108"/>
+      <c r="AE56" s="109"/>
+      <c r="AF56" s="112"/>
+      <c r="AG56" s="108"/>
+      <c r="AH56" s="108"/>
+      <c r="AI56" s="109"/>
+      <c r="AJ56" s="112"/>
+      <c r="AK56" s="108"/>
+      <c r="AL56" s="108"/>
+      <c r="AM56" s="109"/>
+      <c r="AN56" s="112"/>
+      <c r="AO56" s="108"/>
+      <c r="AP56" s="108"/>
+      <c r="AQ56" s="109"/>
+      <c r="AR56" s="112"/>
+      <c r="AS56" s="108"/>
+      <c r="AT56" s="108"/>
+      <c r="AU56" s="109"/>
     </row>
     <row r="57" spans="1:47" ht="17" x14ac:dyDescent="0.25">
       <c r="A57" s="6"/>
@@ -5516,94 +5530,94 @@
       <c r="C57" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D57" s="142" t="s">
+      <c r="D57" s="103" t="s">
         <v>14</v>
       </c>
-      <c r="E57" s="143"/>
-      <c r="F57" s="144" t="s">
+      <c r="E57" s="104"/>
+      <c r="F57" s="99" t="s">
         <v>15</v>
       </c>
-      <c r="G57" s="145"/>
-      <c r="H57" s="142" t="s">
+      <c r="G57" s="100"/>
+      <c r="H57" s="103" t="s">
         <v>14</v>
       </c>
-      <c r="I57" s="143"/>
-      <c r="J57" s="144" t="s">
+      <c r="I57" s="104"/>
+      <c r="J57" s="99" t="s">
         <v>15</v>
       </c>
-      <c r="K57" s="145"/>
-      <c r="L57" s="146" t="s">
+      <c r="K57" s="100"/>
+      <c r="L57" s="110" t="s">
         <v>14</v>
       </c>
-      <c r="M57" s="143"/>
-      <c r="N57" s="144" t="s">
+      <c r="M57" s="104"/>
+      <c r="N57" s="99" t="s">
         <v>15</v>
       </c>
-      <c r="O57" s="145"/>
-      <c r="P57" s="142" t="s">
+      <c r="O57" s="100"/>
+      <c r="P57" s="103" t="s">
         <v>14</v>
       </c>
-      <c r="Q57" s="143"/>
-      <c r="R57" s="144" t="s">
+      <c r="Q57" s="104"/>
+      <c r="R57" s="99" t="s">
         <v>15</v>
       </c>
-      <c r="S57" s="145"/>
-      <c r="T57" s="142" t="s">
+      <c r="S57" s="100"/>
+      <c r="T57" s="103" t="s">
         <v>14</v>
       </c>
-      <c r="U57" s="143"/>
-      <c r="V57" s="144" t="s">
+      <c r="U57" s="104"/>
+      <c r="V57" s="99" t="s">
         <v>15</v>
       </c>
-      <c r="W57" s="145"/>
-      <c r="X57" s="142" t="s">
+      <c r="W57" s="100"/>
+      <c r="X57" s="103" t="s">
         <v>14</v>
       </c>
-      <c r="Y57" s="143"/>
-      <c r="Z57" s="144" t="s">
+      <c r="Y57" s="104"/>
+      <c r="Z57" s="99" t="s">
         <v>15</v>
       </c>
-      <c r="AA57" s="156"/>
-      <c r="AB57" s="142" t="s">
+      <c r="AA57" s="105"/>
+      <c r="AB57" s="103" t="s">
         <v>14</v>
       </c>
-      <c r="AC57" s="143"/>
-      <c r="AD57" s="144" t="s">
+      <c r="AC57" s="104"/>
+      <c r="AD57" s="99" t="s">
         <v>15</v>
       </c>
-      <c r="AE57" s="145"/>
-      <c r="AF57" s="142" t="s">
+      <c r="AE57" s="100"/>
+      <c r="AF57" s="103" t="s">
         <v>14</v>
       </c>
-      <c r="AG57" s="143"/>
-      <c r="AH57" s="144" t="s">
+      <c r="AG57" s="104"/>
+      <c r="AH57" s="99" t="s">
         <v>15</v>
       </c>
-      <c r="AI57" s="145"/>
-      <c r="AJ57" s="142" t="s">
+      <c r="AI57" s="100"/>
+      <c r="AJ57" s="103" t="s">
         <v>14</v>
       </c>
-      <c r="AK57" s="143"/>
-      <c r="AL57" s="144" t="s">
+      <c r="AK57" s="104"/>
+      <c r="AL57" s="99" t="s">
         <v>15</v>
       </c>
-      <c r="AM57" s="145"/>
-      <c r="AN57" s="142" t="s">
+      <c r="AM57" s="100"/>
+      <c r="AN57" s="103" t="s">
         <v>14</v>
       </c>
-      <c r="AO57" s="143"/>
-      <c r="AP57" s="144" t="s">
+      <c r="AO57" s="104"/>
+      <c r="AP57" s="99" t="s">
         <v>15</v>
       </c>
-      <c r="AQ57" s="145"/>
-      <c r="AR57" s="142" t="s">
+      <c r="AQ57" s="100"/>
+      <c r="AR57" s="103" t="s">
         <v>14</v>
       </c>
-      <c r="AS57" s="143"/>
-      <c r="AT57" s="144" t="s">
+      <c r="AS57" s="104"/>
+      <c r="AT57" s="99" t="s">
         <v>15</v>
       </c>
-      <c r="AU57" s="145"/>
+      <c r="AU57" s="100"/>
     </row>
     <row r="58" spans="1:47" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="8"/>
@@ -5613,150 +5627,150 @@
       <c r="C58" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="D58" s="151">
+      <c r="D58" s="96">
         <f>D3</f>
         <v>43873</v>
       </c>
-      <c r="E58" s="152"/>
-      <c r="F58" s="152"/>
-      <c r="G58" s="153"/>
-      <c r="H58" s="151">
+      <c r="E58" s="97"/>
+      <c r="F58" s="97"/>
+      <c r="G58" s="98"/>
+      <c r="H58" s="96">
         <f>H3</f>
         <v>43874</v>
       </c>
-      <c r="I58" s="152"/>
-      <c r="J58" s="152"/>
-      <c r="K58" s="153"/>
-      <c r="L58" s="154">
+      <c r="I58" s="97"/>
+      <c r="J58" s="97"/>
+      <c r="K58" s="98"/>
+      <c r="L58" s="101">
         <f>L3</f>
         <v>43875</v>
       </c>
-      <c r="M58" s="152"/>
-      <c r="N58" s="152"/>
-      <c r="O58" s="153"/>
-      <c r="P58" s="151">
+      <c r="M58" s="97"/>
+      <c r="N58" s="97"/>
+      <c r="O58" s="98"/>
+      <c r="P58" s="96">
         <f>P3</f>
         <v>43878</v>
       </c>
-      <c r="Q58" s="152"/>
-      <c r="R58" s="152"/>
-      <c r="S58" s="153"/>
-      <c r="T58" s="151">
+      <c r="Q58" s="97"/>
+      <c r="R58" s="97"/>
+      <c r="S58" s="98"/>
+      <c r="T58" s="96">
         <f>T3</f>
         <v>43880</v>
       </c>
-      <c r="U58" s="152"/>
-      <c r="V58" s="152"/>
-      <c r="W58" s="153"/>
-      <c r="X58" s="151">
+      <c r="U58" s="97"/>
+      <c r="V58" s="97"/>
+      <c r="W58" s="98"/>
+      <c r="X58" s="96">
         <f>X3</f>
         <v>43881</v>
       </c>
-      <c r="Y58" s="152"/>
-      <c r="Z58" s="152"/>
-      <c r="AA58" s="155"/>
-      <c r="AB58" s="151">
+      <c r="Y58" s="97"/>
+      <c r="Z58" s="97"/>
+      <c r="AA58" s="102"/>
+      <c r="AB58" s="96">
         <f>AB3</f>
         <v>43882</v>
       </c>
-      <c r="AC58" s="152"/>
-      <c r="AD58" s="152"/>
-      <c r="AE58" s="153"/>
-      <c r="AF58" s="151">
+      <c r="AC58" s="97"/>
+      <c r="AD58" s="97"/>
+      <c r="AE58" s="98"/>
+      <c r="AF58" s="96">
         <f>AF3</f>
         <v>43885</v>
       </c>
-      <c r="AG58" s="152"/>
-      <c r="AH58" s="152"/>
-      <c r="AI58" s="153"/>
-      <c r="AJ58" s="151">
+      <c r="AG58" s="97"/>
+      <c r="AH58" s="97"/>
+      <c r="AI58" s="98"/>
+      <c r="AJ58" s="96">
         <f>AJ3</f>
         <v>43887</v>
       </c>
-      <c r="AK58" s="152"/>
-      <c r="AL58" s="152"/>
-      <c r="AM58" s="153"/>
-      <c r="AN58" s="151">
+      <c r="AK58" s="97"/>
+      <c r="AL58" s="97"/>
+      <c r="AM58" s="98"/>
+      <c r="AN58" s="96">
         <f>AN3</f>
         <v>43888</v>
       </c>
-      <c r="AO58" s="152"/>
-      <c r="AP58" s="152"/>
-      <c r="AQ58" s="153"/>
-      <c r="AR58" s="151">
+      <c r="AO58" s="97"/>
+      <c r="AP58" s="97"/>
+      <c r="AQ58" s="98"/>
+      <c r="AR58" s="96">
         <f>AR3</f>
         <v>43889</v>
       </c>
-      <c r="AS58" s="152"/>
-      <c r="AT58" s="152"/>
-      <c r="AU58" s="153"/>
+      <c r="AS58" s="97"/>
+      <c r="AT58" s="97"/>
+      <c r="AU58" s="98"/>
     </row>
     <row r="59" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="60" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="160" t="s">
+      <c r="A60" s="93" t="s">
         <v>37</v>
       </c>
-      <c r="B60" s="161"/>
-      <c r="C60" s="162"/>
+      <c r="B60" s="94"/>
+      <c r="C60" s="95"/>
     </row>
     <row r="61" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A61" s="159" t="s">
+      <c r="A61" s="91" t="s">
         <v>38</v>
       </c>
-      <c r="B61" s="89"/>
+      <c r="B61" s="92"/>
       <c r="C61" s="18"/>
     </row>
     <row r="62" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A62" s="159" t="s">
+      <c r="A62" s="91" t="s">
         <v>39</v>
       </c>
-      <c r="B62" s="89"/>
+      <c r="B62" s="92"/>
       <c r="C62" s="19"/>
     </row>
     <row r="63" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A63" s="159" t="s">
+      <c r="A63" s="91" t="s">
         <v>40</v>
       </c>
-      <c r="B63" s="89"/>
+      <c r="B63" s="92"/>
       <c r="C63" s="20"/>
     </row>
     <row r="64" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A64" s="159" t="s">
+      <c r="A64" s="91" t="s">
         <v>41</v>
       </c>
-      <c r="B64" s="89"/>
+      <c r="B64" s="92"/>
       <c r="C64" s="21"/>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A65" s="159" t="s">
+      <c r="A65" s="91" t="s">
         <v>42</v>
       </c>
-      <c r="B65" s="89"/>
+      <c r="B65" s="92"/>
       <c r="C65" s="22"/>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A66" s="159" t="s">
+      <c r="A66" s="91" t="s">
         <v>12</v>
       </c>
-      <c r="B66" s="89"/>
+      <c r="B66" s="92"/>
       <c r="C66" s="23" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A67" s="159" t="s">
+      <c r="A67" s="91" t="s">
         <v>13</v>
       </c>
-      <c r="B67" s="89"/>
+      <c r="B67" s="92"/>
       <c r="C67" s="23" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="157" t="s">
+      <c r="A68" s="89" t="s">
         <v>45</v>
       </c>
-      <c r="B68" s="158"/>
+      <c r="B68" s="90"/>
       <c r="C68" s="24"/>
     </row>
     <row r="69" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
@@ -5797,15 +5811,162 @@
     </row>
   </sheetData>
   <mergeCells count="189">
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="A60:C60"/>
-    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="A1:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="L1:O1"/>
+    <mergeCell ref="P1:S1"/>
+    <mergeCell ref="T1:W1"/>
+    <mergeCell ref="H2:K2"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="P2:S2"/>
+    <mergeCell ref="T2:W2"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="AF2:AI2"/>
+    <mergeCell ref="AJ2:AM2"/>
+    <mergeCell ref="H3:K3"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="P3:S3"/>
+    <mergeCell ref="T3:W3"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="R4:S4"/>
+    <mergeCell ref="AN1:AQ1"/>
+    <mergeCell ref="AR1:AU1"/>
+    <mergeCell ref="AN2:AQ2"/>
+    <mergeCell ref="AR2:AU2"/>
+    <mergeCell ref="AN3:AQ3"/>
+    <mergeCell ref="AR3:AU3"/>
+    <mergeCell ref="AN4:AO4"/>
+    <mergeCell ref="AP4:AQ4"/>
+    <mergeCell ref="X3:AA3"/>
+    <mergeCell ref="AB3:AE3"/>
+    <mergeCell ref="AF3:AI3"/>
+    <mergeCell ref="AJ3:AM3"/>
+    <mergeCell ref="X4:Y4"/>
+    <mergeCell ref="Z4:AA4"/>
+    <mergeCell ref="AB4:AC4"/>
+    <mergeCell ref="AD4:AE4"/>
+    <mergeCell ref="AF4:AG4"/>
+    <mergeCell ref="AH4:AI4"/>
+    <mergeCell ref="X1:AA1"/>
+    <mergeCell ref="AB1:AE1"/>
+    <mergeCell ref="AF1:AI1"/>
+    <mergeCell ref="AJ1:AM1"/>
+    <mergeCell ref="X2:AA2"/>
+    <mergeCell ref="AB2:AE2"/>
+    <mergeCell ref="AR4:AS4"/>
+    <mergeCell ref="AT4:AU4"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="AJ4:AK4"/>
+    <mergeCell ref="AL4:AM4"/>
+    <mergeCell ref="T4:U4"/>
+    <mergeCell ref="V4:W4"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="N55:O56"/>
+    <mergeCell ref="P55:Q56"/>
+    <mergeCell ref="R55:S56"/>
+    <mergeCell ref="T55:U56"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="D55:E56"/>
+    <mergeCell ref="F55:G56"/>
+    <mergeCell ref="H55:I56"/>
+    <mergeCell ref="AT55:AU56"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="F57:G57"/>
+    <mergeCell ref="H57:I57"/>
+    <mergeCell ref="J57:K57"/>
+    <mergeCell ref="L57:M57"/>
+    <mergeCell ref="N57:O57"/>
+    <mergeCell ref="P57:Q57"/>
+    <mergeCell ref="R57:S57"/>
+    <mergeCell ref="T57:U57"/>
+    <mergeCell ref="AH55:AI56"/>
+    <mergeCell ref="AJ55:AK56"/>
+    <mergeCell ref="AL55:AM56"/>
+    <mergeCell ref="AN55:AO56"/>
+    <mergeCell ref="AP55:AQ56"/>
+    <mergeCell ref="AR55:AS56"/>
+    <mergeCell ref="V55:W56"/>
+    <mergeCell ref="X55:Y56"/>
+    <mergeCell ref="Z55:AA56"/>
+    <mergeCell ref="AB55:AC56"/>
+    <mergeCell ref="AD55:AE56"/>
+    <mergeCell ref="AF55:AG56"/>
+    <mergeCell ref="J55:K56"/>
+    <mergeCell ref="L55:M56"/>
     <mergeCell ref="AN58:AQ58"/>
     <mergeCell ref="AR58:AU58"/>
     <mergeCell ref="AT57:AU57"/>
@@ -5830,162 +5991,15 @@
     <mergeCell ref="AB57:AC57"/>
     <mergeCell ref="AD57:AE57"/>
     <mergeCell ref="AF57:AG57"/>
-    <mergeCell ref="AT55:AU56"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="F57:G57"/>
-    <mergeCell ref="H57:I57"/>
-    <mergeCell ref="J57:K57"/>
-    <mergeCell ref="L57:M57"/>
-    <mergeCell ref="N57:O57"/>
-    <mergeCell ref="P57:Q57"/>
-    <mergeCell ref="R57:S57"/>
-    <mergeCell ref="T57:U57"/>
-    <mergeCell ref="AH55:AI56"/>
-    <mergeCell ref="AJ55:AK56"/>
-    <mergeCell ref="AL55:AM56"/>
-    <mergeCell ref="AN55:AO56"/>
-    <mergeCell ref="AP55:AQ56"/>
-    <mergeCell ref="AR55:AS56"/>
-    <mergeCell ref="V55:W56"/>
-    <mergeCell ref="X55:Y56"/>
-    <mergeCell ref="Z55:AA56"/>
-    <mergeCell ref="AB55:AC56"/>
-    <mergeCell ref="AD55:AE56"/>
-    <mergeCell ref="AF55:AG56"/>
-    <mergeCell ref="J55:K56"/>
-    <mergeCell ref="L55:M56"/>
-    <mergeCell ref="N55:O56"/>
-    <mergeCell ref="P55:Q56"/>
-    <mergeCell ref="R55:S56"/>
-    <mergeCell ref="T55:U56"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="D55:E56"/>
-    <mergeCell ref="F55:G56"/>
-    <mergeCell ref="H55:I56"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="AR4:AS4"/>
-    <mergeCell ref="AT4:AU4"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="AJ4:AK4"/>
-    <mergeCell ref="AL4:AM4"/>
-    <mergeCell ref="T4:U4"/>
-    <mergeCell ref="V4:W4"/>
-    <mergeCell ref="AN1:AQ1"/>
-    <mergeCell ref="AR1:AU1"/>
-    <mergeCell ref="AN2:AQ2"/>
-    <mergeCell ref="AR2:AU2"/>
-    <mergeCell ref="AN3:AQ3"/>
-    <mergeCell ref="AR3:AU3"/>
-    <mergeCell ref="AN4:AO4"/>
-    <mergeCell ref="AP4:AQ4"/>
-    <mergeCell ref="X3:AA3"/>
-    <mergeCell ref="AB3:AE3"/>
-    <mergeCell ref="AF3:AI3"/>
-    <mergeCell ref="AJ3:AM3"/>
-    <mergeCell ref="X4:Y4"/>
-    <mergeCell ref="Z4:AA4"/>
-    <mergeCell ref="AB4:AC4"/>
-    <mergeCell ref="AD4:AE4"/>
-    <mergeCell ref="AF4:AG4"/>
-    <mergeCell ref="AH4:AI4"/>
-    <mergeCell ref="X1:AA1"/>
-    <mergeCell ref="AB1:AE1"/>
-    <mergeCell ref="AF1:AI1"/>
-    <mergeCell ref="AJ1:AM1"/>
-    <mergeCell ref="X2:AA2"/>
-    <mergeCell ref="AB2:AE2"/>
-    <mergeCell ref="AF2:AI2"/>
-    <mergeCell ref="AJ2:AM2"/>
-    <mergeCell ref="H3:K3"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="P3:S3"/>
-    <mergeCell ref="T3:W3"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="R4:S4"/>
-    <mergeCell ref="A1:C3"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="L1:O1"/>
-    <mergeCell ref="P1:S1"/>
-    <mergeCell ref="T1:W1"/>
-    <mergeCell ref="H2:K2"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="P2:S2"/>
-    <mergeCell ref="T2:W2"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A60:C60"/>
+    <mergeCell ref="A61:B61"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="D6:AU6 D8:AU8 D12:J12 L12:AU12 K13 D44:AR44 AT44:AU44 AR45">

--- a/02_zeitplan/IPA_Zeitplan_Kabilan_Sivanamam.xlsx
+++ b/02_zeitplan/IPA_Zeitplan_Kabilan_Sivanamam.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kabi/Documents/GitHub/IPA2020/02_zeitplan/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C61D3CB-B35E-C845-80B1-B573444292B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA07137A-1BF9-6F4A-926A-571411D8C911}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{919B10DA-F269-3C46-8A86-B94EB657325B}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" xr2:uid="{919B10DA-F269-3C46-8A86-B94EB657325B}"/>
   </bookViews>
   <sheets>
     <sheet name="Zeitplan v1" sheetId="1" r:id="rId1"/>
@@ -1098,6 +1098,210 @@
     <xf numFmtId="1" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="3" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="3" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="3" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="3" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -1107,9 +1311,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1117,207 +1318,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="3" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="3" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="3" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="3" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2142,8 +2142,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE2EA0AA-2CD7-9C47-95CA-C0AE6CDA2CB2}">
   <dimension ref="A1:AU74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="75" workbookViewId="0">
-      <selection activeCell="AQ46" sqref="AQ46"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="75" workbookViewId="0">
+      <selection activeCell="AF39" sqref="AF39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2155,230 +2155,230 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="89" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="146" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="147"/>
-      <c r="F1" s="147"/>
-      <c r="G1" s="148"/>
-      <c r="H1" s="146" t="s">
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="96" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="147"/>
-      <c r="J1" s="147"/>
-      <c r="K1" s="148"/>
-      <c r="L1" s="161" t="s">
+      <c r="I1" s="97"/>
+      <c r="J1" s="97"/>
+      <c r="K1" s="98"/>
+      <c r="L1" s="99" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="147"/>
-      <c r="N1" s="147"/>
-      <c r="O1" s="148"/>
-      <c r="P1" s="146" t="s">
+      <c r="M1" s="97"/>
+      <c r="N1" s="97"/>
+      <c r="O1" s="98"/>
+      <c r="P1" s="96" t="s">
         <v>4</v>
       </c>
-      <c r="Q1" s="147"/>
-      <c r="R1" s="147"/>
-      <c r="S1" s="148"/>
-      <c r="T1" s="146" t="s">
+      <c r="Q1" s="97"/>
+      <c r="R1" s="97"/>
+      <c r="S1" s="98"/>
+      <c r="T1" s="96" t="s">
         <v>5</v>
       </c>
-      <c r="U1" s="147"/>
-      <c r="V1" s="147"/>
-      <c r="W1" s="148"/>
-      <c r="X1" s="146" t="s">
+      <c r="U1" s="97"/>
+      <c r="V1" s="97"/>
+      <c r="W1" s="98"/>
+      <c r="X1" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="Y1" s="147"/>
-      <c r="Z1" s="147"/>
-      <c r="AA1" s="157"/>
-      <c r="AB1" s="146" t="s">
+      <c r="Y1" s="97"/>
+      <c r="Z1" s="97"/>
+      <c r="AA1" s="108"/>
+      <c r="AB1" s="96" t="s">
         <v>7</v>
       </c>
-      <c r="AC1" s="147"/>
-      <c r="AD1" s="147"/>
-      <c r="AE1" s="148"/>
-      <c r="AF1" s="146" t="s">
+      <c r="AC1" s="97"/>
+      <c r="AD1" s="97"/>
+      <c r="AE1" s="98"/>
+      <c r="AF1" s="96" t="s">
         <v>8</v>
       </c>
-      <c r="AG1" s="147"/>
-      <c r="AH1" s="147"/>
-      <c r="AI1" s="148"/>
-      <c r="AJ1" s="146" t="s">
+      <c r="AG1" s="97"/>
+      <c r="AH1" s="97"/>
+      <c r="AI1" s="98"/>
+      <c r="AJ1" s="96" t="s">
         <v>9</v>
       </c>
-      <c r="AK1" s="147"/>
-      <c r="AL1" s="147"/>
-      <c r="AM1" s="148"/>
-      <c r="AN1" s="146" t="s">
+      <c r="AK1" s="97"/>
+      <c r="AL1" s="97"/>
+      <c r="AM1" s="98"/>
+      <c r="AN1" s="96" t="s">
         <v>10</v>
       </c>
-      <c r="AO1" s="147"/>
-      <c r="AP1" s="147"/>
-      <c r="AQ1" s="148"/>
-      <c r="AR1" s="146" t="s">
+      <c r="AO1" s="97"/>
+      <c r="AP1" s="97"/>
+      <c r="AQ1" s="98"/>
+      <c r="AR1" s="96" t="s">
         <v>11</v>
       </c>
-      <c r="AS1" s="147"/>
-      <c r="AT1" s="147"/>
-      <c r="AU1" s="148"/>
+      <c r="AS1" s="97"/>
+      <c r="AT1" s="97"/>
+      <c r="AU1" s="98"/>
     </row>
     <row r="2" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A2" s="92"/>
-      <c r="B2" s="92"/>
-      <c r="C2" s="92"/>
-      <c r="D2" s="149" t="str">
+      <c r="A2" s="89"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="100" t="str">
         <f>TEXT(D3,"ddd")</f>
         <v>Wed</v>
       </c>
-      <c r="E2" s="150"/>
-      <c r="F2" s="150"/>
-      <c r="G2" s="151"/>
-      <c r="H2" s="149" t="str">
+      <c r="E2" s="101"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="100" t="str">
         <f t="shared" ref="H2" si="0">TEXT(H3,"ddd")</f>
         <v>Thu</v>
       </c>
-      <c r="I2" s="150"/>
-      <c r="J2" s="150"/>
-      <c r="K2" s="151"/>
-      <c r="L2" s="162" t="str">
+      <c r="I2" s="101"/>
+      <c r="J2" s="101"/>
+      <c r="K2" s="102"/>
+      <c r="L2" s="103" t="str">
         <f t="shared" ref="L2" si="1">TEXT(L3,"ddd")</f>
         <v>Fri</v>
       </c>
-      <c r="M2" s="150"/>
-      <c r="N2" s="150"/>
-      <c r="O2" s="151"/>
-      <c r="P2" s="149" t="str">
+      <c r="M2" s="101"/>
+      <c r="N2" s="101"/>
+      <c r="O2" s="102"/>
+      <c r="P2" s="100" t="str">
         <f t="shared" ref="P2" si="2">TEXT(P3,"ddd")</f>
         <v>Mon</v>
       </c>
-      <c r="Q2" s="150"/>
-      <c r="R2" s="150"/>
-      <c r="S2" s="151"/>
-      <c r="T2" s="149" t="str">
+      <c r="Q2" s="101"/>
+      <c r="R2" s="101"/>
+      <c r="S2" s="102"/>
+      <c r="T2" s="100" t="str">
         <f t="shared" ref="T2" si="3">TEXT(T3,"ddd")</f>
         <v>Wed</v>
       </c>
-      <c r="U2" s="150"/>
-      <c r="V2" s="150"/>
-      <c r="W2" s="151"/>
-      <c r="X2" s="149" t="str">
+      <c r="U2" s="101"/>
+      <c r="V2" s="101"/>
+      <c r="W2" s="102"/>
+      <c r="X2" s="100" t="str">
         <f t="shared" ref="X2" si="4">TEXT(X3,"ddd")</f>
         <v>Thu</v>
       </c>
-      <c r="Y2" s="150"/>
-      <c r="Z2" s="150"/>
-      <c r="AA2" s="158"/>
-      <c r="AB2" s="149" t="str">
+      <c r="Y2" s="101"/>
+      <c r="Z2" s="101"/>
+      <c r="AA2" s="109"/>
+      <c r="AB2" s="100" t="str">
         <f t="shared" ref="AB2" si="5">TEXT(AB3,"ddd")</f>
         <v>Fri</v>
       </c>
-      <c r="AC2" s="150"/>
-      <c r="AD2" s="150"/>
-      <c r="AE2" s="151"/>
-      <c r="AF2" s="149" t="str">
+      <c r="AC2" s="101"/>
+      <c r="AD2" s="101"/>
+      <c r="AE2" s="102"/>
+      <c r="AF2" s="100" t="str">
         <f t="shared" ref="AF2" si="6">TEXT(AF3,"ddd")</f>
         <v>Mon</v>
       </c>
-      <c r="AG2" s="150"/>
-      <c r="AH2" s="150"/>
-      <c r="AI2" s="151"/>
-      <c r="AJ2" s="149" t="str">
+      <c r="AG2" s="101"/>
+      <c r="AH2" s="101"/>
+      <c r="AI2" s="102"/>
+      <c r="AJ2" s="100" t="str">
         <f t="shared" ref="AJ2" si="7">TEXT(AJ3,"ddd")</f>
         <v>Wed</v>
       </c>
-      <c r="AK2" s="150"/>
-      <c r="AL2" s="150"/>
-      <c r="AM2" s="151"/>
-      <c r="AN2" s="149" t="str">
+      <c r="AK2" s="101"/>
+      <c r="AL2" s="101"/>
+      <c r="AM2" s="102"/>
+      <c r="AN2" s="100" t="str">
         <f t="shared" ref="AN2" si="8">TEXT(AN3,"ddd")</f>
         <v>Thu</v>
       </c>
-      <c r="AO2" s="150"/>
-      <c r="AP2" s="150"/>
-      <c r="AQ2" s="151"/>
-      <c r="AR2" s="149" t="str">
+      <c r="AO2" s="101"/>
+      <c r="AP2" s="101"/>
+      <c r="AQ2" s="102"/>
+      <c r="AR2" s="100" t="str">
         <f t="shared" ref="AR2" si="9">TEXT(AR3,"ddd")</f>
         <v>Fri</v>
       </c>
-      <c r="AS2" s="150"/>
-      <c r="AT2" s="150"/>
-      <c r="AU2" s="151"/>
+      <c r="AS2" s="101"/>
+      <c r="AT2" s="101"/>
+      <c r="AU2" s="102"/>
     </row>
     <row r="3" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A3" s="92"/>
-      <c r="B3" s="92"/>
-      <c r="C3" s="92"/>
-      <c r="D3" s="152">
+      <c r="A3" s="89"/>
+      <c r="B3" s="89"/>
+      <c r="C3" s="89"/>
+      <c r="D3" s="90">
         <v>43873</v>
       </c>
-      <c r="E3" s="153"/>
-      <c r="F3" s="153"/>
-      <c r="G3" s="154"/>
-      <c r="H3" s="152">
+      <c r="E3" s="91"/>
+      <c r="F3" s="91"/>
+      <c r="G3" s="92"/>
+      <c r="H3" s="90">
         <v>43874</v>
       </c>
-      <c r="I3" s="153"/>
-      <c r="J3" s="153"/>
-      <c r="K3" s="154"/>
-      <c r="L3" s="159">
+      <c r="I3" s="91"/>
+      <c r="J3" s="91"/>
+      <c r="K3" s="92"/>
+      <c r="L3" s="104">
         <v>43875</v>
       </c>
-      <c r="M3" s="153"/>
-      <c r="N3" s="153"/>
-      <c r="O3" s="154"/>
-      <c r="P3" s="152">
+      <c r="M3" s="91"/>
+      <c r="N3" s="91"/>
+      <c r="O3" s="92"/>
+      <c r="P3" s="90">
         <v>43878</v>
       </c>
-      <c r="Q3" s="153"/>
-      <c r="R3" s="153"/>
-      <c r="S3" s="154"/>
-      <c r="T3" s="152">
+      <c r="Q3" s="91"/>
+      <c r="R3" s="91"/>
+      <c r="S3" s="92"/>
+      <c r="T3" s="90">
         <v>43880</v>
       </c>
-      <c r="U3" s="153"/>
-      <c r="V3" s="153"/>
-      <c r="W3" s="154"/>
-      <c r="X3" s="152">
+      <c r="U3" s="91"/>
+      <c r="V3" s="91"/>
+      <c r="W3" s="92"/>
+      <c r="X3" s="90">
         <v>43881</v>
       </c>
-      <c r="Y3" s="153"/>
-      <c r="Z3" s="153"/>
-      <c r="AA3" s="155"/>
-      <c r="AB3" s="152">
+      <c r="Y3" s="91"/>
+      <c r="Z3" s="91"/>
+      <c r="AA3" s="106"/>
+      <c r="AB3" s="90">
         <v>43882</v>
       </c>
-      <c r="AC3" s="153"/>
-      <c r="AD3" s="153"/>
-      <c r="AE3" s="154"/>
-      <c r="AF3" s="152">
+      <c r="AC3" s="91"/>
+      <c r="AD3" s="91"/>
+      <c r="AE3" s="92"/>
+      <c r="AF3" s="90">
         <v>43885</v>
       </c>
-      <c r="AG3" s="153"/>
-      <c r="AH3" s="153"/>
-      <c r="AI3" s="154"/>
-      <c r="AJ3" s="152">
+      <c r="AG3" s="91"/>
+      <c r="AH3" s="91"/>
+      <c r="AI3" s="92"/>
+      <c r="AJ3" s="90">
         <v>43887</v>
       </c>
-      <c r="AK3" s="153"/>
-      <c r="AL3" s="153"/>
-      <c r="AM3" s="154"/>
-      <c r="AN3" s="152">
+      <c r="AK3" s="91"/>
+      <c r="AL3" s="91"/>
+      <c r="AM3" s="92"/>
+      <c r="AN3" s="90">
         <v>43888</v>
       </c>
-      <c r="AO3" s="153"/>
-      <c r="AP3" s="153"/>
-      <c r="AQ3" s="154"/>
-      <c r="AR3" s="152">
+      <c r="AO3" s="91"/>
+      <c r="AP3" s="91"/>
+      <c r="AQ3" s="92"/>
+      <c r="AR3" s="90">
         <v>43889</v>
       </c>
-      <c r="AS3" s="153"/>
-      <c r="AT3" s="153"/>
-      <c r="AU3" s="154"/>
+      <c r="AS3" s="91"/>
+      <c r="AT3" s="91"/>
+      <c r="AU3" s="92"/>
     </row>
     <row r="4" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
@@ -2390,94 +2390,94 @@
       <c r="C4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="143" t="s">
+      <c r="D4" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="144"/>
-      <c r="F4" s="144" t="s">
+      <c r="E4" s="94"/>
+      <c r="F4" s="94" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="145"/>
-      <c r="H4" s="143" t="s">
+      <c r="G4" s="95"/>
+      <c r="H4" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="144"/>
-      <c r="J4" s="144" t="s">
+      <c r="I4" s="94"/>
+      <c r="J4" s="94" t="s">
         <v>13</v>
       </c>
-      <c r="K4" s="145"/>
-      <c r="L4" s="160" t="s">
+      <c r="K4" s="95"/>
+      <c r="L4" s="105" t="s">
         <v>12</v>
       </c>
-      <c r="M4" s="144"/>
-      <c r="N4" s="144" t="s">
+      <c r="M4" s="94"/>
+      <c r="N4" s="94" t="s">
         <v>13</v>
       </c>
-      <c r="O4" s="145"/>
-      <c r="P4" s="143" t="s">
+      <c r="O4" s="95"/>
+      <c r="P4" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="Q4" s="144"/>
-      <c r="R4" s="144" t="s">
+      <c r="Q4" s="94"/>
+      <c r="R4" s="94" t="s">
         <v>13</v>
       </c>
-      <c r="S4" s="145"/>
-      <c r="T4" s="143" t="s">
+      <c r="S4" s="95"/>
+      <c r="T4" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="U4" s="144"/>
-      <c r="V4" s="144" t="s">
+      <c r="U4" s="94"/>
+      <c r="V4" s="94" t="s">
         <v>13</v>
       </c>
-      <c r="W4" s="145"/>
-      <c r="X4" s="143" t="s">
+      <c r="W4" s="95"/>
+      <c r="X4" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="Y4" s="144"/>
-      <c r="Z4" s="144" t="s">
+      <c r="Y4" s="94"/>
+      <c r="Z4" s="94" t="s">
         <v>13</v>
       </c>
-      <c r="AA4" s="156"/>
-      <c r="AB4" s="143" t="s">
+      <c r="AA4" s="107"/>
+      <c r="AB4" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="AC4" s="144"/>
-      <c r="AD4" s="144" t="s">
+      <c r="AC4" s="94"/>
+      <c r="AD4" s="94" t="s">
         <v>13</v>
       </c>
-      <c r="AE4" s="145"/>
-      <c r="AF4" s="143" t="s">
+      <c r="AE4" s="95"/>
+      <c r="AF4" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="AG4" s="144"/>
-      <c r="AH4" s="144" t="s">
+      <c r="AG4" s="94"/>
+      <c r="AH4" s="94" t="s">
         <v>13</v>
       </c>
-      <c r="AI4" s="145"/>
-      <c r="AJ4" s="143" t="s">
+      <c r="AI4" s="95"/>
+      <c r="AJ4" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="AK4" s="144"/>
-      <c r="AL4" s="144" t="s">
+      <c r="AK4" s="94"/>
+      <c r="AL4" s="94" t="s">
         <v>13</v>
       </c>
-      <c r="AM4" s="145"/>
-      <c r="AN4" s="143" t="s">
+      <c r="AM4" s="95"/>
+      <c r="AN4" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="AO4" s="144"/>
-      <c r="AP4" s="144" t="s">
+      <c r="AO4" s="94"/>
+      <c r="AP4" s="94" t="s">
         <v>13</v>
       </c>
-      <c r="AQ4" s="145"/>
-      <c r="AR4" s="143" t="s">
+      <c r="AQ4" s="95"/>
+      <c r="AR4" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="AS4" s="144"/>
-      <c r="AT4" s="144" t="s">
+      <c r="AS4" s="94"/>
+      <c r="AT4" s="94" t="s">
         <v>13</v>
       </c>
-      <c r="AU4" s="145"/>
+      <c r="AU4" s="95"/>
     </row>
     <row r="5" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
@@ -2531,14 +2531,14 @@
       <c r="AU5" s="17"/>
     </row>
     <row r="6" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A6" s="123" t="s">
+      <c r="A6" s="110" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="135">
+      <c r="B6" s="112">
         <f>SUM(D6:AU6)</f>
         <v>2</v>
       </c>
-      <c r="C6" s="136">
+      <c r="C6" s="113">
         <f>SUM(D7:AU7)</f>
         <v>2</v>
       </c>
@@ -2592,9 +2592,9 @@
       <c r="AU6" s="35"/>
     </row>
     <row r="7" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="124"/>
-      <c r="B7" s="135"/>
-      <c r="C7" s="136"/>
+      <c r="A7" s="111"/>
+      <c r="B7" s="112"/>
+      <c r="C7" s="113"/>
       <c r="D7" s="41">
         <v>1</v>
       </c>
@@ -2645,16 +2645,16 @@
       <c r="AU7" s="40"/>
     </row>
     <row r="8" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A8" s="123" t="s">
+      <c r="A8" s="110" t="s">
         <v>50</v>
       </c>
-      <c r="B8" s="135">
+      <c r="B8" s="112">
         <f>SUM(D8:AU8)</f>
         <v>4</v>
       </c>
-      <c r="C8" s="136">
+      <c r="C8" s="113">
         <f>SUM(D9:AU9)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D8" s="36"/>
       <c r="E8" s="34">
@@ -2710,9 +2710,9 @@
       </c>
     </row>
     <row r="9" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="134"/>
-      <c r="B9" s="131"/>
-      <c r="C9" s="133"/>
+      <c r="A9" s="115"/>
+      <c r="B9" s="116"/>
+      <c r="C9" s="114"/>
       <c r="D9" s="49"/>
       <c r="E9" s="53">
         <v>1</v>
@@ -2761,7 +2761,9 @@
       <c r="AQ9" s="40"/>
       <c r="AR9" s="41"/>
       <c r="AS9" s="39"/>
-      <c r="AT9" s="39"/>
+      <c r="AT9" s="39">
+        <v>2</v>
+      </c>
       <c r="AU9" s="40"/>
     </row>
     <row r="10" spans="1:47" x14ac:dyDescent="0.2">
@@ -2867,14 +2869,14 @@
       <c r="AU11" s="46"/>
     </row>
     <row r="12" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A12" s="129" t="s">
+      <c r="A12" s="117" t="s">
         <v>51</v>
       </c>
-      <c r="B12" s="130">
+      <c r="B12" s="118">
         <f>SUM(D12:AU12)</f>
         <v>7</v>
       </c>
-      <c r="C12" s="132">
+      <c r="C12" s="119">
         <f>SUM(D13:AU13)</f>
         <v>7</v>
       </c>
@@ -2932,9 +2934,9 @@
       <c r="AU12" s="48"/>
     </row>
     <row r="13" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="134"/>
-      <c r="B13" s="135"/>
-      <c r="C13" s="136"/>
+      <c r="A13" s="115"/>
+      <c r="B13" s="112"/>
+      <c r="C13" s="113"/>
       <c r="D13" s="41"/>
       <c r="E13" s="39"/>
       <c r="F13" s="39"/>
@@ -3040,14 +3042,14 @@
       <c r="AU14" s="63"/>
     </row>
     <row r="15" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A15" s="137" t="s">
+      <c r="A15" s="120" t="s">
         <v>57</v>
       </c>
-      <c r="B15" s="139">
+      <c r="B15" s="122">
         <f>SUM(D15:AU15)</f>
         <v>1</v>
       </c>
-      <c r="C15" s="141">
+      <c r="C15" s="124">
         <f>SUM(D16:AU16)</f>
         <v>4</v>
       </c>
@@ -3099,9 +3101,9 @@
       <c r="AU15" s="35"/>
     </row>
     <row r="16" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="138"/>
-      <c r="B16" s="140"/>
-      <c r="C16" s="142"/>
+      <c r="A16" s="121"/>
+      <c r="B16" s="123"/>
+      <c r="C16" s="125"/>
       <c r="D16" s="41"/>
       <c r="E16" s="39"/>
       <c r="F16" s="39"/>
@@ -3154,14 +3156,14 @@
       <c r="AU16" s="40"/>
     </row>
     <row r="17" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A17" s="129" t="s">
+      <c r="A17" s="117" t="s">
         <v>52</v>
       </c>
-      <c r="B17" s="130">
+      <c r="B17" s="118">
         <f t="shared" ref="B17" si="10">SUM(D17:AU17)</f>
         <v>2</v>
       </c>
-      <c r="C17" s="132">
+      <c r="C17" s="119">
         <f t="shared" ref="C17" si="11">SUM(D18:AU18)</f>
         <v>4</v>
       </c>
@@ -3213,9 +3215,9 @@
       <c r="AU17" s="48"/>
     </row>
     <row r="18" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="134"/>
-      <c r="B18" s="135"/>
-      <c r="C18" s="136"/>
+      <c r="A18" s="115"/>
+      <c r="B18" s="112"/>
+      <c r="C18" s="113"/>
       <c r="D18" s="41"/>
       <c r="E18" s="39"/>
       <c r="F18" s="39"/>
@@ -3270,14 +3272,14 @@
       <c r="AU18" s="40"/>
     </row>
     <row r="19" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A19" s="123" t="s">
+      <c r="A19" s="110" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="135">
+      <c r="B19" s="112">
         <f t="shared" ref="B19" si="12">SUM(D19:AU19)</f>
         <v>2</v>
       </c>
-      <c r="C19" s="136">
+      <c r="C19" s="113">
         <f t="shared" ref="C19" si="13">SUM(D20:AU20)</f>
         <v>0</v>
       </c>
@@ -3329,9 +3331,9 @@
       <c r="AU19" s="35"/>
     </row>
     <row r="20" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="134"/>
-      <c r="B20" s="131"/>
-      <c r="C20" s="133"/>
+      <c r="A20" s="115"/>
+      <c r="B20" s="116"/>
+      <c r="C20" s="114"/>
       <c r="D20" s="49"/>
       <c r="E20" s="53"/>
       <c r="F20" s="53"/>
@@ -3378,14 +3380,14 @@
       <c r="AU20" s="48"/>
     </row>
     <row r="21" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A21" s="123" t="s">
+      <c r="A21" s="110" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="125">
+      <c r="B21" s="126">
         <f t="shared" ref="B21" si="14">SUM(D21:AU21)</f>
         <v>1</v>
       </c>
-      <c r="C21" s="127">
+      <c r="C21" s="128">
         <f t="shared" ref="C21" si="15">SUM(D22:AU22)</f>
         <v>9</v>
       </c>
@@ -3437,9 +3439,9 @@
       <c r="AU21" s="35"/>
     </row>
     <row r="22" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="124"/>
-      <c r="B22" s="126"/>
-      <c r="C22" s="128"/>
+      <c r="A22" s="111"/>
+      <c r="B22" s="127"/>
+      <c r="C22" s="129"/>
       <c r="D22" s="41"/>
       <c r="E22" s="39"/>
       <c r="F22" s="39"/>
@@ -3549,14 +3551,14 @@
       <c r="AU23" s="58"/>
     </row>
     <row r="24" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A24" s="123" t="s">
+      <c r="A24" s="110" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="135">
+      <c r="B24" s="112">
         <f>SUM(D24:AU24)</f>
         <v>1</v>
       </c>
-      <c r="C24" s="136">
+      <c r="C24" s="113">
         <f>SUM(D25:AU25)</f>
         <v>2</v>
       </c>
@@ -3608,9 +3610,9 @@
       <c r="AU24" s="48"/>
     </row>
     <row r="25" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="134"/>
-      <c r="B25" s="135"/>
-      <c r="C25" s="136"/>
+      <c r="A25" s="115"/>
+      <c r="B25" s="112"/>
+      <c r="C25" s="113"/>
       <c r="D25" s="41"/>
       <c r="E25" s="39"/>
       <c r="F25" s="39"/>
@@ -3661,14 +3663,14 @@
       <c r="AU25" s="40"/>
     </row>
     <row r="26" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A26" s="123" t="s">
+      <c r="A26" s="110" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="135">
+      <c r="B26" s="112">
         <f t="shared" ref="B26" si="16">SUM(D26:AU26)</f>
         <v>1</v>
       </c>
-      <c r="C26" s="136">
+      <c r="C26" s="113">
         <f t="shared" ref="C26" si="17">SUM(D27:AU27)</f>
         <v>5</v>
       </c>
@@ -3720,9 +3722,9 @@
       <c r="AU26" s="35"/>
     </row>
     <row r="27" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="134"/>
-      <c r="B27" s="131"/>
-      <c r="C27" s="133"/>
+      <c r="A27" s="115"/>
+      <c r="B27" s="116"/>
+      <c r="C27" s="114"/>
       <c r="D27" s="49"/>
       <c r="E27" s="53"/>
       <c r="F27" s="53"/>
@@ -3777,14 +3779,14 @@
       <c r="AU27" s="48"/>
     </row>
     <row r="28" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A28" s="123" t="s">
+      <c r="A28" s="110" t="s">
         <v>59</v>
       </c>
-      <c r="B28" s="125">
+      <c r="B28" s="126">
         <f t="shared" ref="B28" si="18">SUM(D28:AU28)</f>
         <v>7</v>
       </c>
-      <c r="C28" s="127">
+      <c r="C28" s="128">
         <f t="shared" ref="C28" si="19">SUM(D29:AU29)</f>
         <v>2</v>
       </c>
@@ -3842,9 +3844,9 @@
       <c r="AU28" s="35"/>
     </row>
     <row r="29" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="124"/>
-      <c r="B29" s="126"/>
-      <c r="C29" s="128"/>
+      <c r="A29" s="111"/>
+      <c r="B29" s="127"/>
+      <c r="C29" s="129"/>
       <c r="D29" s="41"/>
       <c r="E29" s="39"/>
       <c r="F29" s="39"/>
@@ -3895,14 +3897,14 @@
       <c r="AU29" s="40"/>
     </row>
     <row r="30" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A30" s="129" t="s">
+      <c r="A30" s="117" t="s">
         <v>60</v>
       </c>
-      <c r="B30" s="130">
+      <c r="B30" s="118">
         <f t="shared" ref="B30" si="20">SUM(D30:AU30)</f>
         <v>7</v>
       </c>
-      <c r="C30" s="132">
+      <c r="C30" s="119">
         <f t="shared" ref="C30" si="21">SUM(D31:AU31)</f>
         <v>5</v>
       </c>
@@ -3960,9 +3962,9 @@
       <c r="AU30" s="48"/>
     </row>
     <row r="31" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="134"/>
-      <c r="B31" s="135"/>
-      <c r="C31" s="136"/>
+      <c r="A31" s="115"/>
+      <c r="B31" s="112"/>
+      <c r="C31" s="113"/>
       <c r="D31" s="41"/>
       <c r="E31" s="39"/>
       <c r="F31" s="39"/>
@@ -4017,14 +4019,14 @@
       <c r="AU31" s="40"/>
     </row>
     <row r="32" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A32" s="123" t="s">
+      <c r="A32" s="110" t="s">
         <v>26</v>
       </c>
-      <c r="B32" s="135">
+      <c r="B32" s="112">
         <f t="shared" ref="B32" si="22">SUM(D32:AU32)</f>
         <v>7</v>
       </c>
-      <c r="C32" s="136">
+      <c r="C32" s="113">
         <f t="shared" ref="C32" si="23">SUM(D33:AU33)</f>
         <v>4</v>
       </c>
@@ -4082,9 +4084,9 @@
       <c r="AU32" s="35"/>
     </row>
     <row r="33" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="134"/>
-      <c r="B33" s="135"/>
-      <c r="C33" s="136"/>
+      <c r="A33" s="115"/>
+      <c r="B33" s="112"/>
+      <c r="C33" s="113"/>
       <c r="D33" s="41"/>
       <c r="E33" s="39"/>
       <c r="F33" s="39"/>
@@ -4137,14 +4139,14 @@
       <c r="AU33" s="40"/>
     </row>
     <row r="34" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A34" s="123" t="s">
+      <c r="A34" s="110" t="s">
         <v>27</v>
       </c>
-      <c r="B34" s="135">
+      <c r="B34" s="112">
         <f t="shared" ref="B34" si="24">SUM(D34:AU34)</f>
         <v>2</v>
       </c>
-      <c r="C34" s="136">
+      <c r="C34" s="113">
         <f t="shared" ref="C34" si="25">SUM(D35:AU35)</f>
         <v>3</v>
       </c>
@@ -4196,9 +4198,9 @@
       <c r="AU34" s="35"/>
     </row>
     <row r="35" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="124"/>
-      <c r="B35" s="135"/>
-      <c r="C35" s="136"/>
+      <c r="A35" s="111"/>
+      <c r="B35" s="112"/>
+      <c r="C35" s="113"/>
       <c r="D35" s="41"/>
       <c r="E35" s="39"/>
       <c r="F35" s="39"/>
@@ -4249,14 +4251,14 @@
       <c r="AU35" s="40"/>
     </row>
     <row r="36" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A36" s="123" t="s">
+      <c r="A36" s="110" t="s">
         <v>28</v>
       </c>
-      <c r="B36" s="135">
+      <c r="B36" s="112">
         <f t="shared" ref="B36" si="26">SUM(D36:AU36)</f>
         <v>4</v>
       </c>
-      <c r="C36" s="136">
+      <c r="C36" s="113">
         <f t="shared" ref="C36" si="27">SUM(D37:AU37)</f>
         <v>1</v>
       </c>
@@ -4310,9 +4312,9 @@
       <c r="AU36" s="35"/>
     </row>
     <row r="37" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="134"/>
-      <c r="B37" s="135"/>
-      <c r="C37" s="136"/>
+      <c r="A37" s="115"/>
+      <c r="B37" s="112"/>
+      <c r="C37" s="113"/>
       <c r="D37" s="41"/>
       <c r="E37" s="39"/>
       <c r="F37" s="39"/>
@@ -4361,14 +4363,14 @@
       <c r="AU37" s="40"/>
     </row>
     <row r="38" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A38" s="123" t="s">
+      <c r="A38" s="110" t="s">
         <v>29</v>
       </c>
-      <c r="B38" s="135">
+      <c r="B38" s="112">
         <f t="shared" ref="B38" si="28">SUM(D38:AU38)</f>
         <v>3</v>
       </c>
-      <c r="C38" s="136">
+      <c r="C38" s="113">
         <f t="shared" ref="C38" si="29">SUM(D39:AU39)</f>
         <v>0</v>
       </c>
@@ -4422,9 +4424,9 @@
       <c r="AU38" s="35"/>
     </row>
     <row r="39" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="134"/>
-      <c r="B39" s="135"/>
-      <c r="C39" s="136"/>
+      <c r="A39" s="115"/>
+      <c r="B39" s="112"/>
+      <c r="C39" s="113"/>
       <c r="D39" s="41"/>
       <c r="E39" s="39"/>
       <c r="F39" s="39"/>
@@ -4471,14 +4473,14 @@
       <c r="AU39" s="40"/>
     </row>
     <row r="40" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A40" s="123" t="s">
+      <c r="A40" s="110" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="135">
+      <c r="B40" s="112">
         <f t="shared" ref="B40" si="30">SUM(D40:AU40)</f>
         <v>4</v>
       </c>
-      <c r="C40" s="136">
+      <c r="C40" s="113">
         <f t="shared" ref="C40" si="31">SUM(D41:AU41)</f>
         <v>1</v>
       </c>
@@ -4532,9 +4534,9 @@
       <c r="AU40" s="35"/>
     </row>
     <row r="41" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="134"/>
-      <c r="B41" s="135"/>
-      <c r="C41" s="136"/>
+      <c r="A41" s="115"/>
+      <c r="B41" s="112"/>
+      <c r="C41" s="113"/>
       <c r="D41" s="41"/>
       <c r="E41" s="39"/>
       <c r="F41" s="39"/>
@@ -4583,14 +4585,14 @@
       <c r="AU41" s="40"/>
     </row>
     <row r="42" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A42" s="123" t="s">
+      <c r="A42" s="110" t="s">
         <v>31</v>
       </c>
-      <c r="B42" s="135">
+      <c r="B42" s="112">
         <f t="shared" ref="B42" si="32">SUM(D42:AU42)</f>
         <v>3</v>
       </c>
-      <c r="C42" s="136">
+      <c r="C42" s="113">
         <f t="shared" ref="C42" si="33">SUM(D43:AU43)</f>
         <v>3</v>
       </c>
@@ -4644,9 +4646,9 @@
       <c r="AU42" s="35"/>
     </row>
     <row r="43" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="134"/>
-      <c r="B43" s="135"/>
-      <c r="C43" s="136"/>
+      <c r="A43" s="115"/>
+      <c r="B43" s="112"/>
+      <c r="C43" s="113"/>
       <c r="D43" s="41"/>
       <c r="E43" s="39"/>
       <c r="F43" s="39"/>
@@ -4697,14 +4699,14 @@
       <c r="AU43" s="40"/>
     </row>
     <row r="44" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="123" t="s">
+      <c r="A44" s="110" t="s">
         <v>32</v>
       </c>
-      <c r="B44" s="135">
+      <c r="B44" s="112">
         <f t="shared" ref="B44" si="34">SUM(D44:AU44)</f>
         <v>2</v>
       </c>
-      <c r="C44" s="136">
+      <c r="C44" s="113">
         <f t="shared" ref="C44" si="35">SUM(D45:AU45)</f>
         <v>2</v>
       </c>
@@ -4755,9 +4757,9 @@
       <c r="AU44" s="35"/>
     </row>
     <row r="45" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="134"/>
-      <c r="B45" s="135"/>
-      <c r="C45" s="136"/>
+      <c r="A45" s="115"/>
+      <c r="B45" s="112"/>
+      <c r="C45" s="113"/>
       <c r="D45" s="41"/>
       <c r="E45" s="39"/>
       <c r="F45" s="39"/>
@@ -4808,16 +4810,16 @@
       <c r="AU45" s="40"/>
     </row>
     <row r="46" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A46" s="123" t="s">
+      <c r="A46" s="110" t="s">
         <v>46</v>
       </c>
-      <c r="B46" s="135">
+      <c r="B46" s="112">
         <f t="shared" ref="B46" si="36">SUM(D46:AU46)</f>
         <v>3</v>
       </c>
-      <c r="C46" s="136">
+      <c r="C46" s="113">
         <f t="shared" ref="C46" si="37">SUM(D47:AU47)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D46" s="36"/>
       <c r="E46" s="34"/>
@@ -4869,9 +4871,9 @@
       <c r="AU46" s="35"/>
     </row>
     <row r="47" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="124"/>
-      <c r="B47" s="135"/>
-      <c r="C47" s="136"/>
+      <c r="A47" s="111"/>
+      <c r="B47" s="112"/>
+      <c r="C47" s="113"/>
       <c r="D47" s="49"/>
       <c r="E47" s="53"/>
       <c r="F47" s="53"/>
@@ -4912,8 +4914,12 @@
       <c r="AO47" s="47"/>
       <c r="AP47" s="47"/>
       <c r="AQ47" s="48"/>
-      <c r="AR47" s="49"/>
-      <c r="AS47" s="47"/>
+      <c r="AR47" s="49">
+        <v>2</v>
+      </c>
+      <c r="AS47" s="47">
+        <v>2</v>
+      </c>
       <c r="AT47" s="47"/>
       <c r="AU47" s="48"/>
     </row>
@@ -4969,16 +4975,16 @@
       <c r="AU48" s="46"/>
     </row>
     <row r="49" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A49" s="123" t="s">
+      <c r="A49" s="110" t="s">
         <v>49</v>
       </c>
-      <c r="B49" s="135">
+      <c r="B49" s="112">
         <f>SUM(D49:AU49)</f>
         <v>11</v>
       </c>
-      <c r="C49" s="136">
+      <c r="C49" s="113">
         <f>SUM(D50:AU50)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D49" s="49"/>
       <c r="E49" s="53"/>
@@ -5048,9 +5054,9 @@
       </c>
     </row>
     <row r="50" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="134"/>
-      <c r="B50" s="131"/>
-      <c r="C50" s="133"/>
+      <c r="A50" s="115"/>
+      <c r="B50" s="116"/>
+      <c r="C50" s="114"/>
       <c r="D50" s="49"/>
       <c r="E50" s="53"/>
       <c r="F50" s="53"/>
@@ -5114,17 +5120,19 @@
       <c r="AR50" s="49"/>
       <c r="AS50" s="53"/>
       <c r="AT50" s="53"/>
-      <c r="AU50" s="48"/>
+      <c r="AU50" s="48">
+        <v>1</v>
+      </c>
     </row>
     <row r="51" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A51" s="123" t="s">
+      <c r="A51" s="110" t="s">
         <v>58</v>
       </c>
-      <c r="B51" s="125">
+      <c r="B51" s="126">
         <f t="shared" ref="B51" si="38">SUM(D51:AU51)</f>
         <v>4</v>
       </c>
-      <c r="C51" s="127">
+      <c r="C51" s="128">
         <f t="shared" ref="C51" si="39">SUM(D52:AU52)</f>
         <v>3</v>
       </c>
@@ -5182,9 +5190,9 @@
       <c r="AU51" s="35"/>
     </row>
     <row r="52" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="124"/>
-      <c r="B52" s="126"/>
-      <c r="C52" s="128"/>
+      <c r="A52" s="111"/>
+      <c r="B52" s="127"/>
+      <c r="C52" s="129"/>
       <c r="D52" s="41">
         <v>1</v>
       </c>
@@ -5237,14 +5245,14 @@
       <c r="AU52" s="40"/>
     </row>
     <row r="53" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A53" s="129" t="s">
+      <c r="A53" s="117" t="s">
         <v>34</v>
       </c>
-      <c r="B53" s="130">
+      <c r="B53" s="118">
         <f t="shared" ref="B53" si="40">SUM(D53:AU53)</f>
         <v>2</v>
       </c>
-      <c r="C53" s="132">
+      <c r="C53" s="119">
         <f t="shared" ref="C53" si="41">SUM(D54:AU54)</f>
         <v>2</v>
       </c>
@@ -5298,9 +5306,9 @@
       <c r="AU53" s="48"/>
     </row>
     <row r="54" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="124"/>
-      <c r="B54" s="131"/>
-      <c r="C54" s="133"/>
+      <c r="A54" s="111"/>
+      <c r="B54" s="116"/>
+      <c r="C54" s="114"/>
       <c r="D54" s="49"/>
       <c r="E54" s="53"/>
       <c r="F54" s="53">
@@ -5351,176 +5359,176 @@
       <c r="AU54" s="48"/>
     </row>
     <row r="55" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A55" s="117" t="s">
+      <c r="A55" s="136" t="s">
         <v>35</v>
       </c>
-      <c r="B55" s="119">
+      <c r="B55" s="138">
         <f>SUM(B6:B54)</f>
         <v>80</v>
       </c>
-      <c r="C55" s="121">
+      <c r="C55" s="140">
         <f>SUM(C6:C54)</f>
-        <v>72</v>
-      </c>
-      <c r="D55" s="111" cm="1">
+        <v>79</v>
+      </c>
+      <c r="D55" s="134" cm="1">
         <f t="array" ref="D55">SUM(D6:G6+D8:G8+D12:G12+D15:G15+D17:G17+D19:G19+D21:G21+D24:G24+D26:G26+D28:G28+D30:G30+D32:G32+D34:G34+D36:G36+D38:G38+D40:G40+D42:G42+D44:G44+D46:G46+D49:G49+D51:G51+D53:G53)</f>
         <v>8</v>
       </c>
-      <c r="E55" s="106"/>
-      <c r="F55" s="106" cm="1">
+      <c r="E55" s="130"/>
+      <c r="F55" s="130" cm="1">
         <f t="array" ref="F55">SUM(D7:G7+D9:G9+D13:G13+D16:G16+D18:G18+D20:G20+D22:G22+D25:G25+D27:G27+D29:G29+D31:G31+D33:G33+D35:G35+D37:G37+D39:G39+D41:G41+D43:G43+D45:G45+D47:G47+D50:G50+D52:G52+D54:G54)</f>
         <v>8</v>
       </c>
-      <c r="G55" s="107"/>
-      <c r="H55" s="111" cm="1">
+      <c r="G55" s="131"/>
+      <c r="H55" s="134" cm="1">
         <f t="array" ref="H55">SUM(H6:K6+H8:K8+H12:K12+H15:K15+H17:K17+H19:K19+H21:K21+H24:K24+H26:K26+H28:K28+H30:K30+H32:K32+H34:K34+H36:K36+H38:K38+H40:K40+H42:K42+H44:K44+H46:K46+H49:K49+H51:K51+H53:K53)</f>
         <v>8</v>
       </c>
-      <c r="I55" s="106"/>
-      <c r="J55" s="106" cm="1">
+      <c r="I55" s="130"/>
+      <c r="J55" s="130" cm="1">
         <f t="array" ref="J55">SUM(H7:K7+H9:K9+H13:K13+H16:K16+H18:K18+H20:K20+H22:K22+H25:K25+H27:K27+H29:K29+H31:K31+H33:K33+H35:K35+H37:K37+H39:K39+H41:K41+H43:K43+H45:K45+H47:K47+H50:K50+H52:K52+H54:K54)</f>
         <v>8</v>
       </c>
-      <c r="K55" s="107"/>
-      <c r="L55" s="115" cm="1">
+      <c r="K55" s="131"/>
+      <c r="L55" s="149" cm="1">
         <f t="array" ref="L55">SUM(L6:O6+L8:O8+L12:O12+L15:O15+L17:O17+L19:O19+L21:O21+L24:O24+L26:O26+L28:O28+L30:O30+L32:O32+L34:O34+L36:O36+L38:O38+L40:O40+L42:O42+L44:O44+L46:O46+L49:O49+L51:O51+L53:O53)</f>
         <v>8</v>
       </c>
-      <c r="M55" s="106"/>
-      <c r="N55" s="106" cm="1">
+      <c r="M55" s="130"/>
+      <c r="N55" s="130" cm="1">
         <f t="array" ref="N55">SUM(L7:O7+L9:O9+L13:O13+L16:O16+L18:O18+L20:O20+L22:O22+L25:O25+L27:O27+L29:O29+L31:O31+L33:O33+L35:O35+L37:O37+L39:O39+L41:O41+L43:O43+L45:O45+L47:O47+L50:O50+L52:O52+L54:O54)</f>
         <v>8</v>
       </c>
-      <c r="O55" s="107"/>
-      <c r="P55" s="111" cm="1">
+      <c r="O55" s="131"/>
+      <c r="P55" s="134" cm="1">
         <f t="array" ref="P55">SUM(P6:S6+P8:S8+P12:S12+P15:S15+P17:S17+P19:S19+P21:S21+P24:S24+P26:S26+P28:S28+P30:S30+P32:S32+P34:S34+P36:S36+P38:S38+P40:S40+P42:S42+P44:S44+P46:S46+P49:S49+P51:S51+P53:S53)</f>
         <v>4</v>
       </c>
-      <c r="Q55" s="106"/>
-      <c r="R55" s="106" cm="1">
+      <c r="Q55" s="130"/>
+      <c r="R55" s="130" cm="1">
         <f t="array" ref="R55">SUM(P7:S7+P9:S9+P13:S13+P16:S16+P18:S18+P20:S20+P22:S22+P25:S25+P27:S27+P29:S29+P31:S31+P33:S33+P35:S35+P37:S37+P39:S39+P41:S41+P43:S43+P45:S45+P47:S47+P50:S50+P52:S52+P54:S54)</f>
         <v>4</v>
       </c>
-      <c r="S55" s="107"/>
-      <c r="T55" s="111" cm="1">
+      <c r="S55" s="131"/>
+      <c r="T55" s="134" cm="1">
         <f t="array" ref="T55">SUM(T6:W6+T8:W8+T12:W12+T15:W15+T17:W17+T19:W19+T21:W21+T24:W24+T26:W26+T28:W28+T30:W30+T32:W32+T34:W34+T36:W36+T38:W38+T40:W40+T42:W42+T44:W44+T46:W46+T49:W49+T51:W51+T53:W53)</f>
         <v>8</v>
       </c>
-      <c r="U55" s="106"/>
-      <c r="V55" s="106" cm="1">
+      <c r="U55" s="130"/>
+      <c r="V55" s="130" cm="1">
         <f t="array" ref="V55">SUM(T7:W7+T9:W9+T13:W13+T16:W16+T18:W18+T20:W20+T22:W22+T25:W25+T27:W27+T29:W29+T31:W31+T33:W33+T35:W35+T37:W37+T39:W39+T41:W41+T43:W43+T45:W45+T47:W47+T50:W50+T52:W52+T54:W54)</f>
         <v>8</v>
       </c>
-      <c r="W55" s="107"/>
-      <c r="X55" s="111" cm="1">
+      <c r="W55" s="131"/>
+      <c r="X55" s="134" cm="1">
         <f t="array" ref="X55">SUM(X6:AA6+X8:AA8+X12:AA12+X15:AA15+X17:AA17+X19:AA19+X21:AA21+X24:AA24+X26:AA26+X28:AA28+X30:AA30+X32:AA32+X34:AA34+X36:AA36+X38:AA38+X40:AA40+X42:AA42+X44:AA44+X46:AA46+X49:AA49+X51:AA51+X53:AA53)</f>
         <v>8</v>
       </c>
-      <c r="Y55" s="106"/>
-      <c r="Z55" s="106" cm="1">
+      <c r="Y55" s="130"/>
+      <c r="Z55" s="130" cm="1">
         <f t="array" ref="Z55">SUM(X7:AA7+X9:AA9+X13:AA13+X16:AA16+X18:AA18+X20:AA20+X22:AA22+X25:AA25+X27:AA27+X29:AA29+X31:AA31+X33:AA33+X35:AA35+X37:AA37+X39:AA39+X41:AA41+X43:AA43+X45:AA45+X47:AA47+X50:AA50+X52:AA52+X54:AA54)</f>
         <v>8</v>
       </c>
-      <c r="AA55" s="113"/>
-      <c r="AB55" s="111" cm="1">
+      <c r="AA55" s="147"/>
+      <c r="AB55" s="134" cm="1">
         <f t="array" ref="AB55">SUM(AB6:AE6+AB8:AE8+AB12:AE12+AB15:AE15+AB17:AE17+AB19:AE19+AB21:AE21+AB24:AE24+AB26:AE26+AB28:AE28+AB30:AE30+AB32:AE32+AB34:AE34+AB36:AE36+AB38:AE38+AB40:AE40+AB42:AE42+AB44:AE44+AB46:AE46+AB49:AE49+AB51:AE51+AB53:AE53)</f>
         <v>8</v>
       </c>
-      <c r="AC55" s="106"/>
-      <c r="AD55" s="106" cm="1">
+      <c r="AC55" s="130"/>
+      <c r="AD55" s="130" cm="1">
         <f t="array" ref="AD55">SUM(AB7:AE7+AB9:AE9+AB13:AE13+AB16:AE16+AB18:AE18+AB20:AE20+AB22:AE22+AB25:AE25+AB27:AE27+AB29:AE29+AB31:AE31+AB33:AE33+AB35:AE35+AB37:AE37+AB39:AE39+AB41:AE41+AB43:AE43+AB45:AE45+AB47:AE47+AB50:AE50+AB52:AE52+AB54:AE54)</f>
         <v>8</v>
       </c>
-      <c r="AE55" s="107"/>
-      <c r="AF55" s="111" cm="1">
+      <c r="AE55" s="131"/>
+      <c r="AF55" s="134" cm="1">
         <f t="array" ref="AF55">SUM(AF6:AI6+AF8:AI8+AF12:AI12+AF15:AI15+AF17:AI17+AF19:AI19+AF21:AI21+AF24:AI24+AF26:AI26+AF28:AI28+AF30:AI30+AF32:AI32+AF34:AI34+AF36:AI36+AF38:AI38+AF40:AI40+AF42:AI42+AF44:AI44+AF46:AI46+AF49:AI49+AF51:AI51+AF53:AI53)</f>
         <v>4</v>
       </c>
-      <c r="AG55" s="106"/>
-      <c r="AH55" s="106" cm="1">
+      <c r="AG55" s="130"/>
+      <c r="AH55" s="130" cm="1">
         <f t="array" ref="AH55">SUM(AF7:AI7+AF9:AI9+AF13:AI13+AF16:AI16+AF18:AI18+AF20:AI20+AF22:AI22+AF25:AI25+AF27:AI27+AF29:AI29+AF31:AI31+AF33:AI33+AF35:AI35+AF37:AI37+AF39:AI39+AF41:AI41+AF43:AI43+AF45:AI45+AF47:AI47+AF50:AI50+AF52:AI52+AF54:AI54)</f>
         <v>4</v>
       </c>
-      <c r="AI55" s="107"/>
-      <c r="AJ55" s="111" cm="1">
+      <c r="AI55" s="131"/>
+      <c r="AJ55" s="134" cm="1">
         <f t="array" ref="AJ55">SUM(AJ6:AM6+AJ8:AM8+AJ12:AM12+AJ15:AM15+AJ17:AM17+AJ19:AM19+AJ21:AM21+AJ24:AM24+AJ26:AM26+AJ28:AM28+AJ30:AM30+AJ32:AM32+AJ34:AM34+AJ36:AM36+AJ38:AM38+AJ40:AM40+AJ42:AM42+AJ44:AM44+AJ46:AM46+AJ49:AM49+AJ51:AM51+AJ53:AM53)</f>
         <v>8</v>
       </c>
-      <c r="AK55" s="106"/>
-      <c r="AL55" s="106" cm="1">
+      <c r="AK55" s="130"/>
+      <c r="AL55" s="130" cm="1">
         <f t="array" ref="AL55">SUM(AJ7:AM7+AJ9:AM9+AJ13:AM13+AJ16:AM16+AJ18:AM18+AJ20:AM20+AJ22:AM22+AJ25:AM25+AJ27:AM27+AJ29:AM29+AJ31:AM31+AJ33:AM33+AJ35:AM35+AJ37:AM37+AJ39:AM39+AJ41:AM41+AJ43:AM43+AJ45:AM45+AJ47:AM47+AJ50:AM50+AJ52:AM52+AJ54:AM54)</f>
         <v>8</v>
       </c>
-      <c r="AM55" s="107"/>
-      <c r="AN55" s="111" cm="1">
+      <c r="AM55" s="131"/>
+      <c r="AN55" s="134" cm="1">
         <f t="array" ref="AN55">SUM(AN6:AQ6+AN8:AQ8+AN12:AQ12+AN15:AQ15+AN17:AQ17+AN19:AQ19+AN21:AQ21+AN24:AQ24+AN26:AQ26+AN28:AQ28+AN30:AQ30+AN32:AQ32+AN34:AQ34+AN36:AQ36+AN38:AQ38+AN40:AQ40+AN42:AQ42+AN44:AQ44+AN46:AQ46+AN49:AQ49+AN51:AQ51+AN53:AQ53)</f>
         <v>8</v>
       </c>
-      <c r="AO55" s="106"/>
-      <c r="AP55" s="106" cm="1">
+      <c r="AO55" s="130"/>
+      <c r="AP55" s="130" cm="1">
         <f t="array" ref="AP55">SUM(AN7:AQ7+AN9:AQ9+AN13:AQ13+AN16:AQ16+AN18:AQ18+AN20:AQ20+AN22:AQ22+AN25:AQ25+AN27:AQ27+AN29:AQ29+AN31:AQ31+AN33:AQ33+AN35:AQ35+AN37:AQ37+AN39:AQ39+AN41:AQ41+AN43:AQ43+AN45:AQ45+AN47:AQ47+AN50:AQ50+AN52:AQ52+AN54:AQ54)</f>
         <v>8</v>
       </c>
-      <c r="AQ55" s="107"/>
-      <c r="AR55" s="111" cm="1">
+      <c r="AQ55" s="131"/>
+      <c r="AR55" s="134" cm="1">
         <f t="array" ref="AR55">SUM(AR6:AU6+AR8:AU8+AR12:AU12+AR15:AU15+AR17:AU17+AR19:AU19+AR21:AU21+AR24:AU24+AR26:AU26+AR28:AU28+AR30:AU30+AR32:AU32+AR34:AU34+AR36:AU36+AR38:AU38+AR40:AU40+AR42:AU42+AR44:AU44+AR46:AU46+AR49:AU49+AR51:AU51+AR53:AU53)</f>
         <v>8</v>
       </c>
-      <c r="AS55" s="106"/>
-      <c r="AT55" s="106" cm="1">
+      <c r="AS55" s="130"/>
+      <c r="AT55" s="130" cm="1">
         <f t="array" ref="AT55">SUM(AR7:AU7+AR9:AU9+AR13:AU13+AR16:AU16+AR18:AU18+AR20:AU20+AR22:AU22+AR25:AU25+AR27:AU27+AR29:AU29+AR31:AU31+AR33:AU33+AR35:AU35+AR37:AU37+AR39:AU39+AR41:AU41+AR43:AU43+AR45:AU45+AR47:AU47+AR50:AU50+AR52:AU52+AR54:AU54)</f>
-        <v>0</v>
-      </c>
-      <c r="AU55" s="107"/>
+        <v>7</v>
+      </c>
+      <c r="AU55" s="131"/>
     </row>
     <row r="56" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="118"/>
-      <c r="B56" s="120"/>
-      <c r="C56" s="122"/>
-      <c r="D56" s="112"/>
-      <c r="E56" s="108"/>
-      <c r="F56" s="108"/>
-      <c r="G56" s="109"/>
-      <c r="H56" s="112"/>
-      <c r="I56" s="108"/>
-      <c r="J56" s="108"/>
-      <c r="K56" s="109"/>
-      <c r="L56" s="116"/>
-      <c r="M56" s="108"/>
-      <c r="N56" s="108"/>
-      <c r="O56" s="109"/>
-      <c r="P56" s="112"/>
-      <c r="Q56" s="108"/>
-      <c r="R56" s="108"/>
-      <c r="S56" s="109"/>
-      <c r="T56" s="112"/>
-      <c r="U56" s="108"/>
-      <c r="V56" s="108"/>
-      <c r="W56" s="109"/>
-      <c r="X56" s="112"/>
-      <c r="Y56" s="108"/>
-      <c r="Z56" s="108"/>
-      <c r="AA56" s="114"/>
-      <c r="AB56" s="112"/>
-      <c r="AC56" s="108"/>
-      <c r="AD56" s="108"/>
-      <c r="AE56" s="109"/>
-      <c r="AF56" s="112"/>
-      <c r="AG56" s="108"/>
-      <c r="AH56" s="108"/>
-      <c r="AI56" s="109"/>
-      <c r="AJ56" s="112"/>
-      <c r="AK56" s="108"/>
-      <c r="AL56" s="108"/>
-      <c r="AM56" s="109"/>
-      <c r="AN56" s="112"/>
-      <c r="AO56" s="108"/>
-      <c r="AP56" s="108"/>
-      <c r="AQ56" s="109"/>
-      <c r="AR56" s="112"/>
-      <c r="AS56" s="108"/>
-      <c r="AT56" s="108"/>
-      <c r="AU56" s="109"/>
+      <c r="A56" s="137"/>
+      <c r="B56" s="139"/>
+      <c r="C56" s="141"/>
+      <c r="D56" s="135"/>
+      <c r="E56" s="132"/>
+      <c r="F56" s="132"/>
+      <c r="G56" s="133"/>
+      <c r="H56" s="135"/>
+      <c r="I56" s="132"/>
+      <c r="J56" s="132"/>
+      <c r="K56" s="133"/>
+      <c r="L56" s="150"/>
+      <c r="M56" s="132"/>
+      <c r="N56" s="132"/>
+      <c r="O56" s="133"/>
+      <c r="P56" s="135"/>
+      <c r="Q56" s="132"/>
+      <c r="R56" s="132"/>
+      <c r="S56" s="133"/>
+      <c r="T56" s="135"/>
+      <c r="U56" s="132"/>
+      <c r="V56" s="132"/>
+      <c r="W56" s="133"/>
+      <c r="X56" s="135"/>
+      <c r="Y56" s="132"/>
+      <c r="Z56" s="132"/>
+      <c r="AA56" s="148"/>
+      <c r="AB56" s="135"/>
+      <c r="AC56" s="132"/>
+      <c r="AD56" s="132"/>
+      <c r="AE56" s="133"/>
+      <c r="AF56" s="135"/>
+      <c r="AG56" s="132"/>
+      <c r="AH56" s="132"/>
+      <c r="AI56" s="133"/>
+      <c r="AJ56" s="135"/>
+      <c r="AK56" s="132"/>
+      <c r="AL56" s="132"/>
+      <c r="AM56" s="133"/>
+      <c r="AN56" s="135"/>
+      <c r="AO56" s="132"/>
+      <c r="AP56" s="132"/>
+      <c r="AQ56" s="133"/>
+      <c r="AR56" s="135"/>
+      <c r="AS56" s="132"/>
+      <c r="AT56" s="132"/>
+      <c r="AU56" s="133"/>
     </row>
     <row r="57" spans="1:47" ht="17" x14ac:dyDescent="0.25">
       <c r="A57" s="6"/>
@@ -5530,94 +5538,94 @@
       <c r="C57" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D57" s="103" t="s">
+      <c r="D57" s="142" t="s">
         <v>14</v>
       </c>
-      <c r="E57" s="104"/>
-      <c r="F57" s="99" t="s">
+      <c r="E57" s="143"/>
+      <c r="F57" s="144" t="s">
         <v>15</v>
       </c>
-      <c r="G57" s="100"/>
-      <c r="H57" s="103" t="s">
+      <c r="G57" s="145"/>
+      <c r="H57" s="142" t="s">
         <v>14</v>
       </c>
-      <c r="I57" s="104"/>
-      <c r="J57" s="99" t="s">
+      <c r="I57" s="143"/>
+      <c r="J57" s="144" t="s">
         <v>15</v>
       </c>
-      <c r="K57" s="100"/>
-      <c r="L57" s="110" t="s">
+      <c r="K57" s="145"/>
+      <c r="L57" s="146" t="s">
         <v>14</v>
       </c>
-      <c r="M57" s="104"/>
-      <c r="N57" s="99" t="s">
+      <c r="M57" s="143"/>
+      <c r="N57" s="144" t="s">
         <v>15</v>
       </c>
-      <c r="O57" s="100"/>
-      <c r="P57" s="103" t="s">
+      <c r="O57" s="145"/>
+      <c r="P57" s="142" t="s">
         <v>14</v>
       </c>
-      <c r="Q57" s="104"/>
-      <c r="R57" s="99" t="s">
+      <c r="Q57" s="143"/>
+      <c r="R57" s="144" t="s">
         <v>15</v>
       </c>
-      <c r="S57" s="100"/>
-      <c r="T57" s="103" t="s">
+      <c r="S57" s="145"/>
+      <c r="T57" s="142" t="s">
         <v>14</v>
       </c>
-      <c r="U57" s="104"/>
-      <c r="V57" s="99" t="s">
+      <c r="U57" s="143"/>
+      <c r="V57" s="144" t="s">
         <v>15</v>
       </c>
-      <c r="W57" s="100"/>
-      <c r="X57" s="103" t="s">
+      <c r="W57" s="145"/>
+      <c r="X57" s="142" t="s">
         <v>14</v>
       </c>
-      <c r="Y57" s="104"/>
-      <c r="Z57" s="99" t="s">
+      <c r="Y57" s="143"/>
+      <c r="Z57" s="144" t="s">
         <v>15</v>
       </c>
-      <c r="AA57" s="105"/>
-      <c r="AB57" s="103" t="s">
+      <c r="AA57" s="156"/>
+      <c r="AB57" s="142" t="s">
         <v>14</v>
       </c>
-      <c r="AC57" s="104"/>
-      <c r="AD57" s="99" t="s">
+      <c r="AC57" s="143"/>
+      <c r="AD57" s="144" t="s">
         <v>15</v>
       </c>
-      <c r="AE57" s="100"/>
-      <c r="AF57" s="103" t="s">
+      <c r="AE57" s="145"/>
+      <c r="AF57" s="142" t="s">
         <v>14</v>
       </c>
-      <c r="AG57" s="104"/>
-      <c r="AH57" s="99" t="s">
+      <c r="AG57" s="143"/>
+      <c r="AH57" s="144" t="s">
         <v>15</v>
       </c>
-      <c r="AI57" s="100"/>
-      <c r="AJ57" s="103" t="s">
+      <c r="AI57" s="145"/>
+      <c r="AJ57" s="142" t="s">
         <v>14</v>
       </c>
-      <c r="AK57" s="104"/>
-      <c r="AL57" s="99" t="s">
+      <c r="AK57" s="143"/>
+      <c r="AL57" s="144" t="s">
         <v>15</v>
       </c>
-      <c r="AM57" s="100"/>
-      <c r="AN57" s="103" t="s">
+      <c r="AM57" s="145"/>
+      <c r="AN57" s="142" t="s">
         <v>14</v>
       </c>
-      <c r="AO57" s="104"/>
-      <c r="AP57" s="99" t="s">
+      <c r="AO57" s="143"/>
+      <c r="AP57" s="144" t="s">
         <v>15</v>
       </c>
-      <c r="AQ57" s="100"/>
-      <c r="AR57" s="103" t="s">
+      <c r="AQ57" s="145"/>
+      <c r="AR57" s="142" t="s">
         <v>14</v>
       </c>
-      <c r="AS57" s="104"/>
-      <c r="AT57" s="99" t="s">
+      <c r="AS57" s="143"/>
+      <c r="AT57" s="144" t="s">
         <v>15</v>
       </c>
-      <c r="AU57" s="100"/>
+      <c r="AU57" s="145"/>
     </row>
     <row r="58" spans="1:47" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="8"/>
@@ -5627,150 +5635,150 @@
       <c r="C58" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="D58" s="96">
+      <c r="D58" s="151">
         <f>D3</f>
         <v>43873</v>
       </c>
-      <c r="E58" s="97"/>
-      <c r="F58" s="97"/>
-      <c r="G58" s="98"/>
-      <c r="H58" s="96">
+      <c r="E58" s="152"/>
+      <c r="F58" s="152"/>
+      <c r="G58" s="153"/>
+      <c r="H58" s="151">
         <f>H3</f>
         <v>43874</v>
       </c>
-      <c r="I58" s="97"/>
-      <c r="J58" s="97"/>
-      <c r="K58" s="98"/>
-      <c r="L58" s="101">
+      <c r="I58" s="152"/>
+      <c r="J58" s="152"/>
+      <c r="K58" s="153"/>
+      <c r="L58" s="154">
         <f>L3</f>
         <v>43875</v>
       </c>
-      <c r="M58" s="97"/>
-      <c r="N58" s="97"/>
-      <c r="O58" s="98"/>
-      <c r="P58" s="96">
+      <c r="M58" s="152"/>
+      <c r="N58" s="152"/>
+      <c r="O58" s="153"/>
+      <c r="P58" s="151">
         <f>P3</f>
         <v>43878</v>
       </c>
-      <c r="Q58" s="97"/>
-      <c r="R58" s="97"/>
-      <c r="S58" s="98"/>
-      <c r="T58" s="96">
+      <c r="Q58" s="152"/>
+      <c r="R58" s="152"/>
+      <c r="S58" s="153"/>
+      <c r="T58" s="151">
         <f>T3</f>
         <v>43880</v>
       </c>
-      <c r="U58" s="97"/>
-      <c r="V58" s="97"/>
-      <c r="W58" s="98"/>
-      <c r="X58" s="96">
+      <c r="U58" s="152"/>
+      <c r="V58" s="152"/>
+      <c r="W58" s="153"/>
+      <c r="X58" s="151">
         <f>X3</f>
         <v>43881</v>
       </c>
-      <c r="Y58" s="97"/>
-      <c r="Z58" s="97"/>
-      <c r="AA58" s="102"/>
-      <c r="AB58" s="96">
+      <c r="Y58" s="152"/>
+      <c r="Z58" s="152"/>
+      <c r="AA58" s="155"/>
+      <c r="AB58" s="151">
         <f>AB3</f>
         <v>43882</v>
       </c>
-      <c r="AC58" s="97"/>
-      <c r="AD58" s="97"/>
-      <c r="AE58" s="98"/>
-      <c r="AF58" s="96">
+      <c r="AC58" s="152"/>
+      <c r="AD58" s="152"/>
+      <c r="AE58" s="153"/>
+      <c r="AF58" s="151">
         <f>AF3</f>
         <v>43885</v>
       </c>
-      <c r="AG58" s="97"/>
-      <c r="AH58" s="97"/>
-      <c r="AI58" s="98"/>
-      <c r="AJ58" s="96">
+      <c r="AG58" s="152"/>
+      <c r="AH58" s="152"/>
+      <c r="AI58" s="153"/>
+      <c r="AJ58" s="151">
         <f>AJ3</f>
         <v>43887</v>
       </c>
-      <c r="AK58" s="97"/>
-      <c r="AL58" s="97"/>
-      <c r="AM58" s="98"/>
-      <c r="AN58" s="96">
+      <c r="AK58" s="152"/>
+      <c r="AL58" s="152"/>
+      <c r="AM58" s="153"/>
+      <c r="AN58" s="151">
         <f>AN3</f>
         <v>43888</v>
       </c>
-      <c r="AO58" s="97"/>
-      <c r="AP58" s="97"/>
-      <c r="AQ58" s="98"/>
-      <c r="AR58" s="96">
+      <c r="AO58" s="152"/>
+      <c r="AP58" s="152"/>
+      <c r="AQ58" s="153"/>
+      <c r="AR58" s="151">
         <f>AR3</f>
         <v>43889</v>
       </c>
-      <c r="AS58" s="97"/>
-      <c r="AT58" s="97"/>
-      <c r="AU58" s="98"/>
+      <c r="AS58" s="152"/>
+      <c r="AT58" s="152"/>
+      <c r="AU58" s="153"/>
     </row>
     <row r="59" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="60" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="93" t="s">
+      <c r="A60" s="160" t="s">
         <v>37</v>
       </c>
-      <c r="B60" s="94"/>
-      <c r="C60" s="95"/>
+      <c r="B60" s="161"/>
+      <c r="C60" s="162"/>
     </row>
     <row r="61" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A61" s="91" t="s">
+      <c r="A61" s="159" t="s">
         <v>38</v>
       </c>
-      <c r="B61" s="92"/>
+      <c r="B61" s="89"/>
       <c r="C61" s="18"/>
     </row>
     <row r="62" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A62" s="91" t="s">
+      <c r="A62" s="159" t="s">
         <v>39</v>
       </c>
-      <c r="B62" s="92"/>
+      <c r="B62" s="89"/>
       <c r="C62" s="19"/>
     </row>
     <row r="63" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A63" s="91" t="s">
+      <c r="A63" s="159" t="s">
         <v>40</v>
       </c>
-      <c r="B63" s="92"/>
+      <c r="B63" s="89"/>
       <c r="C63" s="20"/>
     </row>
     <row r="64" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A64" s="91" t="s">
+      <c r="A64" s="159" t="s">
         <v>41</v>
       </c>
-      <c r="B64" s="92"/>
+      <c r="B64" s="89"/>
       <c r="C64" s="21"/>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A65" s="91" t="s">
+      <c r="A65" s="159" t="s">
         <v>42</v>
       </c>
-      <c r="B65" s="92"/>
+      <c r="B65" s="89"/>
       <c r="C65" s="22"/>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A66" s="91" t="s">
+      <c r="A66" s="159" t="s">
         <v>12</v>
       </c>
-      <c r="B66" s="92"/>
+      <c r="B66" s="89"/>
       <c r="C66" s="23" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A67" s="91" t="s">
+      <c r="A67" s="159" t="s">
         <v>13</v>
       </c>
-      <c r="B67" s="92"/>
+      <c r="B67" s="89"/>
       <c r="C67" s="23" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="89" t="s">
+      <c r="A68" s="157" t="s">
         <v>45</v>
       </c>
-      <c r="B68" s="90"/>
+      <c r="B68" s="158"/>
       <c r="C68" s="24"/>
     </row>
     <row r="69" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
@@ -5811,32 +5819,145 @@
     </row>
   </sheetData>
   <mergeCells count="189">
-    <mergeCell ref="A1:C3"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="L1:O1"/>
-    <mergeCell ref="P1:S1"/>
-    <mergeCell ref="T1:W1"/>
-    <mergeCell ref="H2:K2"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="P2:S2"/>
-    <mergeCell ref="T2:W2"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="AF2:AI2"/>
-    <mergeCell ref="AJ2:AM2"/>
-    <mergeCell ref="H3:K3"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="P3:S3"/>
-    <mergeCell ref="T3:W3"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="R4:S4"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A60:C60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="AN58:AQ58"/>
+    <mergeCell ref="AR58:AU58"/>
+    <mergeCell ref="AT57:AU57"/>
+    <mergeCell ref="D58:G58"/>
+    <mergeCell ref="H58:K58"/>
+    <mergeCell ref="L58:O58"/>
+    <mergeCell ref="P58:S58"/>
+    <mergeCell ref="T58:W58"/>
+    <mergeCell ref="X58:AA58"/>
+    <mergeCell ref="AB58:AE58"/>
+    <mergeCell ref="AF58:AI58"/>
+    <mergeCell ref="AJ58:AM58"/>
+    <mergeCell ref="AH57:AI57"/>
+    <mergeCell ref="AJ57:AK57"/>
+    <mergeCell ref="AL57:AM57"/>
+    <mergeCell ref="AN57:AO57"/>
+    <mergeCell ref="AP57:AQ57"/>
+    <mergeCell ref="AR57:AS57"/>
+    <mergeCell ref="V57:W57"/>
+    <mergeCell ref="X57:Y57"/>
+    <mergeCell ref="Z57:AA57"/>
+    <mergeCell ref="AB57:AC57"/>
+    <mergeCell ref="AD57:AE57"/>
+    <mergeCell ref="AF57:AG57"/>
+    <mergeCell ref="AT55:AU56"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="F57:G57"/>
+    <mergeCell ref="H57:I57"/>
+    <mergeCell ref="J57:K57"/>
+    <mergeCell ref="L57:M57"/>
+    <mergeCell ref="N57:O57"/>
+    <mergeCell ref="P57:Q57"/>
+    <mergeCell ref="R57:S57"/>
+    <mergeCell ref="T57:U57"/>
+    <mergeCell ref="AH55:AI56"/>
+    <mergeCell ref="AJ55:AK56"/>
+    <mergeCell ref="AL55:AM56"/>
+    <mergeCell ref="AN55:AO56"/>
+    <mergeCell ref="AP55:AQ56"/>
+    <mergeCell ref="AR55:AS56"/>
+    <mergeCell ref="V55:W56"/>
+    <mergeCell ref="X55:Y56"/>
+    <mergeCell ref="Z55:AA56"/>
+    <mergeCell ref="AB55:AC56"/>
+    <mergeCell ref="AD55:AE56"/>
+    <mergeCell ref="AF55:AG56"/>
+    <mergeCell ref="J55:K56"/>
+    <mergeCell ref="L55:M56"/>
+    <mergeCell ref="N55:O56"/>
+    <mergeCell ref="P55:Q56"/>
+    <mergeCell ref="R55:S56"/>
+    <mergeCell ref="T55:U56"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="D55:E56"/>
+    <mergeCell ref="F55:G56"/>
+    <mergeCell ref="H55:I56"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="AR4:AS4"/>
+    <mergeCell ref="AT4:AU4"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="AJ4:AK4"/>
+    <mergeCell ref="AL4:AM4"/>
+    <mergeCell ref="T4:U4"/>
+    <mergeCell ref="V4:W4"/>
     <mergeCell ref="AN1:AQ1"/>
     <mergeCell ref="AR1:AU1"/>
     <mergeCell ref="AN2:AQ2"/>
@@ -5861,145 +5982,32 @@
     <mergeCell ref="AJ1:AM1"/>
     <mergeCell ref="X2:AA2"/>
     <mergeCell ref="AB2:AE2"/>
-    <mergeCell ref="AR4:AS4"/>
-    <mergeCell ref="AT4:AU4"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="AJ4:AK4"/>
-    <mergeCell ref="AL4:AM4"/>
-    <mergeCell ref="T4:U4"/>
-    <mergeCell ref="V4:W4"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="N55:O56"/>
-    <mergeCell ref="P55:Q56"/>
-    <mergeCell ref="R55:S56"/>
-    <mergeCell ref="T55:U56"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="D55:E56"/>
-    <mergeCell ref="F55:G56"/>
-    <mergeCell ref="H55:I56"/>
-    <mergeCell ref="AT55:AU56"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="F57:G57"/>
-    <mergeCell ref="H57:I57"/>
-    <mergeCell ref="J57:K57"/>
-    <mergeCell ref="L57:M57"/>
-    <mergeCell ref="N57:O57"/>
-    <mergeCell ref="P57:Q57"/>
-    <mergeCell ref="R57:S57"/>
-    <mergeCell ref="T57:U57"/>
-    <mergeCell ref="AH55:AI56"/>
-    <mergeCell ref="AJ55:AK56"/>
-    <mergeCell ref="AL55:AM56"/>
-    <mergeCell ref="AN55:AO56"/>
-    <mergeCell ref="AP55:AQ56"/>
-    <mergeCell ref="AR55:AS56"/>
-    <mergeCell ref="V55:W56"/>
-    <mergeCell ref="X55:Y56"/>
-    <mergeCell ref="Z55:AA56"/>
-    <mergeCell ref="AB55:AC56"/>
-    <mergeCell ref="AD55:AE56"/>
-    <mergeCell ref="AF55:AG56"/>
-    <mergeCell ref="J55:K56"/>
-    <mergeCell ref="L55:M56"/>
-    <mergeCell ref="AN58:AQ58"/>
-    <mergeCell ref="AR58:AU58"/>
-    <mergeCell ref="AT57:AU57"/>
-    <mergeCell ref="D58:G58"/>
-    <mergeCell ref="H58:K58"/>
-    <mergeCell ref="L58:O58"/>
-    <mergeCell ref="P58:S58"/>
-    <mergeCell ref="T58:W58"/>
-    <mergeCell ref="X58:AA58"/>
-    <mergeCell ref="AB58:AE58"/>
-    <mergeCell ref="AF58:AI58"/>
-    <mergeCell ref="AJ58:AM58"/>
-    <mergeCell ref="AH57:AI57"/>
-    <mergeCell ref="AJ57:AK57"/>
-    <mergeCell ref="AL57:AM57"/>
-    <mergeCell ref="AN57:AO57"/>
-    <mergeCell ref="AP57:AQ57"/>
-    <mergeCell ref="AR57:AS57"/>
-    <mergeCell ref="V57:W57"/>
-    <mergeCell ref="X57:Y57"/>
-    <mergeCell ref="Z57:AA57"/>
-    <mergeCell ref="AB57:AC57"/>
-    <mergeCell ref="AD57:AE57"/>
-    <mergeCell ref="AF57:AG57"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="A60:C60"/>
-    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="AF2:AI2"/>
+    <mergeCell ref="AJ2:AM2"/>
+    <mergeCell ref="H3:K3"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="P3:S3"/>
+    <mergeCell ref="T3:W3"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="R4:S4"/>
+    <mergeCell ref="A1:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="L1:O1"/>
+    <mergeCell ref="P1:S1"/>
+    <mergeCell ref="T1:W1"/>
+    <mergeCell ref="H2:K2"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="P2:S2"/>
+    <mergeCell ref="T2:W2"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="D2:G2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="D6:AU6 D8:AU8 D12:J12 L12:AU12 K13 D44:AR44 AT44:AU44 AR45">

--- a/02_zeitplan/IPA_Zeitplan_Kabilan_Sivanamam.xlsx
+++ b/02_zeitplan/IPA_Zeitplan_Kabilan_Sivanamam.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kabi/Documents/GitHub/IPA2020/02_zeitplan/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA07137A-1BF9-6F4A-926A-571411D8C911}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43CD6565-B548-CB45-812D-E8CB7CC1B73D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" xr2:uid="{919B10DA-F269-3C46-8A86-B94EB657325B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{919B10DA-F269-3C46-8A86-B94EB657325B}"/>
   </bookViews>
   <sheets>
     <sheet name="Zeitplan v1" sheetId="1" r:id="rId1"/>
@@ -2142,8 +2142,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE2EA0AA-2CD7-9C47-95CA-C0AE6CDA2CB2}">
   <dimension ref="A1:AU74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="75" workbookViewId="0">
-      <selection activeCell="AF39" sqref="AF39"/>
+    <sheetView tabSelected="1" zoomScale="66" workbookViewId="0">
+      <selection activeCell="AD41" sqref="AD41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2654,7 +2654,7 @@
       </c>
       <c r="C8" s="113">
         <f>SUM(D9:AU9)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D8" s="36"/>
       <c r="E8" s="34">
@@ -2764,7 +2764,9 @@
       <c r="AT9" s="39">
         <v>2</v>
       </c>
-      <c r="AU9" s="40"/>
+      <c r="AU9" s="40">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A10" s="75" t="s">
@@ -5368,7 +5370,7 @@
       </c>
       <c r="C55" s="140">
         <f>SUM(C6:C54)</f>
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D55" s="134" cm="1">
         <f t="array" ref="D55">SUM(D6:G6+D8:G8+D12:G12+D15:G15+D17:G17+D19:G19+D21:G21+D24:G24+D26:G26+D28:G28+D30:G30+D32:G32+D34:G34+D36:G36+D38:G38+D40:G40+D42:G42+D44:G44+D46:G46+D49:G49+D51:G51+D53:G53)</f>
@@ -5477,7 +5479,7 @@
       <c r="AS55" s="130"/>
       <c r="AT55" s="130" cm="1">
         <f t="array" ref="AT55">SUM(AR7:AU7+AR9:AU9+AR13:AU13+AR16:AU16+AR18:AU18+AR20:AU20+AR22:AU22+AR25:AU25+AR27:AU27+AR29:AU29+AR31:AU31+AR33:AU33+AR35:AU35+AR37:AU37+AR39:AU39+AR41:AU41+AR43:AU43+AR45:AU45+AR47:AU47+AR50:AU50+AR52:AU52+AR54:AU54)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AU55" s="131"/>
     </row>
